--- a/KF-ATTITUDE.xlsx
+++ b/KF-ATTITUDE.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D42A14-9553-4D7D-A0F3-E96C49473998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93699174-7695-4D9A-8066-7044C8CDAD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$B$12:$B$112</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$D$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$D$12:$D$112</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$F$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$F$12:$F$112</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$H$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$H$12:$H$112</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>c</t>
   </si>
@@ -113,6 +122,9 @@
   <si>
     <t>x_t = c*x_t-1 + w_t</t>
   </si>
+  <si>
+    <t>z_t - actual state</t>
+  </si>
 </sst>
 </file>
 
@@ -189,6 +201,4338 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACTUAL STATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$D$12:$D$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.604000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4119200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2236816000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0392079680000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8584238086400013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6812553324672006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5076302258178558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3374776213014989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1707280688754693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.00731350749796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8471672373480006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6902238926010407</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5364194147490196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3856910264540394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2379772059249587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0932176618064595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9513533085703303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8123262423989237</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6760797175509454</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5425581231999264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4117069607359278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.283472821521209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1578033650907846</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0346472977889691</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9139543518331896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7956752647965262</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6797617595005958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5661665243105842</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4548431938243729</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3457463299478851</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2388314033489269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1340547752819479</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0313736797763084</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9307462061807819</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8321312820571665</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.735488656416023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6407788832877026</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5479633056219484</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.457004039509509</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3678639587193189</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2805066795449322</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1948965459540339</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1109986150349531</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0287786427342542</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9482030698795691</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8692390084819777</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7918542283123382</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7160171437460914</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6416968008711694</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5688628648537462</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4974856075566714</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.4275358954055379</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3589851774974271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2918054739474787</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2259693644685292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1614499771791587</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0982209776355756</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0362565580828642</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.975531426921207</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.9160207983827826</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.857700382415127</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8005463747668244</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.7445354472714878</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.689644738326058</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6358518435595366</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5831348066883457</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5314721105545788</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4808426683434872</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4312258149766173</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.382601298677085</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.3349492727035432</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2882502872494723</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2424852815044827</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1976355758743931</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.153682864356905</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1106092070697668</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0683970229283717</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0270290824698041</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9864885008204078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9467587308039997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9078235561879198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8696670850641612</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.832273743362878</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7956282684956204</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.759715703125708</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7245213890631939</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.69003096128193</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6562303420562914</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6231057352151654</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5906436205108621</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5588307481006447</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5276541331386317</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4971010504758591</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4671590294663419</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.437815848877015</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4090595318994747</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3808783412614851</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3532607744362555</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3261955589475303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D3D-4FA3-99D4-E62F84AD7025}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$F$12:$F$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10.019412918246809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.191754100436373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5084271894085575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3928558542873652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.177837547308151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9232288052466853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6133851370418064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4644573485789518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5830749268426345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.589129854364792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3501364076319167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9900311394860735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9854291907644495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7270519167316891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6049638891468723</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4901925125019151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3633742370705182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1706689186462285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1626440028251102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6782984714976994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3487295525544392</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1444267188594726</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5092332898495577</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4148461002557511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9394042718555635</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1553871249294509</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2436463972887752</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9320090443096847</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4933495591760115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5346128999988311</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4577567684718273</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3425259664860967</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9609557412685117</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3436042709711407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9982823505741676</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0119396633215496</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6876046331809915</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.612866264288094</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.2784855160883541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9067633863003675</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5528427566430301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5094295060055662</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.150859845866731</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1186226073407601</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8089162503096241</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1468298445765335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2895087018807434</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9688450600036327</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9284324096175509</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8767936141828763</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5786671234662277</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.6926821626759159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3231592376032402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.3772917186000244</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.4996599932655932</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3512204720100915</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4456189672680475</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8398391975080242</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1493927536468074</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4512730664196538</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1366241936201997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.7112460685175366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9651948345507542</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0170959371277744</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.7375194791944994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3616988281410807</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.4824015036271971</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5878052084206469</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7193560364356975</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.8330281137887665</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4631156915533849</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.4943487737035208</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2217070282396172</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2032097010070331</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.5277388109563921</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.4681696785070248</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8584059010265976</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.5316611219658105</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.86128229918803</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.1243383359605867</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8828518099979452</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.2045545546759748</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9973840784057384</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5101637637333301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8717897734197362</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7707385185415858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.7056286982700548</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.982320202118665</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7210673741229294</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5058688306311871</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5983706780267224</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2836766682109721</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7336664014604293</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.673847938805743</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4713091095822053</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4333712805512515</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5839681584740106</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2524772458447853</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5490070441070261</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3150875589722215</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6545271381312863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D3D-4FA3-99D4-E62F84AD7025}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEASUREMENT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$H$12:$H$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>9.8702259292299814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.217198770913486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3955847103202874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3445107090224049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6607567453641607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7979245901422907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9689881103801099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2178468269581995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5302209625795005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1763190715179945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6524104628233456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3331967818762962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.342328046946502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8603917460889035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8239145397407297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.699786685676842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1562413021286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8722249942679472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0135378662319576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8955200107321346</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2776465650397277</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9391062439594293</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5023784086140015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2351793356453964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6182333383717182</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.2843918480069609</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3228984070758054</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7919875628682034</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6580502775352572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8678075325648598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2265287869569121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5189841768776997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.8621917500448388</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7932122765440752</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0529369115448084</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.1988733035969084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5216114078099707</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7677651005225696</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3821661336573108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8308526939058032</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6162594867755784</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3851299746428056</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.0409770371338745</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1182958170913313</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7639953681196703</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1946522806674942</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.1204193446699806</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.584645147813414</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5863575819443501</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7628648271442735</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0750605053665492</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7442967776096037</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3914814367377972</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0772169425529827</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.388183732273935</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5435919688179256</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.470158679046333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8556993059114228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1547239241554066</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6709326602440062</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2170611029002796</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0164362924238968</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0221395443351788</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.2794869574649548</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1325510085528698</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.2942793007542872</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6377899517021213</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5997466542480714</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7706125275628191</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7102846738227049</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.421451795589503</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5891724856816096</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4781947538623479</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4821908954464869</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4248455805077138</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.3397710836660499</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0460689228223772</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0687128398860715</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7839132655302028</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.1027355981419467</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8253778506397387</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.2957753459109056</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0135210060435442</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6618811068192894</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0003024176591664</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9241035840445566</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9906910187925706</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1561199381060323</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8124877522198573</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.688309991885284</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7491235964195393</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3183584658739051</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7574955866661073</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2989303523142199</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5319621729687378</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4035421279133422</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5567591986011522</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3375506482670962</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6787181266406284</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2134318173274574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.9399513641236956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D3D-4FA3-99D4-E62F84AD7025}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="707188528"/>
+        <c:axId val="707186560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="707188528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707186560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="707186560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707188528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z_t - actual state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$J$12:$J$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-0.12977407077001857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41719877091348501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20841528967971357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.7409290977595404E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.56292485463584008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.24128337785771059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11056430174010856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.46340850550900115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2590736761644692E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.16115854978350441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48168239394787626</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3258832743783362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49516080959850139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17016785348786279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28749512499171015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31409565922280258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.1735903796358755E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22099266753851232</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2184557661627338E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3193768333210905E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.39843315251121769</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.60345187924049704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0671447878073685E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.8293485875812614E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.5395700267190664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2497445502179918</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.40894405524261579</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.6877019283227952E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1711481965338564E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30164100825427553</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.22831440686746074</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17323784692981459</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.37663965330408811</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65915750126212735</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1563231768499946E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2681270974161265</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.31051987424719574</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.227644410654662E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.25861274963039182</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.28288938828385479</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15925544726606944</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7266015923486755E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.23952964241105779</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.6600728862702638E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.34700324691528284</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.16587363793323995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17221627479041146</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.28459386066856363</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.20549664636798814</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.6847683398182127E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43336370449537975</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17543391275585751</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.10600417081887414</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.35031895285255521</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9198554776507901E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25178649487044691</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2441893145778038</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.30575067126773581</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.650294651983101E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.36532389783885799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.2415296759790726</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.10041549404111416</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.16443916192005181</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.47894058269813033</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.38801556128138204</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.39536543757177078</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9381081425846602E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6611847559725668E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.23914041700824029</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.22944200547921767</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-9.7740193871143077E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20657118700452459</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14324548115880464</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.19394060819701453</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.18236029900323114</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.14213550779165685</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.10761394153452786</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.95810363281630462</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.28448375739816889</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5706515672142594E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.16111065018066917</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.34901661510690585</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.10569744985562446</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.20778597824487188</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.16802867429628843</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.12847531554893621</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.23097531566686258</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.43159854904283845</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.12245679093792727</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.2079649828992585E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.12601786120437386</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.27228515463695691</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.19866483856546258</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.2287237808244118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.486112249287876E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-6.3616901552999705E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.11894334972413723</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-7.1508883632378506E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.29783978537914324</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.13982895710879806</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.61375580517616535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13B2-4558-9976-2CC1B2E39F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="502317624"/>
+        <c:axId val="502319920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="502317624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502319920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="502319920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502317624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DA2BD8-7E31-4DC6-AA3B-3FDFE4E152EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0D35F2-FCBE-41FE-AB52-A78A2E503144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB10ABEC-9FAA-40D5-98F6-F0A3D0D05DE8}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +4899,7 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -564,7 +4908,7 @@
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
@@ -580,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>24</v>
@@ -606,7 +4950,7 @@
       </c>
       <c r="B7">
         <f>(B6-B5)/((MAX(A12:A112)-MIN(A12:A112)))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -624,7 +4968,7 @@
       </c>
       <c r="B8">
         <f>B5</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -668,6 +5012,9 @@
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -675,7 +5022,7 @@
       </c>
       <c r="B12" s="2">
         <f>A12*$B$7+$B$8</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>E2</f>
@@ -683,19 +5030,23 @@
       </c>
       <c r="E12">
         <f ca="1">NORMINV(RAND(),$H$2,$H$3)</f>
-        <v>1.2979815783460675E-2</v>
+        <v>1.9412918246809383E-2</v>
       </c>
       <c r="F12">
         <f ca="1">D12+E12</f>
-        <v>10.01297981578346</v>
+        <v>10.019412918246809</v>
       </c>
       <c r="G12">
         <f ca="1">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>-3.3719707217839401E-2</v>
+        <v>-0.14918698901682789</v>
       </c>
       <c r="H12">
         <f ca="1">F12+G12</f>
-        <v>9.9792601085656205</v>
+        <v>9.8702259292299814</v>
+      </c>
+      <c r="J12">
+        <f ca="1">H12-D12</f>
+        <v>-0.12977407077001857</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -704,7 +5055,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:B76" si="0">A13*$B$7+$B$8</f>
-        <v>-9.8000000000000007</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
         <f>$B$2*D12</f>
@@ -712,19 +5063,23 @@
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E76" ca="1" si="1">NORMINV(RAND(),$H$2,$H$3)</f>
-        <v>0.10465159654220282</v>
+        <v>0.39175410043637304</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>9.9046515965422035</v>
+        <v>10.191754100436373</v>
       </c>
       <c r="G13">
         <f ca="1">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>6.4485964387560643E-2</v>
+        <v>2.5444670477111915E-2</v>
       </c>
       <c r="H13">
         <f ca="1">F13+G13</f>
-        <v>9.9691375609297648</v>
+        <v>10.217198770913486</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J76" ca="1" si="2">H13-D13</f>
+        <v>0.41719877091348501</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -733,27 +5088,31 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>-9.6</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D77" si="2">$B$2*D13</f>
+        <f t="shared" ref="D14:D77" si="3">$B$2*D13</f>
         <v>9.604000000000001</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0322677073436851E-2</v>
+        <v>-9.5572810591443E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F77" ca="1" si="3">D14+E14</f>
-        <v>9.5836773229265635</v>
+        <f t="shared" ref="F14:F77" ca="1" si="4">D14+E14</f>
+        <v>9.5084271894085575</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G77" ca="1" si="4">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>0.14110261482566774</v>
+        <f t="shared" ref="G14:G77" ca="1" si="5">NORMINV(RAND(),$K$2,$K$3)</f>
+        <v>-0.11284247908826986</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H77" ca="1" si="5">F14+G14</f>
-        <v>9.7247799377522313</v>
+        <f t="shared" ref="H14:H77" ca="1" si="6">F14+G14</f>
+        <v>9.3955847103202874</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.20841528967971357</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -762,27 +5121,31 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>-9.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4119200000000003</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10140070488631146</v>
+        <v>-1.906414571263422E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.5133207048863113</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.3928558542873652</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5008141618031607E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.8345145264959734E-2</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.5583288465043434</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.3445107090224049</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.7409290977595404E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -791,2814 +5154,3203 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>-9.1999999999999993</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2236816000000008</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6765980431379873E-2</v>
+        <v>-4.5844052691849324E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.2069156195686208</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.177837547308151</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.15540290628971254</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.51708080194398975</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.0515127132789086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.6607567453641607</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.56292485463584008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0392079680000013</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4625440260226908E-2</v>
+        <v>-0.11597916275331531</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.0145825277397744</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.9232288052466853</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.0655615715869453E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.12530421510439449</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.9939269120239054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.7979245901422907</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.24128337785771059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>-8.8000000000000007</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8584238086400013</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.212294169538745E-2</v>
+        <v>-0.24503867159819481</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.9205467503353884</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.6133851370418064</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.8541518191793732E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.35560297333830326</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.8920052321435943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.9689881103801099</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11056430174010856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>-8.6</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6812553324672006</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.04319783799605E-2</v>
+        <v>-0.21679798388824839</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6108233540872394</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.4644573485789518</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.7234801614166936E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.24661052162075309</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.5435885524730732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.2178468269581995</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.46340850550900115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>-8.4</v>
+        <v>0.8</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5076302258178558</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7120138467815255E-2</v>
+        <v>7.5444701024777891E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4905100873500405</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.5830749268426345</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16810376893575996</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.285396426313415E-2</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6586138562858004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.5302209625795005</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2590736761644692E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>-8.1999999999999993</v>
+        <v>0.9</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3374776213014989</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5833531018553391E-2</v>
+        <v>0.25165223306329282</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.261644090282946</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.589129854364792</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.12174068779968682</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.41281078284679751</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.3833847780826325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1763190715179945</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.16115854978350441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1707280688754693</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13973189182078552</v>
+        <v>0.1794083387564476</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3104599606962548</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3501364076319167</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8188612672728313E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.30227405519142847</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.3786485733689826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.6524104628233456</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48168239394787626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>11</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>-7.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.00731350749796</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7632909532960795E-2</v>
+        <v>-1.7282368011886467E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9196805979649989</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.9900311394860735</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.0877731192344195E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34316564239022201</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.8888028667726546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.3331967818762962</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3258832743783362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>12</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>-7.6</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8471672373480006</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.071084888422876E-2</v>
+        <v>0.13826195341644898</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8264563884637717</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.9854291907644495</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.20780881990304004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3568988561820523</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.618647568560732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.342328046946502</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49516080959850139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>13</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>-7.4</v>
+        <v>1.3</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6902238926010407</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3296680639763263E-2</v>
+        <v>3.6828024130648819E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7835205732408035</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.7270519167316891</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.11425463433247784</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13333982935721408</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6692659389083255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.8603917460889035</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17016785348786279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>14</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>-7.1999999999999993</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5364194147490196</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8195577381071988E-2</v>
+        <v>6.8544474397852481E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5746149921300914</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.6049638891468723</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.10656561836581276</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21895065059385704</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.4680493737642788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.8239145397407297</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28749512499171015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>15</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>1.5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3856910264540394</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7549010230370123E-2</v>
+        <v>0.10450148604787526</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3281420162236692</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.4901925125019151</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.0460454427600034E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20959417317492723</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.2376815617960695</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.699786685676842</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31409565922280258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>16</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>-6.8</v>
+        <v>1.6</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2379772059249587</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12688298649626509</v>
+        <v>0.12539703114555947</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.364860192421224</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.3633742370705182</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.15048688693449924</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.20713293494191798</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.214373305486725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.1562413021286</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8.1735903796358755E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>17</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>-6.6</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0932176618064595</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.836208640160439E-2</v>
+        <v>7.7451256839768751E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1915797482080643</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.1706689186462285</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.2708099713746833E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.29844392437828104</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.1948505581794393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.8722249942679472</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.22099266753851232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>18</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>-6.4</v>
+        <v>1.8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9513533085703303</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0399030626098158E-2</v>
+        <v>0.21129069425478014</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9409542779442317</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.1626440028251102</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.10989952643945888</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.1491061365931525</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.831054751504773</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.0135378662319576</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.2184557661627338E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>-6.1999999999999993</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8123262423989237</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0003699725607813E-2</v>
+        <v>-0.1340277709012245</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7423225426733158</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.6782984714976994</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1229573913874062E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21722153923443557</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.8035521165871895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.8955200107321346</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3193768333210905E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6760797175509454</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.132440471215962</v>
+        <v>-0.32735016499650627</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.8085201887669076</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.3487295525544392</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.4530510021338834E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.1082987514711093E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.8430506987882467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2776465650397277</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.39843315251121769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>21</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>-5.8</v>
+        <v>2.1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5425581231999264</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8328207650802227E-2</v>
+        <v>-0.39813140434045413</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5608863308507281</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.1444267188594726</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7161092141266222E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.20532047490004329</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.5636024400648552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.9391062439594293</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.60345187924049704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>22</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>-5.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4117069607359278</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0147172970941149E-4</v>
+        <v>9.7526329113629753E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4109054890062183</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5092332898495577</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="4"/>
-        <v>-7.8977604313304708E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-6.8548812355566126E-3</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.3319278846929139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.5023784086140015</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.0671447878073685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>23</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>-5.3999999999999995</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.283472821521209</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8845509954856355E-2</v>
+        <v>0.13137327873454233</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2046273115663526</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.4148461002557511</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.0787080833740271E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.17966676461035438</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.2254143924000926</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2351793356453964</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.8293485875812614E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>24</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>-5.1999999999999993</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1578033650907846</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16543497955299749</v>
+        <v>-0.21839909323522094</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3232383446437819</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9394042718555635</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7433941053616008E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.32117093348384562</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.3706722856973981</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.6182333383717182</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.5395700267190664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>25</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2.5</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0346472977889691</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.127048624358819</v>
+        <v>0.12073982714048173</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1616959221477883</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.1553871249294509</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.5966029512308376E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12900472307751035</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.2476619516600964</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2843918480069609</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2497445502179918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>26</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>-4.8</v>
+        <v>2.6</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9139543518331896</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2554004854098064E-3</v>
+        <v>0.32969204545558539</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9126989513477799</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.2436463972887752</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.6716106359797193E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.9252009787030453E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.9994150577075773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.3228984070758054</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40894405524261579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>27</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>-4.5999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7956752647965262</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5173423198417708E-3</v>
+        <v>0.13633377951315823</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.7941579224766846</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9320090443096847</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.19507996315132622</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.14002148144148124</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.5990779593253581</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7919875628682034</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.6877019283227952E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>28</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>-4.3999999999999995</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6797617595005958</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0376777529584252E-4</v>
+        <v>-0.18641220032458392</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.6802655272758917</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4933495591760115</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.390833780707957E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16470071835924593</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.7341738650829717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.6580502775352572</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.1711481965338564E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>29</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>-4.1999999999999993</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5661665243105842</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2760031622605572E-2</v>
+        <v>-3.1553624311753126E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.62892655593319</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.5346128999988311</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8347811534545878E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.33319463256602894</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.6472743674677357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.8678075325648598</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30164100825427553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>30</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4548431938243729</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4772526434348398E-2</v>
+        <v>2.9135746474543791E-3</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4996157202587215</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4577567684718273</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.9804076540910243E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.23122798151491561</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.449811643717811</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2265287869569121</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.22831440686746074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>31</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>-3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3457463299478851</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6818040184951341E-2</v>
+        <v>-3.2203634617880869E-3</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2789282897629342</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3425259664860967</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.8680417050065293E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17645821039160345</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.2102478727128689</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.5189841768776997</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17323784692981459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>32</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2388314033489269</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9027042928347307E-2</v>
+        <v>-0.27787566208041492</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.1598043604205799</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9609557412685117</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3491469191568563E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.8763991223672853E-2</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1932958296121488</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.8621917500448388</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.37663965330408811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>33</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>-3.3999999999999995</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1340547752819479</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2329921774218609</v>
+        <v>0.20954949568919262</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.9010625978600872</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.3436042709711407</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.6878100596644795E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44960800557293495</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.854184497263442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7932122765440752</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65915750126212735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>34</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>-3.1999999999999993</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0313736797763084</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1863573715179586E-2</v>
+        <v>-3.3091329202141008E-2</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.0532372534914884</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9982823505741676</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.10245642080146147</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.4654560970641031E-2</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1556936742929498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0529369115448084</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1563231768499946E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>35</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>3.5</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9307462061807819</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13779768083052041</v>
+        <v>8.1193457140767977E-2</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.7929485253502611</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0119396633215496</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.1246938104840184E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18693364027535833</v>
       </c>
       <c r="H47">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.7617015872454207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1988733035969084</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2681270974161265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>-2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8321312820571665</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4017613672838456E-2</v>
+        <v>-0.14452664887617458</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.7881136683843284</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.6876046331809915</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.304461630648063E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.16599322537102087</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.7250690520778473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.5216114078099707</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.31051987424719574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>37</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>-2.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.735488656416023</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.1708053807466884E-2</v>
+        <v>-0.12262239212792875</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.6737806026085558</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.612866264288094</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.9021397219743927E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15489883623447526</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.654759205388812</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.7677651005225696</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.227644410654662E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>38</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>-2.3999999999999995</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6407788832877026</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5437381018100936E-3</v>
+        <v>-0.36229336719934846</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.6423226213895123</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2784855160883541</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.12407929455110041</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10368061756895663</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.5182433268384123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.3821661336573108</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.25861274963039182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>39</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1999999999999993</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5479633056219484</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24179971550224155</v>
+        <v>0.35880008067841862</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.7897630211241902</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9067633863003675</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.1983529889946055E-4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.5910692394563939E-2</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.7888431858252911</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.8308526939058032</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28288938828385479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>40</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.457004039509509</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4874536632857999E-2</v>
+        <v>9.5838717133520893E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.3921295028766512</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5528427566430301</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.6951193316000802E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.3416730132548504E-2</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.3551783095606504</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.6162594867755784</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15925544726606944</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7999999999999989</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3678639587193189</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1587785767108659E-2</v>
+        <v>0.14156554728624704</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.2762761729522101</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5094295060055662</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.18956635862940721</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.12429953136276058</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.4658425315816173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.3851299746428056</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7266015923486755E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2805066795449322</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.240657013369873</v>
+        <v>-0.1296468336782016</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.5211636929148051</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.150859845866731</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7436769148474278E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.10988280873285668</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.5686004620632792</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.0409770371338745</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.23952964241105779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1948965459540339</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20854971071740952</v>
+        <v>-7.6273938613273584E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.9863468352366245</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1186226073407601</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.5333925378403009E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.2679024942909032E-4</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.9310129098582216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.1182958170913313</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.6600728862702638E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1999999999999993</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1109986150349531</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9089273630486855E-2</v>
+        <v>-0.3020823647253289</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.1700878886654396</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8089162503096241</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.16890449470153546</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.4920882189953618E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.0011833939639043</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.7639953681196703</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.34700324691528284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0287786427342542</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0287229491240582E-2</v>
+        <v>0.11805120184227953</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.0590658722254949</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1468298445765335</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.13639797614243604</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.782243609096052E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.922667896083059</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.1946522806674942</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16587363793323995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>46</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999893</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9482030698795691</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10485870494812571</v>
+        <v>0.34130563200117425</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8433443649314434</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2895087018807434</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="4"/>
-        <v>-7.6395138331641813E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.16908935721076251</v>
       </c>
       <c r="H58">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.7669492265998015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.1204193446699806</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17221627479041146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>47</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>-0.59999999999999964</v>
+        <v>4.7</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8692390084819777</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.1726013276313533E-3</v>
+        <v>9.9606051521655095E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8630664071543461</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9688450600036327</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.2444638789064187E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.38419991219021865</v>
       </c>
       <c r="H59">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.8955110459434104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.584645147813414</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.28459386066856363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>48</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>-0.39999999999999858</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7918542283123382</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1955679288372462E-2</v>
+        <v>0.1365781813052126</v>
       </c>
       <c r="F60">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.8438099076007108</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9284324096175509</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.064984224795537E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.34207482767320085</v>
       </c>
       <c r="H60">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.8397449233759153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.5863575819443501</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.20549664636798814</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>49</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>-0.19999999999999929</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7160171437460914</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2575789508467776E-2</v>
+        <v>0.16077647043678497</v>
       </c>
       <c r="F61">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.6834413542376234</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8767936141828763</v>
       </c>
       <c r="G61">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.1185503722322512E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.11392878703860275</v>
       </c>
       <c r="H61">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.704626857959946</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.7628648271442735</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.6847683398182127E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>50</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6416968008711694</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7989066943281005E-2</v>
+        <v>-6.30296774049416E-2</v>
       </c>
       <c r="F62">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.6696858678144504</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5786671234662277</v>
       </c>
       <c r="G62">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.1509629889607064</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.49639338190032128</v>
       </c>
       <c r="H62">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.5187228788537439</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.0750605053665492</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43336370449537975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>51</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>0.20000000000000107</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5688628648537462</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8684403138662169E-2</v>
+        <v>0.12381929782216988</v>
       </c>
       <c r="F63">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.5975472679924083</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.6926821626759159</v>
       </c>
       <c r="G63">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.0055900534756983E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.1614614933687866E-2</v>
       </c>
       <c r="H63">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.6876031685271653</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.7442967776096037</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17543391275585751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>52</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>0.40000000000000036</v>
+        <v>5.2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4974856075566714</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6497554471164813E-3</v>
+        <v>-0.17432636995343134</v>
       </c>
       <c r="F64">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.505135363003788</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3231592376032402</v>
       </c>
       <c r="G64">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9224694513019804E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.832219913455688E-2</v>
       </c>
       <c r="H64">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.5243600575168079</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.3914814367377972</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.10600417081887414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>53</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>0.60000000000000142</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4275358954055379</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.3752402615721805E-3</v>
+        <v>-5.0244176805513331E-2</v>
       </c>
       <c r="F65">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.4201606551439658</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3772917186000244</v>
       </c>
       <c r="G65">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.17021868123300524</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.30007477604704152</v>
       </c>
       <c r="H65">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.2499419739109605</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.0772169425529827</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.35031895285255521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>54</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>0.80000000000000071</v>
+        <v>5.4</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3589851774974271</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.276592784342185E-2</v>
+        <v>0.14067481576816612</v>
       </c>
       <c r="F66">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.306219249654005</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4996599932655932</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="4"/>
-        <v>-7.8904125025688485E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.11147626099165826</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.2273151246283165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.388183732273935</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9198554776507901E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>55</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2918054739474787</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5065155671977737E-2</v>
+        <v>5.9414998062612849E-2</v>
       </c>
       <c r="F67">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.3568706296194564</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3512204720100915</v>
       </c>
       <c r="G67">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.6159557712109723E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19237149680783394</v>
       </c>
       <c r="H67">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.3407110719073465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.5435919688179256</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25178649487044691</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>56</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" si="0"/>
-        <v>1.2000000000000011</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2259693644685292</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9955584852925281E-2</v>
+        <v>0.21964960279951851</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.1860137796156041</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4456189672680475</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.7273572131294695E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4539711778285522E-2</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1487402074843094</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.470158679046333</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2441893145778038</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>57</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>1.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1614499771791587</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2448341358050204E-2</v>
+        <v>-0.32161077967113466</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.1390016358211086</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8398391975080242</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.4828069998131423E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.58601084033985E-2</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.094173565822977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.8556993059114228</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.30575067126773581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>58</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" si="0"/>
-        <v>1.6000000000000014</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0982209776355756</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1534057358843628E-2</v>
+        <v>5.1171776011231976E-2</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.0566869202767322</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1493927536468074</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.8156460370737531E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3311705085992336E-3</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1148433806474696</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.1547239241554066</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.650294651983101E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>59</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" si="0"/>
-        <v>1.8000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0362565580828642</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8470706312332273E-3</v>
+        <v>-0.58498349166321029</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.0314094874516311</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4512730664196538</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.928098291914749E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2196595938243526</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9721285045324835</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.6709326602440062</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.36532389783885799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>60</v>
       </c>
       <c r="B72" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.975531426921207</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11573347082943103</v>
+        <v>0.16109276669899292</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.0912648977506381</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1366241936201997</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.6765730625986446E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.0436909280080002E-2</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0744991671246518</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.2170611029002796</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2415296759790726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>61</v>
       </c>
       <c r="B73" s="2">
         <f t="shared" si="0"/>
-        <v>2.2000000000000011</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9160207983827826</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6384866411801649E-2</v>
+        <v>-0.20477472986524581</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.9824056647945842</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7112460685175366</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.3747522939530834E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.30519022390636014</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9286581418550535</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.0164362924238968</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10041549404111416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>62</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>6.2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.857700382415127</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>3.531589878692059E-2</v>
+        <v>0.10749445213562712</v>
       </c>
       <c r="F74">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.8930162812020477</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9651948345507542</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.17272924066338888</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.694470978442448E-2</v>
       </c>
       <c r="H74">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.720287040538659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.0221395443351788</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16443916192005181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>63</v>
       </c>
       <c r="B75" s="2">
         <f t="shared" si="0"/>
-        <v>2.6000000000000014</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8005463747668244</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7120538406290845E-2</v>
+        <v>0.21654956236094974</v>
       </c>
       <c r="F75">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7534258363605337</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0170959371277744</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.10106835975028716</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.26239102033718065</v>
       </c>
       <c r="H75">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.6523574766102467</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.2794869574649548</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47894058269813033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>64</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" si="0"/>
-        <v>2.8000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7445354472714878</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7032414872294308E-3</v>
+        <v>-7.0159680769882951E-3</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7492386887587172</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7375194791944994</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.18136741487094907</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39503152935837044</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9306061036296662</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.1325510085528698</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38801556128138204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" ref="B77:B112" si="6">A77*$B$7+$B$8</f>
-        <v>3</v>
+        <f t="shared" ref="B77:B112" si="7">A77*$B$7+$B$8</f>
+        <v>6.5</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.689644738326058</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E112" ca="1" si="7">NORMINV(RAND(),$H$2,$H$3)</f>
-        <v>0.19241810191411257</v>
+        <f t="shared" ref="E77:E112" ca="1" si="8">NORMINV(RAND(),$H$2,$H$3)</f>
+        <v>-0.32794591018497737</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.8820628402401707</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3616988281410807</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.14455120957729423</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-6.7419527386793396E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.7375116306628766</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2942793007542872</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J112" ca="1" si="9">H77-D77</f>
+        <v>-0.39536543757177078</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>66</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="6"/>
-        <v>3.2000000000000011</v>
+        <f t="shared" si="7"/>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:D112" si="8">$B$2*D77</f>
+        <f t="shared" ref="D78:D112" si="10">$B$2*D77</f>
         <v>2.6358518435595366</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9.7028081005167591E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.15345033993233925</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78:F112" ca="1" si="9">D78+E78</f>
-        <v>2.5388237625543688</v>
+        <f t="shared" ref="F78:F112" ca="1" si="11">D78+E78</f>
+        <v>2.4824015036271971</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:G112" ca="1" si="10">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>-4.4472758623946097E-2</v>
+        <f t="shared" ref="G78:G112" ca="1" si="12">NORMINV(RAND(),$K$2,$K$3)</f>
+        <v>0.15538844807492411</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H112" ca="1" si="11">F78+G78</f>
-        <v>2.4943510039304226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H78:H112" ca="1" si="13">F78+G78</f>
+        <v>2.6377899517021213</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.9381081425846602E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="6"/>
-        <v>3.4000000000000004</v>
+        <f t="shared" si="7"/>
+        <v>6.7</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5831348066883457</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.22118615810590692</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>4.670401732301095E-3</v>
       </c>
       <c r="F79">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.5878052084206469</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.194144582742436E-2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5997466542480714</v>
+      </c>
+      <c r="J79">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3619486485824388</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ca="1" si="10"/>
-        <v>-7.2525365773542351E-3</v>
-      </c>
-      <c r="H79">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.3546961120050844</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.6611847559725668E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>68</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="6"/>
-        <v>3.6000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>6.8000000000000007</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5314721105545788</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.8555572391935057E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.1878839258811186</v>
       </c>
       <c r="F80">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.7193560364356975</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.125649112712162E-2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.7706125275628191</v>
+      </c>
+      <c r="J80">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5500276829465136</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.5530860523676755E-2</v>
-      </c>
-      <c r="H80">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.6355585434701903</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.23914041700824029</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>69</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="6"/>
-        <v>3.8000000000000007</v>
+        <f t="shared" si="7"/>
+        <v>6.9</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4808426683434872</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.20033097582507697</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35218544544527924</v>
       </c>
       <c r="F81">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.8330281137887665</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.12274343996606141</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.7102846738227049</v>
+      </c>
+      <c r="J81">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6811736441685641</v>
-      </c>
-      <c r="G81">
-        <f t="shared" ca="1" si="10"/>
-        <v>-6.6792761384129581E-2</v>
-      </c>
-      <c r="H81">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.6143808827844346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.22944200547921767</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>70</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4312258149766173</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.0085599136606054E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.188987657676768E-2</v>
       </c>
       <c r="F82">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.4631156915533849</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="12"/>
+        <v>-4.1663895963882043E-2</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.421451795589503</v>
+      </c>
+      <c r="J82">
         <f t="shared" ca="1" si="9"/>
-        <v>2.421140215840011</v>
-      </c>
-      <c r="G82">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3887305576723638E-2</v>
-      </c>
-      <c r="H82">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.4350275214167345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.7740193871143077E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>71</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="6"/>
-        <v>4.2000000000000011</v>
+        <f t="shared" si="7"/>
+        <v>7.1000000000000005</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.382601298677085</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="7"/>
-        <v>-4.3639363998995609E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.11174747502643595</v>
       </c>
       <c r="F83">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.4943487737035208</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.4823711978088629E-2</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5891724856816096</v>
+      </c>
+      <c r="J83">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3389619346780894</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.10305647781638164</v>
-      </c>
-      <c r="H83">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.442018412494471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.20657118700452459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>72</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="7"/>
+        <v>7.2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3349492727035432</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.0902929540953428E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.1132422444639259</v>
       </c>
       <c r="F84">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.2217070282396172</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.25648772562273059</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.4781947538623479</v>
+      </c>
+      <c r="J84">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4258522022444966</v>
-      </c>
-      <c r="G84">
-        <f t="shared" ca="1" si="10"/>
-        <v>-0.15671802735983517</v>
-      </c>
-      <c r="H84">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.2691341748846616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.14324548115880464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>73</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="6"/>
-        <v>4.6000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>7.3000000000000007</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2882502872494723</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.12162567533364113</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-8.5040586242439056E-2</v>
       </c>
       <c r="F85">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.2032097010070331</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.27898119443945374</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.4821908954464869</v>
+      </c>
+      <c r="J85">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4098759625831137</v>
-      </c>
-      <c r="G85">
-        <f t="shared" ca="1" si="10"/>
-        <v>-0.10435030579658677</v>
-      </c>
-      <c r="H85">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.3055256567865268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.19394060819701453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="6"/>
-        <v>4.8000000000000007</v>
+        <f t="shared" si="7"/>
+        <v>7.4</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2424852815044827</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.2340867494604247E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.28525352945190929</v>
       </c>
       <c r="F86">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.5277388109563921</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.10289323044867836</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.4248455805077138</v>
+      </c>
+      <c r="J86">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2548261489990868</v>
-      </c>
-      <c r="G86">
-        <f t="shared" ca="1" si="10"/>
-        <v>-7.95292342648833E-2</v>
-      </c>
-      <c r="H86">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.1752969147342034</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.18236029900323114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>75</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>7.5</v>
       </c>
       <c r="D87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1976355758743931</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.12945214794927881</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.27053410263263178</v>
       </c>
       <c r="F87">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.4681696785070248</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.1283985948409751</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.3397710836660499</v>
+      </c>
+      <c r="J87">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3270877238236718</v>
-      </c>
-      <c r="G87">
-        <f t="shared" ca="1" si="10"/>
-        <v>-0.18454633321844427</v>
-      </c>
-      <c r="H87">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.1425413906052277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.14213550779165685</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>76</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="6"/>
-        <v>5.2000000000000011</v>
+        <f t="shared" si="7"/>
+        <v>7.6000000000000005</v>
       </c>
       <c r="D88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.153682864356905</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.22795916220722123</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.2952769633303074</v>
       </c>
       <c r="F88">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.8584059010265976</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18766302179577943</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.0460689228223772</v>
+      </c>
+      <c r="J88">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3816420265641263</v>
-      </c>
-      <c r="G88">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.3426652182056584E-2</v>
-      </c>
-      <c r="H88">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.4050686787461828</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.10761394153452786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>77</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="6"/>
-        <v>5.4</v>
+        <f t="shared" si="7"/>
+        <v>7.7</v>
       </c>
       <c r="D89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1106092070697668</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.14860800468968122</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.42105191489604388</v>
       </c>
       <c r="F89">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.5316611219658105</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.53705171792026074</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.0687128398860715</v>
+      </c>
+      <c r="J89">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9620012023800857</v>
-      </c>
-      <c r="G89">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.18283708670278753</v>
-      </c>
-      <c r="H89">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.1448382890828732</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.95810363281630462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>78</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="6"/>
-        <v>5.6000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>7.8000000000000007</v>
       </c>
       <c r="D90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0683970229283717</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="7"/>
-        <v>-5.4942592968796292E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.20711472374034165</v>
       </c>
       <c r="F90">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.86128229918803</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="12"/>
+        <v>-7.7369033657827213E-2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.7839132655302028</v>
+      </c>
+      <c r="J90">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0134544299595754</v>
-      </c>
-      <c r="G90">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.4497674313650554E-6</v>
-      </c>
-      <c r="H90">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.0134588797270068</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.28448375739816889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="6"/>
-        <v>5.8000000000000007</v>
+        <f t="shared" si="7"/>
+        <v>7.9</v>
       </c>
       <c r="D91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0270290824698041</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.24284399282700236</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.7309253490782649E-2</v>
       </c>
       <c r="F91">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.1243383359605867</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="12"/>
+        <v>-2.1602737818640236E-2</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1027355981419467</v>
+      </c>
+      <c r="J91">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7841850896428018</v>
-      </c>
-      <c r="G91">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.8018207935109148E-2</v>
-      </c>
-      <c r="H91">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.802203297577911</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.5706515672142594E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="D92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9864885008204078</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.8793878070428569E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.10363669082246257</v>
       </c>
       <c r="F92">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.8828518099979452</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="12"/>
+        <v>-5.7473959358206629E-2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.8253778506397387</v>
+      </c>
+      <c r="J92">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0552823788908365</v>
-      </c>
-      <c r="G92">
-        <f t="shared" ca="1" si="10"/>
-        <v>-3.2347407350598385E-2</v>
-      </c>
-      <c r="H92">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.0229349715402383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.16111065018066917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>81</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="6"/>
-        <v>6.1999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>8.1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9467587308039997</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.13272932635788035</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.25779582387197497</v>
       </c>
       <c r="F93">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.2045545546759748</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.1220791234930917E-2</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.2957753459109056</v>
+      </c>
+      <c r="J93">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8140294044461194</v>
-      </c>
-      <c r="G93">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.8742662690658494E-2</v>
-      </c>
-      <c r="H93">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8927720671367778</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.34901661510690585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>82</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="6"/>
-        <v>6.4000000000000021</v>
+        <f t="shared" si="7"/>
+        <v>8.2000000000000011</v>
       </c>
       <c r="D94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9078235561879198</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.7262969869871695E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.9560522217818531E-2</v>
       </c>
       <c r="F94">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.9973840784057384</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.6136927637805859E-2</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.0135210060435442</v>
+      </c>
+      <c r="J94">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9250865260577914</v>
-      </c>
-      <c r="G94">
-        <f t="shared" ca="1" si="10"/>
-        <v>-0.11905822228838703</v>
-      </c>
-      <c r="H94">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8060283037694043</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.10569744985562446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>83</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="6"/>
-        <v>6.6000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8696670850641612</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.11363026771486169</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.35950332133083118</v>
       </c>
       <c r="F95">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5101637637333301</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.15171734308595936</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6618811068192894</v>
+      </c>
+      <c r="J95">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7560368173492995</v>
-      </c>
-      <c r="G95">
-        <f t="shared" ca="1" si="10"/>
-        <v>-8.5134157869741451E-5</v>
-      </c>
-      <c r="H95">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7559516831914297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.20778597824487188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>84</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="6"/>
-        <v>6.8000000000000007</v>
+        <f t="shared" si="7"/>
+        <v>8.4</v>
       </c>
       <c r="D96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.832273743362878</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.19185370907450608</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.9516030056858172E-2</v>
       </c>
       <c r="F96">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.8717897734197362</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.12851264423943012</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.0003024176591664</v>
+      </c>
+      <c r="J96">
         <f t="shared" ca="1" si="9"/>
-        <v>2.024127452437384</v>
-      </c>
-      <c r="G96">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.13297261571739893</v>
-      </c>
-      <c r="H96">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.1571000681547829</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.16802867429628843</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>8.5</v>
       </c>
       <c r="D97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7956282684956204</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.22082149280849001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-2.4889749954034493E-2</v>
       </c>
       <c r="F97">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.7707385185415858</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.15336506550297085</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.9241035840445566</v>
+      </c>
+      <c r="J97">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5748067756871305</v>
-      </c>
-      <c r="G97">
-        <f t="shared" ca="1" si="10"/>
-        <v>-1.8748481893563086E-2</v>
-      </c>
-      <c r="H97">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5560582937935674</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.12847531554893621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="6"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>8.6</v>
       </c>
       <c r="D98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.759715703125708</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.1984253366192008E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-5.4087004855653181E-2</v>
       </c>
       <c r="F98">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.7056286982700548</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.28506232052251568</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.9906910187925706</v>
+      </c>
+      <c r="J98">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7716999564919</v>
-      </c>
-      <c r="G98">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.17379332965506167</v>
-      </c>
-      <c r="H98">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.9454932861469616</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.23097531566686258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="6"/>
-        <v>7.4000000000000021</v>
+        <f t="shared" si="7"/>
+        <v>8.7000000000000011</v>
       </c>
       <c r="D99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7245213890631939</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.3769377114913743E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.25779881305547125</v>
       </c>
       <c r="F99">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.982320202118665</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.17379973598736714</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1561199381060323</v>
+      </c>
+      <c r="J99">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7682907661781075</v>
-      </c>
-      <c r="G99">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.5484686288529709E-2</v>
-      </c>
-      <c r="H99">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8437754524666372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.43159854904283845</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="6"/>
-        <v>7.6000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.69003096128193</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.11247483736269324</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.1036412840999419E-2</v>
       </c>
       <c r="F100">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.7210673741229294</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.1420378096927768E-2</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.8124877522198573</v>
+      </c>
+      <c r="J100">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8025057986446231</v>
-      </c>
-      <c r="G100">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.1037440673240552E-2</v>
-      </c>
-      <c r="H100">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8635432393178637</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.12245679093792727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="6"/>
-        <v>7.8000000000000007</v>
+        <f t="shared" si="7"/>
+        <v>8.9</v>
       </c>
       <c r="D101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6562303420562914</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.21633360613990821</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.15036151142510423</v>
       </c>
       <c r="F101">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5058688306311871</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18244116125409693</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.688309991885284</v>
+      </c>
+      <c r="J101">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8725639481961995</v>
-      </c>
-      <c r="G101">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.4407733456101697E-2</v>
-      </c>
-      <c r="H101">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.9569716816523013</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.2079649828992585E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="D102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6231057352151654</v>
       </c>
       <c r="E102">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5213800786386976E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-2.4735057188443006E-2</v>
       </c>
       <c r="F102">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5983706780267224</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.15075291839281696</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.7491235964195393</v>
+      </c>
+      <c r="J102">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6383195360015523</v>
-      </c>
-      <c r="G102">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.1179778057690746</v>
-      </c>
-      <c r="H102">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7562973417706269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.12601786120437386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="6"/>
-        <v>8.1999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>9.1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5906436205108621</v>
       </c>
       <c r="E103">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.20046163205798387</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.30696695229988991</v>
       </c>
       <c r="F103">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.2836766682109721</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ca="1" si="12"/>
+        <v>3.4681797662933049E-2</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.3183584658739051</v>
+      </c>
+      <c r="J103">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3901819884528781</v>
-      </c>
-      <c r="G103">
-        <f t="shared" ca="1" si="10"/>
-        <v>-6.4711736552250862E-2</v>
-      </c>
-      <c r="H103">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.3254702519006272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.27228515463695691</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>92</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="6"/>
-        <v>8.4000000000000021</v>
+        <f t="shared" si="7"/>
+        <v>9.2000000000000011</v>
       </c>
       <c r="D104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5588307481006447</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.7864255931494242E-3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17483565335978446</v>
       </c>
       <c r="F104">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.7336664014604293</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3829185205677905E-2</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.7574955866661073</v>
+      </c>
+      <c r="J104">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5676171736937941</v>
-      </c>
-      <c r="G104">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.1503957037735918E-3</v>
-      </c>
-      <c r="H104">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5717675693975677</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.19866483856546258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="6"/>
-        <v>8.6000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5276541331386317</v>
       </c>
       <c r="E105">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.10271902291431385</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.14619380566711124</v>
       </c>
       <c r="F105">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.673847938805743</v>
+      </c>
+      <c r="G105">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.37491758649152318</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2989303523142199</v>
+      </c>
+      <c r="J105">
         <f t="shared" ca="1" si="9"/>
-        <v>1.424935110224318</v>
-      </c>
-      <c r="G105">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.9312210406964041E-2</v>
-      </c>
-      <c r="H105">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.4742473206312821</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.2287237808244118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="6"/>
-        <v>8.8000000000000007</v>
+        <f t="shared" si="7"/>
+        <v>9.4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4971010504758591</v>
       </c>
       <c r="E106">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.2158346325103121</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-2.5791940893653709E-2</v>
       </c>
       <c r="F106">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.4713091095822053</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ca="1" si="12"/>
+        <v>6.0653063386532514E-2</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5319621729687378</v>
+      </c>
+      <c r="J106">
         <f t="shared" ca="1" si="9"/>
-        <v>1.712935682986171</v>
-      </c>
-      <c r="G106">
-        <f t="shared" ca="1" si="10"/>
-        <v>-3.9802205775161491E-2</v>
-      </c>
-      <c r="H106">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.6731334772110096</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.486112249287876E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>9.5</v>
       </c>
       <c r="D107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4671590294663419</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.11197186303494314</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-3.3787748915090447E-2</v>
       </c>
       <c r="F107">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.4333712805512515</v>
+      </c>
+      <c r="G107">
+        <f t="shared" ca="1" si="12"/>
+        <v>-2.9829152637909265E-2</v>
+      </c>
+      <c r="H107">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.4035421279133422</v>
+      </c>
+      <c r="J107">
         <f t="shared" ca="1" si="9"/>
-        <v>1.579130892501285</v>
-      </c>
-      <c r="G107">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.10424486381323805</v>
-      </c>
-      <c r="H107">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.6833757563145231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-6.3616901552999705E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="6"/>
-        <v>9.2000000000000028</v>
+        <f t="shared" si="7"/>
+        <v>9.6000000000000014</v>
       </c>
       <c r="D108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.437815848877015</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9.4086721802778994E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.14615230959699574</v>
       </c>
       <c r="F108">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5839681584740106</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ca="1" si="12"/>
+        <v>-2.720895987285837E-2</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5567591986011522</v>
+      </c>
+      <c r="J108">
         <f t="shared" ca="1" si="9"/>
-        <v>1.343729127074236</v>
-      </c>
-      <c r="G108">
-        <f t="shared" ca="1" si="10"/>
-        <v>-3.0148227259110962E-2</v>
-      </c>
-      <c r="H108">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.313580899815125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.11894334972413723</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="6"/>
-        <v>9.4000000000000021</v>
+        <f t="shared" si="7"/>
+        <v>9.7000000000000011</v>
       </c>
       <c r="D109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4090595318994747</v>
       </c>
       <c r="E109">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.0369639951900204E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.15658228605468943</v>
       </c>
       <c r="F109">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.2524772458447853</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.507340242231104E-2</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.3375506482670962</v>
+      </c>
+      <c r="J109">
         <f t="shared" ca="1" si="9"/>
-        <v>1.419429171851375</v>
-      </c>
-      <c r="G109">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.6181904382927586E-2</v>
-      </c>
-      <c r="H109">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.4556110762343026</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-7.1508883632378506E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="6"/>
-        <v>9.6000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3808783412614851</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.12403298426444827</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16812870284554104</v>
       </c>
       <c r="F110">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5490070441070261</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.12971108253360239</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6787181266406284</v>
+      </c>
+      <c r="J110">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2568453569970368</v>
-      </c>
-      <c r="G110">
-        <f t="shared" ca="1" si="10"/>
-        <v>-0.11862875845368559</v>
-      </c>
-      <c r="H110">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.1382165985433512</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.29783978537914324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="6"/>
-        <v>9.8000000000000007</v>
+        <f t="shared" si="7"/>
+        <v>9.9</v>
       </c>
       <c r="D111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3532607744362555</v>
       </c>
       <c r="E111">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.2035441041784513E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-3.8173215464033891E-2</v>
       </c>
       <c r="F111">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.3150875589722215</v>
+      </c>
+      <c r="G111">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.1016557416447641</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2134318173274574</v>
+      </c>
+      <c r="J111">
         <f t="shared" ca="1" si="9"/>
-        <v>1.341225333394471</v>
-      </c>
-      <c r="G111">
-        <f t="shared" ca="1" si="10"/>
-        <v>-0.14373022014284895</v>
-      </c>
-      <c r="H111">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.1974951132516221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.13982895710879806</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3261955589475303</v>
       </c>
       <c r="E112">
-        <f t="shared" ca="1" si="7"/>
-        <v>-8.5379545704262011E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32833157918375611</v>
       </c>
       <c r="F112">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.6545271381312863</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.28542422599240935</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.9399513641236956</v>
+      </c>
+      <c r="J112">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2408160132432682</v>
-      </c>
-      <c r="G112">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.14404991011887275</v>
-      </c>
-      <c r="H112">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.384865923362141</v>
+        <v>0.61375580517616535</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KF-ATTITUDE.xlsx
+++ b/KF-ATTITUDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93699174-7695-4D9A-8066-7044C8CDAD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB8899-935C-433F-B462-8986CDDB36E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>c</t>
   </si>
@@ -125,12 +125,36 @@
   <si>
     <t>z_t - actual state</t>
   </si>
+  <si>
+    <t>KALMAN GAIN</t>
+  </si>
+  <si>
+    <t>PREDICTION ERROR</t>
+  </si>
+  <si>
+    <t>SENSOR AVERAGE NOISE</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>STATE PREDICTION</t>
+  </si>
+  <si>
+    <t>g_t</t>
+  </si>
+  <si>
+    <t>p_t = (1-g_t)*p_t-1</t>
+  </si>
+  <si>
+    <t>x_^_t = x_^_t-1 + g_t*(z_t - x_^_t-1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +171,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -185,6 +217,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1245,307 +1285,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.019412918246809</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.191754100436373</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5084271894085575</c:v>
+                  <c:v>9.604000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3928558542873652</c:v>
+                  <c:v>9.4119200000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.177837547308151</c:v>
+                  <c:v>9.2236816000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9232288052466853</c:v>
+                  <c:v>9.0392079680000013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6133851370418064</c:v>
+                  <c:v>8.8584238086400013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4644573485789518</c:v>
+                  <c:v>8.6812553324672006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5830749268426345</c:v>
+                  <c:v>8.5076302258178558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.589129854364792</c:v>
+                  <c:v>8.3374776213014989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3501364076319167</c:v>
+                  <c:v>8.1707280688754693</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9900311394860735</c:v>
+                  <c:v>8.00731350749796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9854291907644495</c:v>
+                  <c:v>7.8471672373480006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7270519167316891</c:v>
+                  <c:v>7.6902238926010407</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6049638891468723</c:v>
+                  <c:v>7.5364194147490196</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4901925125019151</c:v>
+                  <c:v>7.3856910264540394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3633742370705182</c:v>
+                  <c:v>7.2379772059249587</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1706689186462285</c:v>
+                  <c:v>7.0932176618064595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.1626440028251102</c:v>
+                  <c:v>6.9513533085703303</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.6782984714976994</c:v>
+                  <c:v>6.8123262423989237</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3487295525544392</c:v>
+                  <c:v>6.6760797175509454</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1444267188594726</c:v>
+                  <c:v>6.5425581231999264</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5092332898495577</c:v>
+                  <c:v>6.4117069607359278</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4148461002557511</c:v>
+                  <c:v>6.283472821521209</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9394042718555635</c:v>
+                  <c:v>6.1578033650907846</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.1553871249294509</c:v>
+                  <c:v>6.0346472977889691</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2436463972887752</c:v>
+                  <c:v>5.9139543518331896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9320090443096847</c:v>
+                  <c:v>5.7956752647965262</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4933495591760115</c:v>
+                  <c:v>5.6797617595005958</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5346128999988311</c:v>
+                  <c:v>5.5661665243105842</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4577567684718273</c:v>
+                  <c:v>5.4548431938243729</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3425259664860967</c:v>
+                  <c:v>5.3457463299478851</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9609557412685117</c:v>
+                  <c:v>5.2388314033489269</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3436042709711407</c:v>
+                  <c:v>5.1340547752819479</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9982823505741676</c:v>
+                  <c:v>5.0313736797763084</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.0119396633215496</c:v>
+                  <c:v>4.9307462061807819</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.6876046331809915</c:v>
+                  <c:v>4.8321312820571665</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.612866264288094</c:v>
+                  <c:v>4.735488656416023</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.2784855160883541</c:v>
+                  <c:v>4.6407788832877026</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9067633863003675</c:v>
+                  <c:v>4.5479633056219484</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.5528427566430301</c:v>
+                  <c:v>4.457004039509509</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.5094295060055662</c:v>
+                  <c:v>4.3678639587193189</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.150859845866731</c:v>
+                  <c:v>4.2805066795449322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1186226073407601</c:v>
+                  <c:v>4.1948965459540339</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.8089162503096241</c:v>
+                  <c:v>4.1109986150349531</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.1468298445765335</c:v>
+                  <c:v>4.0287786427342542</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.2895087018807434</c:v>
+                  <c:v>3.9482030698795691</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.9688450600036327</c:v>
+                  <c:v>3.8692390084819777</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.9284324096175509</c:v>
+                  <c:v>3.7918542283123382</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.8767936141828763</c:v>
+                  <c:v>3.7160171437460914</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.5786671234662277</c:v>
+                  <c:v>3.6416968008711694</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.6926821626759159</c:v>
+                  <c:v>3.5688628648537462</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3231592376032402</c:v>
+                  <c:v>3.4974856075566714</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.3772917186000244</c:v>
+                  <c:v>3.4275358954055379</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.4996599932655932</c:v>
+                  <c:v>3.3589851774974271</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3512204720100915</c:v>
+                  <c:v>3.2918054739474787</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.4456189672680475</c:v>
+                  <c:v>3.2259693644685292</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.8398391975080242</c:v>
+                  <c:v>3.1614499771791587</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.1493927536468074</c:v>
+                  <c:v>3.0982209776355756</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.4512730664196538</c:v>
+                  <c:v>3.0362565580828642</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.1366241936201997</c:v>
+                  <c:v>2.975531426921207</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.7112460685175366</c:v>
+                  <c:v>2.9160207983827826</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.9651948345507542</c:v>
+                  <c:v>2.857700382415127</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0170959371277744</c:v>
+                  <c:v>2.8005463747668244</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7375194791944994</c:v>
+                  <c:v>2.7445354472714878</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.3616988281410807</c:v>
+                  <c:v>2.689644738326058</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.4824015036271971</c:v>
+                  <c:v>2.6358518435595366</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5878052084206469</c:v>
+                  <c:v>2.5831348066883457</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7193560364356975</c:v>
+                  <c:v>2.5314721105545788</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8330281137887665</c:v>
+                  <c:v>2.4808426683434872</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4631156915533849</c:v>
+                  <c:v>2.4312258149766173</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.4943487737035208</c:v>
+                  <c:v>2.382601298677085</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.2217070282396172</c:v>
+                  <c:v>2.3349492727035432</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2032097010070331</c:v>
+                  <c:v>2.2882502872494723</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.5277388109563921</c:v>
+                  <c:v>2.2424852815044827</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.4681696785070248</c:v>
+                  <c:v>2.1976355758743931</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8584059010265976</c:v>
+                  <c:v>2.153682864356905</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5316611219658105</c:v>
+                  <c:v>2.1106092070697668</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.86128229918803</c:v>
+                  <c:v>2.0683970229283717</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.1243383359605867</c:v>
+                  <c:v>2.0270290824698041</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8828518099979452</c:v>
+                  <c:v>1.9864885008204078</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2045545546759748</c:v>
+                  <c:v>1.9467587308039997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9973840784057384</c:v>
+                  <c:v>1.9078235561879198</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.5101637637333301</c:v>
+                  <c:v>1.8696670850641612</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8717897734197362</c:v>
+                  <c:v>1.832273743362878</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7707385185415858</c:v>
+                  <c:v>1.7956282684956204</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7056286982700548</c:v>
+                  <c:v>1.759715703125708</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.982320202118665</c:v>
+                  <c:v>1.7245213890631939</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.7210673741229294</c:v>
+                  <c:v>1.69003096128193</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.5058688306311871</c:v>
+                  <c:v>1.6562303420562914</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5983706780267224</c:v>
+                  <c:v>1.6231057352151654</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2836766682109721</c:v>
+                  <c:v>1.5906436205108621</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.7336664014604293</c:v>
+                  <c:v>1.5588307481006447</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.673847938805743</c:v>
+                  <c:v>1.5276541331386317</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4713091095822053</c:v>
+                  <c:v>1.4971010504758591</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4333712805512515</c:v>
+                  <c:v>1.4671590294663419</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5839681584740106</c:v>
+                  <c:v>1.437815848877015</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2524772458447853</c:v>
+                  <c:v>1.4090595318994747</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.5490070441070261</c:v>
+                  <c:v>1.3808783412614851</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3150875589722215</c:v>
+                  <c:v>1.3532607744362555</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.6545271381312863</c:v>
+                  <c:v>1.3261955589475303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,307 +1952,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>9.8702259292299814</c:v>
+                  <c:v>10.000000538459943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.217198770913486</c:v>
+                  <c:v>9.800001597199401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3955847103202874</c:v>
+                  <c:v>9.6040007644179699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3445107090224049</c:v>
+                  <c:v>9.4119203186892602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6607567453641607</c:v>
+                  <c:v>9.223683454292452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7979245901422907</c:v>
+                  <c:v>9.0392069748313641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9689881103801099</c:v>
+                  <c:v>8.8584267722371166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2178468269581995</c:v>
+                  <c:v>8.6812559640635047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5302209625795005</c:v>
+                  <c:v>8.5076295423825421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1763190715179945</c:v>
+                  <c:v>8.3374772377039559</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.6524104628233456</c:v>
+                  <c:v>8.1707269880708999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3331967818762962</c:v>
+                  <c:v>8.0073140382639281</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.342328046946502</c:v>
+                  <c:v>7.8471691932314993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8603917460889035</c:v>
+                  <c:v>7.6902239548370117</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8239145397407297</c:v>
+                  <c:v>7.5364174696055999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.699786685676842</c:v>
+                  <c:v>7.3856921589817013</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1562413021286</c:v>
+                  <c:v>7.2379782574603428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8722249942679472</c:v>
+                  <c:v>7.0932161846265851</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0135378662319576</c:v>
+                  <c:v>6.9513534916084003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8955200107321346</c:v>
+                  <c:v>6.8123254785393614</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.2776465650397277</c:v>
+                  <c:v>6.676080262769382</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.9391062439594293</c:v>
+                  <c:v>6.5425593545914413</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5023784086140015</c:v>
+                  <c:v>6.4117079476150431</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2351793356453964</c:v>
+                  <c:v>6.2834728501900159</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.6182333383717182</c:v>
+                  <c:v>6.1578036827583782</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2843918480069609</c:v>
+                  <c:v>6.0346458815377835</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.3228984070758054</c:v>
+                  <c:v>5.9139541476143025</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7919875628682034</c:v>
+                  <c:v>5.7956758498638496</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6580502775352572</c:v>
+                  <c:v>5.6797618751889951</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8678075325648598</c:v>
+                  <c:v>5.5661661530529827</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.2265287869569121</c:v>
+                  <c:v>5.4548431422206756</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.5189841768776997</c:v>
+                  <c:v>5.3457462998847012</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.8621917500448388</c:v>
+                  <c:v>5.2388297251146492</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.7932122765440752</c:v>
+                  <c:v>5.1340561043378941</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0529369115448084</c:v>
+                  <c:v>5.0313743061012888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.1988733035969084</c:v>
+                  <c:v>4.9307457058075483</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.5216114078099707</c:v>
+                  <c:v>4.8321319649928576</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7677651005225696</c:v>
+                  <c:v>4.7354873785892195</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.3821661336573108</c:v>
+                  <c:v>4.6407792940792536</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.8308526939058032</c:v>
+                  <c:v>4.5479623302994474</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6162594867755784</c:v>
+                  <c:v>4.4570036034762328</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3851299746428056</c:v>
+                  <c:v>4.3678642144808624</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.0409770371338745</c:v>
+                  <c:v>4.2805063914446198</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1182958170913313</c:v>
+                  <c:v>4.1948972308235932</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7639953681196703</c:v>
+                  <c:v>4.1109984184838497</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.1946522806674942</c:v>
+                  <c:v>4.0287783100863637</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.1204193446699806</c:v>
+                  <c:v>3.9482029410389483</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.584645147813414</c:v>
+                  <c:v>3.8692395697305844</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.5863575819443501</c:v>
+                  <c:v>3.7918542339450494</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7628648271442735</c:v>
+                  <c:v>3.7160162074460183</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.0750605053665492</c:v>
+                  <c:v>3.6416976805308652</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.7442967776096037</c:v>
+                  <c:v>3.5688628637967041</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3914814367377972</c:v>
+                  <c:v>3.497483746577652</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0772169425529827</c:v>
+                  <c:v>3.4275349273532938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.388183732273935</c:v>
+                  <c:v>3.358985388566095</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.5435919688179256</c:v>
+                  <c:v>3.2918054207782141</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.470158679046333</c:v>
+                  <c:v>3.2259690332410687</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.8556993059114228</c:v>
+                  <c:v>3.161450563207588</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.1547239241554066</c:v>
+                  <c:v>3.0982214978451332</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.6709326602440062</c:v>
+                  <c:v>3.0362572011612881</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2170611029002796</c:v>
+                  <c:v>2.975530889083033</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0164362924238968</c:v>
+                  <c:v>2.9160208293061292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0221395443351788</c:v>
+                  <c:v>2.8577024246181009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.2794869574649548</c:v>
+                  <c:v>2.800547288372103</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1325510085528698</c:v>
+                  <c:v>2.744534952090055</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.2942793007542872</c:v>
+                  <c:v>2.6896442047768043</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6377899517021213</c:v>
+                  <c:v>2.635851637745644</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5997466542480714</c:v>
+                  <c:v>2.5831352991358347</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7706125275628191</c:v>
+                  <c:v>2.5314729826148605</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.7102846738227049</c:v>
+                  <c:v>2.4808425439015744</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.421451795589503</c:v>
+                  <c:v>2.4312266560723121</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.5891724856816096</c:v>
+                  <c:v>2.3826017644745727</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4781947538623479</c:v>
+                  <c:v>2.334949092632812</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4821908954464869</c:v>
+                  <c:v>2.2882516281635024</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4248455805077138</c:v>
+                  <c:v>2.2424847279319566</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.3397710836660499</c:v>
+                  <c:v>2.1976367850356806</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0460689228223772</c:v>
+                  <c:v>2.1536832006988682</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0687128398860715</c:v>
+                  <c:v>2.1106082628755347</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7839132655302028</c:v>
+                  <c:v>2.068396950059082</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.1027355981419467</c:v>
+                  <c:v>2.0270295270538945</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8253778506397387</c:v>
+                  <c:v>1.9864891888834459</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2957753459109056</c:v>
+                  <c:v>1.9467605436726096</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0135210060435442</c:v>
+                  <c:v>1.9078237704760035</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6618811068192894</c:v>
+                  <c:v>1.8696658757325633</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0003024176591664</c:v>
+                  <c:v>1.8322718867404708</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9241035840445566</c:v>
+                  <c:v>1.7956271872589671</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.9906910187925706</c:v>
+                  <c:v>1.759716066866182</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.1561199381060323</c:v>
+                  <c:v>1.724520850951889</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8124877522198573</c:v>
+                  <c:v>1.690031298856173</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.688309991885284</c:v>
+                  <c:v>1.6562312850120608</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7491235964195393</c:v>
+                  <c:v>1.6231043072578042</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3183584658739051</c:v>
+                  <c:v>1.5906413680020228</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.7574955866661073</c:v>
+                  <c:v>1.5588307119341438</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2989303523142199</c:v>
+                  <c:v>1.5276532177825533</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.5319621729687378</c:v>
+                  <c:v>1.4971004317734211</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4035421279133422</c:v>
+                  <c:v>1.4671587144919522</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5567591986011522</c:v>
+                  <c:v>1.4378172223929313</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3375506482670962</c:v>
+                  <c:v>1.4090594664738996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.6787181266406284</c:v>
+                  <c:v>1.3808782033930012</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2134318173274574</c:v>
+                  <c:v>1.3532592458699848</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9399513641236956</c:v>
+                  <c:v>1.3261916109183978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,307 +2887,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>-0.12977407077001857</c:v>
+                  <c:v>5.3845994330004032E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41719877091348501</c:v>
+                  <c:v>1.5971994002939027E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.20841528967971357</c:v>
+                  <c:v>7.6441796892368075E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.7409290977595404E-2</c:v>
+                  <c:v>3.1868925987055263E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.56292485463584008</c:v>
+                  <c:v>1.8542924511422143E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.24128337785771059</c:v>
+                  <c:v>-9.9316863710896541E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11056430174010856</c:v>
+                  <c:v>2.9635971152686125E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.46340850550900115</c:v>
+                  <c:v>6.3159630414588719E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2590736761644692E-2</c:v>
+                  <c:v>-6.8343531367531796E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.16115854978350441</c:v>
+                  <c:v>-3.8359754306327432E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48168239394787626</c:v>
+                  <c:v>-1.0808045693977419E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3258832743783362</c:v>
+                  <c:v>5.3076596806533871E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49516080959850139</c:v>
+                  <c:v>1.9558834987165596E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17016785348786279</c:v>
+                  <c:v>6.2235971043378413E-8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28749512499171015</c:v>
+                  <c:v>-1.9451434196682271E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31409565922280258</c:v>
+                  <c:v>1.1325276618734392E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.1735903796358755E-2</c:v>
+                  <c:v>1.0515353841000774E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.22099266753851232</c:v>
+                  <c:v>-1.4771798744206421E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2184557661627338E-2</c:v>
+                  <c:v>1.8303807003405836E-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3193768333210905E-2</c:v>
+                  <c:v>-7.6385956226943108E-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.39843315251121769</c:v>
+                  <c:v>5.45218436620587E-7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.60345187924049704</c:v>
+                  <c:v>1.2313915149775312E-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0671447878073685E-2</c:v>
+                  <c:v>9.868791153166967E-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.8293485875812614E-2</c:v>
+                  <c:v>2.866880688401352E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.5395700267190664</c:v>
+                  <c:v>3.176675935634421E-7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2497445502179918</c:v>
+                  <c:v>-1.4162511856596893E-6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.40894405524261579</c:v>
+                  <c:v>-2.0421888713428871E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.6877019283227952E-3</c:v>
+                  <c:v>5.8506732347751722E-7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.1711481965338564E-2</c:v>
+                  <c:v>1.156883993047586E-7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30164100825427553</c:v>
+                  <c:v>-3.7125760155021226E-7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.22831440686746074</c:v>
+                  <c:v>-5.1603697315272257E-8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.17323784692981459</c:v>
+                  <c:v>-3.0063183942274918E-8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.37663965330408811</c:v>
+                  <c:v>-1.6782342777688086E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.65915750126212735</c:v>
+                  <c:v>1.3290559461864859E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.1563231768499946E-2</c:v>
+                  <c:v>6.2632498032400008E-7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2681270974161265</c:v>
+                  <c:v>-5.0037323351403984E-7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.31051987424719574</c:v>
+                  <c:v>6.8293569110977614E-7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.227644410654662E-2</c:v>
+                  <c:v>-1.2778268034807638E-6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.25861274963039182</c:v>
+                  <c:v>4.1079155099765785E-7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.28288938828385479</c:v>
+                  <c:v>-9.7532250098453233E-7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.15925544726606944</c:v>
+                  <c:v>-4.3603327615215903E-7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7266015923486755E-2</c:v>
+                  <c:v>2.5576154349948865E-7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.23952964241105779</c:v>
+                  <c:v>-2.8810031249548729E-7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-7.6600728862702638E-2</c:v>
+                  <c:v>6.8486955928648285E-7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.34700324691528284</c:v>
+                  <c:v>-1.9655110339300563E-7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.16587363793323995</c:v>
+                  <c:v>-3.3264789056630661E-7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.17221627479041146</c:v>
+                  <c:v>-1.2884062083884373E-7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.28459386066856363</c:v>
+                  <c:v>5.6124860670081489E-7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.20549664636798814</c:v>
+                  <c:v>5.6327111863652135E-9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6847683398182127E-2</c:v>
+                  <c:v>-9.3630007302891727E-7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.43336370449537975</c:v>
+                  <c:v>8.7965969575165559E-7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.17543391275585751</c:v>
+                  <c:v>-1.057042009477982E-9</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.10600417081887414</c:v>
+                  <c:v>-1.8609790193302445E-6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.35031895285255521</c:v>
+                  <c:v>-9.6805224414353575E-7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.9198554776507901E-2</c:v>
+                  <c:v>2.1106866787690137E-7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.25178649487044691</c:v>
+                  <c:v>-5.3169264546681916E-8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2441893145778038</c:v>
+                  <c:v>-3.3122746057046015E-7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.30575067126773581</c:v>
+                  <c:v>5.860284293390805E-7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.650294651983101E-2</c:v>
+                  <c:v>5.2020955765286203E-7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.36532389783885799</c:v>
+                  <c:v>6.4307842384536684E-7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.2415296759790726</c:v>
+                  <c:v>-5.3783817399732925E-7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.10041549404111416</c:v>
+                  <c:v>3.0923346550082442E-8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.16443916192005181</c:v>
+                  <c:v>2.0422029738398351E-6</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.47894058269813033</c:v>
+                  <c:v>9.1360527854078555E-7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.38801556128138204</c:v>
+                  <c:v>-4.9518143274696058E-7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.39536543757177078</c:v>
+                  <c:v>-5.3354925366733141E-7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9381081425846602E-3</c:v>
+                  <c:v>-2.0581389259533012E-7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6611847559725668E-2</c:v>
+                  <c:v>4.924474890088959E-7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.23914041700824029</c:v>
+                  <c:v>8.7206028176467498E-7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.22944200547921767</c:v>
+                  <c:v>-1.2444191277438676E-7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-9.7740193871143077E-3</c:v>
+                  <c:v>8.4109569487011981E-7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.20657118700452459</c:v>
+                  <c:v>4.6579748769204343E-7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.14324548115880464</c:v>
+                  <c:v>-1.8007073121495409E-7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.19394060819701453</c:v>
+                  <c:v>1.3409140300346678E-6</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.18236029900323114</c:v>
+                  <c:v>-5.5357252604082419E-7</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.14213550779165685</c:v>
+                  <c:v>1.2091612875408941E-6</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.10761394153452786</c:v>
+                  <c:v>3.3634196316967291E-7</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.95810363281630462</c:v>
+                  <c:v>-9.4419423213309983E-7</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.28448375739816889</c:v>
+                  <c:v>-7.2869289713395347E-8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.5706515672142594E-2</c:v>
+                  <c:v>4.4458409043102165E-7</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.16111065018066917</c:v>
+                  <c:v>6.8806303810120539E-7</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.34901661510690585</c:v>
+                  <c:v>1.8128686098961566E-6</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.10569744985562446</c:v>
+                  <c:v>2.142880837219252E-7</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.20778597824487188</c:v>
+                  <c:v>-1.2093315979733177E-6</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.16802867429628843</c:v>
+                  <c:v>-1.856622407148123E-6</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.12847531554893621</c:v>
+                  <c:v>-1.0812366533219375E-6</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.23097531566686258</c:v>
+                  <c:v>3.6374047396314779E-7</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.43159854904283845</c:v>
+                  <c:v>-5.3811130484859859E-7</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.12245679093792727</c:v>
+                  <c:v>3.3757424300340233E-7</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.2079649828992585E-2</c:v>
+                  <c:v>9.4295576946734627E-7</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.12601786120437386</c:v>
+                  <c:v>-1.4279573612441254E-6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.27228515463695691</c:v>
+                  <c:v>-2.252508839228895E-6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.19866483856546258</c:v>
+                  <c:v>-3.6166500905210341E-8</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.2287237808244118</c:v>
+                  <c:v>-9.1535607849024814E-7</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.486112249287876E-2</c:v>
+                  <c:v>-6.1870243794892588E-7</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-6.3616901552999705E-2</c:v>
+                  <c:v>-3.1497438968131064E-7</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11894334972413723</c:v>
+                  <c:v>1.3735159163363875E-6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-7.1508883632378506E-2</c:v>
+                  <c:v>-6.542557517974501E-8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.29783978537914324</c:v>
+                  <c:v>-1.3786848396257767E-7</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.13982895710879806</c:v>
+                  <c:v>-1.5285662706698844E-6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.61375580517616535</c:v>
+                  <c:v>-3.9480291325055816E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,6 +3386,1578 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STATE PREDICTION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$N$12:$N$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000007985997005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4680007872057903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2039806700766578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6079212269198164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8464688515717409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9910342688096518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0773119807163827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1251250431237345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1463602625817568</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1485754194444056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1368036376793658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1145240650295296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0842169143014928</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0476969513217664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.006321651800512</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9611249815452076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9129078261608399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8622997032896587</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8098009920521436</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7558142906577263</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7006663390183494</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6446246698269009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5879100106753636</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5307057575586844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4731649930963417</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4154164432636733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3575685649279654</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2997131618335178</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2419282615408331</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1842803544659892</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.126826165260324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0696141519225764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.012685974052439</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9560770692538343</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8998178647136594</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8439344620185025</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7884490124545742</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7333805581372586</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.6787451024413134</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.6245562853933846</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5708255218002289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5175622862105635</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.4647744440426775</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.41246831014137</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3606489623140874</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3093203235635524</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.2584853078586988</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.2081458981869915</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.158303304372172</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.1089580960615582</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0601101108256952</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0117586699908268</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.963902674756798</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.916540542280603</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.8696702722537744</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8232895487623235</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7773957731493111</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7319860396695796</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.6870572256944412</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.6426059742745824</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.598628794517027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5551220267408539</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5120817964538418</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.469504152694399</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4273850625744355</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.3857203845919166</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.344505898041092</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.3037373050639003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.2634102370472959</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.2235203274560993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.1840631251924671</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.1450341658423353</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.1064289964142429</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.0682430728344787</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0304719374687048</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.9931110447833822</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.9561558809127684</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.9196019703956333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.8834448148538616</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.8476799305826219</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.812302864888597</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.7773091408595301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.742694340084209</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.7084540759272242</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.6745839958264304</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.6410797667579216</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.60793705180558</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.5751515939072718</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.5427191460306586</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.5106354664837038</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.4788964001958593</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.4474978444080993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.4164356675291039</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.3857058229422021</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.3553042905625121</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.3252271042927228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.2954702916619185</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.2660299675379898</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.23690226032131</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.2080833430004887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2156-4AF6-AF43-E0729826C02B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACTUAL STATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$D$12:$D$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.604000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4119200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2236816000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0392079680000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8584238086400013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6812553324672006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5076302258178558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3374776213014989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1707280688754693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.00731350749796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8471672373480006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6902238926010407</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5364194147490196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3856910264540394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2379772059249587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0932176618064595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9513533085703303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8123262423989237</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6760797175509454</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5425581231999264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4117069607359278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.283472821521209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1578033650907846</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0346472977889691</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9139543518331896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7956752647965262</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6797617595005958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5661665243105842</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4548431938243729</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3457463299478851</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2388314033489269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1340547752819479</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0313736797763084</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9307462061807819</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8321312820571665</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.735488656416023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6407788832877026</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5479633056219484</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.457004039509509</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3678639587193189</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2805066795449322</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1948965459540339</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1109986150349531</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0287786427342542</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9482030698795691</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8692390084819777</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7918542283123382</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7160171437460914</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6416968008711694</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5688628648537462</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4974856075566714</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.4275358954055379</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3589851774974271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2918054739474787</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2259693644685292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1614499771791587</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0982209776355756</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0362565580828642</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.975531426921207</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.9160207983827826</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.857700382415127</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8005463747668244</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.7445354472714878</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.689644738326058</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6358518435595366</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5831348066883457</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5314721105545788</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4808426683434872</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4312258149766173</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.382601298677085</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.3349492727035432</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2882502872494723</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2424852815044827</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1976355758743931</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.153682864356905</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1106092070697668</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0683970229283717</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0270290824698041</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9864885008204078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9467587308039997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9078235561879198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8696670850641612</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.832273743362878</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7956282684956204</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.759715703125708</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7245213890631939</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.69003096128193</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6562303420562914</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6231057352151654</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5906436205108621</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5588307481006447</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5276541331386317</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4971010504758591</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4671590294663419</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.437815848877015</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4090595318994747</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3808783412614851</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3532607744362555</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3261955589475303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2156-4AF6-AF43-E0729826C02B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497708296"/>
+        <c:axId val="497680416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497708296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497680416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497680416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497708296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3387,6 +4999,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4458,20 +6110,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4498,16 +6666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4527,6 +6695,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85BF79F-6F9A-4204-9CAD-29A050586AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4832,10 +7036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB10ABEC-9FAA-40D5-98F6-F0A3D0D05DE8}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,11 +7047,15 @@
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
@@ -4857,8 +7065,11 @@
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4892,14 +7103,21 @@
       <c r="L2" t="s">
         <v>8</v>
       </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2">
+        <f>K3^2</f>
+        <v>9.9999999999999998E-13</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -4907,19 +7125,19 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
-        <v>0.2</v>
+      <c r="K3" s="10">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4930,7 +7148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4944,7 +7162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4962,7 +7180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +7192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
@@ -4990,8 +7208,17 @@
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -5015,8 +7242,17 @@
       <c r="J11" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="L11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -5029,27 +7265,37 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <f ca="1">NORMINV(RAND(),$H$2,$H$3)</f>
-        <v>1.9412918246809383E-2</v>
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>0</v>
       </c>
       <c r="F12">
         <f ca="1">D12+E12</f>
-        <v>10.019412918246809</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <f ca="1">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>-0.14918698901682789</v>
+        <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
+        <v>5.3845994262177488E-7</v>
       </c>
       <c r="H12">
         <f ca="1">F12+G12</f>
-        <v>9.8702259292299814</v>
+        <v>10.000000538459943</v>
       </c>
       <c r="J12">
         <f ca="1">H12-D12</f>
-        <v>-0.12977407077001857</v>
+        <v>5.3845994330004032E-7</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>N2</f>
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -5062,27 +7308,39 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E76" ca="1" si="1">NORMINV(RAND(),$H$2,$H$3)</f>
-        <v>0.39175410043637304</v>
+        <f t="shared" ref="E13:E76" ca="1" si="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>0</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>10.191754100436373</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G13">
-        <f ca="1">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>2.5444670477111915E-2</v>
+        <f t="shared" ref="G13:G76" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
+        <v>1.5971994009893843E-6</v>
       </c>
       <c r="H13">
         <f ca="1">F13+G13</f>
-        <v>10.217198770913486</v>
+        <v>9.800001597199401</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J76" ca="1" si="2">H13-D13</f>
-        <v>0.41719877091348501</v>
+        <f t="shared" ref="J13:J76" ca="1" si="3">H13-D13</f>
+        <v>1.5971994002939027E-6</v>
+      </c>
+      <c r="L13">
+        <f>M12/(M12+$N$2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <f>(1-L13)*M12</f>
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="N13">
+        <f ca="1">N12 + L13*(H13 - N12)</f>
+        <v>4.9000007985997005</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -5091,31 +7349,43 @@
         <v>0.2</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D77" si="3">$B$2*D13</f>
+        <f t="shared" ref="D14:D77" si="4">$B$2*D13</f>
         <v>9.604000000000001</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5572810591443E-2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F77" ca="1" si="4">D14+E14</f>
-        <v>9.5084271894085575</v>
+        <f t="shared" ref="F14:F77" ca="1" si="5">D14+E14</f>
+        <v>9.604000000000001</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G77" ca="1" si="5">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>-0.11284247908826986</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.644179695245926E-7</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H77" ca="1" si="6">F14+G14</f>
-        <v>9.3955847103202874</v>
+        <v>9.6040007644179699</v>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.20841528967971357</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6441796892368075E-7</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L77" si="7">M13/(M13+$N$2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M77" si="8">(1-L14)*M13</f>
+        <v>3.3333333333333334E-13</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N77" ca="1" si="9">N13 + L14*(H14 - N13)</f>
+        <v>6.4680007872057903</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -5124,31 +7394,43 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4119200000000003</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.906414571263422E-2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.3928558542873652</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4119200000000003</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.8345145264959734E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.186892602401166E-7</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3445107090224049</v>
+        <v>9.4119203186892602</v>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6.7409290977595404E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1868925987055263E-7</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>2.4999999999999999E-13</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.2039806700766578</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -5157,31 +7439,43 @@
         <v>0.4</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2236816000000008</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5844052691849324E-2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.177837547308151</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.2236816000000008</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.51708080194398975</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8542924508931417E-6</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6607567453641607</v>
+        <v>9.223683454292452</v>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.56292485463584008</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8542924511422143E-6</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.6079212269198164</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -5190,31 +7484,43 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0392079680000013</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11597916275331531</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.9232288052466853</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.0392079680000013</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.12530421510439449</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.9316863642779698E-7</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7979245901422907</v>
+        <v>9.0392069748313641</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.24128337785771059</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.9316863710896541E-7</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666665E-13</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.8464688515717409</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -5223,31 +7529,43 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8584238086400013</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24503867159819481</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.6133851370418064</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.8584238086400013</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.35560297333830326</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9635971154551787E-6</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9689881103801099</v>
+        <v>8.8584267722371166</v>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.11056430174010856</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.9635971152686125E-6</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714284E-13</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.9910342688096518</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -5256,31 +7574,43 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6812553324672006</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21679798388824839</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.4644573485789518</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.6812553324672006</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.24661052162075309</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3159630430583041E-7</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>8.2178468269581995</v>
+        <v>8.6812559640635047</v>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.46340850550900115</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3159630414588719E-7</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>1.25E-13</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.0773119807163827</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -5289,31 +7619,43 @@
         <v>0.8</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5076302258178558</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5444701024777891E-2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.5830749268426345</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.5076302258178558</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="5"/>
-        <v>-5.285396426313415E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.8343531400486767E-7</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5302209625795005</v>
+        <v>8.5076295423825421</v>
       </c>
       <c r="J20">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2590736761644692E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-6.8343531367531796E-7</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>1.111111111111111E-13</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1251250431237345</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -5322,31 +7664,43 @@
         <v>0.9</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3374776213014989</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25165223306329282</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.589129854364792</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.3374776213014989</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.41281078284679751</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.835975434925548E-7</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1763190715179945</v>
+        <v>8.3374772377039559</v>
       </c>
       <c r="J21">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.16115854978350441</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.8359754306327432E-7</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>9.999999999999999E-14</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1463602625817568</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -5355,31 +7709,43 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1707280688754693</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1794083387564476</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.3501364076319167</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1707280688754693</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.30227405519142847</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.080804568726794E-6</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6524104628233456</v>
+        <v>8.1707269880708999</v>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48168239394787626</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.0808045693977419E-6</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>9.0909090909090893E-14</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1485754194444056</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -5388,31 +7754,43 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.00731350749796</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7282368011886467E-2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.9900311394860735</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.00731350749796</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.34316564239022201</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.3076596765271529E-7</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3331967818762962</v>
+        <v>8.0073140382639281</v>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.3258832743783362</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3076596806533871E-7</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333323E-14</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1368036376793658</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -5421,31 +7799,43 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8471672373480006</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13826195341644898</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.9854291907644495</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8471672373480006</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.3568988561820523</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9558834991167628E-6</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>8.342328046946502</v>
+        <v>7.8471691932314993</v>
       </c>
       <c r="J24">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.49516080959850139</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9558834987165596E-6</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>7.6923076923076921E-14</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1145240650295296</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -5454,31 +7844,43 @@
         <v>1.3</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6902238926010407</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6828024130648819E-2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.7270519167316891</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6902238926010407</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.13333982935721408</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.2235971217316973E-8</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8603917460889035</v>
+        <v>7.6902239548370117</v>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17016785348786279</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.2235971043378413E-8</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571434E-14</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.0842169143014928</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -5487,31 +7889,43 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5364194147490196</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8544474397852481E-2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.6049638891468723</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.5364194147490196</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.21895065059385704</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9451434193271367E-6</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8239145397407297</v>
+        <v>7.5364174696055999</v>
       </c>
       <c r="J26">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28749512499171015</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.9451434196682271E-6</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666669E-14</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.0476969513217664</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -5520,31 +7934,43 @@
         <v>1.5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3856910264540394</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10450148604787526</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.4901925125019151</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.3856910264540394</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.20959417317492723</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1325276615362596E-6</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="6"/>
-        <v>7.699786685676842</v>
+        <v>7.3856921589817013</v>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31409565922280258</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1325276618734392E-6</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>6.2499999999999999E-14</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.006321651800512</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -5553,31 +7979,43 @@
         <v>1.6</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2379772059249587</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12539703114555947</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.3633742370705182</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.2379772059249587</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.20713293494191798</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0515353839203599E-6</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1562413021286</v>
+        <v>7.2379782574603428</v>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8.1735903796358755E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0515353841000774E-6</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>5.8823529411764703E-14</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.9611249815452076</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -5586,31 +8024,43 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0932176618064595</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7451256839768751E-2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.1706689186462285</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.0932176618064595</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.29844392437828104</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.4771798746085653E-6</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8722249942679472</v>
+        <v>7.0932161846265851</v>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.22099266753851232</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4771798744206421E-6</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555549E-14</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.9129078261608399</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -5619,31 +8069,43 @@
         <v>1.8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9513533085703303</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21129069425478014</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.1626440028251102</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9513533085703303</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.1491061365931525</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8303806981940542E-7</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0135378662319576</v>
+        <v>6.9513534916084003</v>
       </c>
       <c r="J30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2184557661627338E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8303807003405836E-7</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>5.2631578947368417E-14</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.8622997032896587</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -5652,31 +8114,43 @@
         <v>1.9000000000000001</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8123262423989237</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1340277709012245</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.6782984714976994</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.8123262423989237</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.21722153923443557</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.6385956198963535E-7</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8955200107321346</v>
+        <v>6.8123254785393614</v>
       </c>
       <c r="J31">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3193768333210905E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.6385956226943108E-7</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>4.9999999999999995E-14</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.8098009920521436</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -5685,31 +8159,43 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6760797175509454</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32735016499650627</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.3487295525544392</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.6760797175509454</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="5"/>
-        <v>-7.1082987514711093E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4521843705614627E-7</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2776465650397277</v>
+        <v>6.676080262769382</v>
       </c>
       <c r="J32">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.39843315251121769</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.45218436620587E-7</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="8"/>
+        <v>4.7619047619047612E-14</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.7558142906577263</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>21</v>
       </c>
@@ -5718,31 +8204,43 @@
         <v>2.1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5425581231999264</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39813140434045413</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1444267188594726</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.5425581231999264</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.20532047490004329</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2313915151379942E-6</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9391062439594293</v>
+        <v>6.5425593545914413</v>
       </c>
       <c r="J33">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.60345187924049704</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2313915149775312E-6</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>4.5454545454545449E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="8"/>
+        <v>4.5454545454545453E-14</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.7006663390183494</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>22</v>
       </c>
@@ -5751,31 +8249,43 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4117069607359278</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7526329113629753E-2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.5092332898495577</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.4117069607359278</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.8548812355566126E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.868791155288829E-7</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5023784086140015</v>
+        <v>6.4117079476150431</v>
       </c>
       <c r="J34">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.0671447878073685E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.868791153166967E-7</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>4.3478260869565223E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="8"/>
+        <v>4.3478260869565218E-14</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.6446246698269009</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>23</v>
       </c>
@@ -5784,31 +8294,43 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.283472821521209</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13137327873454233</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.4148461002557511</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.283472821521209</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.17966676461035438</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8668807104972887E-8</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2351793356453964</v>
+        <v>6.2834728501900159</v>
       </c>
       <c r="J35">
-        <f t="shared" ca="1" si="2"/>
-        <v>-4.8293485875812614E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.866880688401352E-8</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666668E-14</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.5879100106753636</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>24</v>
       </c>
@@ -5817,31 +8339,43 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1578033650907846</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21839909323522094</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.9394042718555635</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.1578033650907846</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.32117093348384562</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1766759327443255E-7</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6182333383717182</v>
+        <v>6.1578036827583782</v>
       </c>
       <c r="J36">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.5395700267190664</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.176675935634421E-7</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="8"/>
+        <v>4E-14</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.5307057575586844</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>25</v>
       </c>
@@ -5850,31 +8384,43 @@
         <v>2.5</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0346472977889691</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12073982714048173</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1553871249294509</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.0346472977889691</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.12900472307751035</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.4162511858401535E-6</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2843918480069609</v>
+        <v>6.0346458815377835</v>
       </c>
       <c r="J37">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2497445502179918</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4162511856596893E-6</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="8"/>
+        <v>3.846153846153846E-14</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4731649930963417</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>26</v>
       </c>
@@ -5883,31 +8429,43 @@
         <v>2.6</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9139543518331896</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32969204545558539</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.2436463972887752</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.9139543518331896</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.9252009787030453E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.0421888720822232E-7</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3228984070758054</v>
+        <v>5.9139541476143025</v>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.40894405524261579</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.0421888713428871E-7</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>3.7037037037037042E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="8"/>
+        <v>3.7037037037037035E-14</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4154164432636733</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>27</v>
       </c>
@@ -5916,31 +8474,43 @@
         <v>2.7</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7956752647965262</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13633377951315823</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.9320090443096847</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.7956752647965262</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.14002148144148124</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8506732322880198E-7</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7919875628682034</v>
+        <v>5.7956758498638496</v>
       </c>
       <c r="J39">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3.6877019283227952E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8506732347751722E-7</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="8"/>
+        <v>3.5714285714285711E-14</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.3575685649279654</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>28</v>
       </c>
@@ -5949,31 +8519,43 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6797617595005958</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.18641220032458392</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.4933495591760115</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.6797617595005958</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.16470071835924593</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.156883992159614E-7</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6580502775352572</v>
+        <v>5.6797618751889951</v>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.1711481965338564E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.156883993047586E-7</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>3.4482758620689648E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="8"/>
+        <v>3.4482758620689654E-14</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.2997131618335178</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>29</v>
       </c>
@@ -5982,31 +8564,43 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5661665243105842</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1553624311753126E-2</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.5346128999988311</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.5661665243105842</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.33319463256602894</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.712576012450859E-7</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8678075325648598</v>
+        <v>5.5661661530529827</v>
       </c>
       <c r="J41">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.30164100825427553</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.7125760155021226E-7</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333334E-14</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.2419282615408331</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>30</v>
       </c>
@@ -6015,31 +8609,43 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4548431938243729</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9135746474543791E-3</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.4577567684718273</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.4548431938243729</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.23122798151491561</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.160369730455142E-8</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2265287869569121</v>
+        <v>5.4548431422206756</v>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.22831440686746074</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.1603697315272257E-8</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>3.2258064516129038E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="8"/>
+        <v>3.2258064516129035E-14</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.1842803544659892</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>31</v>
       </c>
@@ -6048,31 +8654,48 @@
         <v>3.1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3457463299478851</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2203634617880869E-3</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3425259664860967</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3457463299478851</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.17645821039160345</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.0063183982623816E-8</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5189841768776997</v>
+        <v>5.3457462998847012</v>
       </c>
       <c r="J43">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17323784692981459</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.0063183942274918E-8</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>3.1250000000000007E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="8"/>
+        <v>3.1250000000000006E-14</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.126826165260324</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>32</v>
       </c>
@@ -6081,31 +8704,49 @@
         <v>3.2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2388314033489269</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27787566208041492</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9609557412685117</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2388314033489269</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="5"/>
-        <v>-9.8763991223672853E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.6782342780971033E-6</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8621917500448388</v>
+        <v>5.2388297251146492</v>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.37663965330408811</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.6782342777688086E-6</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="7"/>
+        <v>3.0303030303030307E-2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="8"/>
+        <v>3.0303030303030306E-14</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.0696141519225764</v>
+      </c>
+      <c r="O44" s="9"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>33</v>
       </c>
@@ -6114,31 +8755,49 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1340547752819479</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20954949568919262</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.3436042709711407</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.1340547752819479</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.44960800557293495</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.329055945900265E-6</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7932122765440752</v>
+        <v>5.1340561043378941</v>
       </c>
       <c r="J45">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.65915750126212735</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3290559461864859E-6</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>2.9411764705882356E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="8"/>
+        <v>2.9411764705882358E-14</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.012685974052439</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>34</v>
       </c>
@@ -6147,31 +8806,49 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0313736797763084</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3091329202141008E-2</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9982823505741676</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0313736797763084</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.4654560970641031E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.2632497992901528E-7</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0529369115448084</v>
+        <v>5.0313743061012888</v>
       </c>
       <c r="J46">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.1563231768499946E-2</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.2632498032400008E-7</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="7"/>
+        <v>2.8571428571428581E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428575E-14</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.9560770692538343</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>35</v>
       </c>
@@ -6180,31 +8857,49 @@
         <v>3.5</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9307462061807819</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1193457140767977E-2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0119396633215496</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9307462061807819</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.18693364027535833</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.0037323382019376E-7</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1988733035969084</v>
+        <v>4.9307457058075483</v>
       </c>
       <c r="J47">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2681270974161265</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.0037323351403984E-7</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777781E-14</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.8998178647136594</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36</v>
       </c>
@@ -6213,31 +8908,49 @@
         <v>3.6</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8321312820571665</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14452664887617458</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.6876046331809915</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.8321312820571665</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.16599322537102087</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8293569141243235E-7</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5216114078099707</v>
+        <v>4.8321319649928576</v>
       </c>
       <c r="J48">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.31051987424719574</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.8293569110977614E-7</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="7"/>
+        <v>2.7027027027027032E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="8"/>
+        <v>2.7027027027027029E-14</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.8439344620185025</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>37</v>
       </c>
@@ -6246,31 +8959,49 @@
         <v>3.7</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.735488656416023</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12262239212792875</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.612866264288094</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.735488656416023</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.15489883623447526</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.2778268034511295E-6</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7677651005225696</v>
+        <v>4.7354873785892195</v>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.227644410654662E-2</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2778268034807638E-6</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="7"/>
+        <v>2.6315789473684216E-2</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="8"/>
+        <v>2.6315789473684215E-14</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.7884490124545742</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>38</v>
       </c>
@@ -6279,31 +9010,49 @@
         <v>3.8000000000000003</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6407788832877026</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36229336719934846</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.2784855160883541</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.6407788832877026</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.10368061756895663</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1079155067337377E-7</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3821661336573108</v>
+        <v>4.6407792940792536</v>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.25861274963039182</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1079155099765785E-7</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025644E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="8"/>
+        <v>2.5641025641025645E-14</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.7333805581372586</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>39</v>
       </c>
@@ -6312,31 +9061,49 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5479633056219484</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35880008067841862</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9067633863003675</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5479633056219484</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="5"/>
-        <v>-7.5910692394563939E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.7532250120516514E-7</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8308526939058032</v>
+        <v>4.5479623302994474</v>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28288938828385479</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.7532250098453233E-7</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000005E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000004E-14</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.6787451024413134</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>40</v>
       </c>
@@ -6345,31 +9112,49 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.457004039509509</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5838717133520893E-2</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5528427566430301</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.457004039509509</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.3416730132548504E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.3603327647621383E-7</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6162594867755784</v>
+        <v>4.4570036034762328</v>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.15925544726606944</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.3603327615215903E-7</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="7"/>
+        <v>2.4390243902439029E-2</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="8"/>
+        <v>2.4390243902439026E-14</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.6245562853933846</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>41</v>
       </c>
@@ -6378,31 +9163,49 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3678639587193189</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14156554728624704</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5094295060055662</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.3678639587193189</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.12429953136276058</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5576154326211344E-7</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3851299746428056</v>
+        <v>4.3678642144808624</v>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7266015923486755E-2</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5576154349948865E-7</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="7"/>
+        <v>2.3809523809523815E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="8"/>
+        <v>2.3809523809523809E-14</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.5708255218002289</v>
+      </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42</v>
       </c>
@@ -6411,31 +9214,49 @@
         <v>4.2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2805066795449322</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1296468336782016</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.150859845866731</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2805066795449322</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.10988280873285668</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.8810031286349266E-7</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0409770371338745</v>
+        <v>4.2805063914446198</v>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.23952964241105779</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.8810031249548729E-7</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="7"/>
+        <v>2.3255813953488375E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="8"/>
+        <v>2.3255813953488373E-14</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.5175622862105635</v>
+      </c>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43</v>
       </c>
@@ -6444,31 +9265,49 @@
         <v>4.3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1948965459540339</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.6273938613273584E-2</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.1186226073407601</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1948965459540339</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="5"/>
-        <v>-3.2679024942909032E-4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8486955972808147E-7</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1182958170913313</v>
+        <v>4.1948972308235932</v>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.6600728862702638E-2</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.8486955928648285E-7</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="7"/>
+        <v>2.2727272727272724E-2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="8"/>
+        <v>2.272727272727273E-14</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.4647744440426775</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44</v>
       </c>
@@ -6477,31 +9316,49 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1109986150349531</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3020823647253289</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8089162503096241</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1109986150349531</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.4920882189953618E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.965511037963245E-7</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7639953681196703</v>
+        <v>4.1109984184838497</v>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.34700324691528284</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.9655110339300563E-7</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="7"/>
+        <v>2.2222222222222227E-2</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222224E-14</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.41246831014137</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45</v>
       </c>
@@ -6510,31 +9367,43 @@
         <v>4.5</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0287786427342542</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11805120184227953</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.1468298445765335</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.0287786427342542</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.782243609096052E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.3264789018148435E-7</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1946522806674942</v>
+        <v>4.0287783100863637</v>
       </c>
       <c r="J57">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16587363793323995</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.3264789056630661E-7</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="7"/>
+        <v>2.1739130434782612E-2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="8"/>
+        <v>2.1739130434782612E-14</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.3606489623140874</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>46</v>
       </c>
@@ -6543,31 +9412,43 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9482030698795691</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34130563200117425</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.2895087018807434</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.9482030698795691</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.16908935721076251</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.2884062096433362E-7</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1204193446699806</v>
+        <v>3.9482029410389483</v>
       </c>
       <c r="J58">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17221627479041146</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2884062083884373E-7</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="7"/>
+        <v>2.1276595744680854E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="8"/>
+        <v>2.1276595744680854E-14</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.3093203235635524</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>47</v>
       </c>
@@ -6576,31 +9457,43 @@
         <v>4.7</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8692390084819777</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9606051521655095E-2</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.9688450600036327</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8692390084819777</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.38419991219021865</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6124860684349346E-7</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="6"/>
-        <v>3.584645147813414</v>
+        <v>3.8692395697305844</v>
       </c>
       <c r="J59">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.28459386066856363</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.6124860670081489E-7</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="7"/>
+        <v>2.0833333333333339E-2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="8"/>
+        <v>2.0833333333333334E-14</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.2584853078586988</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>48</v>
       </c>
@@ -6609,31 +9502,43 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7918542283123382</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1365781813052126</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.9284324096175509</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.7918542283123382</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.34207482767320085</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6327113744558195E-9</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5863575819443501</v>
+        <v>3.7918542339450494</v>
       </c>
       <c r="J60">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.20549664636798814</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.6327111863652135E-9</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="7"/>
+        <v>2.0408163265306124E-2</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="8"/>
+        <v>2.0408163265306122E-14</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.2081458981869915</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>49</v>
       </c>
@@ -6642,31 +9547,43 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7160171437460914</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16077647043678497</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8767936141828763</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.7160171437460914</v>
       </c>
       <c r="G61">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.11392878703860275</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.3630007282145762E-7</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7628648271442735</v>
+        <v>3.7160162074460183</v>
       </c>
       <c r="J61">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.6847683398182127E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.3630007302891727E-7</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="8"/>
+        <v>2E-14</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.158303304372172</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>50</v>
       </c>
@@ -6675,31 +9592,43 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6416968008711694</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.30296774049416E-2</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.5786671234662277</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6416968008711694</v>
       </c>
       <c r="G62">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.49639338190032128</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.7965969571136086E-7</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0750605053665492</v>
+        <v>3.6416976805308652</v>
       </c>
       <c r="J62">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.43336370449537975</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.7965969575165559E-7</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="7"/>
+        <v>1.9607843137254905E-2</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="8"/>
+        <v>1.9607843137254901E-14</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.1089580960615582</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>51</v>
       </c>
@@ -6708,31 +9637,43 @@
         <v>5.1000000000000005</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5688628648537462</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12381929782216988</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.6926821626759159</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.5688628648537462</v>
       </c>
       <c r="G63">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1614614933687866E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0570420814162727E-9</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7442967776096037</v>
+        <v>3.5688628637967041</v>
       </c>
       <c r="J63">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.17543391275585751</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.057042009477982E-9</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="7"/>
+        <v>1.9230769230769228E-2</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="8"/>
+        <v>1.923076923076923E-14</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.0601101108256952</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>52</v>
       </c>
@@ -6741,31 +9682,43 @@
         <v>5.2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4974856075566714</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17432636995343134</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3231592376032402</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.4974856075566714</v>
       </c>
       <c r="G64">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.832219913455688E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.8609790193393977E-6</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3914814367377972</v>
+        <v>3.497483746577652</v>
       </c>
       <c r="J64">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.10600417081887414</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.8609790193302445E-6</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="7"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="8"/>
+        <v>1.8867924528301888E-14</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.0117586699908268</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>53</v>
       </c>
@@ -6774,31 +9727,43 @@
         <v>5.3000000000000007</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4275358954055379</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.0244176805513331E-2</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3772917186000244</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.4275358954055379</v>
       </c>
       <c r="G65">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.30007477604704152</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.6805224404270367E-7</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0772169425529827</v>
+        <v>3.4275349273532938</v>
       </c>
       <c r="J65">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.35031895285255521</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.6805224414353575E-7</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="7"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="8"/>
+        <v>1.851851851851852E-14</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.963902674756798</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>54</v>
       </c>
@@ -6807,31 +9772,43 @@
         <v>5.4</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3589851774974271</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14067481576816612</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.4996599932655932</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.3589851774974271</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.11147626099165826</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1106866805173321E-7</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="6"/>
-        <v>3.388183732273935</v>
+        <v>3.358985388566095</v>
       </c>
       <c r="J66">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9198554776507901E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1106866787690137E-7</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="7"/>
+        <v>1.8181818181818184E-2</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="8"/>
+        <v>1.8181818181818184E-14</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.916540542280603</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>55</v>
       </c>
@@ -6840,31 +9817,43 @@
         <v>5.5</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2918054739474787</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9414998062612849E-2</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3512204720100915</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2918054739474787</v>
       </c>
       <c r="G67">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.19237149680783394</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.3169264478017799E-8</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5435919688179256</v>
+        <v>3.2918054207782141</v>
       </c>
       <c r="J67">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.25178649487044691</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.3169264546681916E-8</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="7"/>
+        <v>1.785714285714286E-2</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="8"/>
+        <v>1.7857142857142859E-14</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.8696702722537744</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>56</v>
       </c>
@@ -6873,31 +9862,43 @@
         <v>5.6000000000000005</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2259693644685292</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21964960279951851</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.4456189672680475</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2259693644685292</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.4539711778285522E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.3122746040055339E-7</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>3.470158679046333</v>
+        <v>3.2259690332410687</v>
       </c>
       <c r="J68">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2441893145778038</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.3122746057046015E-7</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="7"/>
+        <v>1.754385964912281E-2</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="8"/>
+        <v>1.7543859649122807E-14</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.8232895487623235</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>57</v>
       </c>
@@ -6906,31 +9907,43 @@
         <v>5.7</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1614499771791587</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32161077967113466</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.8398391975080242</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1614499771791587</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.58601084033985E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8602842919731366E-7</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8556993059114228</v>
+        <v>3.161450563207588</v>
       </c>
       <c r="J69">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.30575067126773581</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.860284293390805E-7</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="7"/>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="8"/>
+        <v>1.7241379310344827E-14</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.7773957731493111</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>58</v>
       </c>
@@ -6939,31 +9952,43 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0982209776355756</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1171776011231976E-2</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1493927536468074</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0982209776355756</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.3311705085992336E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2020955747538555E-7</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1547239241554066</v>
+        <v>3.0982214978451332</v>
       </c>
       <c r="J70">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.650294651983101E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.2020955765286203E-7</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="7"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="8"/>
+        <v>1.6949152542372882E-14</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.7319860396695796</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>59</v>
       </c>
@@ -6972,31 +9997,43 @@
         <v>5.9</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0362565580828642</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.58498349166321029</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.4512730664196538</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0362565580828642</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2196595938243526</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4307842394085403E-7</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6709326602440062</v>
+        <v>3.0362572011612881</v>
       </c>
       <c r="J71">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.36532389783885799</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4307842384536684E-7</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666667E-14</v>
+      </c>
+      <c r="N71">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.6870572256944412</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>60</v>
       </c>
@@ -7005,31 +10042,43 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.975531426921207</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16109276669899292</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1366241936201997</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.975531426921207</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.0436909280080002E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.3783817386933431E-7</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2170611029002796</v>
+        <v>2.975530889083033</v>
       </c>
       <c r="J72">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2415296759790726</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.3783817399732925E-7</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="7"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="8"/>
+        <v>1.6393442622950821E-14</v>
+      </c>
+      <c r="N72">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.6426059742745824</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>61</v>
       </c>
@@ -7038,31 +10087,43 @@
         <v>6.1000000000000005</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9160207983827826</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.20477472986524581</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7112460685175366</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9160207983827826</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.30519022390636014</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0923346738383061E-8</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0164362924238968</v>
+        <v>2.9160208293061292</v>
       </c>
       <c r="J73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.10041549404111416</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0923346550082442E-8</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="7"/>
+        <v>1.6129032258064519E-2</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064518E-14</v>
+      </c>
+      <c r="N73">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.598628794517027</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>62</v>
       </c>
@@ -7071,31 +10132,43 @@
         <v>6.2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.857700382415127</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10749445213562712</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9651948345507542</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.857700382415127</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.694470978442448E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0422029736612831E-6</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0221395443351788</v>
+        <v>2.8577024246181009</v>
       </c>
       <c r="J74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16443916192005181</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0422029738398351E-6</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="7"/>
+        <v>1.5873015873015876E-2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="8"/>
+        <v>1.5873015873015873E-14</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.5551220267408539</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>63</v>
       </c>
@@ -7104,31 +10177,43 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8005463747668244</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21654956236094974</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.0170959371277744</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8005463747668244</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.26239102033718065</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1360527853756979E-7</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2794869574649548</v>
+        <v>2.800547288372103</v>
       </c>
       <c r="J75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.47894058269813033</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1360527854078555E-7</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="8"/>
+        <v>1.5625E-14</v>
+      </c>
+      <c r="N75">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.5120817964538418</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>64</v>
       </c>
@@ -7137,1219 +10222,1666 @@
         <v>6.4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7445354472714878</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0159680769882951E-3</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7375194791944994</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7445354472714878</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.39503152935837044</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.9518143268821631E-7</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1325510085528698</v>
+        <v>2.744534952090055</v>
       </c>
       <c r="J76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.38801556128138204</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.9518143274696058E-7</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="8"/>
+        <v>1.5384615384615384E-14</v>
+      </c>
+      <c r="N76">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.469504152694399</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" ref="B77:B112" si="7">A77*$B$7+$B$8</f>
+        <f t="shared" ref="B77:B112" si="10">A77*$B$7+$B$8</f>
         <v>6.5</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.689644738326058</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E112" ca="1" si="8">NORMINV(RAND(),$H$2,$H$3)</f>
-        <v>-0.32794591018497737</v>
+        <f t="shared" ref="E77:E112" ca="1" si="11">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3616988281410807</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.689644738326058</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.7419527386793396E-2</v>
+        <f t="shared" ref="G77:G112" ca="1" si="12">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
+        <v>-5.335492538397239E-7</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2942793007542872</v>
+        <v>2.6896442047768043</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:J112" ca="1" si="9">H77-D77</f>
-        <v>-0.39536543757177078</v>
+        <f t="shared" ref="J77:J112" ca="1" si="13">H77-D77</f>
+        <v>-5.3354925366733141E-7</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="7"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="8"/>
+        <v>1.515151515151515E-14</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.4273850625744355</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>66</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:D112" si="10">$B$2*D77</f>
+        <f t="shared" ref="D78:D112" si="14">$B$2*D77</f>
         <v>2.6358518435595366</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.15345033993233925</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78:F112" ca="1" si="11">D78+E78</f>
-        <v>2.4824015036271971</v>
+        <f t="shared" ref="F78:F112" ca="1" si="15">D78+E78</f>
+        <v>2.6358518435595366</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:G112" ca="1" si="12">NORMINV(RAND(),$K$2,$K$3)</f>
-        <v>0.15538844807492411</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-2.0581389252993015E-7</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H112" ca="1" si="13">F78+G78</f>
-        <v>2.6377899517021213</v>
+        <f t="shared" ref="H78:H112" ca="1" si="16">F78+G78</f>
+        <v>2.635851637745644</v>
       </c>
       <c r="J78">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.9381081425846602E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.0581389259533012E-7</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:L112" si="17">M77/(M77+$N$2)</f>
+        <v>1.4925373134328356E-2</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ref="M78:M112" si="18">(1-L78)*M77</f>
+        <v>1.4925373134328358E-14</v>
+      </c>
+      <c r="N78">
+        <f t="shared" ref="N78:N112" ca="1" si="19">N77 + L78*(H78 - N77)</f>
+        <v>5.3857203845919166</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.7</v>
       </c>
       <c r="D79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.5831348066883457</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.670401732301095E-3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.5878052084206469</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.5831348066883457</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="12"/>
-        <v>1.194144582742436E-2</v>
+        <v>4.9244748887333018E-7</v>
       </c>
       <c r="H79">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.5831352991358347</v>
+      </c>
+      <c r="J79">
         <f t="shared" ca="1" si="13"/>
-        <v>2.5997466542480714</v>
-      </c>
-      <c r="J79">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.6611847559725668E-2</v>
+        <v>4.924474890088959E-7</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="17"/>
+        <v>1.4705882352941175E-2</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="18"/>
+        <v>1.4705882352941176E-14</v>
+      </c>
+      <c r="N79">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.344505898041092</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>68</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="D80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.5314721105545788</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.1878839258811186</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.7193560364356975</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.5314721105545788</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="12"/>
-        <v>5.125649112712162E-2</v>
+        <v>8.7206028175108815E-7</v>
       </c>
       <c r="H80">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.5314729826148605</v>
+      </c>
+      <c r="J80">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7706125275628191</v>
-      </c>
-      <c r="J80">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.23914041700824029</v>
+        <v>8.7206028176467498E-7</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="17"/>
+        <v>1.4492753623188404E-2</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="18"/>
+        <v>1.4492753623188405E-14</v>
+      </c>
+      <c r="N80">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.3037373050639003</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>69</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.9</v>
       </c>
       <c r="D81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.4808426683434872</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.35218544544527924</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.8330281137887665</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.4808426683434872</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.12274343996606141</v>
+        <v>-1.2444191272246582E-7</v>
       </c>
       <c r="H81">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.4808425439015744</v>
+      </c>
+      <c r="J81">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7102846738227049</v>
-      </c>
-      <c r="J81">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.22944200547921767</v>
+        <v>-1.2444191277438676E-7</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="17"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="18"/>
+        <v>1.4285714285714284E-14</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.2634102370472959</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>70</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.4312258149766173</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.188987657676768E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.4631156915533849</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.4312258149766173</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="12"/>
-        <v>-4.1663895963882043E-2</v>
+        <v>8.4109569493333388E-7</v>
       </c>
       <c r="H82">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.4312266560723121</v>
+      </c>
+      <c r="J82">
         <f t="shared" ca="1" si="13"/>
-        <v>2.421451795589503</v>
-      </c>
-      <c r="J82">
-        <f t="shared" ca="1" si="9"/>
-        <v>-9.7740193871143077E-3</v>
+        <v>8.4109569487011981E-7</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="17"/>
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="18"/>
+        <v>1.408450704225352E-14</v>
+      </c>
+      <c r="N82">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.2235203274560993</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>71</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.1000000000000005</v>
       </c>
       <c r="D83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.382601298677085</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.11174747502643595</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.4943487737035208</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.382601298677085</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="12"/>
-        <v>9.4823711978088629E-2</v>
+        <v>4.6579748786618107E-7</v>
       </c>
       <c r="H83">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.3826017644745727</v>
+      </c>
+      <c r="J83">
         <f t="shared" ca="1" si="13"/>
-        <v>2.5891724856816096</v>
-      </c>
-      <c r="J83">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.20657118700452459</v>
+        <v>4.6579748769204343E-7</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="18"/>
+        <v>1.3888888888888889E-14</v>
+      </c>
+      <c r="N83">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.1840631251924671</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>72</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.3349492727035432</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.1132422444639259</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.2217070282396172</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.3349492727035432</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25648772562273059</v>
+        <v>-1.8007073108810596E-7</v>
       </c>
       <c r="H84">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.334949092632812</v>
+      </c>
+      <c r="J84">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4781947538623479</v>
-      </c>
-      <c r="J84">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14324548115880464</v>
+        <v>-1.8007073121495409E-7</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="17"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="18"/>
+        <v>1.36986301369863E-14</v>
+      </c>
+      <c r="N84">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.1450341658423353</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>73</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="D85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.2882502872494723</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="8"/>
-        <v>-8.5040586242439056E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.2032097010070331</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.2882502872494723</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27898119443945374</v>
+        <v>1.3409140300430968E-6</v>
       </c>
       <c r="H85">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.2882516281635024</v>
+      </c>
+      <c r="J85">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4821908954464869</v>
-      </c>
-      <c r="J85">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.19394060819701453</v>
+        <v>1.3409140300346678E-6</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="17"/>
+        <v>1.3513513513513513E-2</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="18"/>
+        <v>1.3513513513513513E-14</v>
+      </c>
+      <c r="N85">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.1064289964142429</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.4</v>
       </c>
       <c r="D86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.2424852815044827</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.28525352945190929</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.5277388109563921</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.2424852815044827</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.10289323044867836</v>
+        <v>-5.5357252608871437E-7</v>
       </c>
       <c r="H86">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.2424847279319566</v>
+      </c>
+      <c r="J86">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4248455805077138</v>
-      </c>
-      <c r="J86">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18236029900323114</v>
+        <v>-5.5357252604082419E-7</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="17"/>
+        <v>1.3333333333333332E-2</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333E-14</v>
+      </c>
+      <c r="N86">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.0682430728344787</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>75</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.5</v>
       </c>
       <c r="D87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.1976355758743931</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.27053410263263178</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F87">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.4681696785070248</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.1976355758743931</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.1283985948409751</v>
+        <v>1.2091612876636745E-6</v>
       </c>
       <c r="H87">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.1976367850356806</v>
+      </c>
+      <c r="J87">
         <f t="shared" ca="1" si="13"/>
-        <v>2.3397710836660499</v>
-      </c>
-      <c r="J87">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14213550779165685</v>
+        <v>1.2091612875408941E-6</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="17"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="18"/>
+        <v>1.3157894736842104E-14</v>
+      </c>
+      <c r="N87">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.0304719374687048</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>76</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="D88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.153682864356905</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.2952769633303074</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8584059010265976</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.153682864356905</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="12"/>
-        <v>0.18766302179577943</v>
+        <v>3.3634196304281236E-7</v>
       </c>
       <c r="H88">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.1536832006988682</v>
+      </c>
+      <c r="J88">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0460689228223772</v>
-      </c>
-      <c r="J88">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.10761394153452786</v>
+        <v>3.3634196316967291E-7</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="17"/>
+        <v>1.2987012987012986E-2</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="18"/>
+        <v>1.2987012987012986E-14</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.9931110447833822</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>77</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.7</v>
       </c>
       <c r="D89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.1106092070697668</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.42105191489604388</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.5316611219658105</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.1106092070697668</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="12"/>
-        <v>0.53705171792026074</v>
+        <v>-9.4419423197566118E-7</v>
       </c>
       <c r="H89">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.1106082628755347</v>
+      </c>
+      <c r="J89">
         <f t="shared" ca="1" si="13"/>
-        <v>3.0687128398860715</v>
-      </c>
-      <c r="J89">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.95810363281630462</v>
+        <v>-9.4419423213309983E-7</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="17"/>
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="18"/>
+        <v>1.282051282051282E-14</v>
+      </c>
+      <c r="N89">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.9561558809127684</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>78</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="D90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0683970229283717</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.20711472374034165</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.86128229918803</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.0683970229283717</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="12"/>
-        <v>-7.7369033657827213E-2</v>
+        <v>-7.2869289629146247E-8</v>
       </c>
       <c r="H90">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.068396950059082</v>
+      </c>
+      <c r="J90">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7839132655302028</v>
-      </c>
-      <c r="J90">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.28448375739816889</v>
+        <v>-7.2869289713395347E-8</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="17"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="18"/>
+        <v>1.2658227848101266E-14</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.9196019703956333</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.9</v>
       </c>
       <c r="D91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0270290824698041</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.7309253490782649E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.1243383359605867</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.0270290824698041</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.1602737818640236E-2</v>
+        <v>4.4458409061560532E-7</v>
       </c>
       <c r="H91">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.0270295270538945</v>
+      </c>
+      <c r="J91">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1027355981419467</v>
-      </c>
-      <c r="J91">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.5706515672142594E-2</v>
+        <v>4.4458409043102165E-7</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="17"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="18"/>
+        <v>1.25E-14</v>
+      </c>
+      <c r="N91">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.8834448148538616</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.9864885008204078</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.10363669082246257</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8828518099979452</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.9864885008204078</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="12"/>
-        <v>-5.7473959358206629E-2</v>
+        <v>6.8806303818439229E-7</v>
       </c>
       <c r="H92">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.9864891888834459</v>
+      </c>
+      <c r="J92">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8253778506397387</v>
-      </c>
-      <c r="J92">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.16111065018066917</v>
+        <v>6.8806303810120539E-7</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="17"/>
+        <v>1.234567901234568E-2</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="18"/>
+        <v>1.2345679012345679E-14</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.8476799305826219</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>81</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.9467587308039997</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.25779582387197497</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.2045545546759748</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.9467587308039997</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="12"/>
-        <v>9.1220791234930917E-2</v>
+        <v>1.8128686098848697E-6</v>
       </c>
       <c r="H93">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.9467605436726096</v>
+      </c>
+      <c r="J93">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2957753459109056</v>
-      </c>
-      <c r="J93">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.34901661510690585</v>
+        <v>1.8128686098961566E-6</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="17"/>
+        <v>1.2195121951219511E-2</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="18"/>
+        <v>1.2195121951219512E-14</v>
+      </c>
+      <c r="N93">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.812302864888597</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>82</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="D94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.9078235561879198</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="8"/>
-        <v>8.9560522217818531E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.9973840784057384</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.9078235561879198</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="12"/>
-        <v>1.6136927637805859E-2</v>
+        <v>2.1428808370441838E-7</v>
       </c>
       <c r="H94">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.9078237704760035</v>
+      </c>
+      <c r="J94">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0135210060435442</v>
-      </c>
-      <c r="J94">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10569744985562446</v>
+        <v>2.142880837219252E-7</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="17"/>
+        <v>1.2048192771084336E-2</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="18"/>
+        <v>1.2048192771084337E-14</v>
+      </c>
+      <c r="N94">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.7773091408595301</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>83</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="D95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.8696670850641612</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.35950332133083118</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F95">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5101637637333301</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.8696670850641612</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15171734308595936</v>
+        <v>-1.2093315980507655E-6</v>
       </c>
       <c r="H95">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.8696658757325633</v>
+      </c>
+      <c r="J95">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6618811068192894</v>
-      </c>
-      <c r="J95">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.20778597824487188</v>
+        <v>-1.2093315979733177E-6</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="17"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="18"/>
+        <v>1.1904761904761905E-14</v>
+      </c>
+      <c r="N95">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.742694340084209</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>84</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.4</v>
       </c>
       <c r="D96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.832273743362878</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.9516030056858172E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8717897734197362</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.832273743362878</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="12"/>
-        <v>0.12851264423943012</v>
+        <v>-1.856622407251429E-6</v>
       </c>
       <c r="H96">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.8322718867404708</v>
+      </c>
+      <c r="J96">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0003024176591664</v>
-      </c>
-      <c r="J96">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.16802867429628843</v>
+        <v>-1.856622407148123E-6</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="17"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="18"/>
+        <v>1.1764705882352942E-14</v>
+      </c>
+      <c r="N96">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.7084540759272242</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="D97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.7956282684956204</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="8"/>
-        <v>-2.4889749954034493E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7707385185415858</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.7956282684956204</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15336506550297085</v>
+        <v>-1.0812366533127606E-6</v>
       </c>
       <c r="H97">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.7956271872589671</v>
+      </c>
+      <c r="J97">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9241035840445566</v>
-      </c>
-      <c r="J97">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12847531554893621</v>
+        <v>-1.0812366533219375E-6</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="17"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="18"/>
+        <v>1.1627906976744186E-14</v>
+      </c>
+      <c r="N97">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.6745839958264304</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.6</v>
       </c>
       <c r="D98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.759715703125708</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="8"/>
-        <v>-5.4087004855653181E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7056286982700548</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.759715703125708</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28506232052251568</v>
+        <v>3.6374047402450262E-7</v>
       </c>
       <c r="H98">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.759716066866182</v>
+      </c>
+      <c r="J98">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9906910187925706</v>
-      </c>
-      <c r="J98">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.23097531566686258</v>
+        <v>3.6374047396314779E-7</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="17"/>
+        <v>1.1494252873563218E-2</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="18"/>
+        <v>1.1494252873563218E-14</v>
+      </c>
+      <c r="N98">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.6410797667579216</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.7000000000000011</v>
       </c>
       <c r="D99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.7245213890631939</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.25779881305547125</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.982320202118665</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.7245213890631939</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17379973598736714</v>
+        <v>-5.3811130493401467E-7</v>
       </c>
       <c r="H99">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.724520850951889</v>
+      </c>
+      <c r="J99">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1561199381060323</v>
-      </c>
-      <c r="J99">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.43159854904283845</v>
+        <v>-5.3811130484859859E-7</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="17"/>
+        <v>1.1363636363636362E-2</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="18"/>
+        <v>1.1363636363636363E-14</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.60793705180558</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="D100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.69003096128193</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.1036412840999419E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7210673741229294</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.69003096128193</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="12"/>
-        <v>9.1420378096927768E-2</v>
+        <v>3.375742429363359E-7</v>
       </c>
       <c r="H100">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.690031298856173</v>
+      </c>
+      <c r="J100">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8124877522198573</v>
-      </c>
-      <c r="J100">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12245679093792727</v>
+        <v>3.3757424300340233E-7</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="17"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="18"/>
+        <v>1.1235955056179774E-14</v>
+      </c>
+      <c r="N100">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.5751515939072718</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.9</v>
       </c>
       <c r="D101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.6562303420562914</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.15036151142510423</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5058688306311871</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.6562303420562914</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>0.18244116125409693</v>
+        <v>9.4295576952740123E-7</v>
       </c>
       <c r="H101">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.6562312850120608</v>
+      </c>
+      <c r="J101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.688309991885284</v>
-      </c>
-      <c r="J101">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.2079649828992585E-2</v>
+        <v>9.4295576946734627E-7</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="17"/>
+        <v>1.111111111111111E-2</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="18"/>
+        <v>1.111111111111111E-14</v>
+      </c>
+      <c r="N101">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.5427191460306586</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="D102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.6231057352151654</v>
       </c>
       <c r="E102">
-        <f t="shared" ca="1" si="8"/>
-        <v>-2.4735057188443006E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5983706780267224</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.6231057352151654</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15075291839281696</v>
+        <v>-1.4279573612274082E-6</v>
       </c>
       <c r="H102">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.6231043072578042</v>
+      </c>
+      <c r="J102">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7491235964195393</v>
-      </c>
-      <c r="J102">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12601786120437386</v>
+        <v>-1.4279573612441254E-6</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="17"/>
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="18"/>
+        <v>1.0989010989010988E-14</v>
+      </c>
+      <c r="N102">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.5106354664837038</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.5906436205108621</v>
       </c>
       <c r="E103">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.30696695229988991</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.2836766682109721</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5906436205108621</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="12"/>
-        <v>3.4681797662933049E-2</v>
+        <v>-2.2525088392797267E-6</v>
       </c>
       <c r="H103">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.5906413680020228</v>
+      </c>
+      <c r="J103">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3183584658739051</v>
-      </c>
-      <c r="J103">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.27228515463695691</v>
+        <v>-2.252508839228895E-6</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="17"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="18"/>
+        <v>1.0869565217391303E-14</v>
+      </c>
+      <c r="N103">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.4788964001958593</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>92</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="D104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.5588307481006447</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.17483565335978446</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7336664014604293</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5588307481006447</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3829185205677905E-2</v>
+        <v>-3.6166500839724716E-8</v>
       </c>
       <c r="H104">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.5588307119341438</v>
+      </c>
+      <c r="J104">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7574955866661073</v>
-      </c>
-      <c r="J104">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.19866483856546258</v>
+        <v>-3.6166500905210341E-8</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="17"/>
+        <v>1.0752688172043008E-2</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="18"/>
+        <v>1.075268817204301E-14</v>
+      </c>
+      <c r="N104">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.4474978444080993</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="D105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.5276541331386317</v>
       </c>
       <c r="E105">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.14619380566711124</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.673847938805743</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5276541331386317</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.37491758649152318</v>
+        <v>-9.1535607852199726E-7</v>
       </c>
       <c r="H105">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.5276532177825533</v>
+      </c>
+      <c r="J105">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2989303523142199</v>
-      </c>
-      <c r="J105">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.2287237808244118</v>
+        <v>-9.1535607849024814E-7</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="17"/>
+        <v>1.0638297872340425E-2</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="18"/>
+        <v>1.0638297872340425E-14</v>
+      </c>
+      <c r="N105">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.4164356675291039</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.4971010504758591</v>
       </c>
       <c r="E106">
-        <f t="shared" ca="1" si="8"/>
-        <v>-2.5791940893653709E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.4713091095822053</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.4971010504758591</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="12"/>
-        <v>6.0653063386532514E-2</v>
+        <v>-6.1870243802576235E-7</v>
       </c>
       <c r="H106">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.4971004317734211</v>
+      </c>
+      <c r="J106">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5319621729687378</v>
-      </c>
-      <c r="J106">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.486112249287876E-2</v>
+        <v>-6.1870243794892588E-7</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="17"/>
+        <v>1.0526315789473684E-2</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="18"/>
+        <v>1.0526315789473684E-14</v>
+      </c>
+      <c r="N106">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.3857058229422021</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.5</v>
       </c>
       <c r="D107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.4671590294663419</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="8"/>
-        <v>-3.3787748915090447E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.4333712805512515</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.4671590294663419</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.9829152637909265E-2</v>
+        <v>-3.1497438965328841E-7</v>
       </c>
       <c r="H107">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.4671587144919522</v>
+      </c>
+      <c r="J107">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4035421279133422</v>
-      </c>
-      <c r="J107">
-        <f t="shared" ca="1" si="9"/>
-        <v>-6.3616901552999705E-2</v>
+        <v>-3.1497438968131064E-7</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666668E-2</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="18"/>
+        <v>1.0416666666666667E-14</v>
+      </c>
+      <c r="N107">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.3553042905625121</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="D108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.437815848877015</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.14615230959699574</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5839681584740106</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.437815848877015</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.720895987285837E-2</v>
+        <v>1.373515916393011E-6</v>
       </c>
       <c r="H108">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.4378172223929313</v>
+      </c>
+      <c r="J108">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5567591986011522</v>
-      </c>
-      <c r="J108">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.11894334972413723</v>
+        <v>1.3735159163363875E-6</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="17"/>
+        <v>1.0309278350515465E-2</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="18"/>
+        <v>1.0309278350515465E-14</v>
+      </c>
+      <c r="N108">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.3252271042927228</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.7000000000000011</v>
       </c>
       <c r="D109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.4090595318994747</v>
       </c>
       <c r="E109">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.15658228605468943</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.2524772458447853</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.4090595318994747</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="12"/>
-        <v>8.507340242231104E-2</v>
+        <v>-6.5425575136888664E-8</v>
       </c>
       <c r="H109">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.4090594664738996</v>
+      </c>
+      <c r="J109">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3375506482670962</v>
-      </c>
-      <c r="J109">
-        <f t="shared" ca="1" si="9"/>
-        <v>-7.1508883632378506E-2</v>
+        <v>-6.542557517974501E-8</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="17"/>
+        <v>1.0204081632653062E-2</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="18"/>
+        <v>1.0204081632653063E-14</v>
+      </c>
+      <c r="N109">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.2954702916619185</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="D110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.3808783412614851</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.16812870284554104</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5490070441070261</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.3808783412614851</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="12"/>
-        <v>0.12971108253360239</v>
+        <v>-1.3786848392774818E-7</v>
       </c>
       <c r="H110">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.3808782033930012</v>
+      </c>
+      <c r="J110">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6787181266406284</v>
-      </c>
-      <c r="J110">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.29783978537914324</v>
+        <v>-1.3786848396257767E-7</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="17"/>
+        <v>1.0101010101010104E-2</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="18"/>
+        <v>1.0101010101010104E-14</v>
+      </c>
+      <c r="N110">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.2660299675379898</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.9</v>
       </c>
       <c r="D111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.3532607744362555</v>
       </c>
       <c r="E111">
-        <f t="shared" ca="1" si="8"/>
-        <v>-3.8173215464033891E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.3150875589722215</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.3532607744362555</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.1016557416447641</v>
+        <v>-1.5285662706761287E-6</v>
       </c>
       <c r="H111">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.3532592458699848</v>
+      </c>
+      <c r="J111">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2134318173274574</v>
-      </c>
-      <c r="J111">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.13982895710879806</v>
+        <v>-1.5285662706698844E-6</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="18"/>
+        <v>1.0000000000000003E-14</v>
+      </c>
+      <c r="N111">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.23690226032131</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.3261955589475303</v>
       </c>
       <c r="E112">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.32833157918375611</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.6545271381312863</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.3261955589475303</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28542422599240935</v>
+        <v>-3.9480291325700764E-6</v>
       </c>
       <c r="H112">
+        <f t="shared" ca="1" si="16"/>
+        <v>1.3261916109183978</v>
+      </c>
+      <c r="J112">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9399513641236956</v>
-      </c>
-      <c r="J112">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.61375580517616535</v>
+        <v>-3.9480291325055816E-6</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="17"/>
+        <v>9.9009900990099046E-3</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="18"/>
+        <v>9.9009900990099046E-15</v>
+      </c>
+      <c r="N112">
+        <f t="shared" ca="1" si="19"/>
+        <v>4.2080833430004887</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q45:R55">
+    <sortCondition descending="1" ref="R45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/KF-ATTITUDE.xlsx
+++ b/KF-ATTITUDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB8899-935C-433F-B462-8986CDDB36E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15734B-BA1A-4A05-B16E-DAB92A99C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
@@ -1285,307 +1285,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.000000000000705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>9.800000000000983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.604000000000001</c:v>
+                  <c:v>9.6040000000008554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4119200000000003</c:v>
+                  <c:v>9.4119199999993963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2236816000000008</c:v>
+                  <c:v>9.2236816000002548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0392079680000013</c:v>
+                  <c:v>9.0392079680001949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8584238086400013</c:v>
+                  <c:v>8.8584238086398823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6812553324672006</c:v>
+                  <c:v>8.6812553324682309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5076302258178558</c:v>
+                  <c:v>8.507630225818934</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3374776213014989</c:v>
+                  <c:v>8.3374776213019324</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1707280688754693</c:v>
+                  <c:v>8.1707280688739701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.00731350749796</c:v>
+                  <c:v>8.0073135074970878</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8471672373480006</c:v>
+                  <c:v>7.8471672373489954</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6902238926010407</c:v>
+                  <c:v>7.6902238926022815</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5364194147490196</c:v>
+                  <c:v>7.5364194147503172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3856910264540394</c:v>
+                  <c:v>7.3856910264544045</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2379772059249587</c:v>
+                  <c:v>7.2379772059254348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0932176618064595</c:v>
+                  <c:v>7.0932176618085396</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9513533085703303</c:v>
+                  <c:v>6.9513533085710515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8123262423989237</c:v>
+                  <c:v>6.8123262423979671</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6760797175509454</c:v>
+                  <c:v>6.6760797175505093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5425581231999264</c:v>
+                  <c:v>6.5425581232008447</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4117069607359278</c:v>
+                  <c:v>6.4117069607369332</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.283472821521209</c:v>
+                  <c:v>6.2834728215226319</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1578033650907846</c:v>
+                  <c:v>6.157803365089924</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0346472977889691</c:v>
+                  <c:v>6.0346472977899941</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9139543518331896</c:v>
+                  <c:v>5.9139543518326301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7956752647965262</c:v>
+                  <c:v>5.7956752647956877</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6797617595005958</c:v>
+                  <c:v>5.6797617595019574</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5661665243105842</c:v>
+                  <c:v>5.5661665243109333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4548431938243729</c:v>
+                  <c:v>5.4548431938234243</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3457463299478851</c:v>
+                  <c:v>5.3457463299492529</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2388314033489269</c:v>
+                  <c:v>5.2388314033480539</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1340547752819479</c:v>
+                  <c:v>5.1340547752829844</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0313736797763084</c:v>
+                  <c:v>5.0313736797746955</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9307462061807819</c:v>
+                  <c:v>4.9307462061811824</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8321312820571665</c:v>
+                  <c:v>4.8321312820578752</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.735488656416023</c:v>
+                  <c:v>4.73548865641453</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6407788832877026</c:v>
+                  <c:v>4.6407788832878341</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5479633056219484</c:v>
+                  <c:v>4.547963305621872</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.457004039509509</c:v>
+                  <c:v>4.4570040395084805</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3678639587193189</c:v>
+                  <c:v>4.3678639587219719</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2805066795449322</c:v>
+                  <c:v>4.2805066795450637</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1948965459540339</c:v>
+                  <c:v>4.1948965459536982</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1109986150349531</c:v>
+                  <c:v>4.1109986150353066</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0287786427342542</c:v>
+                  <c:v>4.0287786427346584</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9482030698795691</c:v>
+                  <c:v>3.9482030698782666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8692390084819777</c:v>
+                  <c:v>3.8692390084821136</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7918542283123382</c:v>
+                  <c:v>3.7918542283145173</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7160171437460914</c:v>
+                  <c:v>3.7160171437461686</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.6416968008711694</c:v>
+                  <c:v>3.6416968008710318</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5688628648537462</c:v>
+                  <c:v>3.5688628648538683</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.4974856075566714</c:v>
+                  <c:v>3.4974856075567917</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4275358954055379</c:v>
+                  <c:v>3.4275358954047914</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3589851774974271</c:v>
+                  <c:v>3.3589851774973098</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2918054739474787</c:v>
+                  <c:v>3.2918054739474627</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2259693644685292</c:v>
+                  <c:v>3.2259693644703691</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1614499771791587</c:v>
+                  <c:v>3.1614499771793652</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0982209776355756</c:v>
+                  <c:v>3.0982209776362488</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0362565580828642</c:v>
+                  <c:v>3.0362565580818957</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.975531426921207</c:v>
+                  <c:v>2.975531426921771</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9160207983827826</c:v>
+                  <c:v>2.9160207983837121</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.857700382415127</c:v>
+                  <c:v>2.8577003824144227</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.8005463747668244</c:v>
+                  <c:v>2.8005463747668289</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7445354472714878</c:v>
+                  <c:v>2.7445354472716619</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.689644738326058</c:v>
+                  <c:v>2.6896447383262068</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6358518435595366</c:v>
+                  <c:v>2.6358518435591494</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5831348066883457</c:v>
+                  <c:v>2.5831348066920548</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5314721105545788</c:v>
+                  <c:v>2.5314721105551854</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4808426683434872</c:v>
+                  <c:v>2.4808426683440352</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4312258149766173</c:v>
+                  <c:v>2.4312258149755004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.382601298677085</c:v>
+                  <c:v>2.3826012986772578</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3349492727035432</c:v>
+                  <c:v>2.3349492727022598</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2882502872494723</c:v>
+                  <c:v>2.2882502872502037</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2424852815044827</c:v>
+                  <c:v>2.242485281504365</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1976355758743931</c:v>
+                  <c:v>2.1976355758729946</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.153682864356905</c:v>
+                  <c:v>2.1536828643581254</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1106092070697668</c:v>
+                  <c:v>2.1106092070701794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0683970229283717</c:v>
+                  <c:v>2.0683970229284498</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0270290824698041</c:v>
+                  <c:v>2.0270290824708392</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9864885008204078</c:v>
+                  <c:v>1.9864885008186877</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9467587308039997</c:v>
+                  <c:v>1.9467587308041394</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9078235561879198</c:v>
+                  <c:v>1.9078235561888341</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8696670850641612</c:v>
+                  <c:v>1.8696670850627355</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.832273743362878</c:v>
+                  <c:v>1.8322737433638987</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7956282684956204</c:v>
+                  <c:v>1.7956282684963465</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.759715703125708</c:v>
+                  <c:v>1.7597157031264161</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7245213890631939</c:v>
+                  <c:v>1.7245213890647573</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.69003096128193</c:v>
+                  <c:v>1.6900309612821953</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6562303420562914</c:v>
+                  <c:v>1.656230342055417</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6231057352151654</c:v>
+                  <c:v>1.6231057352133862</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5906436205108621</c:v>
+                  <c:v>1.5906436205109284</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5588307481006447</c:v>
+                  <c:v>1.5588307481014483</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5276541331386317</c:v>
+                  <c:v>1.5276541331369711</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4971010504758591</c:v>
+                  <c:v>1.4971010504754847</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4671590294663419</c:v>
+                  <c:v>1.4671590294656569</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.437815848877015</c:v>
+                  <c:v>1.4378158488769337</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4090595318994747</c:v>
+                  <c:v>1.409059531900771</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3808783412614851</c:v>
+                  <c:v>1.3808783412615755</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3532607744362555</c:v>
+                  <c:v>1.3532607744367759</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3261955589475303</c:v>
+                  <c:v>1.3261955589465868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,307 +1952,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.000000538459943</c:v>
+                  <c:v>10.000000000001581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.800001597199401</c:v>
+                  <c:v>9.8000000000019902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6040007644179699</c:v>
+                  <c:v>9.6040000000003563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4119203186892602</c:v>
+                  <c:v>9.4119199999980037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.223683454292452</c:v>
+                  <c:v>9.2236815999990291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0392069748313641</c:v>
+                  <c:v>9.0392079680007384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8584267722371166</c:v>
+                  <c:v>8.8584238086401736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6812559640635047</c:v>
+                  <c:v>8.6812553324689929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5076295423825421</c:v>
+                  <c:v>8.5076302258191294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3374772377039559</c:v>
+                  <c:v>8.3374776213018542</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1707269880708999</c:v>
+                  <c:v>8.1707280688730144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0073140382639281</c:v>
+                  <c:v>8.0073135074978889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8471691932314993</c:v>
+                  <c:v>7.8471672373501082</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6902239548370117</c:v>
+                  <c:v>7.6902238926028561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5364174696055999</c:v>
+                  <c:v>7.5364194147511645</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3856921589817013</c:v>
+                  <c:v>7.3856910264547908</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2379782574603428</c:v>
+                  <c:v>7.2379772059266756</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0932161846265851</c:v>
+                  <c:v>7.0932176618095326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9513534916084003</c:v>
+                  <c:v>6.9513533085715524</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8123254785393614</c:v>
+                  <c:v>6.812326242397674</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.676080262769382</c:v>
+                  <c:v>6.6760797175520112</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5425593545914413</c:v>
+                  <c:v>6.542558123200501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4117079476150431</c:v>
+                  <c:v>6.4117069607362405</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2834728501900159</c:v>
+                  <c:v>6.2834728215224738</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1578036827583782</c:v>
+                  <c:v>6.157803365089829</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0346458815377835</c:v>
+                  <c:v>6.0346472977901273</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9139541476143025</c:v>
+                  <c:v>5.9139543518318982</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7956758498638496</c:v>
+                  <c:v>5.795675264796472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6797618751889951</c:v>
+                  <c:v>5.6797617595032825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5661661530529827</c:v>
+                  <c:v>5.5661665243089411</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4548431422206756</c:v>
+                  <c:v>5.4548431938258712</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3457462998847012</c:v>
+                  <c:v>5.3457463299504226</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2388297251146492</c:v>
+                  <c:v>5.2388314033470094</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1340561043378941</c:v>
+                  <c:v>5.1340547752831647</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0313743061012888</c:v>
+                  <c:v>5.0313736797739166</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9307457058075483</c:v>
+                  <c:v>4.93074620617951</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8321319649928576</c:v>
+                  <c:v>4.8321312820571016</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7354873785892195</c:v>
+                  <c:v>4.7354886564151757</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6407792940792536</c:v>
+                  <c:v>4.6407788832864636</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5479623302994474</c:v>
+                  <c:v>4.5479633056214466</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4570036034762328</c:v>
+                  <c:v>4.4570040395084156</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3678642144808624</c:v>
+                  <c:v>4.3678639587225652</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2805063914446198</c:v>
+                  <c:v>4.2805066795461508</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1948972308235932</c:v>
+                  <c:v>4.1948965459541023</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1109984184838497</c:v>
+                  <c:v>4.1109986150365927</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0287783100863637</c:v>
+                  <c:v>4.0287786427328358</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9482029410389483</c:v>
+                  <c:v>3.9482030698788839</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8692395697305844</c:v>
+                  <c:v>3.8692390084806871</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7918542339450494</c:v>
+                  <c:v>3.791854228315175</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7160162074460183</c:v>
+                  <c:v>3.7160171437458089</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.6416976805308652</c:v>
+                  <c:v>3.6416968008711867</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5688628637967041</c:v>
+                  <c:v>3.5688628648551703</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.497483746577652</c:v>
+                  <c:v>3.4974856075560394</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4275349273532938</c:v>
+                  <c:v>3.4275358954062192</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.358985388566095</c:v>
+                  <c:v>3.3589851774968214</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2918054207782141</c:v>
+                  <c:v>3.2918054739477083</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2259690332410687</c:v>
+                  <c:v>3.2259693644705378</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.161450563207588</c:v>
+                  <c:v>3.1614499771787758</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0982214978451332</c:v>
+                  <c:v>3.098220977636676</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0362572011612881</c:v>
+                  <c:v>3.0362565580827692</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.975530889083033</c:v>
+                  <c:v>2.9755314269218167</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9160208293061292</c:v>
+                  <c:v>2.9160207983838848</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8577024246181009</c:v>
+                  <c:v>2.8577003824141118</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.800547288372103</c:v>
+                  <c:v>2.8005463747679893</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.744534952090055</c:v>
+                  <c:v>2.7445354472726136</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.6896442047768043</c:v>
+                  <c:v>2.6896447383276545</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.635851637745644</c:v>
+                  <c:v>2.6358518435601375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5831352991358347</c:v>
+                  <c:v>2.5831348066926485</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5314729826148605</c:v>
+                  <c:v>2.5314721105563875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4808425439015744</c:v>
+                  <c:v>2.480842668344494</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4312266560723121</c:v>
+                  <c:v>2.4312258149745052</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3826017644745727</c:v>
+                  <c:v>2.3826012986790368</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.334949092632812</c:v>
+                  <c:v>2.3349492727025738</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2882516281635024</c:v>
+                  <c:v>2.2882502872500958</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2424847279319566</c:v>
+                  <c:v>2.2424852815054348</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1976367850356806</c:v>
+                  <c:v>2.1976355758714354</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.1536832006988682</c:v>
+                  <c:v>2.1536828643571972</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1106082628755347</c:v>
+                  <c:v>2.1106092070698885</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.068396950059082</c:v>
+                  <c:v>2.0683970229292408</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0270295270538945</c:v>
+                  <c:v>2.0270290824702615</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9864891888834459</c:v>
+                  <c:v>1.9864885008182043</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9467605436726096</c:v>
+                  <c:v>1.9467587308035819</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9078237704760035</c:v>
+                  <c:v>1.9078235561892356</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8696658757325633</c:v>
+                  <c:v>1.8696670850630452</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8322718867404708</c:v>
+                  <c:v>1.8322737433640379</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7956271872589671</c:v>
+                  <c:v>1.7956282684959184</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.759716066866182</c:v>
+                  <c:v>1.7597157031278023</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.724520850951889</c:v>
+                  <c:v>1.724521389064559</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.690031298856173</c:v>
+                  <c:v>1.6900309612830029</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6562312850120608</c:v>
+                  <c:v>1.6562303420553937</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6231043072578042</c:v>
+                  <c:v>1.6231057352139522</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5906413680020228</c:v>
+                  <c:v>1.5906436205115915</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5588307119341438</c:v>
+                  <c:v>1.5588307481025876</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5276532177825533</c:v>
+                  <c:v>1.5276541331376137</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4971004317734211</c:v>
+                  <c:v>1.4971010504741131</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4671587144919522</c:v>
+                  <c:v>1.4671590294674877</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4378172223929313</c:v>
+                  <c:v>1.4378158488774615</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4090594664738996</c:v>
+                  <c:v>1.4090595319019945</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3808782033930012</c:v>
+                  <c:v>1.3808783412620138</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3532592458699848</c:v>
+                  <c:v>1.3532607744369414</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3261916109183978</c:v>
+                  <c:v>1.3261955589463361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,307 +2887,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>5.3845994330004032E-7</c:v>
+                  <c:v>1.5809575870662229E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5971994002939027E-6</c:v>
+                  <c:v>1.9895196601282805E-12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6441796892368075E-7</c:v>
+                  <c:v>3.5527136788005009E-13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1868925987055263E-7</c:v>
+                  <c:v>-1.9966250874858815E-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8542924511422143E-6</c:v>
+                  <c:v>-9.71667191151937E-13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.9316863710896541E-7</c:v>
+                  <c:v>7.3718808835110394E-13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9635971152686125E-6</c:v>
+                  <c:v>1.723066134218243E-13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3159630414588719E-7</c:v>
+                  <c:v>1.7923440509548527E-12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.8343531367531796E-7</c:v>
+                  <c:v>1.2736478538499796E-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.8359754306327432E-7</c:v>
+                  <c:v>3.5527136788005009E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0808045693977419E-6</c:v>
+                  <c:v>-2.4549251520511461E-12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3076596806533871E-7</c:v>
+                  <c:v>-7.1054273576010019E-14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9558834987165596E-6</c:v>
+                  <c:v>2.1076473899483972E-12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2235971043378413E-8</c:v>
+                  <c:v>1.815436689867056E-12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.9451434196682271E-6</c:v>
+                  <c:v>2.1449508835758024E-12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1325276618734392E-6</c:v>
+                  <c:v>7.5139894306630595E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0515353841000774E-6</c:v>
+                  <c:v>1.7168488852803421E-12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.4771798744206421E-6</c:v>
+                  <c:v>3.0730973321624333E-12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8303807003405836E-7</c:v>
+                  <c:v>1.2221335055073723E-12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.6385956226943108E-7</c:v>
+                  <c:v>-1.2496670365180762E-12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.45218436620587E-7</c:v>
+                  <c:v>1.0658141036401503E-12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2313915149775312E-6</c:v>
+                  <c:v>5.7465143754598103E-13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.868791153166967E-7</c:v>
+                  <c:v>3.1263880373444408E-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.866880688401352E-8</c:v>
+                  <c:v>1.2647660696529783E-12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.176675935634421E-7</c:v>
+                  <c:v>-9.5567997959733475E-13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.4162511856596893E-6</c:v>
+                  <c:v>1.1581846592889633E-12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.0421888713428871E-7</c:v>
+                  <c:v>-1.2914114222439821E-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.8506732347751722E-7</c:v>
+                  <c:v>-5.4178883601707639E-14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.156883993047586E-7</c:v>
+                  <c:v>2.6867397195928788E-12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.7125760155021226E-7</c:v>
+                  <c:v>-1.6431300764452317E-12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5.1603697315272257E-8</c:v>
+                  <c:v>1.4983569940341113E-12</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3.0063183942274918E-8</c:v>
+                  <c:v>2.5375257450832578E-12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.6782342777688086E-6</c:v>
+                  <c:v>-1.9175772081325704E-12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3290559461864859E-6</c:v>
+                  <c:v>1.2168044349891716E-12</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.2632498032400008E-7</c:v>
+                  <c:v>-2.3918644842524373E-12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5.0037323351403984E-7</c:v>
+                  <c:v>-1.2718714970105793E-12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8293569110977614E-7</c:v>
+                  <c:v>-6.4837024638109142E-14</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.2778268034807638E-6</c:v>
+                  <c:v>-8.4732221239391947E-13</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.1079155099765785E-7</c:v>
+                  <c:v>-1.2390088954816747E-12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-9.7532250098453233E-7</c:v>
+                  <c:v>-5.0182080713057076E-13</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-4.3603327615215903E-7</c:v>
+                  <c:v>-1.0933476346508542E-12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.5576154349948865E-7</c:v>
+                  <c:v>3.2462921240039577E-12</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.8810031249548729E-7</c:v>
+                  <c:v>1.2185807918285718E-12</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.8486955928648285E-7</c:v>
+                  <c:v>6.8389738316909643E-14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.9655110339300563E-7</c:v>
+                  <c:v>1.6395773627664312E-12</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.3264789056630661E-7</c:v>
+                  <c:v>-1.4184209362611E-12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.2884062083884373E-7</c:v>
+                  <c:v>-6.8522965079864662E-13</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.6124860670081489E-7</c:v>
+                  <c:v>-1.290523243824282E-12</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.6327111863652135E-9</c:v>
+                  <c:v>2.8368418725222E-12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-9.3630007302891727E-7</c:v>
+                  <c:v>-2.8244073746463982E-13</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.7965969575165559E-7</c:v>
+                  <c:v>1.7319479184152442E-14</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.057042009477982E-9</c:v>
+                  <c:v>1.4241940959891508E-12</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.8609790193302445E-6</c:v>
+                  <c:v>-6.319389456166391E-13</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-9.6805224414353575E-7</c:v>
+                  <c:v>6.8123284790999605E-13</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.1106866787690137E-7</c:v>
+                  <c:v>-6.0573768223548541E-13</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.3169264546681916E-8</c:v>
+                  <c:v>2.2959412149248237E-13</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.3122746057046015E-7</c:v>
+                  <c:v>2.0086154961518332E-12</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.860284293390805E-7</c:v>
+                  <c:v>-3.8280489889075398E-13</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.2020955765286203E-7</c:v>
+                  <c:v>1.1004530620084552E-12</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.4307842384536684E-7</c:v>
+                  <c:v>-9.50350909079134E-14</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-5.3783817399732925E-7</c:v>
+                  <c:v>6.0973448512413597E-13</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0923346550082442E-8</c:v>
+                  <c:v>1.1022294188478554E-12</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0422029738398351E-6</c:v>
+                  <c:v>-1.0151879337172431E-12</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.1360527854078555E-7</c:v>
+                  <c:v>1.1648459974367142E-12</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-4.9518143274696058E-7</c:v>
+                  <c:v>1.1257661469699087E-12</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-5.3354925366733141E-7</c:v>
+                  <c:v>1.5965007094109751E-12</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.0581389259533012E-7</c:v>
+                  <c:v>6.0085270092713472E-13</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.924474890088959E-7</c:v>
+                  <c:v>4.3027803542372567E-12</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.7206028176467498E-7</c:v>
+                  <c:v>1.808775351719305E-12</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.2444191277438676E-7</c:v>
+                  <c:v>1.006750238730092E-12</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.4109569487011981E-7</c:v>
+                  <c:v>-2.1120882820468978E-12</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.6579748769204343E-7</c:v>
+                  <c:v>1.9517720772910252E-12</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-1.8007073121495409E-7</c:v>
+                  <c:v>-9.6944674510268669E-13</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3409140300346678E-6</c:v>
+                  <c:v>6.2350125062948791E-13</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-5.5357252604082419E-7</c:v>
+                  <c:v>9.5212726591853425E-13</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2091612875408941E-6</c:v>
+                  <c:v>-2.957634137601417E-12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.3634196316967291E-7</c:v>
+                  <c:v>2.922107000813412E-13</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-9.4419423213309983E-7</c:v>
+                  <c:v>1.2168044349891716E-13</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-7.2869289713395347E-8</c:v>
+                  <c:v>8.6908258367657254E-13</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.4458409043102165E-7</c:v>
+                  <c:v>4.5741188614556449E-13</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.8806303810120539E-7</c:v>
+                  <c:v>-2.2035706592760107E-12</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8128686098961566E-6</c:v>
+                  <c:v>-4.1788794646890892E-13</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.142880837219252E-7</c:v>
+                  <c:v>1.3158363287857355E-12</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.2093315979733177E-6</c:v>
+                  <c:v>-1.1159961843532074E-12</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.856622407148123E-6</c:v>
+                  <c:v>1.1599610161283636E-12</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.0812366533219375E-6</c:v>
+                  <c:v>2.9798385980939202E-13</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.6374047396314779E-7</c:v>
+                  <c:v>2.0943247136528953E-12</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-5.3811130484859859E-7</c:v>
+                  <c:v>1.3651302310790925E-12</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.3757424300340233E-7</c:v>
+                  <c:v>1.0729195309977513E-12</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.4295576946734627E-7</c:v>
+                  <c:v>-8.9772633771190158E-13</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.4279573612441254E-6</c:v>
+                  <c:v>-1.2132517213103711E-12</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.252508839228895E-6</c:v>
+                  <c:v>7.2941652717872785E-13</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.6166500905210341E-8</c:v>
+                  <c:v>1.9428902930940239E-12</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-9.1535607849024814E-7</c:v>
+                  <c:v>-1.0180745135812685E-12</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.1870243794892588E-7</c:v>
+                  <c:v>-1.7459367285255212E-12</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-3.1497438968131064E-7</c:v>
+                  <c:v>1.1457501614131615E-12</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3735159163363875E-6</c:v>
+                  <c:v>4.4653170050423796E-13</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-6.542557517974501E-8</c:v>
+                  <c:v>2.5197621766892553E-12</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.3786848396257767E-7</c:v>
+                  <c:v>5.2868820432649954E-13</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.5285662706698844E-6</c:v>
+                  <c:v>6.8589578461342171E-13</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-3.9480291325055816E-6</c:v>
+                  <c:v>-1.1941558852868184E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,7 +3421,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3761,307 +3761,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9000007985997005</c:v>
+                  <c:v>5.4000000000009951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4680007872057903</c:v>
+                  <c:v>6.8013333333341155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2039806700766578</c:v>
+                  <c:v>7.4539800000000875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6079212269198164</c:v>
+                  <c:v>7.8079203199998757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8464688515717409</c:v>
+                  <c:v>8.013134928000019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9910342688096518</c:v>
+                  <c:v>8.1338904823771845</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0773119807163827</c:v>
+                  <c:v>8.2023110886386608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1251250431237345</c:v>
+                  <c:v>8.236235437214269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1463602625817568</c:v>
+                  <c:v>8.2463596556230279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1485754194444056</c:v>
+                  <c:v>8.2394840568275729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1368036376793658</c:v>
+                  <c:v>8.2201365110501001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1145240650295296</c:v>
+                  <c:v>8.1914465669193319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0842169143014928</c:v>
+                  <c:v>8.1556449473252979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0476969513217664</c:v>
+                  <c:v>8.1143632451536885</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.006321651800512</c:v>
+                  <c:v>8.068821231485007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9611249815452076</c:v>
+                  <c:v>8.0199480535109871</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9129078261608399</c:v>
+                  <c:v>7.9684630317497955</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.8622997032896587</c:v>
+                  <c:v>7.9149309410562037</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8098009920521436</c:v>
+                  <c:v>7.8598007061232771</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7558142906577263</c:v>
+                  <c:v>7.8034330400008356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7006663390183494</c:v>
+                  <c:v>7.7461205437826388</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.6446246698269009</c:v>
+                  <c:v>7.6881025619110561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.5879100106753636</c:v>
+                  <c:v>7.6295763227281981</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5307057575586844</c:v>
+                  <c:v>7.5707054044226636</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4731649930963417</c:v>
+                  <c:v>7.5116262464752586</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4154164432636733</c:v>
+                  <c:v>7.452453213340319</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3575685649279654</c:v>
+                  <c:v>7.3932825723208957</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2997131618335178</c:v>
+                  <c:v>7.3341956477409784</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.2419282615408331</c:v>
+                  <c:v>7.2752613436265774</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1842803544659892</c:v>
+                  <c:v>7.2165381775039741</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.126826165260324</c:v>
+                  <c:v>7.1580759322679253</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.0696141519225764</c:v>
+                  <c:v>7.0999170071491093</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.012685974052439</c:v>
+                  <c:v>7.0420975297412873</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.9560770692538343</c:v>
+                  <c:v>6.9846482768850766</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.8998178647136594</c:v>
+                  <c:v>6.9275954415876999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8439344620185025</c:v>
+                  <c:v>6.8709612751139</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.7884490124545742</c:v>
+                  <c:v>6.8147646272534068</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.7333805581372586</c:v>
+                  <c:v>6.7590214030491262</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6787451024413134</c:v>
+                  <c:v>6.7037449506134346</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.6245562853933846</c:v>
+                  <c:v>6.6489463918059952</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.5708255218002289</c:v>
+                  <c:v>6.5946349053040088</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.5175622862105635</c:v>
+                  <c:v>6.5408179698212683</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.4647744440426775</c:v>
+                  <c:v>6.4875015738242876</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.41246831014137</c:v>
+                  <c:v>6.4346903969623392</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.3606489623140874</c:v>
+                  <c:v>6.3823879675225674</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3093203235635524</c:v>
+                  <c:v>6.3305967994875951</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2584853078586988</c:v>
+                  <c:v>6.2793185121749513</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2081458981869915</c:v>
+                  <c:v>6.2285539349533234</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.158303304372172</c:v>
+                  <c:v>6.1783031991291733</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.1089580960615582</c:v>
+                  <c:v>6.1285658187711736</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0601101108256952</c:v>
+                  <c:v>6.0793407619650965</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.0117586699908268</c:v>
+                  <c:v>6.0306265137686994</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.963902674756798</c:v>
+                  <c:v>5.9824211319471718</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.916540542280603</c:v>
+                  <c:v>5.934722296411711</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.8696702722537744</c:v>
+                  <c:v>5.8875273531534251</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.8232895487623235</c:v>
+                  <c:v>5.8408333533519707</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7773957731493111</c:v>
+                  <c:v>5.794637088245536</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7319860396695796</c:v>
+                  <c:v>5.748935120269115</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.6870572256944412</c:v>
+                  <c:v>5.7037238108993424</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.6426059742745824</c:v>
+                  <c:v>5.658999345588235</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.598628794517027</c:v>
+                  <c:v>5.6147577561171973</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.5551220267408539</c:v>
+                  <c:v>5.5709949406615928</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.5120817964538418</c:v>
+                  <c:v>5.5277066818195051</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.469504152694399</c:v>
+                  <c:v>5.4848886628264761</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.4273850625744355</c:v>
+                  <c:v>5.4425364821522519</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.3857203845919166</c:v>
+                  <c:v>5.4006456666508775</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.344505898041092</c:v>
+                  <c:v>5.3592116834161976</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.3037373050639003</c:v>
+                  <c:v>5.3182299504762005</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2634102370472959</c:v>
+                  <c:v>5.2776958464457477</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.2235203274560993</c:v>
+                  <c:v>5.2376047192419275</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.1840631251924671</c:v>
+                  <c:v>5.1979518939563318</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.1450341658423353</c:v>
+                  <c:v>5.1587326799665547</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.1064289964142429</c:v>
+                  <c:v>5.1199423773622783</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.0682430728344787</c:v>
+                  <c:v>5.0815762827508539</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.0304719374687048</c:v>
+                  <c:v>5.0436296945024406</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9931110447833822</c:v>
+                  <c:v>5.0060979174875673</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9561558809127684</c:v>
+                  <c:v>4.968976267354007</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9196019703956333</c:v>
+                  <c:v>4.9322600743866047</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.8834448148538616</c:v>
+                  <c:v>4.8959446869876508</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.8476799305826219</c:v>
+                  <c:v>4.8600254748127192</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.812302864888597</c:v>
+                  <c:v>4.8244978315930958</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7773091408595301</c:v>
+                  <c:v>4.7893571776725672</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.742694340084209</c:v>
+                  <c:v>4.7545989622843585</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7084540759272242</c:v>
+                  <c:v>4.7202186655911786</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6745839958264304</c:v>
+                  <c:v>4.6862118005086755</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6410797667579216</c:v>
+                  <c:v>4.6525739143318834</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.60793705180558</c:v>
+                  <c:v>4.6193005901811182</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.5751515939072718</c:v>
+                  <c:v>4.5863874482833866</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.5427191460306586</c:v>
+                  <c:v>4.553830147103076</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.5106354664837038</c:v>
+                  <c:v>4.5216243843350634</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.4788964001958593</c:v>
+                  <c:v>4.4897658977717647</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4474978444080993</c:v>
+                  <c:v>4.4582504660548921</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.4164356675291039</c:v>
+                  <c:v>4.4270739093217299</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.3857058229422021</c:v>
+                  <c:v>4.3962320897549132</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3553042905625121</c:v>
+                  <c:v>4.365720912043586</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.3252271042927228</c:v>
+                  <c:v>4.3355363237635229</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2954702916619185</c:v>
+                  <c:v>4.3056743156833033</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.2660299675379898</c:v>
+                  <c:v>4.2761309220022801</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.23690226032131</c:v>
+                  <c:v>4.2469022205266267</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.2080833430004887</c:v>
+                  <c:v>4.2179843327882081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,6 +4958,1817 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$10:$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>KALMAN GAIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>g_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$12:$L$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2500000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8823529411764712E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5555555555555559E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2631578947368425E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3478260869565209E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8461538461538457E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7037037037037042E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5714285714285712E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4482758620689655E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9411764705882356E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7027027027027025E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6315789473684206E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.564102564102564E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4390243902439022E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3809523809523808E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3255813953488372E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2727272727272724E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.222222222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1739130434782605E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1276595744680851E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0408163265306117E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9607843137254898E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9230769230769225E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8867924528301879E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8518518518518511E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8181818181818174E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7857142857142849E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7543859649122803E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.724137931034482E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6949152542372878E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6666666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6393442622950817E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6129032258064512E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5873015873015869E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5624999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.538461538461538E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.515151515151515E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4925373134328354E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4705882352941175E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4492753623188404E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4285714285714284E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.408450704225352E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3888888888888888E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3698630136986299E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3513513513513513E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3333333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3157894736842103E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2987012987012986E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2820512820512818E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2658227848101266E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2345679012345678E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2195121951219513E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2048192771084338E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1904761904761904E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1764705882352941E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1627906976744186E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.149425287356322E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1363636363636366E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1235955056179778E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1111111111111113E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.098901098901099E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0869565217391306E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0752688172043012E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0638297872340427E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0526315789473686E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0416666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0309278350515465E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0204081632653064E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0101010101010102E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.9009900990099046E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8675-4994-AFC9-652B65E30C04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497679760"/>
+        <c:axId val="497685664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497679760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497685664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497685664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497679760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$M$10:$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PREDICTION ERROR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p_t = (1-g_t)*p_t-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$M$12:$M$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999992E-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9999999999999996E-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333331E-25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4999999999999998E-25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9999999999999998E-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666665E-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4285714285714286E-25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2500000000000001E-25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1111111111111111E-25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0909090909090905E-26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3333333333333327E-26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6923076923076922E-26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1428571428571431E-26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6666666666666673E-26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2500000000000007E-26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8823529411764709E-26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5555555555555555E-26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2631578947368422E-26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9999999999999996E-26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7619047619047611E-26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545447E-26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.347826086956521E-26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1666666666666663E-26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9999999999999996E-26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8461538461538461E-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7037037037037035E-26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.571428571428571E-26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4482758620689652E-26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3333333333333331E-26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2258064516129032E-26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1249999999999998E-26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0303030303030302E-26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9411764705882349E-26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8571428571428567E-26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7777777777777772E-26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7027027027027022E-26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6315789473684205E-26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5641025641025636E-26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4999999999999995E-26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.439024390243902E-26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3809523809523806E-26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3255813953488366E-26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2727272727272723E-26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2222222222222219E-26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1739130434782605E-26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1276595744680847E-26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0833333333333329E-26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0408163265306116E-26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9999999999999992E-26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9607843137254895E-26</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9230769230769222E-26</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8867924528301878E-26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8518518518518509E-26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8181818181818171E-26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7857142857142849E-26</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7543859649122799E-26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.724137931034482E-26</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6949152542372875E-26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6666666666666663E-26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6393442622950814E-26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.612903225806451E-26</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5873015873015868E-26</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5624999999999996E-26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5384615384615381E-26</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5151515151515148E-26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4925373134328354E-26</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4705882352941175E-26</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4492753623188403E-26</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4285714285714283E-26</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4084507042253518E-26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3888888888888886E-26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3698630136986299E-26</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3513513513513511E-26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.333333333333333E-26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3157894736842103E-26</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2987012987012984E-26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2820512820512818E-26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2658227848101264E-26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2499999999999999E-26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2345679012345678E-26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2195121951219511E-26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2048192771084336E-26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1904761904761904E-26</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1764705882352941E-26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1627906976744186E-26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1494252873563219E-26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1363636363636365E-26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1235955056179776E-26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1111111111111112E-26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0989010989010991E-26</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0869565217391305E-26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0752688172043012E-26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0638297872340426E-26</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0526315789473685E-26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0416666666666667E-26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0309278350515466E-26</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0204081632653062E-26</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0101010101010103E-26</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0000000000000002E-26</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.9009900990099031E-27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88D4-421A-B746-FB372268B812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="496499008"/>
+        <c:axId val="496496056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="496499008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496496056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496496056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496499008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5078,6 +6889,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6626,20 +8517,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>607217</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6666,16 +9589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>502444</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6702,16 +9625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>30955</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>188118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6731,6 +9654,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBB6621-A604-4A33-8AB0-802528F01872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29763</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>3570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B886C1-D399-4137-8BF3-8946AD41B76F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7038,8 +10033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB10ABEC-9FAA-40D5-98F6-F0A3D0D05DE8}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7065,7 +10060,7 @@
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7108,7 +10103,7 @@
       </c>
       <c r="N2">
         <f>K3^2</f>
-        <v>9.9999999999999998E-13</v>
+        <v>9.9999999999999992E-25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7116,8 +10111,8 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" s="10">
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -7126,7 +10121,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="10">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
@@ -7266,33 +10261,30 @@
       </c>
       <c r="E12">
         <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>0</v>
+        <v>7.055017511198037E-13</v>
       </c>
       <c r="F12">
         <f ca="1">D12+E12</f>
-        <v>10</v>
+        <v>10.000000000000705</v>
       </c>
       <c r="G12">
         <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>5.3845994262177488E-7</v>
+        <v>8.7583182364397901E-13</v>
       </c>
       <c r="H12">
         <f ca="1">F12+G12</f>
-        <v>10.000000538459943</v>
+        <v>10.000000000001581</v>
       </c>
       <c r="J12">
         <f ca="1">H12-D12</f>
-        <v>5.3845994330004032E-7</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>1.5809575870662229E-12</v>
       </c>
       <c r="M12">
         <f>N2</f>
-        <v>9.9999999999999998E-13</v>
+        <v>9.9999999999999992E-25</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7309,23 +10301,23 @@
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E76" ca="1" si="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>0</v>
+        <v>9.8249941140784671E-13</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>9.8000000000000007</v>
+        <v>9.800000000000983</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13:G76" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>1.5971994009893843E-6</v>
+        <v>1.0069639606336653E-12</v>
       </c>
       <c r="H13">
         <f ca="1">F13+G13</f>
-        <v>9.800001597199401</v>
+        <v>9.8000000000019902</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:J76" ca="1" si="3">H13-D13</f>
-        <v>1.5971994002939027E-6</v>
+        <v>1.9895196601282805E-12</v>
       </c>
       <c r="L13">
         <f>M12/(M12+$N$2)</f>
@@ -7333,11 +10325,11 @@
       </c>
       <c r="M13">
         <f>(1-L13)*M12</f>
-        <v>4.9999999999999999E-13</v>
+        <v>4.9999999999999996E-25</v>
       </c>
       <c r="N13">
         <f ca="1">N12 + L13*(H13 - N12)</f>
-        <v>4.9000007985997005</v>
+        <v>5.4000000000009951</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7354,35 +10346,35 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8.5379354926535443E-13</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F77" ca="1" si="5">D14+E14</f>
-        <v>9.604000000000001</v>
+        <v>9.6040000000008554</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>7.644179695245926E-7</v>
+        <v>-4.9873922830347847E-13</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H77" ca="1" si="6">F14+G14</f>
-        <v>9.6040007644179699</v>
+        <v>9.6040000000003563</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6441796892368075E-7</v>
+        <v>3.5527136788005009E-13</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:L77" si="7">M13/(M13+$N$2)</f>
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14:M77" si="8">(1-L14)*M13</f>
-        <v>3.3333333333333334E-13</v>
+        <v>3.3333333333333331E-25</v>
       </c>
       <c r="N14">
         <f t="shared" ref="N14:N77" ca="1" si="9">N13 + L14*(H14 - N13)</f>
-        <v>6.4680007872057903</v>
+        <v>6.8013333333341155</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7399,23 +10391,23 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-6.0420172815680796E-13</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4119200000000003</v>
+        <v>9.4119199999993963</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>3.186892602401166E-7</v>
+        <v>-1.3929395669049479E-12</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4119203186892602</v>
+        <v>9.4119199999980037</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1868925987055263E-7</v>
+        <v>-1.9966250874858815E-12</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
@@ -7423,11 +10415,11 @@
       </c>
       <c r="M15">
         <f t="shared" si="8"/>
-        <v>2.4999999999999999E-13</v>
+        <v>2.4999999999999998E-25</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2039806700766578</v>
+        <v>7.4539800000000875</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7444,35 +10436,35 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.5347636782699717E-13</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2236816000000008</v>
+        <v>9.2236816000002548</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8542924508931417E-6</v>
+        <v>-1.2249116676255041E-12</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>9.223683454292452</v>
+        <v>9.2236815999990291</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8542924511422143E-6</v>
+        <v>-9.71667191151937E-13</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="M16">
         <f t="shared" si="8"/>
-        <v>2.0000000000000001E-13</v>
+        <v>1.9999999999999998E-25</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6079212269198164</v>
+        <v>7.8079203199998757</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7489,35 +10481,35 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.9445468199262724E-13</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0392079680000013</v>
+        <v>9.0392079680001949</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.9316863642779698E-7</v>
+        <v>5.4397392313606491E-13</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0392069748313641</v>
+        <v>9.0392079680007384</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.9316863710896541E-7</v>
+        <v>7.3718808835110394E-13</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>0.16666666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M17">
         <f t="shared" si="8"/>
-        <v>1.6666666666666665E-13</v>
+        <v>1.6666666666666665E-25</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8464688515717409</v>
+        <v>8.013134928000019</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7534,23 +10526,23 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.1905108903299287E-13</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8584238086400013</v>
+        <v>8.8584238086398823</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9635971154551787E-6</v>
+        <v>2.9137688217306261E-13</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8584267722371166</v>
+        <v>8.8584238086401736</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9635971152686125E-6</v>
+        <v>1.723066134218243E-13</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
@@ -7558,11 +10550,11 @@
       </c>
       <c r="M18">
         <f t="shared" si="8"/>
-        <v>1.4285714285714284E-13</v>
+        <v>1.4285714285714286E-25</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9910342688096518</v>
+        <v>8.1338904823771845</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7579,35 +10571,35 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.030829616215086E-12</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6812553324672006</v>
+        <v>8.6812553324682309</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3159630430583041E-7</v>
+        <v>7.6254487136244699E-13</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6812559640635047</v>
+        <v>8.6812553324689929</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3159630414588719E-7</v>
+        <v>1.7923440509548527E-12</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v>0.12500000000000003</v>
       </c>
       <c r="M19">
         <f t="shared" si="8"/>
-        <v>1.25E-13</v>
+        <v>1.2500000000000001E-25</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0773119807163827</v>
+        <v>8.2023110886386608</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7624,35 +10616,35 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.0781362260834234E-12</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5076302258178558</v>
+        <v>8.507630225818934</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.8343531400486767E-7</v>
+        <v>1.9587034943078746E-13</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5076295423825421</v>
+        <v>8.5076302258191294</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.8343531367531796E-7</v>
+        <v>1.2736478538499796E-12</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>0.11111111111111112</v>
+        <v>0.11111111111111113</v>
       </c>
       <c r="M20">
         <f t="shared" si="8"/>
-        <v>1.111111111111111E-13</v>
+        <v>1.1111111111111111E-25</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1251250431237345</v>
+        <v>8.236235437214269</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7669,35 +10661,35 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4.3411971124903812E-13</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3374776213014989</v>
+        <v>8.3374776213019324</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.835975434925548E-7</v>
+        <v>-7.8424130958360251E-14</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3374772377039559</v>
+        <v>8.3374776213018542</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.8359754306327432E-7</v>
+        <v>3.5527136788005009E-13</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M21">
         <f t="shared" si="8"/>
-        <v>9.999999999999999E-14</v>
+        <v>1E-25</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1463602625817568</v>
+        <v>8.2463596556230279</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7714,35 +10706,35 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.4994226915416071E-12</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1707280688754693</v>
+        <v>8.1707280688739701</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.080804568726794E-6</v>
+        <v>-9.5631892001512437E-13</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1707269880708999</v>
+        <v>8.1707280688730144</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0808045693977419E-6</v>
+        <v>-2.4549251520511461E-12</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>9.0909090909090898E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="8"/>
-        <v>9.0909090909090893E-14</v>
+        <v>9.0909090909090905E-26</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1485754194444056</v>
+        <v>8.2394840568275729</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7759,35 +10751,35 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-8.7224987631510729E-13</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>8.00731350749796</v>
+        <v>8.0073135074970878</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3076596765271529E-7</v>
+        <v>8.0037222905175705E-13</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0073140382639281</v>
+        <v>8.0073135074978889</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3076596806533871E-7</v>
+        <v>-7.1054273576010019E-14</v>
       </c>
       <c r="L23">
         <f t="shared" si="7"/>
-        <v>8.3333333333333315E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="8"/>
-        <v>8.3333333333333323E-14</v>
+        <v>8.3333333333333327E-26</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1368036376793658</v>
+        <v>8.2201365110501001</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7804,23 +10796,23 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9.9495947196740697E-13</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8471672373480006</v>
+        <v>7.8471672373489954</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9558834991167628E-6</v>
+        <v>1.1126189807570684E-12</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8471691932314993</v>
+        <v>7.8471672373501082</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9558834987165596E-6</v>
+        <v>2.1076473899483972E-12</v>
       </c>
       <c r="L24">
         <f t="shared" si="7"/>
@@ -7828,11 +10820,11 @@
       </c>
       <c r="M24">
         <f t="shared" si="8"/>
-        <v>7.6923076923076921E-14</v>
+        <v>7.6923076923076922E-26</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1145240650295296</v>
+        <v>8.1914465669193319</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7849,23 +10841,23 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.2412042100862316E-12</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6902238926010407</v>
+        <v>7.6902238926022815</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2235971217316973E-8</v>
+        <v>5.746695044441031E-13</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6902239548370117</v>
+        <v>7.6902238926028561</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2235971043378413E-8</v>
+        <v>1.815436689867056E-12</v>
       </c>
       <c r="L25">
         <f t="shared" si="7"/>
@@ -7873,11 +10865,11 @@
       </c>
       <c r="M25">
         <f t="shared" si="8"/>
-        <v>7.1428571428571434E-14</v>
+        <v>7.1428571428571431E-26</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0842169143014928</v>
+        <v>8.1556449473252979</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7894,35 +10886,35 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.2975721730722016E-12</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5364194147490196</v>
+        <v>7.5364194147503172</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9451434193271367E-6</v>
+        <v>8.4708824485729946E-13</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5364174696055999</v>
+        <v>7.5364194147511645</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9451434196682271E-6</v>
+        <v>2.1449508835758024E-12</v>
       </c>
       <c r="L26">
         <f t="shared" si="7"/>
-        <v>6.666666666666668E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="8"/>
-        <v>6.6666666666666669E-14</v>
+        <v>6.6666666666666673E-26</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0476969513217664</v>
+        <v>8.1143632451536885</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7939,35 +10931,35 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.6537572556720589E-13</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3856910264540394</v>
+        <v>7.3856910264544045</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1325276615362596E-6</v>
+        <v>3.860159320481026E-13</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3856921589817013</v>
+        <v>7.3856910264547908</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1325276618734392E-6</v>
+        <v>7.5139894306630595E-13</v>
       </c>
       <c r="L27">
         <f t="shared" si="7"/>
-        <v>6.25E-2</v>
+        <v>6.2500000000000014E-2</v>
       </c>
       <c r="M27">
         <f t="shared" si="8"/>
-        <v>6.2499999999999999E-14</v>
+        <v>6.2500000000000007E-26</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="9"/>
-        <v>8.006321651800512</v>
+        <v>8.068821231485007</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7984,35 +10976,35 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4.7628500990871429E-13</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2379772059249587</v>
+        <v>7.2379772059254348</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0515353839203599E-6</v>
+        <v>1.2407970841164545E-12</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2379782574603428</v>
+        <v>7.2379772059266756</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0515353841000774E-6</v>
+        <v>1.7168488852803421E-12</v>
       </c>
       <c r="L28">
         <f t="shared" si="7"/>
-        <v>5.8823529411764705E-2</v>
+        <v>5.8823529411764712E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="8"/>
-        <v>5.8823529411764703E-14</v>
+        <v>5.8823529411764709E-26</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9611249815452076</v>
+        <v>8.0199480535109871</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -8029,35 +11021,35 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.0798402979489377E-12</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0932176618064595</v>
+        <v>7.0932176618085396</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4771798746085653E-6</v>
+        <v>9.9290888635964531E-13</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0932161846265851</v>
+        <v>7.0932176618095326</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4771798744206421E-6</v>
+        <v>3.0730973321624333E-12</v>
       </c>
       <c r="L29">
         <f t="shared" si="7"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="8"/>
-        <v>5.5555555555555549E-14</v>
+        <v>5.5555555555555555E-26</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9129078261608399</v>
+        <v>7.9684630317497955</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -8074,35 +11066,35 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7.2084623752289413E-13</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9513533085703303</v>
+        <v>6.9513533085710515</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8303806981940542E-7</v>
+        <v>5.0124949457316125E-13</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9513534916084003</v>
+        <v>6.9513533085715524</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8303807003405836E-7</v>
+        <v>1.2221335055073723E-12</v>
       </c>
       <c r="L30">
         <f t="shared" si="7"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.2631578947368425E-2</v>
       </c>
       <c r="M30">
         <f t="shared" si="8"/>
-        <v>5.2631578947368417E-14</v>
+        <v>5.2631578947368422E-26</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8622997032896587</v>
+        <v>7.9149309410562037</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8119,35 +11111,35 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-9.5686265192993731E-13</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8123262423989237</v>
+        <v>6.8123262423979671</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.6385956198963535E-7</v>
+        <v>-2.9271659203600654E-13</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8123254785393614</v>
+        <v>6.812326242397674</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.6385956226943108E-7</v>
+        <v>-1.2496670365180762E-12</v>
       </c>
       <c r="L31">
         <f t="shared" si="7"/>
-        <v>0.05</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="8"/>
-        <v>4.9999999999999995E-14</v>
+        <v>4.9999999999999996E-26</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8098009920521436</v>
+        <v>7.8598007061232771</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8164,23 +11156,23 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-4.3626316096829416E-13</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6760797175509454</v>
+        <v>6.6760797175505093</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4521843705614627E-7</v>
+        <v>1.5021978693269629E-12</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.676080262769382</v>
+        <v>6.6760797175520112</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>5.45218436620587E-7</v>
+        <v>1.0658141036401503E-12</v>
       </c>
       <c r="L32">
         <f t="shared" si="7"/>
@@ -8188,11 +11180,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="8"/>
-        <v>4.7619047619047612E-14</v>
+        <v>4.7619047619047611E-26</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7558142906577263</v>
+        <v>7.8034330400008356</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -8209,35 +11201,35 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9.1800208551195391E-13</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5425581231999264</v>
+        <v>6.5425581232008447</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2313915151379942E-6</v>
+        <v>-3.4329594237535824E-13</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5425593545914413</v>
+        <v>6.542558123200501</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2313915149775312E-6</v>
+        <v>5.7465143754598103E-13</v>
       </c>
       <c r="L33">
         <f t="shared" si="7"/>
-        <v>4.5454545454545449E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="M33">
         <f t="shared" si="8"/>
-        <v>4.5454545454545453E-14</v>
+        <v>4.5454545454545447E-26</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7006663390183494</v>
+        <v>7.7461205437826388</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -8254,35 +11246,35 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.0052921126251513E-12</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4117069607359278</v>
+        <v>6.4117069607369332</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>9.868791155288829E-7</v>
+        <v>-6.9271010836601782E-13</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4117079476150431</v>
+        <v>6.4117069607362405</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>9.868791153166967E-7</v>
+        <v>3.1263880373444408E-13</v>
       </c>
       <c r="L34">
         <f t="shared" si="7"/>
-        <v>4.3478260869565223E-2</v>
+        <v>4.3478260869565209E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="8"/>
-        <v>4.3478260869565218E-14</v>
+        <v>4.347826086956521E-26</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6446246698269009</v>
+        <v>7.6881025619110561</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -8299,35 +11291,35 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.4229097677804418E-12</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>6.283472821521209</v>
+        <v>6.2834728215226319</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8668807104972887E-8</v>
+        <v>-1.5818908913551369E-13</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2834728501900159</v>
+        <v>6.2834728215224738</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>2.866880688401352E-8</v>
+        <v>1.2647660696529783E-12</v>
       </c>
       <c r="L35">
         <f t="shared" si="7"/>
-        <v>4.1666666666666671E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="M35">
         <f t="shared" si="8"/>
-        <v>4.1666666666666668E-14</v>
+        <v>4.1666666666666663E-26</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5879100106753636</v>
+        <v>7.6295763227281981</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -8344,35 +11336,35 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-8.6099823114317875E-13</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1578033650907846</v>
+        <v>6.157803365089924</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1766759327443255E-7</v>
+        <v>-9.5463056731793972E-14</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1578036827583782</v>
+        <v>6.157803365089829</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
-        <v>3.176675935634421E-7</v>
+        <v>-9.5567997959733475E-13</v>
       </c>
       <c r="L36">
         <f t="shared" si="7"/>
-        <v>0.04</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="M36">
         <f t="shared" si="8"/>
-        <v>4E-14</v>
+        <v>3.9999999999999996E-26</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5307057575586844</v>
+        <v>7.5707054044226636</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -8389,35 +11381,35 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.0251041661129017E-12</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0346472977889691</v>
+        <v>6.0346472977899941</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4162511858401535E-6</v>
+        <v>1.328867221797893E-13</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0346458815377835</v>
+        <v>6.0346472977901273</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4162511856596893E-6</v>
+        <v>1.1581846592889633E-12</v>
       </c>
       <c r="L37">
         <f t="shared" si="7"/>
-        <v>3.8461538461538464E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="M37">
         <f t="shared" si="8"/>
-        <v>3.846153846153846E-14</v>
+        <v>3.8461538461538461E-26</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4731649930963417</v>
+        <v>7.5116262464752586</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -8434,23 +11426,23 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-5.5916094692739567E-13</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9139543518331896</v>
+        <v>5.9139543518326301</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.0421888720822232E-7</v>
+        <v>-7.3185097042562428E-13</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9139541476143025</v>
+        <v>5.9139543518318982</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.0421888713428871E-7</v>
+        <v>-1.2914114222439821E-12</v>
       </c>
       <c r="L38">
         <f t="shared" si="7"/>
@@ -8458,11 +11450,11 @@
       </c>
       <c r="M38">
         <f t="shared" si="8"/>
-        <v>3.7037037037037035E-14</v>
+        <v>3.7037037037037035E-26</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4154164432636733</v>
+        <v>7.452453213340319</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -8479,23 +11471,23 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-8.3860939027811199E-13</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7956752647965262</v>
+        <v>5.7956752647956877</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8506732322880198E-7</v>
+        <v>7.8457738873677515E-13</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7956758498638496</v>
+        <v>5.795675264796472</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8506732347751722E-7</v>
+        <v>-5.4178883601707639E-14</v>
       </c>
       <c r="L39">
         <f t="shared" si="7"/>
@@ -8503,11 +11495,11 @@
       </c>
       <c r="M39">
         <f t="shared" si="8"/>
-        <v>3.5714285714285711E-14</v>
+        <v>3.571428571428571E-26</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3575685649279654</v>
+        <v>7.3932825723208957</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -8524,35 +11516,35 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.3612885233504236E-12</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6797617595005958</v>
+        <v>5.6797617595019574</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.156883992159614E-7</v>
+        <v>1.3254010151840017E-12</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6797618751889951</v>
+        <v>5.6797617595032825</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="3"/>
-        <v>1.156883993047586E-7</v>
+        <v>2.6867397195928788E-12</v>
       </c>
       <c r="L40">
         <f t="shared" si="7"/>
-        <v>3.4482758620689648E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="M40">
         <f t="shared" si="8"/>
-        <v>3.4482758620689654E-14</v>
+        <v>3.4482758620689652E-26</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2997131618335178</v>
+        <v>7.3341956477409784</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -8569,23 +11561,23 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.4921069025453242E-13</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5661665243105842</v>
+        <v>5.5661665243109333</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.712576012450859E-7</v>
+        <v>-1.992064116466967E-12</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5661661530529827</v>
+        <v>5.5661665243089411</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.7125760155021226E-7</v>
+        <v>-1.6431300764452317E-12</v>
       </c>
       <c r="L41">
         <f t="shared" si="7"/>
@@ -8593,11 +11585,11 @@
       </c>
       <c r="M41">
         <f t="shared" si="8"/>
-        <v>3.3333333333333334E-14</v>
+        <v>3.3333333333333331E-26</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2419282615408331</v>
+        <v>7.2752613436265774</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -8614,35 +11606,35 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-9.4848973287820606E-13</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4548431938243729</v>
+        <v>5.4548431938234243</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.160369730455142E-8</v>
+        <v>2.4467501049558167E-12</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4548431422206756</v>
+        <v>5.4548431938258712</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.1603697315272257E-8</v>
+        <v>1.4983569940341113E-12</v>
       </c>
       <c r="L42">
         <f t="shared" si="7"/>
-        <v>3.2258064516129038E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="M42">
         <f t="shared" si="8"/>
-        <v>3.2258064516129035E-14</v>
+        <v>3.2258064516129032E-26</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1842803544659892</v>
+        <v>7.2165381775039741</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -8659,35 +11651,35 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.3677829774674193E-12</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3457463299478851</v>
+        <v>5.3457463299492529</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.0063183982623816E-8</v>
+        <v>1.1693632679626257E-12</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3457462998847012</v>
+        <v>5.3457463299504226</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.0063183942274918E-8</v>
+        <v>2.5375257450832578E-12</v>
       </c>
       <c r="L43">
         <f t="shared" si="7"/>
-        <v>3.1250000000000007E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="M43">
         <f t="shared" si="8"/>
-        <v>3.1250000000000006E-14</v>
+        <v>3.1249999999999998E-26</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="9"/>
-        <v>7.126826165260324</v>
+        <v>7.1580759322679253</v>
       </c>
       <c r="O43" s="8"/>
       <c r="Q43" s="8"/>
@@ -8709,35 +11701,35 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-8.7288907201675686E-13</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2388314033489269</v>
+        <v>5.2388314033480539</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6782342780971033E-6</v>
+        <v>-1.0448229809423969E-12</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2388297251146492</v>
+        <v>5.2388314033470094</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6782342777688086E-6</v>
+        <v>-1.9175772081325704E-12</v>
       </c>
       <c r="L44">
         <f t="shared" si="7"/>
-        <v>3.0303030303030307E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="M44">
         <f t="shared" si="8"/>
-        <v>3.0303030303030306E-14</v>
+        <v>3.0303030303030302E-26</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0696141519225764</v>
+        <v>7.0999170071491093</v>
       </c>
       <c r="O44" s="9"/>
       <c r="P44" s="8"/>
@@ -8760,23 +11752,23 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.0364774734150082E-12</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1340547752819479</v>
+        <v>5.1340547752829844</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>1.329055945900265E-6</v>
+        <v>1.8057925419542305E-13</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1340561043378941</v>
+        <v>5.1340547752831647</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3290559461864859E-6</v>
+        <v>1.2168044349891716E-12</v>
       </c>
       <c r="L45">
         <f t="shared" si="7"/>
@@ -8784,11 +11776,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="8"/>
-        <v>2.9411764705882358E-14</v>
+        <v>2.9411764705882349E-26</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="9"/>
-        <v>7.012685974052439</v>
+        <v>7.0420975297412873</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
@@ -8811,35 +11803,35 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.6132181769108628E-12</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0313736797763084</v>
+        <v>5.0313736797746955</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2632497992901528E-7</v>
+        <v>-7.7925272201766007E-13</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0313743061012888</v>
+        <v>5.0313736797739166</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2632498032400008E-7</v>
+        <v>-2.3918644842524373E-12</v>
       </c>
       <c r="L46">
         <f t="shared" si="7"/>
-        <v>2.8571428571428581E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="M46">
         <f t="shared" si="8"/>
-        <v>2.8571428571428575E-14</v>
+        <v>2.8571428571428567E-26</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9560770692538343</v>
+        <v>6.9846482768850766</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="6"/>
@@ -8862,35 +11854,35 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4.0068269395527676E-13</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9307462061807819</v>
+        <v>4.9307462061811824</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.0037323382019376E-7</v>
+        <v>-1.6725676617246358E-12</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9307457058075483</v>
+        <v>4.93074620617951</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.0037323351403984E-7</v>
+        <v>-1.2718714970105793E-12</v>
       </c>
       <c r="L47">
         <f t="shared" si="7"/>
-        <v>2.777777777777778E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="M47">
         <f t="shared" si="8"/>
-        <v>2.7777777777777781E-14</v>
+        <v>2.7777777777777772E-26</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8998178647136594</v>
+        <v>6.9275954415876999</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="6"/>
@@ -8913,35 +11905,35 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7.0879915230071713E-13</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8321312820571665</v>
+        <v>4.8321312820578752</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8293569141243235E-7</v>
+        <v>-7.7351604787997291E-13</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8321319649928576</v>
+        <v>4.8321312820571016</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8293569110977614E-7</v>
+        <v>-6.4837024638109142E-14</v>
       </c>
       <c r="L48">
         <f t="shared" si="7"/>
-        <v>2.7027027027027032E-2</v>
+        <v>2.7027027027027025E-2</v>
       </c>
       <c r="M48">
         <f t="shared" si="8"/>
-        <v>2.7027027027027029E-14</v>
+        <v>2.7027027027027022E-26</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8439344620185025</v>
+        <v>6.8709612751139</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="6"/>
@@ -8964,35 +11956,35 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.4929495682478838E-12</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
-        <v>4.735488656416023</v>
+        <v>4.73548865641453</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2778268034511295E-6</v>
+        <v>6.4578575045300224E-13</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7354873785892195</v>
+        <v>4.7354886564151757</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2778268034807638E-6</v>
+        <v>-8.4732221239391947E-13</v>
       </c>
       <c r="L49">
         <f t="shared" si="7"/>
-        <v>2.6315789473684216E-2</v>
+        <v>2.6315789473684206E-2</v>
       </c>
       <c r="M49">
         <f t="shared" si="8"/>
-        <v>2.6315789473684215E-14</v>
+        <v>2.6315789473684205E-26</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7884490124545742</v>
+        <v>6.8147646272534068</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="6"/>
@@ -9015,35 +12007,35 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.3112169386492451E-13</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6407788832877026</v>
+        <v>4.6407788832878341</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1079155067337377E-7</v>
+        <v>-1.3700550596977297E-12</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6407792940792536</v>
+        <v>4.6407788832864636</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1079155099765785E-7</v>
+        <v>-1.2390088954816747E-12</v>
       </c>
       <c r="L50">
         <f t="shared" si="7"/>
-        <v>2.5641025641025644E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="M50">
         <f t="shared" si="8"/>
-        <v>2.5641025641025645E-14</v>
+        <v>2.5641025641025636E-26</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7333805581372586</v>
+        <v>6.7590214030491262</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="6"/>
@@ -9066,35 +12058,35 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-7.6682576649793447E-14</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5479633056219484</v>
+        <v>4.547963305621872</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.7532250120516514E-7</v>
+        <v>-4.2582319187707682E-13</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5479623302994474</v>
+        <v>4.5479633056214466</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.7532250098453233E-7</v>
+        <v>-5.0182080713057076E-13</v>
       </c>
       <c r="L51">
         <f t="shared" si="7"/>
-        <v>2.5000000000000005E-2</v>
+        <v>2.4999999999999994E-2</v>
       </c>
       <c r="M51">
         <f t="shared" si="8"/>
-        <v>2.5000000000000004E-14</v>
+        <v>2.4999999999999995E-26</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6787451024413134</v>
+        <v>6.7037449506134346</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="6"/>
@@ -9117,35 +12109,35 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.0281972273732937E-12</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="5"/>
-        <v>4.457004039509509</v>
+        <v>4.4570040395084805</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.3603327647621383E-7</v>
+        <v>-6.5072015953741711E-14</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4570036034762328</v>
+        <v>4.4570040395084156</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.3603327615215903E-7</v>
+        <v>-1.0933476346508542E-12</v>
       </c>
       <c r="L52">
         <f t="shared" si="7"/>
-        <v>2.4390243902439029E-2</v>
+        <v>2.4390243902439022E-2</v>
       </c>
       <c r="M52">
         <f t="shared" si="8"/>
-        <v>2.4390243902439026E-14</v>
+        <v>2.439024390243902E-26</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6245562853933846</v>
+        <v>6.6489463918059952</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="6"/>
@@ -9168,35 +12160,35 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.6527258350444164E-12</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3678639587193189</v>
+        <v>4.3678639587219719</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5576154326211344E-7</v>
+        <v>5.9317283010309823E-13</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3678642144808624</v>
+        <v>4.3678639587225652</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5576154349948865E-7</v>
+        <v>3.2462921240039577E-12</v>
       </c>
       <c r="L53">
         <f t="shared" si="7"/>
-        <v>2.3809523809523815E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="M53">
         <f t="shared" si="8"/>
-        <v>2.3809523809523809E-14</v>
+        <v>2.3809523809523806E-26</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5708255218002289</v>
+        <v>6.5946349053040088</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="6"/>
@@ -9219,35 +12211,35 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.3177571778680833E-13</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2805066795449322</v>
+        <v>4.2805066795450637</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8810031286349266E-7</v>
+        <v>1.0869022201062575E-12</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2805063914446198</v>
+        <v>4.2805066795461508</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8810031249548729E-7</v>
+        <v>1.2185807918285718E-12</v>
       </c>
       <c r="L54">
         <f t="shared" si="7"/>
-        <v>2.3255813953488375E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="M54">
         <f t="shared" si="8"/>
-        <v>2.3255813953488373E-14</v>
+        <v>2.3255813953488366E-26</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5175622862105635</v>
+        <v>6.5408179698212683</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="6"/>
@@ -9270,23 +12262,23 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-3.3603323078505036E-13</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1948965459540339</v>
+        <v>4.1948965459536982</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8486955972808147E-7</v>
+        <v>4.0374559667147192E-13</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1948972308235932</v>
+        <v>4.1948965459541023</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8486955928648285E-7</v>
+        <v>6.8389738316909643E-14</v>
       </c>
       <c r="L55">
         <f t="shared" si="7"/>
@@ -9294,11 +12286,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="8"/>
-        <v>2.272727272727273E-14</v>
+        <v>2.2727272727272723E-26</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4647744440426775</v>
+        <v>6.4875015738242876</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="6"/>
@@ -9321,35 +12313,35 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.5338870866642235E-13</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1109986150349531</v>
+        <v>4.1109986150353066</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.965511037963245E-7</v>
+        <v>1.2856677194332078E-12</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1109984184838497</v>
+        <v>4.1109986150365927</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9655110339300563E-7</v>
+        <v>1.6395773627664312E-12</v>
       </c>
       <c r="L56">
         <f t="shared" si="7"/>
-        <v>2.2222222222222227E-2</v>
+        <v>2.222222222222222E-2</v>
       </c>
       <c r="M56">
         <f t="shared" si="8"/>
-        <v>2.2222222222222224E-14</v>
+        <v>2.2222222222222219E-26</v>
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="9"/>
-        <v>6.41246831014137</v>
+        <v>6.4346903969623392</v>
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
@@ -9372,35 +12364,35 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4.0399445896974782E-13</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0287786427342542</v>
+        <v>4.0287786427346584</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.3264789018148435E-7</v>
+        <v>-1.8221005020728193E-12</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0287783100863637</v>
+        <v>4.0287786427328358</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.3264789056630661E-7</v>
+        <v>-1.4184209362611E-12</v>
       </c>
       <c r="L57">
         <f t="shared" si="7"/>
-        <v>2.1739130434782612E-2</v>
+        <v>2.1739130434782605E-2</v>
       </c>
       <c r="M57">
         <f t="shared" si="8"/>
-        <v>2.1739130434782612E-14</v>
+        <v>2.1739130434782605E-26</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3606489623140874</v>
+        <v>6.3823879675225674</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -9417,35 +12409,35 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.3025634635521948E-12</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9482030698795691</v>
+        <v>3.9482030698782666</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2884062096433362E-7</v>
+        <v>6.1738160116889795E-13</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9482029410389483</v>
+        <v>3.9482030698788839</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2884062083884373E-7</v>
+        <v>-6.8522965079864662E-13</v>
       </c>
       <c r="L58">
         <f t="shared" si="7"/>
-        <v>2.1276595744680854E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="M58">
         <f t="shared" si="8"/>
-        <v>2.1276595744680854E-14</v>
+        <v>2.1276595744680847E-26</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3093203235635524</v>
+        <v>6.3305967994875951</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -9462,35 +12454,35 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.3586328264048666E-13</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8692390084819777</v>
+        <v>3.8692390084821136</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6124860684349346E-7</v>
+        <v>-1.4261935871396864E-12</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8692395697305844</v>
+        <v>3.8692390084806871</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6124860670081489E-7</v>
+        <v>-1.290523243824282E-12</v>
       </c>
       <c r="L59">
         <f t="shared" si="7"/>
-        <v>2.0833333333333339E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="M59">
         <f t="shared" si="8"/>
-        <v>2.0833333333333334E-14</v>
+        <v>2.0833333333333329E-26</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2584853078586988</v>
+        <v>6.2793185121749513</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -9507,35 +12499,35 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.1791523095659271E-12</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7918542283123382</v>
+        <v>3.7918542283145173</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6327113744558195E-9</v>
+        <v>6.5767555546951848E-13</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7918542339450494</v>
+        <v>3.791854228315175</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6327111863652135E-9</v>
+        <v>2.8368418725222E-12</v>
       </c>
       <c r="L60">
         <f t="shared" si="7"/>
-        <v>2.0408163265306124E-2</v>
+        <v>2.0408163265306117E-2</v>
       </c>
       <c r="M60">
         <f t="shared" si="8"/>
-        <v>2.0408163265306122E-14</v>
+        <v>2.0408163265306116E-26</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2081458981869915</v>
+        <v>6.2285539349533234</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -9552,35 +12544,35 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7.7416472494110794E-14</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7160171437460914</v>
+        <v>3.7160171437461686</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.3630007282145762E-7</v>
+        <v>-3.5966489381820948E-13</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7160162074460183</v>
+        <v>3.7160171437458089</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.3630007302891727E-7</v>
+        <v>-2.8244073746463982E-13</v>
       </c>
       <c r="L61">
         <f t="shared" si="7"/>
-        <v>0.02</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="M61">
         <f t="shared" si="8"/>
-        <v>2E-14</v>
+        <v>1.9999999999999992E-26</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="9"/>
-        <v>6.158303304372172</v>
+        <v>6.1783031991291733</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -9597,35 +12589,35 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.3758599173344131E-13</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6416968008711694</v>
+        <v>3.6416968008710318</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7965969571136086E-7</v>
+        <v>1.5497000862813492E-13</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6416976805308652</v>
+        <v>3.6416968008711867</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7965969575165559E-7</v>
+        <v>1.7319479184152442E-14</v>
       </c>
       <c r="L62">
         <f t="shared" si="7"/>
-        <v>1.9607843137254905E-2</v>
+        <v>1.9607843137254898E-2</v>
       </c>
       <c r="M62">
         <f t="shared" si="8"/>
-        <v>1.9607843137254901E-14</v>
+        <v>1.9607843137254895E-26</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1089580960615582</v>
+        <v>6.1285658187711736</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -9642,35 +12634,35 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.2206238626327719E-13</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5688628648537462</v>
+        <v>3.5688628648538683</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0570420814162727E-9</v>
+        <v>1.3022257554181663E-12</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5688628637967041</v>
+        <v>3.5688628648551703</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.057042009477982E-9</v>
+        <v>1.4241940959891508E-12</v>
       </c>
       <c r="L63">
         <f t="shared" si="7"/>
-        <v>1.9230769230769228E-2</v>
+        <v>1.9230769230769225E-2</v>
       </c>
       <c r="M63">
         <f t="shared" si="8"/>
-        <v>1.923076923076923E-14</v>
+        <v>1.9230769230769222E-26</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0601101108256952</v>
+        <v>6.0793407619650965</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -9687,35 +12679,35 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.2051675355854432E-13</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4974856075566714</v>
+        <v>3.4974856075567917</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8609790193393977E-6</v>
+        <v>-7.522469702566161E-13</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="6"/>
-        <v>3.497483746577652</v>
+        <v>3.4974856075560394</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8609790193302445E-6</v>
+        <v>-6.319389456166391E-13</v>
       </c>
       <c r="L64">
         <f t="shared" si="7"/>
-        <v>1.8867924528301886E-2</v>
+        <v>1.8867924528301879E-2</v>
       </c>
       <c r="M64">
         <f t="shared" si="8"/>
-        <v>1.8867924528301888E-14</v>
+        <v>1.8867924528301878E-26</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0117586699908268</v>
+        <v>6.0306265137686994</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -9732,35 +12724,35 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-7.4655930232885613E-13</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4275358954055379</v>
+        <v>3.4275358954047914</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.6805224404270367E-7</v>
+        <v>1.4278390950210656E-12</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4275349273532938</v>
+        <v>3.4275358954062192</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.6805224414353575E-7</v>
+        <v>6.8123284790999605E-13</v>
       </c>
       <c r="L65">
         <f t="shared" si="7"/>
-        <v>1.8518518518518517E-2</v>
+        <v>1.8518518518518511E-2</v>
       </c>
       <c r="M65">
         <f t="shared" si="8"/>
-        <v>1.851851851851852E-14</v>
+        <v>1.8518518518518509E-26</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="9"/>
-        <v>5.963902674756798</v>
+        <v>5.9824211319471718</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -9777,35 +12769,35 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.1724746878842258E-13</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3589851774974271</v>
+        <v>3.3589851774973098</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1106866805173321E-7</v>
+        <v>-4.8831994735385533E-13</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="6"/>
-        <v>3.358985388566095</v>
+        <v>3.3589851774968214</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1106866787690137E-7</v>
+        <v>-6.0573768223548541E-13</v>
       </c>
       <c r="L66">
         <f t="shared" si="7"/>
-        <v>1.8181818181818184E-2</v>
+        <v>1.8181818181818174E-2</v>
       </c>
       <c r="M66">
         <f t="shared" si="8"/>
-        <v>1.8181818181818184E-14</v>
+        <v>1.8181818181818171E-26</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="9"/>
-        <v>5.916540542280603</v>
+        <v>5.934722296411711</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -9822,35 +12814,35 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1.5956412410829657E-14</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2918054739474787</v>
+        <v>3.2918054739474627</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.3169264478017799E-8</v>
+        <v>2.4546084034002424E-13</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2918054207782141</v>
+        <v>3.2918054739477083</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.3169264546681916E-8</v>
+        <v>2.2959412149248237E-13</v>
       </c>
       <c r="L67">
         <f t="shared" si="7"/>
-        <v>1.785714285714286E-2</v>
+        <v>1.7857142857142849E-2</v>
       </c>
       <c r="M67">
         <f t="shared" si="8"/>
-        <v>1.7857142857142859E-14</v>
+        <v>1.7857142857142849E-26</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8696702722537744</v>
+        <v>5.8875273531534251</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -9867,35 +12859,35 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.839811398465416E-12</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2259693644685292</v>
+        <v>3.2259693644703691</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.3122746040055339E-7</v>
+        <v>1.6884680974754312E-13</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2259690332410687</v>
+        <v>3.2259693644705378</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.3122746057046015E-7</v>
+        <v>2.0086154961518332E-12</v>
       </c>
       <c r="L68">
         <f t="shared" si="7"/>
-        <v>1.754385964912281E-2</v>
+        <v>1.7543859649122803E-2</v>
       </c>
       <c r="M68">
         <f t="shared" si="8"/>
-        <v>1.7543859649122807E-14</v>
+        <v>1.7543859649122799E-26</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8232895487623235</v>
+        <v>5.8408333533519707</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -9912,35 +12904,35 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.0631170490033632E-13</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1614499771791587</v>
+        <v>3.1614499771793652</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8602842919731366E-7</v>
+        <v>-5.895092199177654E-13</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>3.161450563207588</v>
+        <v>3.1614499771787758</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="3"/>
-        <v>5.860284293390805E-7</v>
+        <v>-3.8280489889075398E-13</v>
       </c>
       <c r="L69">
         <f t="shared" si="7"/>
-        <v>1.7241379310344827E-2</v>
+        <v>1.724137931034482E-2</v>
       </c>
       <c r="M69">
         <f t="shared" si="8"/>
-        <v>1.7241379310344827E-14</v>
+        <v>1.724137931034482E-26</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7773957731493111</v>
+        <v>5.794637088245536</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -9957,35 +12949,35 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6.7315700545447391E-13</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0982209776355756</v>
+        <v>3.0982209776362488</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2020955747538555E-7</v>
+        <v>4.2724471097795279E-13</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0982214978451332</v>
+        <v>3.098220977636676</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2020955765286203E-7</v>
+        <v>1.1004530620084552E-12</v>
       </c>
       <c r="L70">
         <f t="shared" si="7"/>
-        <v>1.6949152542372881E-2</v>
+        <v>1.6949152542372878E-2</v>
       </c>
       <c r="M70">
         <f t="shared" si="8"/>
-        <v>1.6949152542372882E-14</v>
+        <v>1.6949152542372875E-26</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7319860396695796</v>
+        <v>5.748935120269115</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -10002,35 +12994,35 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-9.6836693438729319E-13</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0362565580828642</v>
+        <v>3.0362565580818957</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4307842394085403E-7</v>
+        <v>8.7347088938211491E-13</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0362572011612881</v>
+        <v>3.0362565580827692</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4307842384536684E-7</v>
+        <v>-9.50350909079134E-14</v>
       </c>
       <c r="L71">
         <f t="shared" si="7"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.6666666666666663E-2</v>
       </c>
       <c r="M71">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667E-14</v>
+        <v>1.6666666666666663E-26</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6870572256944412</v>
+        <v>5.7037238108993424</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -10047,35 +13039,35 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5.638831471192676E-13</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>2.975531426921207</v>
+        <v>2.975531426921771</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.3783817386933431E-7</v>
+        <v>4.5955011328901837E-14</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>2.975530889083033</v>
+        <v>2.9755314269218167</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.3783817399732925E-7</v>
+        <v>6.0973448512413597E-13</v>
       </c>
       <c r="L72">
         <f t="shared" si="7"/>
-        <v>1.6393442622950821E-2</v>
+        <v>1.6393442622950817E-2</v>
       </c>
       <c r="M72">
         <f t="shared" si="8"/>
-        <v>1.6393442622950821E-14</v>
+        <v>1.6393442622950814E-26</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6426059742745824</v>
+        <v>5.658999345588235</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -10092,35 +13084,35 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9.2927309669360128E-13</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9160207983827826</v>
+        <v>2.9160207983837121</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0923346738383061E-8</v>
+        <v>1.72954365620996E-13</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9160208293061292</v>
+        <v>2.9160207983838848</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0923346550082442E-8</v>
+        <v>1.1022294188478554E-12</v>
       </c>
       <c r="L73">
         <f t="shared" si="7"/>
-        <v>1.6129032258064519E-2</v>
+        <v>1.6129032258064512E-2</v>
       </c>
       <c r="M73">
         <f t="shared" si="8"/>
-        <v>1.6129032258064518E-14</v>
+        <v>1.612903225806451E-26</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="9"/>
-        <v>5.598628794517027</v>
+        <v>5.6147577561171973</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -10137,35 +13129,35 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-7.0427776319926451E-13</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>2.857700382415127</v>
+        <v>2.8577003824144227</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0422029736612831E-6</v>
+        <v>-3.1091404687126294E-13</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8577024246181009</v>
+        <v>2.8577003824141118</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0422029738398351E-6</v>
+        <v>-1.0151879337172431E-12</v>
       </c>
       <c r="L74">
         <f t="shared" si="7"/>
-        <v>1.5873015873015876E-2</v>
+        <v>1.5873015873015869E-2</v>
       </c>
       <c r="M74">
         <f t="shared" si="8"/>
-        <v>1.5873015873015873E-14</v>
+        <v>1.5873015873015868E-26</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5551220267408539</v>
+        <v>5.5709949406615928</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -10182,35 +13174,35 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4.624297764509085E-15</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8005463747668244</v>
+        <v>2.8005463747668289</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1360527853756979E-7</v>
+        <v>1.1606090405861786E-12</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>2.800547288372103</v>
+        <v>2.8005463747679893</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1360527854078555E-7</v>
+        <v>1.1648459974367142E-12</v>
       </c>
       <c r="L75">
         <f t="shared" si="7"/>
-        <v>1.5625E-2</v>
+        <v>1.5624999999999997E-2</v>
       </c>
       <c r="M75">
         <f t="shared" si="8"/>
-        <v>1.5625E-14</v>
+        <v>1.5624999999999996E-26</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5120817964538418</v>
+        <v>5.5277066818195051</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -10227,35 +13219,35 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.7401689485451533E-13</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7445354472714878</v>
+        <v>2.7445354472716619</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.9518143268821631E-7</v>
+        <v>9.5165107902351424E-13</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="6"/>
-        <v>2.744534952090055</v>
+        <v>2.7445354472726136</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.9518143274696058E-7</v>
+        <v>1.1257661469699087E-12</v>
       </c>
       <c r="L76">
         <f t="shared" si="7"/>
-        <v>1.5384615384615385E-2</v>
+        <v>1.538461538461538E-2</v>
       </c>
       <c r="M76">
         <f t="shared" si="8"/>
-        <v>1.5384615384615384E-14</v>
+        <v>1.5384615384615381E-26</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="9"/>
-        <v>5.469504152694399</v>
+        <v>5.4848886628264761</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -10272,35 +13264,35 @@
       </c>
       <c r="E77">
         <f t="shared" ref="E77:E112" ca="1" si="11">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>0</v>
+        <v>1.4898265924609875E-13</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>2.689644738326058</v>
+        <v>2.6896447383262068</v>
       </c>
       <c r="G77">
         <f t="shared" ref="G77:G112" ca="1" si="12">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>-5.335492538397239E-7</v>
+        <v>1.4476604550430102E-12</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6896442047768043</v>
+        <v>2.6896447383276545</v>
       </c>
       <c r="J77">
         <f t="shared" ref="J77:J112" ca="1" si="13">H77-D77</f>
-        <v>-5.3354925366733141E-7</v>
+        <v>1.5965007094109751E-12</v>
       </c>
       <c r="L77">
         <f t="shared" si="7"/>
-        <v>1.5151515151515152E-2</v>
+        <v>1.515151515151515E-2</v>
       </c>
       <c r="M77">
         <f t="shared" si="8"/>
-        <v>1.515151515151515E-14</v>
+        <v>1.5151515151515148E-26</v>
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4273850625744355</v>
+        <v>5.4425364821522519</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -10317,35 +13309,35 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-3.8719354484852041E-13</v>
       </c>
       <c r="F78">
         <f t="shared" ref="F78:F112" ca="1" si="15">D78+E78</f>
-        <v>2.6358518435595366</v>
+        <v>2.6358518435591494</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.0581389252993015E-7</v>
+        <v>9.8827562756946613E-13</v>
       </c>
       <c r="H78">
         <f t="shared" ref="H78:H112" ca="1" si="16">F78+G78</f>
-        <v>2.635851637745644</v>
+        <v>2.6358518435601375</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.0581389259533012E-7</v>
+        <v>6.0085270092713472E-13</v>
       </c>
       <c r="L78">
         <f t="shared" ref="L78:L112" si="17">M77/(M77+$N$2)</f>
-        <v>1.4925373134328356E-2</v>
+        <v>1.4925373134328354E-2</v>
       </c>
       <c r="M78">
         <f t="shared" ref="M78:M112" si="18">(1-L78)*M77</f>
-        <v>1.4925373134328358E-14</v>
+        <v>1.4925373134328354E-26</v>
       </c>
       <c r="N78">
         <f t="shared" ref="N78:N112" ca="1" si="19">N77 + L78*(H78 - N77)</f>
-        <v>5.3857203845919166</v>
+        <v>5.4006456666508775</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -10362,23 +13354,23 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>3.7091791632600482E-12</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5831348066883457</v>
+        <v>2.5831348066920548</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9244748887333018E-7</v>
+        <v>5.9392907595803544E-13</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5831352991358347</v>
+        <v>2.5831348066926485</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="13"/>
-        <v>4.924474890088959E-7</v>
+        <v>4.3027803542372567E-12</v>
       </c>
       <c r="L79">
         <f t="shared" si="17"/>
@@ -10386,11 +13378,11 @@
       </c>
       <c r="M79">
         <f t="shared" si="18"/>
-        <v>1.4705882352941176E-14</v>
+        <v>1.4705882352941175E-26</v>
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="19"/>
-        <v>5.344505898041092</v>
+        <v>5.3592116834161976</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -10407,23 +13399,23 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>6.0669271965840119E-13</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5314721105545788</v>
+        <v>2.5314721105551854</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="12"/>
-        <v>8.7206028175108815E-7</v>
+        <v>1.2022954412806599E-12</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="16"/>
-        <v>2.5314729826148605</v>
+        <v>2.5314721105563875</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="13"/>
-        <v>8.7206028176467498E-7</v>
+        <v>1.808775351719305E-12</v>
       </c>
       <c r="L80">
         <f t="shared" si="17"/>
@@ -10431,11 +13423,11 @@
       </c>
       <c r="M80">
         <f t="shared" si="18"/>
-        <v>1.4492753623188405E-14</v>
+        <v>1.4492753623188403E-26</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="19"/>
-        <v>5.3037373050639003</v>
+        <v>5.3182299504762005</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -10452,35 +13444,35 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5.4786353609302179E-13</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4808426683434872</v>
+        <v>2.4808426683440352</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.2444191272246582E-7</v>
+        <v>4.585222255040208E-13</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="16"/>
-        <v>2.4808425439015744</v>
+        <v>2.480842668344494</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.2444191277438676E-7</v>
+        <v>1.006750238730092E-12</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>1.4285714285714285E-2</v>
+        <v>1.4285714285714284E-2</v>
       </c>
       <c r="M81">
         <f t="shared" si="18"/>
-        <v>1.4285714285714284E-14</v>
+        <v>1.4285714285714283E-26</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="19"/>
-        <v>5.2634102370472959</v>
+        <v>5.2776958464457477</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -10497,35 +13489,35 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.1167082595578008E-12</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4312258149766173</v>
+        <v>2.4312258149755004</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="12"/>
-        <v>8.4109569493333388E-7</v>
+        <v>-9.9536367716039988E-13</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="16"/>
-        <v>2.4312266560723121</v>
+        <v>2.4312258149745052</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="13"/>
-        <v>8.4109569487011981E-7</v>
+        <v>-2.1120882820468978E-12</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>1.4084507042253521E-2</v>
+        <v>1.408450704225352E-2</v>
       </c>
       <c r="M82">
         <f t="shared" si="18"/>
-        <v>1.408450704225352E-14</v>
+        <v>1.4084507042253518E-26</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="19"/>
-        <v>5.2235203274560993</v>
+        <v>5.2376047192419275</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -10542,23 +13534,23 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1.7293666496876866E-13</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="15"/>
-        <v>2.382601298677085</v>
+        <v>2.3826012986772578</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="12"/>
-        <v>4.6579748786618107E-7</v>
+        <v>1.7788551949783513E-12</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3826017644745727</v>
+        <v>2.3826012986790368</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="13"/>
-        <v>4.6579748769204343E-7</v>
+        <v>1.9517720772910252E-12</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
@@ -10566,11 +13558,11 @@
       </c>
       <c r="M83">
         <f t="shared" si="18"/>
-        <v>1.3888888888888889E-14</v>
+        <v>1.3888888888888886E-26</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1840631251924671</v>
+        <v>5.1979518939563318</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -10587,35 +13579,35 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.2831964548179561E-12</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="15"/>
-        <v>2.3349492727035432</v>
+        <v>2.3349492727022598</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.8007073108810596E-7</v>
+        <v>3.1375587381632015E-13</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="16"/>
-        <v>2.334949092632812</v>
+        <v>2.3349492727025738</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.8007073121495409E-7</v>
+        <v>-9.6944674510268669E-13</v>
       </c>
       <c r="L84">
         <f t="shared" si="17"/>
-        <v>1.3698630136986301E-2</v>
+        <v>1.3698630136986299E-2</v>
       </c>
       <c r="M84">
         <f t="shared" si="18"/>
-        <v>1.36986301369863E-14</v>
+        <v>1.3698630136986299E-26</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1450341658423353</v>
+        <v>5.1587326799665547</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -10632,23 +13624,23 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>7.3134336978928268E-13</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2882502872494723</v>
+        <v>2.2882502872502037</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3409140300430968E-6</v>
+        <v>-1.080691511106391E-13</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2882516281635024</v>
+        <v>2.2882502872500958</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3409140300346678E-6</v>
+        <v>6.2350125062948791E-13</v>
       </c>
       <c r="L85">
         <f t="shared" si="17"/>
@@ -10656,11 +13648,11 @@
       </c>
       <c r="M85">
         <f t="shared" si="18"/>
-        <v>1.3513513513513513E-14</v>
+        <v>1.3513513513513511E-26</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1064289964142429</v>
+        <v>5.1199423773622783</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -10677,23 +13669,23 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.1785874430041213E-13</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2424852815044827</v>
+        <v>2.242485281504365</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="12"/>
-        <v>-5.5357252608871437E-7</v>
+        <v>1.0700161788284186E-12</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2424847279319566</v>
+        <v>2.2424852815054348</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.5357252604082419E-7</v>
+        <v>9.5212726591853425E-13</v>
       </c>
       <c r="L86">
         <f t="shared" si="17"/>
@@ -10701,11 +13693,11 @@
       </c>
       <c r="M86">
         <f t="shared" si="18"/>
-        <v>1.3333333333333333E-14</v>
+        <v>1.333333333333333E-26</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="19"/>
-        <v>5.0682430728344787</v>
+        <v>5.0815762827508539</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -10722,35 +13714,35 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.3986173499847396E-12</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1976355758743931</v>
+        <v>2.1976355758729946</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2091612876636745E-6</v>
+        <v>-1.5592559872153401E-12</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1976367850356806</v>
+        <v>2.1976355758714354</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2091612875408941E-6</v>
+        <v>-2.957634137601417E-12</v>
       </c>
       <c r="L87">
         <f t="shared" si="17"/>
-        <v>1.3157894736842105E-2</v>
+        <v>1.3157894736842103E-2</v>
       </c>
       <c r="M87">
         <f t="shared" si="18"/>
-        <v>1.3157894736842104E-14</v>
+        <v>1.3157894736842103E-26</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="19"/>
-        <v>5.0304719374687048</v>
+        <v>5.0436296945024406</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -10767,23 +13759,23 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1.2204789415115457E-12</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="15"/>
-        <v>2.153682864356905</v>
+        <v>2.1536828643581254</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="12"/>
-        <v>3.3634196304281236E-7</v>
+        <v>-9.2803467090348344E-13</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1536832006988682</v>
+        <v>2.1536828643571972</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3634196316967291E-7</v>
+        <v>2.922107000813412E-13</v>
       </c>
       <c r="L88">
         <f t="shared" si="17"/>
@@ -10791,11 +13783,11 @@
       </c>
       <c r="M88">
         <f t="shared" si="18"/>
-        <v>1.2987012987012986E-14</v>
+        <v>1.2987012987012984E-26</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9931110447833822</v>
+        <v>5.0060979174875673</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -10812,35 +13804,35 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>4.1250543851810779E-13</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1106092070697668</v>
+        <v>2.1106092070701794</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="12"/>
-        <v>-9.4419423197566118E-7</v>
+        <v>-2.9080792474645371E-13</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1106082628755347</v>
+        <v>2.1106092070698885</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="13"/>
-        <v>-9.4419423213309983E-7</v>
+        <v>1.2168044349891716E-13</v>
       </c>
       <c r="L89">
         <f t="shared" si="17"/>
-        <v>1.282051282051282E-2</v>
+        <v>1.2820512820512818E-2</v>
       </c>
       <c r="M89">
         <f t="shared" si="18"/>
-        <v>1.282051282051282E-14</v>
+        <v>1.2820512820512818E-26</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9561558809127684</v>
+        <v>4.968976267354007</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -10857,23 +13849,23 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>7.8169359852297191E-14</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="15"/>
-        <v>2.0683970229283717</v>
+        <v>2.0683970229284498</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="12"/>
-        <v>-7.2869289629146247E-8</v>
+        <v>7.9104989465706815E-13</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="16"/>
-        <v>2.068396950059082</v>
+        <v>2.0683970229292408</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="13"/>
-        <v>-7.2869289713395347E-8</v>
+        <v>8.6908258367657254E-13</v>
       </c>
       <c r="L90">
         <f t="shared" si="17"/>
@@ -10881,11 +13873,11 @@
       </c>
       <c r="M90">
         <f t="shared" si="18"/>
-        <v>1.2658227848101266E-14</v>
+        <v>1.2658227848101264E-26</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9196019703956333</v>
+        <v>4.9322600743866047</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -10902,35 +13894,35 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1.0351354720313108E-12</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="15"/>
-        <v>2.0270290824698041</v>
+        <v>2.0270290824708392</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="12"/>
-        <v>4.4458409061560532E-7</v>
+        <v>-5.7754548640772024E-13</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="16"/>
-        <v>2.0270295270538945</v>
+        <v>2.0270290824702615</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="13"/>
-        <v>4.4458409043102165E-7</v>
+        <v>4.5741188614556449E-13</v>
       </c>
       <c r="L91">
         <f t="shared" si="17"/>
-        <v>1.2500000000000001E-2</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="M91">
         <f t="shared" si="18"/>
-        <v>1.25E-14</v>
+        <v>1.2499999999999999E-26</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="19"/>
-        <v>4.8834448148538616</v>
+        <v>4.8959446869876508</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -10947,35 +13939,35 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.7202340636472296E-12</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="15"/>
-        <v>1.9864885008204078</v>
+        <v>1.9864885008186877</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8806303818439229E-7</v>
+        <v>-4.8332355489701791E-13</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9864891888834459</v>
+        <v>1.9864885008182043</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8806303810120539E-7</v>
+        <v>-2.2035706592760107E-12</v>
       </c>
       <c r="L92">
         <f t="shared" si="17"/>
-        <v>1.234567901234568E-2</v>
+        <v>1.2345679012345678E-2</v>
       </c>
       <c r="M92">
         <f t="shared" si="18"/>
-        <v>1.2345679012345679E-14</v>
+        <v>1.2345679012345678E-26</v>
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="19"/>
-        <v>4.8476799305826219</v>
+        <v>4.8600254748127192</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -10992,35 +13984,35 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1.3971096931727252E-13</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="15"/>
-        <v>1.9467587308039997</v>
+        <v>1.9467587308041394</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="12"/>
-        <v>1.8128686098848697E-6</v>
+        <v>-5.5746993217428427E-13</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9467605436726096</v>
+        <v>1.9467587308035819</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8128686098961566E-6</v>
+        <v>-4.1788794646890892E-13</v>
       </c>
       <c r="L93">
         <f t="shared" si="17"/>
-        <v>1.2195121951219511E-2</v>
+        <v>1.2195121951219513E-2</v>
       </c>
       <c r="M93">
         <f t="shared" si="18"/>
-        <v>1.2195121951219512E-14</v>
+        <v>1.2195121951219511E-26</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="19"/>
-        <v>4.812302864888597</v>
+        <v>4.8244978315930958</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -11037,35 +14029,35 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9.1446480704539401E-13</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="15"/>
-        <v>1.9078235561879198</v>
+        <v>1.9078235561888341</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="12"/>
-        <v>2.1428808370441838E-7</v>
+        <v>4.0147805508628376E-13</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9078237704760035</v>
+        <v>1.9078235561892356</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="13"/>
-        <v>2.142880837219252E-7</v>
+        <v>1.3158363287857355E-12</v>
       </c>
       <c r="L94">
         <f t="shared" si="17"/>
-        <v>1.2048192771084336E-2</v>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="M94">
         <f t="shared" si="18"/>
-        <v>1.2048192771084337E-14</v>
+        <v>1.2048192771084336E-26</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7773091408595301</v>
+        <v>4.7893571776725672</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -11082,23 +14074,23 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.42570775199454E-12</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8696670850641612</v>
+        <v>1.8696670850627355</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.2093315980507655E-6</v>
+        <v>3.0983602508909503E-13</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="16"/>
-        <v>1.8696658757325633</v>
+        <v>1.8696670850630452</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.2093315979733177E-6</v>
+        <v>-1.1159961843532074E-12</v>
       </c>
       <c r="L95">
         <f t="shared" si="17"/>
@@ -11106,11 +14098,11 @@
       </c>
       <c r="M95">
         <f t="shared" si="18"/>
-        <v>1.1904761904761905E-14</v>
+        <v>1.1904761904761904E-26</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="19"/>
-        <v>4.742694340084209</v>
+        <v>4.7545989622843585</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -11127,23 +14119,23 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1.0207773614052544E-12</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="15"/>
-        <v>1.832273743362878</v>
+        <v>1.8322737433638987</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.856622407251429E-6</v>
+        <v>1.3930350859080138E-13</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="16"/>
-        <v>1.8322718867404708</v>
+        <v>1.8322737433640379</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.856622407148123E-6</v>
+        <v>1.1599610161283636E-12</v>
       </c>
       <c r="L96">
         <f t="shared" si="17"/>
@@ -11151,11 +14143,11 @@
       </c>
       <c r="M96">
         <f t="shared" si="18"/>
-        <v>1.1764705882352942E-14</v>
+        <v>1.1764705882352941E-26</v>
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7084540759272242</v>
+        <v>4.7202186655911786</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -11172,23 +14164,23 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>7.2604623302042194E-13</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="15"/>
-        <v>1.7956282684956204</v>
+        <v>1.7956282684963465</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.0812366533127606E-6</v>
+        <v>-4.2814869856007026E-13</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7956271872589671</v>
+        <v>1.7956282684959184</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.0812366533219375E-6</v>
+        <v>2.9798385980939202E-13</v>
       </c>
       <c r="L97">
         <f t="shared" si="17"/>
@@ -11196,11 +14188,11 @@
       </c>
       <c r="M97">
         <f t="shared" si="18"/>
-        <v>1.1627906976744186E-14</v>
+        <v>1.1627906976744186E-26</v>
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="19"/>
-        <v>4.6745839958264304</v>
+        <v>4.6862118005086755</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -11217,35 +14209,35 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>7.0819598398511677E-13</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="15"/>
-        <v>1.759715703125708</v>
+        <v>1.7597157031264161</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="12"/>
-        <v>3.6374047402450262E-7</v>
+        <v>1.3862979080816902E-12</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="16"/>
-        <v>1.759716066866182</v>
+        <v>1.7597157031278023</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6374047396314779E-7</v>
+        <v>2.0943247136528953E-12</v>
       </c>
       <c r="L98">
         <f t="shared" si="17"/>
-        <v>1.1494252873563218E-2</v>
+        <v>1.149425287356322E-2</v>
       </c>
       <c r="M98">
         <f t="shared" si="18"/>
-        <v>1.1494252873563218E-14</v>
+        <v>1.1494252873563219E-26</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="19"/>
-        <v>4.6410797667579216</v>
+        <v>4.6525739143318834</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -11262,35 +14254,35 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1.5633786947703693E-12</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="15"/>
-        <v>1.7245213890631939</v>
+        <v>1.7245213890647573</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="12"/>
-        <v>-5.3811130493401467E-7</v>
+        <v>-1.9838449034259534E-13</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="16"/>
-        <v>1.724520850951889</v>
+        <v>1.724521389064559</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.3811130484859859E-7</v>
+        <v>1.3651302310790925E-12</v>
       </c>
       <c r="L99">
         <f t="shared" si="17"/>
-        <v>1.1363636363636362E-2</v>
+        <v>1.1363636363636366E-2</v>
       </c>
       <c r="M99">
         <f t="shared" si="18"/>
-        <v>1.1363636363636363E-14</v>
+        <v>1.1363636363636365E-26</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="19"/>
-        <v>4.60793705180558</v>
+        <v>4.6193005901811182</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -11307,35 +14299,35 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>2.6529243756610293E-13</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="15"/>
-        <v>1.69003096128193</v>
+        <v>1.6900309612821953</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="12"/>
-        <v>3.375742429363359E-7</v>
+        <v>8.0764072772622826E-13</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="16"/>
-        <v>1.690031298856173</v>
+        <v>1.6900309612830029</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3757424300340233E-7</v>
+        <v>1.0729195309977513E-12</v>
       </c>
       <c r="L100">
         <f t="shared" si="17"/>
-        <v>1.1235955056179775E-2</v>
+        <v>1.1235955056179778E-2</v>
       </c>
       <c r="M100">
         <f t="shared" si="18"/>
-        <v>1.1235955056179774E-14</v>
+        <v>1.1235955056179776E-26</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="19"/>
-        <v>4.5751515939072718</v>
+        <v>4.5863874482833866</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -11352,35 +14344,35 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-8.7432663129328991E-13</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="15"/>
-        <v>1.6562303420562914</v>
+        <v>1.656230342055417</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>9.4295576952740123E-7</v>
+        <v>-2.3339363394902118E-14</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6562312850120608</v>
+        <v>1.6562303420553937</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="13"/>
-        <v>9.4295576946734627E-7</v>
+        <v>-8.9772633771190158E-13</v>
       </c>
       <c r="L101">
         <f t="shared" si="17"/>
-        <v>1.111111111111111E-2</v>
+        <v>1.1111111111111113E-2</v>
       </c>
       <c r="M101">
         <f t="shared" si="18"/>
-        <v>1.111111111111111E-14</v>
+        <v>1.1111111111111112E-26</v>
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="19"/>
-        <v>4.5427191460306586</v>
+        <v>4.553830147103076</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -11397,23 +14389,23 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.7791714011198042E-12</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="15"/>
-        <v>1.6231057352151654</v>
+        <v>1.6231057352133862</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.4279573612274082E-6</v>
+        <v>5.6597735021690607E-13</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="16"/>
-        <v>1.6231043072578042</v>
+        <v>1.6231057352139522</v>
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.4279573612441254E-6</v>
+        <v>-1.2132517213103711E-12</v>
       </c>
       <c r="L102">
         <f t="shared" si="17"/>
@@ -11421,11 +14413,11 @@
       </c>
       <c r="M102">
         <f t="shared" si="18"/>
-        <v>1.0989010989010988E-14</v>
+        <v>1.0989010989010991E-26</v>
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="19"/>
-        <v>4.5106354664837038</v>
+        <v>4.5216243843350634</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -11442,35 +14434,35 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>6.6316265273772384E-14</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5906436205108621</v>
+        <v>1.5906436205109284</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.2525088392797267E-6</v>
+        <v>6.6301866588831533E-13</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5906413680020228</v>
+        <v>1.5906436205115915</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.252508839228895E-6</v>
+        <v>7.2941652717872785E-13</v>
       </c>
       <c r="L103">
         <f t="shared" si="17"/>
-        <v>1.0869565217391304E-2</v>
+        <v>1.0869565217391306E-2</v>
       </c>
       <c r="M103">
         <f t="shared" si="18"/>
-        <v>1.0869565217391303E-14</v>
+        <v>1.0869565217391305E-26</v>
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4788964001958593</v>
+        <v>4.4897658977717647</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -11487,35 +14479,35 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>8.0350737499459048E-13</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5588307481006447</v>
+        <v>1.5588307481014483</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="12"/>
-        <v>-3.6166500839724716E-8</v>
+        <v>1.1394020801379812E-12</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5588307119341438</v>
+        <v>1.5588307481025876</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.6166500905210341E-8</v>
+        <v>1.9428902930940239E-12</v>
       </c>
       <c r="L104">
         <f t="shared" si="17"/>
-        <v>1.0752688172043008E-2</v>
+        <v>1.0752688172043012E-2</v>
       </c>
       <c r="M104">
         <f t="shared" si="18"/>
-        <v>1.075268817204301E-14</v>
+        <v>1.0752688172043012E-26</v>
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4474978444080993</v>
+        <v>4.4582504660548921</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -11532,35 +14524,35 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1.6606023319393128E-12</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5276541331386317</v>
+        <v>1.5276541331369711</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="12"/>
-        <v>-9.1535607852199726E-7</v>
+        <v>6.4258072657725439E-13</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="16"/>
-        <v>1.5276532177825533</v>
+        <v>1.5276541331376137</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="13"/>
-        <v>-9.1535607849024814E-7</v>
+        <v>-1.0180745135812685E-12</v>
       </c>
       <c r="L105">
         <f t="shared" si="17"/>
-        <v>1.0638297872340425E-2</v>
+        <v>1.0638297872340427E-2</v>
       </c>
       <c r="M105">
         <f t="shared" si="18"/>
-        <v>1.0638297872340425E-14</v>
+        <v>1.0638297872340426E-26</v>
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4164356675291039</v>
+        <v>4.4270739093217299</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -11577,35 +14569,35 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-3.7437622490259424E-13</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4971010504758591</v>
+        <v>1.4971010504754847</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="12"/>
-        <v>-6.1870243802576235E-7</v>
+        <v>-1.3716061319702037E-12</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4971004317734211</v>
+        <v>1.4971010504741131</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="13"/>
-        <v>-6.1870243794892588E-7</v>
+        <v>-1.7459367285255212E-12</v>
       </c>
       <c r="L106">
         <f t="shared" si="17"/>
-        <v>1.0526315789473684E-2</v>
+        <v>1.0526315789473686E-2</v>
       </c>
       <c r="M106">
         <f t="shared" si="18"/>
-        <v>1.0526315789473684E-14</v>
+        <v>1.0526315789473685E-26</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="19"/>
-        <v>4.3857058229422021</v>
+        <v>4.3962320897549132</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -11622,23 +14614,23 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-6.8500382020902845E-13</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4671590294663419</v>
+        <v>1.4671590294656569</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="12"/>
-        <v>-3.1497438965328841E-7</v>
+        <v>1.8308598870676177E-12</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4671587144919522</v>
+        <v>1.4671590294674877</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.1497438968131064E-7</v>
+        <v>1.1457501614131615E-12</v>
       </c>
       <c r="L107">
         <f t="shared" si="17"/>
@@ -11646,11 +14638,11 @@
       </c>
       <c r="M107">
         <f t="shared" si="18"/>
-        <v>1.0416666666666667E-14</v>
+        <v>1.0416666666666667E-26</v>
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="19"/>
-        <v>4.3553042905625121</v>
+        <v>4.365720912043586</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -11667,23 +14659,23 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-8.1172793055201638E-14</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="15"/>
-        <v>1.437815848877015</v>
+        <v>1.4378158488769337</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="12"/>
-        <v>1.373515916393011E-6</v>
+        <v>5.2777144219711957E-13</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4378172223929313</v>
+        <v>1.4378158488774615</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3735159163363875E-6</v>
+        <v>4.4653170050423796E-13</v>
       </c>
       <c r="L108">
         <f t="shared" si="17"/>
@@ -11691,11 +14683,11 @@
       </c>
       <c r="M108">
         <f t="shared" si="18"/>
-        <v>1.0309278350515465E-14</v>
+        <v>1.0309278350515466E-26</v>
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="19"/>
-        <v>4.3252271042927228</v>
+        <v>4.3355363237635229</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -11712,35 +14704,35 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1.2962466161219591E-12</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4090595318994747</v>
+        <v>1.409059531900771</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="12"/>
-        <v>-6.5425575136888664E-8</v>
+        <v>1.2233868820150927E-12</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4090594664738996</v>
+        <v>1.4090595319019945</v>
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="13"/>
-        <v>-6.542557517974501E-8</v>
+        <v>2.5197621766892553E-12</v>
       </c>
       <c r="L109">
         <f t="shared" si="17"/>
-        <v>1.0204081632653062E-2</v>
+        <v>1.0204081632653064E-2</v>
       </c>
       <c r="M109">
         <f t="shared" si="18"/>
-        <v>1.0204081632653063E-14</v>
+        <v>1.0204081632653062E-26</v>
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="19"/>
-        <v>4.2954702916619185</v>
+        <v>4.3056743156833033</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -11757,35 +14749,35 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9.0451184699691537E-14</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3808783412614851</v>
+        <v>1.3808783412615755</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.3786848392774818E-7</v>
+        <v>4.3821362638446081E-13</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3808782033930012</v>
+        <v>1.3808783412620138</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.3786848396257767E-7</v>
+        <v>5.2868820432649954E-13</v>
       </c>
       <c r="L110">
         <f t="shared" si="17"/>
-        <v>1.0101010101010104E-2</v>
+        <v>1.0101010101010102E-2</v>
       </c>
       <c r="M110">
         <f t="shared" si="18"/>
-        <v>1.0101010101010104E-14</v>
+        <v>1.0101010101010103E-26</v>
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="19"/>
-        <v>4.2660299675379898</v>
+        <v>4.2761309220022801</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -11802,35 +14794,35 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5.205561125206844E-13</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3532607744362555</v>
+        <v>1.3532607744367759</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.5285662706761287E-6</v>
+        <v>1.653141648049579E-13</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3532592458699848</v>
+        <v>1.3532607744369414</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.5285662706698844E-6</v>
+        <v>6.8589578461342171E-13</v>
       </c>
       <c r="L111">
         <f t="shared" si="17"/>
-        <v>1.0000000000000002E-2</v>
+        <v>1.0000000000000004E-2</v>
       </c>
       <c r="M111">
         <f t="shared" si="18"/>
-        <v>1.0000000000000003E-14</v>
+        <v>1.0000000000000002E-26</v>
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="19"/>
-        <v>4.23690226032131</v>
+        <v>4.2469022205266267</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -11847,23 +14839,23 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-9.434842240323814E-13</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3261955589475303</v>
+        <v>1.3261955589465868</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="12"/>
-        <v>-3.9480291325700764E-6</v>
+        <v>-2.5072769778406717E-13</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3261916109183978</v>
+        <v>1.3261955589463361</v>
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.9480291325055816E-6</v>
+        <v>-1.1941558852868184E-12</v>
       </c>
       <c r="L112">
         <f t="shared" si="17"/>
@@ -11871,11 +14863,11 @@
       </c>
       <c r="M112">
         <f t="shared" si="18"/>
-        <v>9.9009900990099046E-15</v>
+        <v>9.9009900990099031E-27</v>
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="19"/>
-        <v>4.2080833430004887</v>
+        <v>4.2179843327882081</v>
       </c>
     </row>
   </sheetData>

--- a/KF-ATTITUDE.xlsx
+++ b/KF-ATTITUDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15734B-BA1A-4A05-B16E-DAB92A99C2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF86FC3D-736A-4862-BDF2-83E0E5729392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>c</t>
   </si>
@@ -138,9 +138,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>STATE PREDICTION</t>
-  </si>
-  <si>
     <t>g_t</t>
   </si>
   <si>
@@ -148,6 +145,17 @@
   </si>
   <si>
     <t>x_^_t = x_^_t-1 + g_t*(z_t - x_^_t-1)</t>
+  </si>
+  <si>
+    <t>x_^_t = a*x_^_t-1</t>
+  </si>
+  <si>
+    <t>STATE PREDICTION
+(PRIOR)</t>
+  </si>
+  <si>
+    <t>STATE PREDICTION UPDATE
+(POSTERIOR)</t>
   </si>
 </sst>
 </file>
@@ -207,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,6 +233,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1285,307 +1305,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.000000000000705</c:v>
+                  <c:v>10.000000000002528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.800000000000983</c:v>
+                  <c:v>9.7999999999996614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6040000000008554</c:v>
+                  <c:v>9.6039999999997292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4119199999993963</c:v>
+                  <c:v>9.4119200000004408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2236816000002548</c:v>
+                  <c:v>9.2236816000002708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0392079680001949</c:v>
+                  <c:v>9.0392079679996566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8584238086398823</c:v>
+                  <c:v>8.8584238086400617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6812553324682309</c:v>
+                  <c:v>8.6812553324676713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.507630225818934</c:v>
+                  <c:v>8.5076302258182572</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3374776213019324</c:v>
+                  <c:v>8.3374776213037247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1707280688739701</c:v>
+                  <c:v>8.1707280688745616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0073135074970878</c:v>
+                  <c:v>8.007313507498921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8471672373489954</c:v>
+                  <c:v>7.8471672373471906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6902238926022815</c:v>
+                  <c:v>7.6902238926005939</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5364194147503172</c:v>
+                  <c:v>7.5364194147492602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3856910264544045</c:v>
+                  <c:v>7.3856910264532551</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2379772059254348</c:v>
+                  <c:v>7.2379772059242917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0932176618085396</c:v>
+                  <c:v>7.0932176618055438</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9513533085710515</c:v>
+                  <c:v>6.9513533085710666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8123262423979671</c:v>
+                  <c:v>6.8123262423998661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6760797175505093</c:v>
+                  <c:v>6.6760797175524447</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5425581232008447</c:v>
+                  <c:v>6.5425581231990755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4117069607369332</c:v>
+                  <c:v>6.4117069607363106</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2834728215226319</c:v>
+                  <c:v>6.2834728215216904</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.157803365089924</c:v>
+                  <c:v>6.1578033650907775</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0346472977899941</c:v>
+                  <c:v>6.0346472977907801</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9139543518326301</c:v>
+                  <c:v>5.9139543518322615</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7956752647956877</c:v>
+                  <c:v>5.7956752647963761</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6797617595019574</c:v>
+                  <c:v>5.6797617594992147</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5661665243109333</c:v>
+                  <c:v>5.5661665243086489</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4548431938234243</c:v>
+                  <c:v>5.4548431938244146</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3457463299492529</c:v>
+                  <c:v>5.3457463299466275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2388314033480539</c:v>
+                  <c:v>5.2388314033498515</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1340547752829844</c:v>
+                  <c:v>5.134054775282288</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0313736797746955</c:v>
+                  <c:v>5.0313736797773787</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9307462061811824</c:v>
+                  <c:v>4.930746206180407</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8321312820578752</c:v>
+                  <c:v>4.8321312820574907</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.73548865641453</c:v>
+                  <c:v>4.7354886564161118</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6407788832878341</c:v>
+                  <c:v>4.6407788832880152</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.547963305621872</c:v>
+                  <c:v>4.5479633056218276</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4570040395084805</c:v>
+                  <c:v>4.457004039509501</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3678639587219719</c:v>
+                  <c:v>4.3678639587192212</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2805066795450637</c:v>
+                  <c:v>4.2805066795440245</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1948965459536982</c:v>
+                  <c:v>4.1948965459546095</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1109986150353066</c:v>
+                  <c:v>4.1109986150354709</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0287786427346584</c:v>
+                  <c:v>4.0287786427328784</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9482030698782666</c:v>
+                  <c:v>3.9482030698786601</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8692390084821136</c:v>
+                  <c:v>3.869239008483063</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7918542283145173</c:v>
+                  <c:v>3.7918542283135035</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7160171437461686</c:v>
+                  <c:v>3.7160171437471812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.6416968008710318</c:v>
+                  <c:v>3.6416968008703763</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5688628648538683</c:v>
+                  <c:v>3.5688628648532794</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.4974856075567917</c:v>
+                  <c:v>3.4974856075562371</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4275358954047914</c:v>
+                  <c:v>3.4275358954061912</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3589851774973098</c:v>
+                  <c:v>3.3589851774976855</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2918054739474627</c:v>
+                  <c:v>3.2918054739468028</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2259693644703691</c:v>
+                  <c:v>3.2259693644677081</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1614499771793652</c:v>
+                  <c:v>3.1614499771777766</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0982209776362488</c:v>
+                  <c:v>3.0982209776337082</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0362565580818957</c:v>
+                  <c:v>3.0362565580818184</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.975531426921771</c:v>
+                  <c:v>2.9755314269209259</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9160207983837121</c:v>
+                  <c:v>2.9160207983827475</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8577003824144227</c:v>
+                  <c:v>2.8577003824150058</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.8005463747668289</c:v>
+                  <c:v>2.8005463747672246</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7445354472716619</c:v>
+                  <c:v>2.7445354472715469</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.6896447383262068</c:v>
+                  <c:v>2.689644738325967</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6358518435591494</c:v>
+                  <c:v>2.6358518435593608</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5831348066920548</c:v>
+                  <c:v>2.5831348066883977</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5314721105551854</c:v>
+                  <c:v>2.5314721105529907</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4808426683440352</c:v>
+                  <c:v>2.4808426683440881</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4312258149755004</c:v>
+                  <c:v>2.4312258149769881</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3826012986772578</c:v>
+                  <c:v>2.3826012986776175</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3349492727022598</c:v>
+                  <c:v>2.3349492727039967</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2882502872502037</c:v>
+                  <c:v>2.288250287250162</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.242485281504365</c:v>
+                  <c:v>2.2424852815016005</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1976355758729946</c:v>
+                  <c:v>2.1976355758760704</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.1536828643581254</c:v>
+                  <c:v>2.153682864355174</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1106092070701794</c:v>
+                  <c:v>2.1106092070705356</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0683970229284498</c:v>
+                  <c:v>2.0683970229295698</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0270290824708392</c:v>
+                  <c:v>2.0270290824700106</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9864885008186877</c:v>
+                  <c:v>1.9864885008203816</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9467587308041394</c:v>
+                  <c:v>1.9467587308045227</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9078235561888341</c:v>
+                  <c:v>1.9078235561875598</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8696670850627355</c:v>
+                  <c:v>1.8696670850639372</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8322737433638987</c:v>
+                  <c:v>1.8322737433639005</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7956282684963465</c:v>
+                  <c:v>1.7956282684973701</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7597157031264161</c:v>
+                  <c:v>1.7597157031251238</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7245213890647573</c:v>
+                  <c:v>1.724521389063143</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6900309612821953</c:v>
+                  <c:v>1.6900309612806101</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.656230342055417</c:v>
+                  <c:v>1.6562303420567261</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6231057352133862</c:v>
+                  <c:v>1.6231057352145404</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5906436205109284</c:v>
+                  <c:v>1.5906436205112802</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5588307481014483</c:v>
+                  <c:v>1.5588307481011221</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5276541331369711</c:v>
+                  <c:v>1.527654133139376</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4971010504754847</c:v>
+                  <c:v>1.4971010504757667</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4671590294656569</c:v>
+                  <c:v>1.4671590294664154</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4378158488769337</c:v>
+                  <c:v>1.4378158488749737</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.409059531900771</c:v>
+                  <c:v>1.4090595319001014</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3808783412615755</c:v>
+                  <c:v>1.3808783412626369</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3532607744367759</c:v>
+                  <c:v>1.3532607744368665</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3261955589465868</c:v>
+                  <c:v>1.3261955589487109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,307 +1972,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.000000000001581</c:v>
+                  <c:v>10.000000000003576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8000000000019902</c:v>
+                  <c:v>9.8000000000019867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6040000000003563</c:v>
+                  <c:v>9.6040000000010224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4119199999980037</c:v>
+                  <c:v>9.4119199999983305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2236815999990291</c:v>
+                  <c:v>9.2236816000008144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0392079680007384</c:v>
+                  <c:v>9.039207967998939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8584238086401736</c:v>
+                  <c:v>8.8584238086416711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6812553324689929</c:v>
+                  <c:v>8.6812553324657227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5076302258191294</c:v>
+                  <c:v>8.5076302258170156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3374776213018542</c:v>
+                  <c:v>8.3374776213033339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1707280688730144</c:v>
+                  <c:v>8.1707280688741744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0073135074978889</c:v>
+                  <c:v>8.0073135074992248</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8471672373501082</c:v>
+                  <c:v>7.8471672373461514</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6902238926028561</c:v>
+                  <c:v>7.6902238926002902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5364194147511645</c:v>
+                  <c:v>7.5364194147482806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3856910264547908</c:v>
+                  <c:v>7.38569102645332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2379772059266756</c:v>
+                  <c:v>7.2379772059251613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0932176618095326</c:v>
+                  <c:v>7.0932176618052143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9513533085715524</c:v>
+                  <c:v>6.9513533085702957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.812326242397674</c:v>
+                  <c:v>6.8123262424011175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6760797175520112</c:v>
+                  <c:v>6.676079717552537</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.542558123200501</c:v>
+                  <c:v>6.5425581231975452</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4117069607362405</c:v>
+                  <c:v>6.4117069607361623</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2834728215224738</c:v>
+                  <c:v>6.2834728215234179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.157803365089829</c:v>
+                  <c:v>6.1578033650906425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0346472977901273</c:v>
+                  <c:v>6.0346472977902605</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9139543518318982</c:v>
+                  <c:v>5.9139543518327065</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.795675264796472</c:v>
+                  <c:v>5.7956752647980458</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6797617595032825</c:v>
+                  <c:v>5.6797617594997565</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5661665243089411</c:v>
+                  <c:v>5.5661665243073708</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4548431938258712</c:v>
+                  <c:v>5.4548431938245265</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3457463299504226</c:v>
+                  <c:v>5.345746329945916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2388314033470094</c:v>
+                  <c:v>5.238831403350213</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1340547752831647</c:v>
+                  <c:v>5.1340547752826353</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0313736797739166</c:v>
+                  <c:v>5.0313736797776114</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.93074620617951</c:v>
+                  <c:v>4.930746206179947</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8321312820571016</c:v>
+                  <c:v>4.832131282057559</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7354886564151757</c:v>
+                  <c:v>4.7354886564177825</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6407788832864636</c:v>
+                  <c:v>4.6407788832873953</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5479633056214466</c:v>
+                  <c:v>4.5479633056249718</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4570040395084156</c:v>
+                  <c:v>4.4570040395093775</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3678639587225652</c:v>
+                  <c:v>4.3678639587199566</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2805066795461508</c:v>
+                  <c:v>4.2805066795430955</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1948965459541023</c:v>
+                  <c:v>4.1948965459536902</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1109986150365927</c:v>
+                  <c:v>4.1109986150343163</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0287786427328358</c:v>
+                  <c:v>4.0287786427336965</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9482030698788839</c:v>
+                  <c:v>3.9482030698791921</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8692390084806871</c:v>
+                  <c:v>3.8692390084845782</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.791854228315175</c:v>
+                  <c:v>3.7918542283131993</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7160171437458089</c:v>
+                  <c:v>3.7160171437481049</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.6416968008711867</c:v>
+                  <c:v>3.6416968008691564</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5688628648551703</c:v>
+                  <c:v>3.5688628648538194</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.4974856075560394</c:v>
+                  <c:v>3.4974856075560119</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4275358954062192</c:v>
+                  <c:v>3.4275358954066366</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3589851774968214</c:v>
+                  <c:v>3.3589851774987842</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2918054739477083</c:v>
+                  <c:v>3.2918054739474911</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2259693644705378</c:v>
+                  <c:v>3.2259693644691385</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1614499771787758</c:v>
+                  <c:v>3.161449977175963</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.098220977636676</c:v>
+                  <c:v>3.098220977633646</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0362565580827692</c:v>
+                  <c:v>3.0362565580824072</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9755314269218167</c:v>
+                  <c:v>2.9755314269204023</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9160207983838848</c:v>
+                  <c:v>2.9160207983823168</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8577003824141118</c:v>
+                  <c:v>2.8577003824162328</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.8005463747679893</c:v>
+                  <c:v>2.8005463747673098</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7445354472726136</c:v>
+                  <c:v>2.7445354472722596</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.6896447383276545</c:v>
+                  <c:v>2.6896447383255508</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6358518435601375</c:v>
+                  <c:v>2.635851843559323</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5831348066926485</c:v>
+                  <c:v>2.5831348066872581</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5314721105563875</c:v>
+                  <c:v>2.5314721105526141</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.480842668344494</c:v>
+                  <c:v>2.4808426683446845</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4312258149745052</c:v>
+                  <c:v>2.4312258149772119</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3826012986790368</c:v>
+                  <c:v>2.3826012986770224</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3349492727025738</c:v>
+                  <c:v>2.3349492727029704</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2882502872500958</c:v>
+                  <c:v>2.288250287251052</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2424852815054348</c:v>
+                  <c:v>2.2424852815005196</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1976355758714354</c:v>
+                  <c:v>2.1976355758758079</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.1536828643571972</c:v>
+                  <c:v>2.153682864355527</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1106092070698885</c:v>
+                  <c:v>2.1106092070717759</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0683970229292408</c:v>
+                  <c:v>2.0683970229295645</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0270290824702615</c:v>
+                  <c:v>2.0270290824692694</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9864885008182043</c:v>
+                  <c:v>1.9864885008199109</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9467587308035819</c:v>
+                  <c:v>1.9467587308044116</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9078235561892356</c:v>
+                  <c:v>1.9078235561870585</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8696670850630452</c:v>
+                  <c:v>1.8696670850651895</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8322737433640379</c:v>
+                  <c:v>1.8322737433653682</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7956282684959184</c:v>
+                  <c:v>1.7956282684966272</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7597157031278023</c:v>
+                  <c:v>1.7597157031244961</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.724521389064559</c:v>
+                  <c:v>1.7245213890647408</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6900309612830029</c:v>
+                  <c:v>1.6900309612816338</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6562303420553937</c:v>
+                  <c:v>1.6562303420556244</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6231057352139522</c:v>
+                  <c:v>1.6231057352170151</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5906436205115915</c:v>
+                  <c:v>1.5906436205110475</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5588307481025876</c:v>
+                  <c:v>1.5588307481004988</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5276541331376137</c:v>
+                  <c:v>1.5276541331400699</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4971010504741131</c:v>
+                  <c:v>1.4971010504752063</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4671590294674877</c:v>
+                  <c:v>1.4671590294660681</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4378158488774615</c:v>
+                  <c:v>1.4378158488755535</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4090595319019945</c:v>
+                  <c:v>1.4090595318979331</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3808783412620138</c:v>
+                  <c:v>1.3808783412596428</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3532607744369414</c:v>
+                  <c:v>1.3532607744363099</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3261955589463361</c:v>
+                  <c:v>1.3261955589493315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,307 +2907,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.5809575870662229E-12</c:v>
+                  <c:v>3.5758063177127042E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9895196601282805E-12</c:v>
+                  <c:v>1.98596694644948E-12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5527136788005009E-13</c:v>
+                  <c:v>1.021405182655144E-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9966250874858815E-12</c:v>
+                  <c:v>-1.6697754290362354E-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.71667191151937E-13</c:v>
+                  <c:v>8.1357143244531471E-13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3718808835110394E-13</c:v>
+                  <c:v>-1.0622613899613498E-12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.723066134218243E-13</c:v>
+                  <c:v>1.6697754290362354E-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7923440509548527E-12</c:v>
+                  <c:v>-1.4779288903810084E-12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2736478538499796E-12</c:v>
+                  <c:v>-8.4021678503631847E-13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5527136788005009E-13</c:v>
+                  <c:v>1.8349766151004587E-12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4549251520511461E-12</c:v>
+                  <c:v>-1.2949641359227826E-12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.1054273576010019E-14</c:v>
+                  <c:v>1.2647660696529783E-12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1076473899483972E-12</c:v>
+                  <c:v>-1.8491874698156607E-12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.815436689867056E-12</c:v>
+                  <c:v>-7.5051076464660582E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1449508835758024E-12</c:v>
+                  <c:v>-7.3896444519050419E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5139894306630595E-13</c:v>
+                  <c:v>-7.1942451995710144E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7168488852803421E-12</c:v>
+                  <c:v>2.0250467969162855E-13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0730973321624333E-12</c:v>
+                  <c:v>-1.2452261444195756E-12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2221335055073723E-12</c:v>
+                  <c:v>-3.4638958368304884E-14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.2496670365180762E-12</c:v>
+                  <c:v>2.1938006966593093E-12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0658141036401503E-12</c:v>
+                  <c:v>1.5916157281026244E-12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7465143754598103E-13</c:v>
+                  <c:v>-2.3812063432160357E-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1263880373444408E-13</c:v>
+                  <c:v>2.3447910280083306E-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2647660696529783E-12</c:v>
+                  <c:v>2.2088997297942115E-12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9.5567997959733475E-13</c:v>
+                  <c:v>-1.4210854715202004E-13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1581846592889633E-12</c:v>
+                  <c:v>1.2914114222439821E-12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.2914114222439821E-12</c:v>
+                  <c:v>-4.8316906031686813E-13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-5.4178883601707639E-14</c:v>
+                  <c:v>1.5196732761069143E-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6867397195928788E-12</c:v>
+                  <c:v>-8.3932860661661834E-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.6431300764452317E-12</c:v>
+                  <c:v>-3.2134295224750531E-12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4983569940341113E-12</c:v>
+                  <c:v>1.5365486660812167E-13</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.5375257450832578E-12</c:v>
+                  <c:v>-1.9690915564751776E-12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.9175772081325704E-12</c:v>
+                  <c:v>1.2860823517257813E-12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2168044349891716E-12</c:v>
+                  <c:v>6.8745009684789693E-13</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.3918644842524373E-12</c:v>
+                  <c:v>1.3029577417000837E-12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.2718714970105793E-12</c:v>
+                  <c:v>-8.3488771451811772E-13</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6.4837024638109142E-14</c:v>
+                  <c:v>3.9257486150745535E-13</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8.4732221239391947E-13</c:v>
+                  <c:v>1.7594814494259481E-12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.2390088954816747E-12</c:v>
+                  <c:v>-3.0730973321624333E-13</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-5.0182080713057076E-13</c:v>
+                  <c:v>3.0233593406592263E-12</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.0933476346508542E-12</c:v>
+                  <c:v>-1.3145040611561853E-13</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.2462921240039577E-12</c:v>
+                  <c:v>6.3771210534468992E-13</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2185807918285718E-12</c:v>
+                  <c:v>-1.836752971939859E-12</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.8389738316909643E-14</c:v>
+                  <c:v>-3.4372504842394846E-13</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.6395773627664312E-12</c:v>
+                  <c:v>-6.3682392692498979E-13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.4184209362611E-12</c:v>
+                  <c:v>-5.5777604757167865E-13</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-6.8522965079864662E-13</c:v>
+                  <c:v>-3.7703173916270316E-13</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.290523243824282E-12</c:v>
+                  <c:v>2.6005864128819667E-12</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8368418725222E-12</c:v>
+                  <c:v>8.6108897789927141E-13</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.8244073746463982E-13</c:v>
+                  <c:v>2.0135004774601839E-12</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7319479184152442E-14</c:v>
+                  <c:v>-2.0130563882503338E-12</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4241940959891508E-12</c:v>
+                  <c:v>7.3274719625260332E-14</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.319389456166391E-13</c:v>
+                  <c:v>-6.5947247662734299E-13</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.8123284790999605E-13</c:v>
+                  <c:v>1.0986767051690549E-12</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-6.0573768223548541E-13</c:v>
+                  <c:v>1.3571366253017914E-12</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.2959412149248237E-13</c:v>
+                  <c:v>1.2434497875801753E-14</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0086154961518332E-12</c:v>
+                  <c:v>6.0929039591428591E-13</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.8280489889075398E-13</c:v>
+                  <c:v>-3.1956659540810506E-12</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1004530620084552E-12</c:v>
+                  <c:v>-1.9295676167985221E-12</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-9.50350909079134E-14</c:v>
+                  <c:v>-4.5696779693571443E-13</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0973448512413597E-13</c:v>
+                  <c:v>-8.0468964824831346E-13</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.1022294188478554E-12</c:v>
+                  <c:v>-4.6584958113271568E-13</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.0151879337172431E-12</c:v>
+                  <c:v>1.1057821325266559E-12</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1648459974367142E-12</c:v>
+                  <c:v>4.8538950636611844E-13</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1257661469699087E-12</c:v>
+                  <c:v>7.7182704671940883E-13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5965007094109751E-12</c:v>
+                  <c:v>-5.0714987764877151E-13</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.0085270092713472E-13</c:v>
+                  <c:v>-2.1360690993788012E-13</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.3027803542372567E-12</c:v>
+                  <c:v>-1.0875744749228033E-12</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.808775351719305E-12</c:v>
+                  <c:v>-1.964650664376677E-12</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>1.1972645097557688E-12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.9463545198923384E-13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-6.2616578588858829E-14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.7287508070658077E-13</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5796253194366727E-12</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.9630521087019588E-12</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4148682225822995E-12</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.3780088181647443E-12</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0090595853616833E-12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1928236176572682E-12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5.3468340865947539E-13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-4.9693582582222007E-13</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.1189274213593308E-13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-8.6131102250419644E-13</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.02828856540782E-12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.4902302442342261E-12</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1.006750238730092E-12</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2.1120882820468978E-12</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.9517720772910252E-12</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-9.6944674510268669E-13</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.2350125062948791E-13</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9.5212726591853425E-13</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-2.957634137601417E-12</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.922107000813412E-13</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.2168044349891716E-13</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.6908258367657254E-13</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.5741188614556449E-13</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-2.2035706592760107E-12</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-4.1788794646890892E-13</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.3158363287857355E-12</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.1159961843532074E-12</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.1599610161283636E-12</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.9798385980939202E-13</c:v>
-                </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.0943247136528953E-12</c:v>
+                  <c:v>-1.2119194536808209E-12</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.3651302310790925E-12</c:v>
+                  <c:v>1.5469847625126931E-12</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0729195309977513E-12</c:v>
+                  <c:v>-2.9620750296999176E-13</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-8.9772633771190158E-13</c:v>
+                  <c:v>-6.6702199319479405E-13</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.2132517213103711E-12</c:v>
+                  <c:v>1.8496315590255108E-12</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.2941652717872785E-13</c:v>
+                  <c:v>1.8540724511240114E-13</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9428902930940239E-12</c:v>
+                  <c:v>-1.4588330543574557E-13</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.0180745135812685E-12</c:v>
+                  <c:v>1.4381829060994278E-12</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.7459367285255212E-12</c:v>
+                  <c:v>-6.5281113847959205E-13</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.1457501614131615E-12</c:v>
+                  <c:v>-2.737809978725636E-13</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.4653170050423796E-13</c:v>
+                  <c:v>-1.4614975896165561E-12</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5197621766892553E-12</c:v>
+                  <c:v>-1.5416556919944924E-12</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.2868820432649954E-13</c:v>
+                  <c:v>-1.8423040870629848E-12</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.8589578461342171E-13</c:v>
+                  <c:v>5.440092820663267E-14</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.1941558852868184E-12</c:v>
+                  <c:v>1.801225835151854E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,7 +3435,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STATE PREDICTION</c:v>
+                  <c:v>STATE PREDICTION UPDATE
+(POSTERIOR)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3764,304 +3785,304 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4000000000009951</c:v>
+                  <c:v>5.4000000000009933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8013333333341155</c:v>
+                  <c:v>6.8013333333343367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4539800000000875</c:v>
+                  <c:v>7.4539800000003353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8079203199998757</c:v>
+                  <c:v>7.8079203200004308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.013134928000019</c:v>
+                  <c:v>8.0131349280001825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1338904823771845</c:v>
+                  <c:v>8.133890482377538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2023110886386608</c:v>
+                  <c:v>8.2023110886385613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.236235437214269</c:v>
+                  <c:v>8.2362354372139457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2463596556230279</c:v>
+                  <c:v>8.246359655622884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2394840568275729</c:v>
+                  <c:v>8.2394840568275463</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2201365110501001</c:v>
+                  <c:v>8.2201365110501854</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1914465669193319</c:v>
+                  <c:v>8.1914465669191063</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1556449473252979</c:v>
+                  <c:v>8.1556449473249053</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1143632451536885</c:v>
+                  <c:v>8.1143632451531307</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.068821231485007</c:v>
+                  <c:v>8.0688212314843923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0199480535109871</c:v>
+                  <c:v>8.0199480535103191</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9684630317497955</c:v>
+                  <c:v>7.9684630317489242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9149309410562037</c:v>
+                  <c:v>7.9149309410553119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8598007061232771</c:v>
+                  <c:v>7.8598007061226021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8034330400008356</c:v>
+                  <c:v>7.8034330400002183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7461205437826388</c:v>
+                  <c:v>7.7461205437819149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.6881025619110561</c:v>
+                  <c:v>7.6881025619103607</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6295763227281981</c:v>
+                  <c:v>7.629576322727571</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5707054044226636</c:v>
+                  <c:v>7.5707054044220943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.5116262464752586</c:v>
+                  <c:v>7.5116262464747159</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.452453213340319</c:v>
+                  <c:v>7.4524532133398269</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3932825723208957</c:v>
+                  <c:v>7.3932825723204774</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3341956477409784</c:v>
+                  <c:v>7.3341956477404526</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.2752613436265774</c:v>
+                  <c:v>7.275261343626017</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.2165381775039741</c:v>
+                  <c:v>7.2165381775033879</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.1580759322679253</c:v>
+                  <c:v>7.1580759322672165</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.0999170071491093</c:v>
+                  <c:v>7.0999170071485196</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.0420975297412873</c:v>
+                  <c:v>7.0420975297406994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.9846482768850766</c:v>
+                  <c:v>6.9846482768846112</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9275954415876999</c:v>
+                  <c:v>6.9275954415872594</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8709612751139</c:v>
+                  <c:v>6.8709612751134834</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.8147646272534068</c:v>
+                  <c:v>6.8147646272530702</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.7590214030491262</c:v>
+                  <c:v>6.7590214030488225</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.7037449506134346</c:v>
+                  <c:v>6.7037449506132258</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.6489463918059952</c:v>
+                  <c:v>6.6489463918058149</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.5946349053040088</c:v>
+                  <c:v>6.5946349053037707</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.5408179698212683</c:v>
+                  <c:v>6.5408179698209645</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.4875015738242876</c:v>
+                  <c:v>6.4875015738239812</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.4346903969623392</c:v>
+                  <c:v>6.4346903969619884</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.3823879675225674</c:v>
+                  <c:v>6.3823879675222432</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3305967994875951</c:v>
+                  <c:v>6.3305967994872852</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2793185121749513</c:v>
+                  <c:v>6.2793185121747284</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2285539349533234</c:v>
+                  <c:v>6.2285539349530641</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.1783031991291733</c:v>
+                  <c:v>6.1783031991289645</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.1285658187711736</c:v>
+                  <c:v>6.1285658187709293</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0793407619650965</c:v>
+                  <c:v>6.079340761964831</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.0306265137686994</c:v>
+                  <c:v>6.0306265137684383</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.9824211319471718</c:v>
+                  <c:v>5.9824211319469232</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.934722296411711</c:v>
+                  <c:v>5.9347222964115023</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.8875273531534251</c:v>
+                  <c:v>5.8875273531532164</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.8408333533519707</c:v>
+                  <c:v>5.8408333533517416</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.794637088245536</c:v>
+                  <c:v>5.7946370882452625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.748935120269115</c:v>
+                  <c:v>5.7489351202687944</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.7037238108993424</c:v>
+                  <c:v>5.7037238108990209</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.658999345588235</c:v>
+                  <c:v>5.6589993455878957</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.6147577561171973</c:v>
+                  <c:v>5.6147577561168385</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.5709949406615928</c:v>
+                  <c:v>5.5709949406612731</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.5277066818195051</c:v>
+                  <c:v>5.52770668181918</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.4848886628264761</c:v>
+                  <c:v>5.4848886628261502</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.4425364821522519</c:v>
+                  <c:v>5.4425364821518984</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.4006456666508775</c:v>
+                  <c:v>5.4006456666505169</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.3592116834161976</c:v>
+                  <c:v>5.3592116834157633</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.3182299504762005</c:v>
+                  <c:v>5.3182299504757173</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2776958464457477</c:v>
+                  <c:v>5.2776958464452743</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.2376047192419275</c:v>
+                  <c:v>5.2376047192414985</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.1979518939563318</c:v>
+                  <c:v>5.1979518939558806</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.1587326799665547</c:v>
+                  <c:v>5.1587326799661151</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.1199423773622783</c:v>
+                  <c:v>5.1199423773618573</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.0815762827508539</c:v>
+                  <c:v>5.0815762827503725</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.0436296945024406</c:v>
+                  <c:v>5.0436296945020231</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.0060979174875673</c:v>
+                  <c:v>5.0060979174871338</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.968976267354007</c:v>
+                  <c:v>4.9689762673536038</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9322600743866047</c:v>
+                  <c:v>4.9322600743862113</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.8959446869876508</c:v>
+                  <c:v>4.8959446869872494</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.8600254748127192</c:v>
+                  <c:v>4.8600254748123444</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.8244978315930958</c:v>
+                  <c:v>4.8244978315927352</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7893571776725672</c:v>
+                  <c:v>4.7893571776721853</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7545989622843585</c:v>
+                  <c:v>4.7545989622840068</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7202186655911786</c:v>
+                  <c:v>4.7202186655908465</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6862118005086755</c:v>
+                  <c:v>4.6862118005083557</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6525739143318834</c:v>
+                  <c:v>4.6525739143315299</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6193005901811182</c:v>
+                  <c:v>4.6193005901807709</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.5863874482833866</c:v>
+                  <c:v>4.5863874482830278</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.553830147103076</c:v>
+                  <c:v>4.5538301471027234</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.5216243843350634</c:v>
+                  <c:v>4.5216243843347481</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.4897658977717647</c:v>
+                  <c:v>4.4897658977714467</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4582504660548921</c:v>
+                  <c:v>4.4582504660545546</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.4270739093217299</c:v>
+                  <c:v>4.4270739093214218</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.3962320897549132</c:v>
+                  <c:v>4.3962320897546192</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.365720912043586</c:v>
+                  <c:v>4.3657209120432805</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.3355363237635229</c:v>
+                  <c:v>4.3355363237632005</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3056743156833033</c:v>
+                  <c:v>4.3056743156829427</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.2761309220022801</c:v>
+                  <c:v>4.276130922001899</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.2469022205266267</c:v>
+                  <c:v>4.246902220526243</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.2179843327882081</c:v>
+                  <c:v>4.2179843327878581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4737,6 +4758,674 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2156-4AF6-AF43-E0729826C02B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$O$10:$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>STATE PREDICTION
+(PRIOR)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>x_^_t = a*x_^_t-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$O$12:$O$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2920000000009733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6653066666676501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3049004000003288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6517619136004225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8528722294401785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9712126727299868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0382648668657897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0715107284696668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0814324625104259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0746943756909957</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0557337808291809</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0276176355807234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9925320483784068</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9520759802500676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9074448068547047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8595490924401128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8090937711139459</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7566323222342053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7026046920001496</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6473643792002139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5911981329062765</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5343405106721537</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4769847962730198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4192912963336521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3613937215452214</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3034041490730299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2454169208740673</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1875117347856436</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1297561167534962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0722074139533202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.014914413621872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9579186670055488</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9012555791458849</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8449553113469186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.7890435327555139</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7335420496112137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.6784693347080086</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.6238409749878455</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5696700516009612</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5159674639696989</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.462742207197695</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.410001610424545</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3577515423475015</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3059965890227483</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.254740208171798</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.2039848634975394</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.1537321419312336</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1039828562540031</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.054737135146385</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0059945023955104</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9577539467255338</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9100139834930694</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.8627727093079844</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.8160278504832723</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7697768060901522</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7240166862847071</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.6787443464803573</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.6339564178634181</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5896493346810407</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.5458193586761375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5024626009945017</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4595750418480478</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.4171525481827967</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.3751908895696268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.3336857525088606</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2926327533175064</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.2520274497474482</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.2118653514662032</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.1721419295163686</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.1328526248566684</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.0939928560767633</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.0555580263667927</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.0175435298146205</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.9799447570953648</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.9427571006119821</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.9059759591373915</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.8695967420065314</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.8336148728984867</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7980257932475041</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.7628249653160974</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.7280078749608805</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6935700341187419</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.6595069830383267</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.6258142922790295</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5924875644981888</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5595224360448992</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.5269145783771556</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.4946596993173671</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.4627535441606687</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.4311918966480528</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.399970579816018</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3690854567334636</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.3385324311349933</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.3083074479595265</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2784064938024144</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.2488255972879365</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.2195608293692839</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.1906083035618611</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.1619641761157178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2156-4AF6-AF43-E0729826C02B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9553,16 +10242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>607217</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>164306</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>121444</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>245268</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10034,7 +10723,7 @@
   <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="P12" sqref="P12:P112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10047,10 +10736,12 @@
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
@@ -10064,7 +10755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10106,7 +10797,7 @@
         <v>9.9999999999999992E-25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" t="s">
         <v>15</v>
@@ -10127,12 +10818,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10143,7 +10834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10157,7 +10848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10175,7 +10866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -10187,33 +10878,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>32</v>
+      <c r="N10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10238,16 +10941,19 @@
         <v>27</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -10261,23 +10967,23 @@
       </c>
       <c r="E12">
         <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>7.055017511198037E-13</v>
+        <v>2.528397129854687E-12</v>
       </c>
       <c r="F12">
         <f ca="1">D12+E12</f>
-        <v>10.000000000000705</v>
+        <v>10.000000000002528</v>
       </c>
       <c r="G12">
         <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>8.7583182364397901E-13</v>
+        <v>1.0484343530788146E-12</v>
       </c>
       <c r="H12">
         <f ca="1">F12+G12</f>
-        <v>10.000000000001581</v>
+        <v>10.000000000003576</v>
       </c>
       <c r="J12">
         <f ca="1">H12-D12</f>
-        <v>1.5809575870662229E-12</v>
+        <v>3.5758063177127042E-12</v>
       </c>
       <c r="M12">
         <f>N2</f>
@@ -10286,8 +10992,12 @@
       <c r="N12">
         <v>1</v>
       </c>
+      <c r="P12">
+        <f>$B$2*M12*$B$2</f>
+        <v>9.6040000000000004E-25</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -10301,23 +11011,23 @@
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E76" ca="1" si="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>9.8249941140784671E-13</v>
+        <v>-3.3955824971080765E-13</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>9.800000000000983</v>
+        <v>9.7999999999996614</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13:G76" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>1.0069639606336653E-12</v>
+        <v>2.3253395504244515E-12</v>
       </c>
       <c r="H13">
         <f ca="1">F13+G13</f>
-        <v>9.8000000000019902</v>
+        <v>9.8000000000019867</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:J76" ca="1" si="3">H13-D13</f>
-        <v>1.9895196601282805E-12</v>
+        <v>1.98596694644948E-12</v>
       </c>
       <c r="L13">
         <f>M12/(M12+$N$2)</f>
@@ -10329,10 +11039,18 @@
       </c>
       <c r="N13">
         <f ca="1">N12 + L13*(H13 - N12)</f>
-        <v>5.4000000000009951</v>
+        <v>5.4000000000009933</v>
+      </c>
+      <c r="O13">
+        <f>$B$2*N12</f>
+        <v>0.98</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P76" si="4">$B$2*M13*$B$2</f>
+        <v>4.8020000000000002E-25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -10341,43 +11059,51 @@
         <v>0.2</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D77" si="4">$B$2*D13</f>
+        <f t="shared" ref="D14:D77" si="5">$B$2*D13</f>
         <v>9.604000000000001</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5379354926535443E-13</v>
+        <v>-2.7240949785705308E-13</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F77" ca="1" si="5">D14+E14</f>
-        <v>9.6040000000008554</v>
+        <f t="shared" ref="F14:F77" ca="1" si="6">D14+E14</f>
+        <v>9.6039999999997292</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.9873922830347847E-13</v>
+        <v>1.2938959175419334E-12</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H77" ca="1" si="6">F14+G14</f>
-        <v>9.6040000000003563</v>
+        <f t="shared" ref="H14:H77" ca="1" si="7">F14+G14</f>
+        <v>9.6040000000010224</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5527136788005009E-13</v>
+        <v>1.021405182655144E-12</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L77" si="7">M13/(M13+$N$2)</f>
+        <f t="shared" ref="L14:L77" si="8">M13/(M13+$N$2)</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M77" si="8">(1-L14)*M13</f>
+        <f t="shared" ref="M14:M77" si="9">(1-L14)*M13</f>
         <v>3.3333333333333331E-25</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N77" ca="1" si="9">N13 + L14*(H14 - N13)</f>
-        <v>6.8013333333341155</v>
+        <f t="shared" ref="N14:N77" ca="1" si="10">N13 + L14*(H14 - N13)</f>
+        <v>6.8013333333343367</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O77" ca="1" si="11">$B$2*N13</f>
+        <v>5.2920000000009733</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>3.2013333333333325E-25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -10386,43 +11112,51 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4119200000000003</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0420172815680796E-13</v>
+        <v>4.4001789129481912E-13</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.4119199999993963</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.4119200000004408</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3929395669049479E-12</v>
+        <v>-2.1111135339844766E-12</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.4119199999980037</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9.4119199999983305</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9966250874858815E-12</v>
+        <v>-1.6697754290362354E-12</v>
       </c>
       <c r="L15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="M15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4999999999999998E-25</v>
       </c>
       <c r="N15">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4539800000000875</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.4539800000003353</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.6653066666676501</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>2.4010000000000001E-25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -10431,43 +11165,51 @@
         <v>0.4</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2236816000000008</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5347636782699717E-13</v>
+        <v>2.7022666065130181E-13</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.2236816000002548</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.2236816000002708</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2249116676255041E-12</v>
+        <v>5.4282901198712758E-13</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.2236815999990291</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9.2236816000008144</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.71667191151937E-13</v>
+        <v>8.1357143244531471E-13</v>
       </c>
       <c r="L16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="M16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999998E-25</v>
       </c>
       <c r="N16">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.8079203199998757</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.8079203200004308</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.3049004000003288</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>1.9207999999999998E-25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -10476,43 +11218,51 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0392079680000013</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9445468199262724E-13</v>
+        <v>-3.4387497812922428E-13</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.0392079680001949</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.0392079679996566</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4397392313606491E-13</v>
+        <v>-7.1730820949236107E-13</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.0392079680007384</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9.039207967998939</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3718808835110394E-13</v>
+        <v>-1.0622613899613498E-12</v>
       </c>
       <c r="L17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="M17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666665E-25</v>
       </c>
       <c r="N17">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.013134928000019</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.0131349280001825</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.6517619136004225</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>1.6006666666666663E-25</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -10521,43 +11271,51 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8584238086400013</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1905108903299287E-13</v>
+        <v>6.0588378015841487E-14</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.8584238086398823</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.8584238086400617</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9137688217306261E-13</v>
+        <v>1.6097035738222313E-12</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.8584238086401736</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8.8584238086416711</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.723066134218243E-13</v>
+        <v>1.6697754290362354E-12</v>
       </c>
       <c r="L18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="M18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4285714285714286E-25</v>
       </c>
       <c r="N18">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1338904823771845</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.133890482377538</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.8528722294401785</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>1.372E-25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -10566,43 +11324,51 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6812553324672006</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.030829616215086E-12</v>
+        <v>4.7029304125016239E-13</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6812553324682309</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.6812553324676713</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6254487136244699E-13</v>
+        <v>-1.949445291592403E-12</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6812553324689929</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8.6812553324657227</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7923440509548527E-12</v>
+        <v>-1.4779288903810084E-12</v>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="M19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2500000000000001E-25</v>
       </c>
       <c r="N19">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.2023110886386608</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.2023110886385613</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.9712126727299868</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>1.2005000000000003E-25</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -10611,43 +11377,51 @@
         <v>0.8</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5076302258178558</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0781362260834234E-12</v>
+        <v>4.0115097247426233E-13</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.507630225818934</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.5076302258182572</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9587034943078746E-13</v>
+        <v>-1.242371353460223E-12</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.5076302258191294</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8.5076302258170156</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2736478538499796E-12</v>
+        <v>-8.4021678503631847E-13</v>
       </c>
       <c r="L20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11111111111111113</v>
       </c>
       <c r="M20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1111111111111111E-25</v>
       </c>
       <c r="N20">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.236235437214269</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.2362354372139457</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.0382648668657897</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>1.067111111111111E-25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -10656,43 +11430,51 @@
         <v>0.9</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3374776213014989</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3411971124903812E-13</v>
+        <v>2.2254203548661951E-12</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.3374776213019324</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.3374776213037247</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.8424130958360251E-14</v>
+        <v>-3.9104900720033164E-13</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.3374776213018542</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8.3374776213033339</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5527136788005009E-13</v>
+        <v>1.8349766151004587E-12</v>
       </c>
       <c r="L21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="M21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1E-25</v>
       </c>
       <c r="N21">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.2463596556230279</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.246359655622884</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.0715107284696668</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>9.6039999999999999E-26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -10701,43 +11483,51 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1707280688754693</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4994226915416071E-12</v>
+        <v>-9.0744188693042687E-13</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.1707280688739701</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1707280688745616</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.5631892001512437E-13</v>
+        <v>-3.8654911113008722E-13</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1707280688730144</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8.1707280688741744</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.4549251520511461E-12</v>
+        <v>-1.2949641359227826E-12</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0909090909090905E-26</v>
       </c>
       <c r="N22">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.2394840568275729</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.2394840568275463</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.0814324625104259</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>8.7309090909090904E-26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -10746,43 +11536,51 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.00731350749796</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7224987631510729E-13</v>
+        <v>9.6033998533261284E-13</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.0073135074970878</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.007313507498921</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0037222905175705E-13</v>
+        <v>3.0429185701508761E-13</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.0073135074978889</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8.0073135074992248</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.1054273576010019E-14</v>
+        <v>1.2647660696529783E-12</v>
       </c>
       <c r="L23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="M23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3333333333333327E-26</v>
       </c>
       <c r="N23">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.2201365110501001</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.2201365110501854</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.0746943756909957</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>8.0033333333333313E-26</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -10791,43 +11589,51 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8471672373480006</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9495947196740697E-13</v>
+        <v>-8.1002014574897858E-13</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.8471672373489954</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.8471672373471906</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1126189807570684E-12</v>
+        <v>-1.0387552656716631E-12</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8471672373501082</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7.8471672373461514</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1076473899483972E-12</v>
+        <v>-1.8491874698156607E-12</v>
       </c>
       <c r="L24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="M24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6923076923076922E-26</v>
       </c>
       <c r="N24">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1914465669193319</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.1914465669191063</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.0557337808291809</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>7.3876923076923076E-26</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -10836,43 +11642,51 @@
         <v>1.3</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6902238926010407</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2412042100862316E-12</v>
+        <v>-4.4662679518891148E-13</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6902238926022815</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.6902238926005939</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>5.746695044441031E-13</v>
+        <v>-3.0378230077305255E-13</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.6902238926028561</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7.6902238926002902</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
-        <v>1.815436689867056E-12</v>
+        <v>-7.5051076464660582E-13</v>
       </c>
       <c r="L25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1428571428571431E-26</v>
       </c>
       <c r="N25">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1556449473252979</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.1556449473249053</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.0276176355807234</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>6.8600000000000001E-26</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>14</v>
       </c>
@@ -10881,43 +11695,51 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5364194147490196</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2975721730722016E-12</v>
+        <v>2.4085581971044283E-13</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.5364194147503172</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.5364194147492602</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4708824485729946E-13</v>
+        <v>-9.7974254415120731E-13</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.5364194147511645</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7.5364194147482806</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1449508835758024E-12</v>
+        <v>-7.3896444519050419E-13</v>
       </c>
       <c r="L26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.6666666666666673E-26</v>
       </c>
       <c r="N26">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1143632451536885</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.1143632451531307</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.9925320483784068</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>6.4026666666666674E-26</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>15</v>
       </c>
@@ -10926,43 +11748,51 @@
         <v>1.5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3856910264540394</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6537572556720589E-13</v>
+        <v>-7.8391140353758646E-13</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.3856910264544045</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.3856910264532551</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>3.860159320481026E-13</v>
+        <v>6.4475086529470106E-14</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.3856910264547908</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7.38569102645332</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5139894306630595E-13</v>
+        <v>-7.1942451995710144E-13</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.2500000000000014E-2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2500000000000007E-26</v>
       </c>
       <c r="N27">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.068821231485007</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.0688212314843923</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.9520759802500676</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>6.0025000000000014E-26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>16</v>
       </c>
@@ -10971,43 +11801,51 @@
         <v>1.6</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2379772059249587</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7628500990871429E-13</v>
+        <v>-6.6662240553341129E-13</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.2379772059254348</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.2379772059242917</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2407970841164545E-12</v>
+        <v>8.698815445591743E-13</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.2379772059266756</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7.2379772059251613</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7168488852803421E-12</v>
+        <v>2.0250467969162855E-13</v>
       </c>
       <c r="L28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.8823529411764712E-2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8823529411764709E-26</v>
       </c>
       <c r="N28">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.0199480535109871</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.0199480535103191</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.9074448068547047</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>5.6494117647058828E-26</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>17</v>
       </c>
@@ -11016,43 +11854,51 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0932176618064595</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0798402979489377E-12</v>
+        <v>-9.1590893611464421E-13</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.0932176618085396</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.0932176618055438</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9290888635964531E-13</v>
+        <v>-3.2970712777856246E-13</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.0932176618095326</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7.0932176618052143</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0730973321624333E-12</v>
+        <v>-1.2452261444195756E-12</v>
       </c>
       <c r="L29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5555555555555559E-2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5555555555555555E-26</v>
       </c>
       <c r="N29">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.9684630317497955</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.9684630317489242</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.8595490924401128</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>5.335555555555555E-26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>18</v>
       </c>
@@ -11061,43 +11907,51 @@
         <v>1.8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9513533085703303</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2084623752289413E-13</v>
+        <v>7.3599813661344235E-13</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.9513533085710515</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.9513533085710666</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0124949457316125E-13</v>
+        <v>-7.7129584758866631E-13</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.9513533085715524</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.9513533085702957</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2221335055073723E-12</v>
+        <v>-3.4638958368304884E-14</v>
       </c>
       <c r="L30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2631578947368425E-2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2631578947368422E-26</v>
       </c>
       <c r="N30">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.9149309410562037</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.9149309410553119</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.8090937711139459</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>5.0547368421052634E-26</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -11106,43 +11960,51 @@
         <v>1.9000000000000001</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8123262423989237</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5686265192993731E-13</v>
+        <v>9.4222654454041443E-13</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.8123262423979671</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.8123262423998661</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.9271659203600654E-13</v>
+        <v>1.2512723512927241E-12</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.812326242397674</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.8123262424011175</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2496670365180762E-12</v>
+        <v>2.1938006966593093E-12</v>
       </c>
       <c r="L31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.000000000000001E-2</v>
       </c>
       <c r="M31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9999999999999996E-26</v>
       </c>
       <c r="N31">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.8598007061232771</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.8598007061226021</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.7566323222342053</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>4.8019999999999994E-26</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -11151,40 +12013,48 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6760797175509454</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3626316096829416E-13</v>
+        <v>1.4991212661664547E-12</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.6760797175505093</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.6760797175524447</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5021978693269629E-12</v>
+        <v>9.1999057591539718E-14</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.6760797175520112</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.676079717552537</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0658141036401503E-12</v>
+        <v>1.5916157281026244E-12</v>
       </c>
       <c r="L32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7619047619047611E-26</v>
       </c>
       <c r="N32">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.8034330400008356</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.8034330400002183</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.7026046920001496</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>4.5733333333333324E-26</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -11196,40 +12066,48 @@
         <v>2.1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5425581231999264</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1800208551195391E-13</v>
+        <v>-8.5086354165310724E-13</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.5425581232008447</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.5425581231990755</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.4329594237535824E-13</v>
+        <v>-1.5307526221452929E-12</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.542558123200501</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.5425581231975452</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7465143754598103E-13</v>
+        <v>-2.3812063432160357E-12</v>
       </c>
       <c r="L33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="M33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5454545454545447E-26</v>
       </c>
       <c r="N33">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.7461205437826388</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.7461205437819149</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.6473643792002139</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>4.3654545454545446E-26</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -11241,40 +12119,48 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4117069607359278</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0052921126251513E-12</v>
+        <v>3.830096627239839E-13</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.4117069607369332</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.4117069607363106</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.9271010836601782E-13</v>
+        <v>-1.4835723289975787E-13</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4117069607362405</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.4117069607361623</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1263880373444408E-13</v>
+        <v>2.3447910280083306E-13</v>
       </c>
       <c r="L34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3478260869565209E-2</v>
       </c>
       <c r="M34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.347826086956521E-26</v>
       </c>
       <c r="N34">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.6881025619110561</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.6881025619103607</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.5911981329062765</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>4.1756521739130428E-26</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -11286,40 +12172,48 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.283472821521209</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4229097677804418E-12</v>
+        <v>4.8125296853059144E-13</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.2834728215226319</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2834728215216904</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5818908913551369E-13</v>
+        <v>1.7272181653926671E-12</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.2834728215224738</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.2834728215234179</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2647660696529783E-12</v>
+        <v>2.2088997297942115E-12</v>
       </c>
       <c r="L35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1666666666666663E-26</v>
       </c>
       <c r="N35">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.6295763227281981</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.629576322727571</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.5343405106721537</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>4.0016666666666657E-26</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -11331,40 +12225,48 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1578033650907846</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6099823114317875E-13</v>
+        <v>-7.3494630215923413E-15</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.157803365089924</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.1578033650907775</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.5463056731793972E-14</v>
+        <v>-1.3534226681439106E-13</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.157803365089829</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.1578033650906425</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.5567997959733475E-13</v>
+        <v>-1.4210854715202004E-13</v>
       </c>
       <c r="L36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="M36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999999996E-26</v>
       </c>
       <c r="N36">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.5707054044226636</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.5707054044220943</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.4769847962730198</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>3.8415999999999993E-26</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -11376,40 +12278,48 @@
         <v>2.5</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0346472977889691</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0251041661129017E-12</v>
+        <v>1.8110107287170465E-12</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.0346472977899941</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.0346472977907801</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>1.328867221797893E-13</v>
+        <v>-5.193421612154783E-13</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.0346472977901273</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.0346472977902605</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1581846592889633E-12</v>
+        <v>1.2914114222439821E-12</v>
       </c>
       <c r="L37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8461538461538457E-2</v>
       </c>
       <c r="M37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8461538461538461E-26</v>
       </c>
       <c r="N37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.5116262464752586</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.5116262464747159</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.4192912963336521</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>3.6938461538461538E-26</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -11421,40 +12331,48 @@
         <v>2.6</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9139543518331896</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5916094692739567E-13</v>
+        <v>-9.2778978308148077E-13</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.9139543518326301</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.9139543518322615</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.3185097042562428E-13</v>
+        <v>4.4522479686999475E-13</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.9139543518318982</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.9139543518327065</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2914114222439821E-12</v>
+        <v>-4.8316906031686813E-13</v>
       </c>
       <c r="L38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7037037037037042E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7037037037037035E-26</v>
       </c>
       <c r="N38">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.452453213340319</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.4524532133398269</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.3613937215452214</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>3.5570370370370367E-26</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -11466,40 +12384,48 @@
         <v>2.7</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7956752647965262</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.3860939027811199E-13</v>
+        <v>-1.5043092475464255E-13</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.7956752647956877</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7956752647963761</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8457738873677515E-13</v>
+        <v>1.6701824438166527E-12</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.795675264796472</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.7956752647980458</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.4178883601707639E-14</v>
+        <v>1.5196732761069143E-12</v>
       </c>
       <c r="L39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="M39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.571428571428571E-26</v>
       </c>
       <c r="N39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.3932825723208957</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.3932825723204774</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.3034041490730299</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>3.4299999999999995E-26</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -11511,40 +12437,48 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6797617595005958</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3612885233504236E-12</v>
+        <v>-1.3812803606561544E-12</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.6797617595019574</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.6797617594992147</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3254010151840017E-12</v>
+        <v>5.4150179060959213E-13</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.6797617595032825</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.6797617594997565</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6867397195928788E-12</v>
+        <v>-8.3932860661661834E-13</v>
       </c>
       <c r="L40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4482758620689652E-26</v>
       </c>
       <c r="N40">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.3341956477409784</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.3341956477404526</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.2454169208740673</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>3.3117241379310341E-26</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -11556,40 +12490,48 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5661665243105842</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4921069025453242E-13</v>
+        <v>-1.9350366898081594E-12</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.5661665243109333</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.5661665243086489</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.992064116466967E-12</v>
+        <v>-1.2780750714675875E-12</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5661665243089411</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.5661665243073708</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6431300764452317E-12</v>
+        <v>-3.2134295224750531E-12</v>
       </c>
       <c r="L41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333331E-26</v>
       </c>
       <c r="N41">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.2752613436265774</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.275261343626017</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.1875117347856436</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>3.2013333333333331E-26</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -11601,40 +12543,48 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4548431938243729</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4848973287820606E-13</v>
+        <v>4.1650781116213666E-14</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.4548431938234243</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4548431938244146</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4467501049558167E-12</v>
+        <v>1.1176808245529657E-13</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4548431938258712</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.4548431938245265</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4983569940341113E-12</v>
+        <v>1.5365486660812167E-13</v>
       </c>
       <c r="L42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2258064516129032E-26</v>
       </c>
       <c r="N42">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.2165381775039741</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.2165381775033879</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.1297561167534962</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>3.0980645161290321E-26</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -11646,42 +12596,49 @@
         <v>3.1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3457463299478851</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3677829774674193E-12</v>
+        <v>-1.2577186724051428E-12</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.3457463299492529</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.3457463299466275</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1693632679626257E-12</v>
+        <v>-7.1158763052508257E-13</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3457463299504226</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.345746329945916</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5375257450832578E-12</v>
+        <v>-1.9690915564751776E-12</v>
       </c>
       <c r="L43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="M43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1249999999999998E-26</v>
       </c>
       <c r="N43">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.1580759322679253</v>
-      </c>
-      <c r="O43" s="8"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.1580759322672165</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.0722074139533202</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>3.0012500000000001E-26</v>
+      </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -11696,43 +12653,49 @@
         <v>3.2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2388314033489269</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7288907201675686E-13</v>
+        <v>9.2454091957071477E-13</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.2388314033480539</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2388314033498515</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0448229809423969E-12</v>
+        <v>3.6148583047894875E-13</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2388314033470094</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.238831403350213</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9175772081325704E-12</v>
+        <v>1.2860823517257813E-12</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="M44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0303030303030302E-26</v>
       </c>
       <c r="N44">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.0999170071491093</v>
-      </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="8"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.0999170071485196</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.014914413621872</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>2.9103030303030299E-26</v>
+      </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
@@ -11747,43 +12710,49 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1340547752819479</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0364774734150082E-12</v>
+        <v>3.4037263969471085E-13</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1340547752829844</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.134054775282288</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8057925419542305E-13</v>
+        <v>3.468339499363388E-13</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.1340547752831647</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.1340547752826353</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2168044349891716E-12</v>
+        <v>6.8745009684789693E-13</v>
       </c>
       <c r="L45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9411764705882356E-2</v>
       </c>
       <c r="M45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9411764705882349E-26</v>
       </c>
       <c r="N45">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.0420975297412873</v>
-      </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.0420975297406994</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.9579186670055488</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>2.8247058823529408E-26</v>
+      </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="5"/>
       <c r="S45" s="6"/>
@@ -11798,43 +12767,49 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0313736797763084</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6132181769108628E-12</v>
+        <v>1.0699280007835554E-12</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.0313736797746955</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0313736797773787</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.7925272201766007E-13</v>
+        <v>2.3306004762314159E-13</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.0313736797739166</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.0313736797776114</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.3918644842524373E-12</v>
+        <v>1.3029577417000837E-12</v>
       </c>
       <c r="L46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="M46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8571428571428567E-26</v>
       </c>
       <c r="N46">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.9846482768850766</v>
-      </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.9846482768846112</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.9012555791458849</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>2.7439999999999992E-26</v>
+      </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="5"/>
       <c r="S46" s="6"/>
@@ -11849,43 +12824,49 @@
         <v>3.5</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9307462061807819</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0068269395527676E-13</v>
+        <v>-3.7454356560854017E-13</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.9307462061811824</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.930746206180407</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6725676617246358E-12</v>
+        <v>-4.6027118140281283E-13</v>
       </c>
       <c r="H47">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.93074620617951</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.930746206179947</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2718714970105793E-12</v>
+        <v>-8.3488771451811772E-13</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="M47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7777777777777772E-26</v>
       </c>
       <c r="N47">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.9275954415876999</v>
-      </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.9275954415872594</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.8449553113469186</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>2.6677777777777769E-26</v>
+      </c>
       <c r="Q47" s="7"/>
       <c r="R47" s="5"/>
       <c r="S47" s="6"/>
@@ -11900,43 +12881,49 @@
         <v>3.6</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8321312820571665</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0879915230071713E-13</v>
+        <v>3.2446469600856794E-13</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.8321312820578752</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.8321312820574907</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.7351604787997291E-13</v>
+        <v>6.8791812840035844E-14</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.8321312820571016</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.832131282057559</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.4837024638109142E-14</v>
+        <v>3.9257486150745535E-13</v>
       </c>
       <c r="L48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7027027027027025E-2</v>
       </c>
       <c r="M48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7027027027027022E-26</v>
       </c>
       <c r="N48">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.8709612751139</v>
-      </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.8709612751134834</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.7890435327555139</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>2.5956756756756747E-26</v>
+      </c>
       <c r="Q48" s="7"/>
       <c r="R48" s="5"/>
       <c r="S48" s="6"/>
@@ -11951,43 +12938,49 @@
         <v>3.7</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.735488656416023</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4929495682478838E-12</v>
+        <v>8.871101145759983E-14</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.73548865641453</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.7354886564161118</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4578575045300224E-13</v>
+        <v>1.6702552229675398E-12</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.7354886564151757</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.7354886564177825</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.4732221239391947E-13</v>
+        <v>1.7594814494259481E-12</v>
       </c>
       <c r="L49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6315789473684206E-2</v>
       </c>
       <c r="M49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6315789473684205E-26</v>
       </c>
       <c r="N49">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.8147646272534068</v>
-      </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.8147646272530702</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.7335420496112137</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>2.5273684210526311E-26</v>
+      </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="5"/>
       <c r="S49" s="6"/>
@@ -12002,43 +12995,49 @@
         <v>3.8000000000000003</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6407788832877026</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3112169386492451E-13</v>
+        <v>3.1251608574168764E-13</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.6407788832878341</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.6407788832880152</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3700550596977297E-12</v>
+        <v>-6.1977411232026648E-13</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.6407788832864636</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.6407788832873953</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2390088954816747E-12</v>
+        <v>-3.0730973321624333E-13</v>
       </c>
       <c r="L50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="M50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5641025641025636E-26</v>
       </c>
       <c r="N50">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.7590214030491262</v>
-      </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.7590214030488225</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.6784693347080086</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>2.4625641025641021E-26</v>
+      </c>
       <c r="Q50" s="7"/>
       <c r="R50" s="5"/>
       <c r="S50" s="6"/>
@@ -12053,43 +13052,49 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5479633056219484</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.6682576649793447E-14</v>
+        <v>-1.2077613082474763E-13</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.547963305621872</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.5479633056218276</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.2582319187707682E-13</v>
+        <v>3.143942856014711E-12</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.5479633056214466</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.5479633056249718</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.0182080713057076E-13</v>
+        <v>3.0233593406592263E-12</v>
       </c>
       <c r="L51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="M51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4999999999999995E-26</v>
       </c>
       <c r="N51">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.7037449506134346</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.7037449506132258</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.6238409749878455</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>2.4009999999999994E-26</v>
+      </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="5"/>
       <c r="S51" s="6"/>
@@ -12104,43 +13109,49 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.457004039509509</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0281972273732937E-12</v>
+        <v>-7.8016253737851548E-15</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.4570040395084805</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.457004039509501</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.5072015953741711E-14</v>
+        <v>-1.2313093628073985E-13</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.4570040395084156</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.4570040395093775</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0933476346508542E-12</v>
+        <v>-1.3145040611561853E-13</v>
       </c>
       <c r="L52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4390243902439022E-2</v>
       </c>
       <c r="M52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.439024390243902E-26</v>
       </c>
       <c r="N52">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.6489463918059952</v>
-      </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.6489463918058149</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.5696700516009612</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>2.3424390243902434E-26</v>
+      </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="5"/>
       <c r="S52" s="6"/>
@@ -12155,43 +13166,49 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3678639587193189</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6527258350444164E-12</v>
+        <v>-9.7735296064462769E-14</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.3678639587219719</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.3678639587192212</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9317283010309823E-13</v>
+        <v>7.3529298758871906E-13</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.3678639587225652</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.3678639587199566</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2462921240039577E-12</v>
+        <v>6.3771210534468992E-13</v>
       </c>
       <c r="L53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3809523809523806E-26</v>
       </c>
       <c r="N53">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.5946349053040088</v>
-      </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.5946349053037707</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.5159674639696989</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="4"/>
+        <v>2.2866666666666662E-26</v>
+      </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="5"/>
       <c r="S53" s="6"/>
@@ -12206,43 +13223,49 @@
         <v>4.2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2805066795449322</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3177571778680833E-13</v>
+        <v>-9.078450110860374E-13</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.2805066795450637</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.2805066795440245</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0869022201062575E-12</v>
+        <v>-9.288060505711047E-13</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.2805066795461508</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.2805066795430955</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2185807918285718E-12</v>
+        <v>-1.836752971939859E-12</v>
       </c>
       <c r="L54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="M54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3255813953488366E-26</v>
       </c>
       <c r="N54">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.5408179698212683</v>
-      </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.5408179698209645</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.462742207197695</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="4"/>
+        <v>2.2334883720930225E-26</v>
+      </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="5"/>
       <c r="S54" s="6"/>
@@ -12257,43 +13280,49 @@
         <v>4.3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1948965459540339</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3603323078505036E-13</v>
+        <v>5.7541197142066317E-13</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.1948965459536982</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.1948965459546095</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0374559667147192E-13</v>
+        <v>-9.1936686774991941E-13</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.1948965459541023</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.1948965459536902</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8389738316909643E-14</v>
+        <v>-3.4372504842394846E-13</v>
       </c>
       <c r="L55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2727272727272724E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2727272727272723E-26</v>
       </c>
       <c r="N55">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4875015738242876</v>
-      </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="6"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.4875015738239812</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.410001610424545</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>2.1827272727272723E-26</v>
+      </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="5"/>
       <c r="S55" s="6"/>
@@ -12308,43 +13337,49 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1109986150349531</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5338870866642235E-13</v>
+        <v>5.1787292716049738E-13</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.1109986150353066</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.1109986150354709</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2856677194332078E-12</v>
+        <v>-1.154992789218386E-12</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.1109986150365927</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.1109986150343163</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6395773627664312E-12</v>
+        <v>-6.3682392692498979E-13</v>
       </c>
       <c r="L56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.222222222222222E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2222222222222219E-26</v>
       </c>
       <c r="N56">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4346903969623392</v>
-      </c>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.4346903969619884</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.3577515423475015</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>2.1342222222222219E-26</v>
+      </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
@@ -12359,40 +13394,48 @@
         <v>4.5</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0287786427342542</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0399445896974782E-13</v>
+        <v>-1.3757976440125948E-12</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.0287786427346584</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.0287786427328784</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8221005020728193E-12</v>
+        <v>8.1830460168116017E-13</v>
       </c>
       <c r="H57">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.0287786427328358</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.0287786427336965</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4184209362611E-12</v>
+        <v>-5.5777604757167865E-13</v>
       </c>
       <c r="L57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1739130434782605E-2</v>
       </c>
       <c r="M57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1739130434782605E-26</v>
       </c>
       <c r="N57">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3823879675225674</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.3823879675222432</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.3059965890227483</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="4"/>
+        <v>2.0878260869565214E-26</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -12404,40 +13447,48 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="D58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9482030698795691</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3025634635521948E-12</v>
+        <v>-9.0921115383581621E-13</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.9482030698782666</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9482030698786601</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1738160116889795E-13</v>
+        <v>5.3198202889449727E-13</v>
       </c>
       <c r="H58">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.9482030698788839</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.9482030698791921</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.8522965079864662E-13</v>
+        <v>-3.7703173916270316E-13</v>
       </c>
       <c r="L58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="M58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1276595744680847E-26</v>
       </c>
       <c r="N58">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3305967994875951</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.3305967994872852</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.254740208171798</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="4"/>
+        <v>2.0434042553191484E-26</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -12449,40 +13500,48 @@
         <v>4.7</v>
       </c>
       <c r="D59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8692390084819777</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3586328264048666E-13</v>
+        <v>1.0851994616493414E-12</v>
       </c>
       <c r="F59">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.8692390084821136</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.869239008483063</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4261935871396864E-12</v>
+        <v>1.5150295424877688E-12</v>
       </c>
       <c r="H59">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.8692390084806871</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.8692390084845782</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.290523243824282E-12</v>
+        <v>2.6005864128819667E-12</v>
       </c>
       <c r="L59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="M59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0833333333333329E-26</v>
       </c>
       <c r="N59">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.2793185121749513</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.2793185121747284</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.2039848634975394</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="4"/>
+        <v>2.0008333333333328E-26</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -12494,40 +13553,48 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="D60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7918542283123382</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1791523095659271E-12</v>
+        <v>1.1652529145489936E-12</v>
       </c>
       <c r="F60">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.7918542283145173</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.7918542283135035</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5767555546951848E-13</v>
+        <v>-3.0413651158652645E-13</v>
       </c>
       <c r="H60">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.791854228315175</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.7918542283131993</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8368418725222E-12</v>
+        <v>8.6108897789927141E-13</v>
       </c>
       <c r="L60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0408163265306117E-2</v>
       </c>
       <c r="M60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0408163265306116E-26</v>
       </c>
       <c r="N60">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.2285539349533234</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.2285539349530641</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.1537321419312336</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="4"/>
+        <v>1.9599999999999993E-26</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -12539,40 +13606,48 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7160171437460914</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7416472494110794E-14</v>
+        <v>1.0897809334399148E-12</v>
       </c>
       <c r="F61">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.7160171437461686</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.7160171437471812</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.5966489381820948E-13</v>
+        <v>9.2375661177657154E-13</v>
       </c>
       <c r="H61">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.7160171437458089</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.7160171437481049</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8244073746463982E-13</v>
+        <v>2.0135004774601839E-12</v>
       </c>
       <c r="L61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="M61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999992E-26</v>
       </c>
       <c r="N61">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.1783031991291733</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.1783031991289645</v>
+      </c>
+      <c r="O61">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.1039828562540031</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="4"/>
+        <v>1.9207999999999993E-26</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -12584,40 +13659,48 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6416968008711694</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3758599173344131E-13</v>
+        <v>-7.9317471951091058E-13</v>
       </c>
       <c r="F62">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.6416968008710318</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.6416968008703763</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5497000862813492E-13</v>
+        <v>-1.2197991585457356E-12</v>
       </c>
       <c r="H62">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.6416968008711867</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.6416968008691564</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7319479184152442E-14</v>
+        <v>-2.0130563882503338E-12</v>
       </c>
       <c r="L62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9607843137254898E-2</v>
       </c>
       <c r="M62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9607843137254895E-26</v>
       </c>
       <c r="N62">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.1285658187711736</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.1285658187709293</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.054737135146385</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="4"/>
+        <v>1.8831372549019601E-26</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -12629,40 +13712,48 @@
         <v>5.1000000000000005</v>
       </c>
       <c r="D63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5688628648537462</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2206238626327719E-13</v>
+        <v>-4.6668528540768038E-13</v>
       </c>
       <c r="F63">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.5688628648538683</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.5688628648532794</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3022257554181663E-12</v>
+        <v>5.4011606036667371E-13</v>
       </c>
       <c r="H63">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.5688628648551703</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5688628648538194</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4241940959891508E-12</v>
+        <v>7.3274719625260332E-14</v>
       </c>
       <c r="L63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9230769230769225E-2</v>
       </c>
       <c r="M63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9230769230769222E-26</v>
       </c>
       <c r="N63">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.0793407619650965</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.079340761964831</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.0059945023955104</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="4"/>
+        <v>1.846923076923076E-26</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -12674,43 +13765,51 @@
         <v>5.2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4974856075566714</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2051675355854432E-13</v>
+        <v>-4.3427051272812542E-13</v>
       </c>
       <c r="F64">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.4974856075567917</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.4974856075562371</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.522469702566161E-13</v>
+        <v>-2.2498276333421364E-13</v>
       </c>
       <c r="H64">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.4974856075560394</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.4974856075560119</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.319389456166391E-13</v>
+        <v>-6.5947247662734299E-13</v>
       </c>
       <c r="L64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8867924528301879E-2</v>
       </c>
       <c r="M64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8867924528301878E-26</v>
       </c>
       <c r="N64">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.0306265137686994</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.0306265137684383</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.9577539467255338</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="4"/>
+        <v>1.8120754716981122E-26</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>53</v>
       </c>
@@ -12719,43 +13818,51 @@
         <v>5.3000000000000007</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4275358954055379</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.4655930232885613E-13</v>
+        <v>6.5338691053839383E-13</v>
       </c>
       <c r="F65">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.4275358954047914</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.4275358954061912</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4278390950210656E-12</v>
+        <v>4.4545164948262471E-13</v>
       </c>
       <c r="H65">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.4275358954062192</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.4275358954066366</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8123284790999605E-13</v>
+        <v>1.0986767051690549E-12</v>
       </c>
       <c r="L65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8518518518518511E-2</v>
       </c>
       <c r="M65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8518518518518509E-26</v>
       </c>
       <c r="N65">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.9824211319471718</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.9824211319469232</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.9100139834930694</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="4"/>
+        <v>1.7785185185185175E-26</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>54</v>
       </c>
@@ -12764,43 +13871,51 @@
         <v>5.4</v>
       </c>
       <c r="D66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3589851774974271</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1724746878842258E-13</v>
+        <v>2.5844440584083466E-13</v>
       </c>
       <c r="F66">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.3589851774973098</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.3589851774976855</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.8831994735385533E-13</v>
+        <v>1.0987196280821323E-12</v>
       </c>
       <c r="H66">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.3589851774968214</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.3589851774987842</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.0573768223548541E-13</v>
+        <v>1.3571366253017914E-12</v>
       </c>
       <c r="L66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8181818181818174E-2</v>
       </c>
       <c r="M66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8181818181818171E-26</v>
       </c>
       <c r="N66">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.934722296411711</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.9347222964115023</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.8627727093079844</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="4"/>
+        <v>1.746181818181817E-26</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>55</v>
       </c>
@@ -12809,43 +13924,51 @@
         <v>5.5</v>
       </c>
       <c r="D67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2918054739474787</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5956412410829657E-14</v>
+        <v>-6.7579484351452955E-13</v>
       </c>
       <c r="F67">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.2918054739474627</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.2918054739468028</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4546084034002424E-13</v>
+        <v>6.8838969711733644E-13</v>
       </c>
       <c r="H67">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.2918054739477083</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.2918054739474911</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2959412149248237E-13</v>
+        <v>1.2434497875801753E-14</v>
       </c>
       <c r="L67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7857142857142849E-2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7857142857142849E-26</v>
       </c>
       <c r="N67">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.8875273531534251</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.8875273531532164</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.8160278504832723</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="4"/>
+        <v>1.7149999999999992E-26</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>56</v>
       </c>
@@ -12854,43 +13977,51 @@
         <v>5.6000000000000005</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2259693644685292</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>1.839811398465416E-12</v>
+        <v>-8.2109170875283534E-13</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.2259693644703691</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.2259693644677081</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6884680974754312E-13</v>
+        <v>1.4305254034492417E-12</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.2259693644705378</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.2259693644691385</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0086154961518332E-12</v>
+        <v>6.0929039591428591E-13</v>
       </c>
       <c r="L68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7543859649122803E-2</v>
       </c>
       <c r="M68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7543859649122799E-26</v>
       </c>
       <c r="N68">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.8408333533519707</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.8408333533517416</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.7697768060901522</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="4"/>
+        <v>1.6849122807017534E-26</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>57</v>
       </c>
@@ -12899,43 +14030,51 @@
         <v>5.7</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1614499771791587</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0631170490033632E-13</v>
+        <v>-1.3821601276095118E-12</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1614499771793652</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.1614499771777766</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.895092199177654E-13</v>
+        <v>-1.8137557559868056E-12</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1614499771787758</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.161449977175963</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.8280489889075398E-13</v>
+        <v>-3.1956659540810506E-12</v>
       </c>
       <c r="L69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.724137931034482E-2</v>
       </c>
       <c r="M69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.724137931034482E-26</v>
       </c>
       <c r="N69">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.794637088245536</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.7946370882452625</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.7240166862847071</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="4"/>
+        <v>1.6558620689655165E-26</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>58</v>
       </c>
@@ -12944,43 +14083,51 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0982209776355756</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7315700545447391E-13</v>
+        <v>-1.8675768928314632E-12</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0982209776362488</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.0982209776337082</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2724471097795279E-13</v>
+        <v>-6.2299835665468818E-14</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.098220977636676</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.098220977633646</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1004530620084552E-12</v>
+        <v>-1.9295676167985221E-12</v>
       </c>
       <c r="L70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6949152542372878E-2</v>
       </c>
       <c r="M70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6949152542372875E-26</v>
       </c>
       <c r="N70">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.748935120269115</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.7489351202687944</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.6787443464803573</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="4"/>
+        <v>1.6277966101694908E-26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>59</v>
       </c>
@@ -12989,43 +14136,51 @@
         <v>5.9</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0362565580828642</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6836693438729319E-13</v>
+        <v>-1.0456716042686165E-12</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0362565580818957</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.0362565580818184</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7347088938211491E-13</v>
+        <v>5.8869538542352036E-13</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.0362565580827692</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.0362565580824072</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.50350909079134E-14</v>
+        <v>-4.5696779693571443E-13</v>
       </c>
       <c r="L71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666663E-2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6666666666666663E-26</v>
       </c>
       <c r="N71">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.7037238108993424</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.7037238108990209</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.6339564178634181</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="4"/>
+        <v>1.6006666666666663E-26</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>60</v>
       </c>
@@ -13034,43 +14189,51 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.975531426921207</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>5.638831471192676E-13</v>
+        <v>-2.8113275492368577E-13</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.975531426921771</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9755314269209259</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5955011328901837E-14</v>
+        <v>-5.2357976109138699E-13</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.9755314269218167</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.9755314269204023</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0973448512413597E-13</v>
+        <v>-8.0468964824831346E-13</v>
       </c>
       <c r="L72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6393442622950817E-2</v>
       </c>
       <c r="M72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6393442622950814E-26</v>
       </c>
       <c r="N72">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.658999345588235</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.6589993455878957</v>
+      </c>
+      <c r="O72">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5896493346810407</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="4"/>
+        <v>1.574426229508196E-26</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>61</v>
       </c>
@@ -13079,43 +14242,51 @@
         <v>6.1000000000000005</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9160207983827826</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2927309669360128E-13</v>
+        <v>-3.5067388877983197E-14</v>
       </c>
       <c r="F73">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9160207983837121</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9160207983827475</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="2"/>
-        <v>1.72954365620996E-13</v>
+        <v>-4.3079888583834855E-13</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.9160207983838848</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.9160207983823168</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1022294188478554E-12</v>
+        <v>-4.6584958113271568E-13</v>
       </c>
       <c r="L73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6129032258064512E-2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.612903225806451E-26</v>
       </c>
       <c r="N73">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.6147577561171973</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.6147577561168385</v>
+      </c>
+      <c r="O73">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5458193586761375</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="4"/>
+        <v>1.5490322580645155E-26</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>62</v>
       </c>
@@ -13124,43 +14295,51 @@
         <v>6.2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.857700382415127</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0427776319926451E-13</v>
+        <v>-1.2145550267821071E-13</v>
       </c>
       <c r="F74">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8577003824144227</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.8577003824150058</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.1091404687126294E-13</v>
+        <v>1.2270260816512398E-12</v>
       </c>
       <c r="H74">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8577003824141118</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8577003824162328</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0151879337172431E-12</v>
+        <v>1.1057821325266559E-12</v>
       </c>
       <c r="L74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5873015873015869E-2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5873015873015868E-26</v>
       </c>
       <c r="N74">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.5709949406615928</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.5709949406612731</v>
+      </c>
+      <c r="O74">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5024626009945017</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="4"/>
+        <v>1.524444444444444E-26</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>63</v>
       </c>
@@ -13169,43 +14348,51 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8005463747668244</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>4.624297764509085E-15</v>
+        <v>4.0009365154458875E-13</v>
       </c>
       <c r="F75">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8005463747668289</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.8005463747672246</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1606090405861786E-12</v>
+        <v>8.5053822469381523E-14</v>
       </c>
       <c r="H75">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8005463747679893</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8005463747673098</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1648459974367142E-12</v>
+        <v>4.8538950636611844E-13</v>
       </c>
       <c r="L75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5624999999999997E-2</v>
       </c>
       <c r="M75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5624999999999996E-26</v>
       </c>
       <c r="N75">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.5277066818195051</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.52770668181918</v>
+      </c>
+      <c r="O75">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.4595750418480478</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="4"/>
+        <v>1.5006249999999998E-26</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>64</v>
       </c>
@@ -13214,1660 +14401,1956 @@
         <v>6.4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7445354472714878</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7401689485451533E-13</v>
+        <v>5.8899524614877775E-14</v>
       </c>
       <c r="F76">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.7445354472716619</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.7445354472715469</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5165107902351424E-13</v>
+        <v>7.1276713686772954E-13</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.7445354472726136</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.7445354472722596</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1257661469699087E-12</v>
+        <v>7.7182704671940883E-13</v>
       </c>
       <c r="L76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.538461538461538E-2</v>
       </c>
       <c r="M76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5384615384615381E-26</v>
       </c>
       <c r="N76">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.4848886628264761</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.4848886628261502</v>
+      </c>
+      <c r="O76">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.4171525481827967</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="4"/>
+        <v>1.4775384615384612E-26</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" ref="B77:B112" si="10">A77*$B$7+$B$8</f>
+        <f t="shared" ref="B77:B112" si="12">A77*$B$7+$B$8</f>
         <v>6.5</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.689644738326058</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E112" ca="1" si="11">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>1.4898265924609875E-13</v>
+        <f t="shared" ref="E77:E112" ca="1" si="13">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-9.1224960936808743E-14</v>
       </c>
       <c r="F77">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.6896447383262068</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.689644738325967</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G112" ca="1" si="12">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>1.4476604550430102E-12</v>
+        <f t="shared" ref="G77:G112" ca="1" si="14">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
+        <v>-4.1628901083242228E-13</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.6896447383276545</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.6896447383255508</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:J112" ca="1" si="13">H77-D77</f>
-        <v>1.5965007094109751E-12</v>
+        <f t="shared" ref="J77:J112" ca="1" si="15">H77-D77</f>
+        <v>-5.0714987764877151E-13</v>
       </c>
       <c r="L77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.515151515151515E-2</v>
       </c>
       <c r="M77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5151515151515148E-26</v>
       </c>
       <c r="N77">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.4425364821522519</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.4425364821518984</v>
+      </c>
+      <c r="O77">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.3751908895696268</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ref="P77:P112" si="16">$B$2*M77*$B$2</f>
+        <v>1.4551515151515147E-26</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>66</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:D112" si="14">$B$2*D77</f>
+        <f t="shared" ref="D78:D112" si="17">$B$2*D77</f>
         <v>2.6358518435595366</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="11"/>
-        <v>-3.8719354484852041E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.7569425521242717E-13</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78:F112" ca="1" si="15">D78+E78</f>
-        <v>2.6358518435591494</v>
+        <f t="shared" ref="F78:F112" ca="1" si="18">D78+E78</f>
+        <v>2.6358518435593608</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="12"/>
-        <v>9.8827562756946613E-13</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.757538021292502E-14</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H112" ca="1" si="16">F78+G78</f>
-        <v>2.6358518435601375</v>
+        <f t="shared" ref="H78:H112" ca="1" si="19">F78+G78</f>
+        <v>2.635851843559323</v>
       </c>
       <c r="J78">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.0085270092713472E-13</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>-2.1360690993788012E-13</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L112" si="17">M77/(M77+$N$2)</f>
+        <f t="shared" ref="L78:L112" si="20">M77/(M77+$N$2)</f>
         <v>1.4925373134328354E-2</v>
       </c>
       <c r="M78">
-        <f t="shared" ref="M78:M112" si="18">(1-L78)*M77</f>
+        <f t="shared" ref="M78:M112" si="21">(1-L78)*M77</f>
         <v>1.4925373134328354E-26</v>
       </c>
       <c r="N78">
-        <f t="shared" ref="N78:N112" ca="1" si="19">N77 + L78*(H78 - N77)</f>
-        <v>5.4006456666508775</v>
+        <f t="shared" ref="N78:N112" ca="1" si="22">N77 + L78*(H78 - N77)</f>
+        <v>5.4006456666505169</v>
+      </c>
+      <c r="O78">
+        <f t="shared" ref="O78:O112" ca="1" si="23">$B$2*N77</f>
+        <v>5.3336857525088606</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="16"/>
+        <v>1.433432835820895E-26</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.7</v>
       </c>
       <c r="D79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.5831348066883457</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="11"/>
-        <v>3.7091791632600482E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5.1921549308940239E-14</v>
       </c>
       <c r="F79">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.5831348066883977</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.1393903884417014E-12</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.5831348066872581</v>
+      </c>
+      <c r="J79">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5831348066920548</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.9392907595803544E-13</v>
-      </c>
-      <c r="H79">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5831348066926485</v>
-      </c>
-      <c r="J79">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.3027803542372567E-12</v>
+        <v>-1.0875744749228033E-12</v>
       </c>
       <c r="L79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4705882352941175E-2</v>
       </c>
       <c r="M79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4705882352941175E-26</v>
       </c>
       <c r="N79">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.3592116834161976</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.3592116834157633</v>
+      </c>
+      <c r="O79">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2926327533175064</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="16"/>
+        <v>1.4123529411764704E-26</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>68</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="D80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.5314721105545788</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.0669271965840119E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.5881056202374255E-12</v>
       </c>
       <c r="F80">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.5314721105529907</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.7670836603241057E-13</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.5314721105526141</v>
+      </c>
+      <c r="J80">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5314721105551854</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.2022954412806599E-12</v>
-      </c>
-      <c r="H80">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5314721105563875</v>
-      </c>
-      <c r="J80">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.808775351719305E-12</v>
+        <v>-1.964650664376677E-12</v>
       </c>
       <c r="L80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4492753623188404E-2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4492753623188403E-26</v>
       </c>
       <c r="N80">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.3182299504762005</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.3182299504757173</v>
+      </c>
+      <c r="O80">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2520274497474482</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="16"/>
+        <v>1.3918840579710143E-26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>69</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.9</v>
       </c>
       <c r="D81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.4808426683434872</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="11"/>
-        <v>5.4786353609302179E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6.008685958236549E-13</v>
       </c>
       <c r="F81">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.4808426683440881</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="14"/>
+        <v>5.9659478394256985E-13</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.4808426683446845</v>
+      </c>
+      <c r="J81">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4808426683440352</v>
-      </c>
-      <c r="G81">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.585222255040208E-13</v>
-      </c>
-      <c r="H81">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.480842668344494</v>
-      </c>
-      <c r="J81">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.006750238730092E-12</v>
+        <v>1.1972645097557688E-12</v>
       </c>
       <c r="L81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4285714285714284E-2</v>
       </c>
       <c r="M81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4285714285714283E-26</v>
       </c>
       <c r="N81">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.2776958464457477</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.2776958464452743</v>
+      </c>
+      <c r="O81">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.2118653514662032</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="16"/>
+        <v>1.3719999999999996E-26</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>70</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.4312258149766173</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.1167082595578008E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.7077061961859023E-13</v>
       </c>
       <c r="F82">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.4312258149769881</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.2382997633151784E-13</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.4312258149772119</v>
+      </c>
+      <c r="J82">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4312258149755004</v>
-      </c>
-      <c r="G82">
-        <f t="shared" ca="1" si="12"/>
-        <v>-9.9536367716039988E-13</v>
-      </c>
-      <c r="H82">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.4312258149745052</v>
-      </c>
-      <c r="J82">
-        <f t="shared" ca="1" si="13"/>
-        <v>-2.1120882820468978E-12</v>
+        <v>5.9463545198923384E-13</v>
       </c>
       <c r="L82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.408450704225352E-2</v>
       </c>
       <c r="M82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4084507042253518E-26</v>
       </c>
       <c r="N82">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.2376047192419275</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.2376047192414985</v>
+      </c>
+      <c r="O82">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.1721419295163686</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="16"/>
+        <v>1.352676056338028E-26</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>71</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.1000000000000005</v>
       </c>
       <c r="D83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.382601298677085</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.7293666496876866E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5.3258254891151745E-13</v>
       </c>
       <c r="F83">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.3826012986776175</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.9513817713071405E-13</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.3826012986770224</v>
+      </c>
+      <c r="J83">
         <f t="shared" ca="1" si="15"/>
-        <v>2.3826012986772578</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.7788551949783513E-12</v>
-      </c>
-      <c r="H83">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.3826012986790368</v>
-      </c>
-      <c r="J83">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.9517720772910252E-12</v>
+        <v>-6.2616578588858829E-14</v>
       </c>
       <c r="L83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3888888888888886E-26</v>
       </c>
       <c r="N83">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.1979518939563318</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.1979518939558806</v>
+      </c>
+      <c r="O83">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.1328526248566684</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="16"/>
+        <v>1.3338888888888885E-26</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>72</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.3349492727035432</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.2831964548179561E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.5345023590892313E-13</v>
       </c>
       <c r="F84">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.3349492727039967</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.0263667754295361E-12</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.3349492727029704</v>
+      </c>
+      <c r="J84">
         <f t="shared" ca="1" si="15"/>
-        <v>2.3349492727022598</v>
-      </c>
-      <c r="G84">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.1375587381632015E-13</v>
-      </c>
-      <c r="H84">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.3349492727025738</v>
-      </c>
-      <c r="J84">
-        <f t="shared" ca="1" si="13"/>
-        <v>-9.6944674510268669E-13</v>
+        <v>-5.7287508070658077E-13</v>
       </c>
       <c r="L84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3698630136986299E-2</v>
       </c>
       <c r="M84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3698630136986299E-26</v>
       </c>
       <c r="N84">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.1587326799665547</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.1587326799661151</v>
+      </c>
+      <c r="O84">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.0939928560767633</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="16"/>
+        <v>1.3156164383561641E-26</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>73</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="D85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.2882502872494723</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.3134336978928268E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6.895952976023846E-13</v>
       </c>
       <c r="F85">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.288250287250162</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="14"/>
+        <v>8.8995419510072562E-13</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.288250287251052</v>
+      </c>
+      <c r="J85">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2882502872502037</v>
-      </c>
-      <c r="G85">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1.080691511106391E-13</v>
-      </c>
-      <c r="H85">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.2882502872500958</v>
-      </c>
-      <c r="J85">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.2350125062948791E-13</v>
+        <v>1.5796253194366727E-12</v>
       </c>
       <c r="L85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3513513513513513E-2</v>
       </c>
       <c r="M85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3513513513513511E-26</v>
       </c>
       <c r="N85">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.1199423773622783</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.1199423773618573</v>
+      </c>
+      <c r="O85">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.0555580263667927</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="16"/>
+        <v>1.2978378378378374E-26</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.4</v>
       </c>
       <c r="D86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.2424852815044827</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.1785874430041213E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.8819350277898909E-12</v>
       </c>
       <c r="F86">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.2424852815016005</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.0808313392363752E-12</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.2424852815005196</v>
+      </c>
+      <c r="J86">
         <f t="shared" ca="1" si="15"/>
-        <v>2.242485281504365</v>
-      </c>
-      <c r="G86">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.0700161788284186E-12</v>
-      </c>
-      <c r="H86">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.2424852815054348</v>
-      </c>
-      <c r="J86">
-        <f t="shared" ca="1" si="13"/>
-        <v>9.5212726591853425E-13</v>
+        <v>-3.9630521087019588E-12</v>
       </c>
       <c r="L86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3333333333333332E-2</v>
       </c>
       <c r="M86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.333333333333333E-26</v>
       </c>
       <c r="N86">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.0815762827508539</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.0815762827503725</v>
+      </c>
+      <c r="O86">
+        <f t="shared" ca="1" si="23"/>
+        <v>5.0175435298146205</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="16"/>
+        <v>1.280533333333333E-26</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>75</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="D87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.1976355758743931</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.3986173499847396E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6774845759358303E-12</v>
       </c>
       <c r="F87">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.1976355758760704</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="14"/>
+        <v>-2.623901826508434E-13</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.1976355758758079</v>
+      </c>
+      <c r="J87">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1976355758729946</v>
-      </c>
-      <c r="G87">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1.5592559872153401E-12</v>
-      </c>
-      <c r="H87">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.1976355758714354</v>
-      </c>
-      <c r="J87">
-        <f t="shared" ca="1" si="13"/>
-        <v>-2.957634137601417E-12</v>
+        <v>1.4148682225822995E-12</v>
       </c>
       <c r="L87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3157894736842103E-2</v>
       </c>
       <c r="M87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3157894736842103E-26</v>
       </c>
       <c r="N87">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.0436296945024406</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.0436296945020231</v>
+      </c>
+      <c r="O87">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.9799447570953648</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="16"/>
+        <v>1.2636842105263156E-26</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>76</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="D88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.153682864356905</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.2204789415115457E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.7311171574738747E-12</v>
       </c>
       <c r="F88">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.153682864355174</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.5311868038614209E-13</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.153682864355527</v>
+      </c>
+      <c r="J88">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1536828643581254</v>
-      </c>
-      <c r="G88">
-        <f t="shared" ca="1" si="12"/>
-        <v>-9.2803467090348344E-13</v>
-      </c>
-      <c r="H88">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.1536828643571972</v>
-      </c>
-      <c r="J88">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.922107000813412E-13</v>
+        <v>-1.3780088181647443E-12</v>
       </c>
       <c r="L88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2987012987012986E-2</v>
       </c>
       <c r="M88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2987012987012984E-26</v>
       </c>
       <c r="N88">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.0060979174875673</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.0060979174871338</v>
+      </c>
+      <c r="O88">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.9427571006119821</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="16"/>
+        <v>1.2472727272727269E-26</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>77</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.7</v>
       </c>
       <c r="D89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.1106092070697668</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="11"/>
-        <v>4.1250543851810779E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7.686168196228169E-13</v>
       </c>
       <c r="F89">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.1106092070705356</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.2403942860698332E-12</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.1106092070717759</v>
+      </c>
+      <c r="J89">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1106092070701794</v>
-      </c>
-      <c r="G89">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2.9080792474645371E-13</v>
-      </c>
-      <c r="H89">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.1106092070698885</v>
-      </c>
-      <c r="J89">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.2168044349891716E-13</v>
+        <v>2.0090595853616833E-12</v>
       </c>
       <c r="L89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2820512820512818E-2</v>
       </c>
       <c r="M89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2820512820512818E-26</v>
       </c>
       <c r="N89">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.968976267354007</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.9689762673536038</v>
+      </c>
+      <c r="O89">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.9059759591373915</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="16"/>
+        <v>1.231282051282051E-26</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>78</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="D90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.0683970229283717</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.8169359852297191E-14</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1981271292612773E-12</v>
       </c>
       <c r="F90">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.0683970229295698</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.5428169815327735E-15</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.0683970229295645</v>
+      </c>
+      <c r="J90">
         <f t="shared" ca="1" si="15"/>
-        <v>2.0683970229284498</v>
-      </c>
-      <c r="G90">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.9104989465706815E-13</v>
-      </c>
-      <c r="H90">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.0683970229292408</v>
-      </c>
-      <c r="J90">
-        <f t="shared" ca="1" si="13"/>
-        <v>8.6908258367657254E-13</v>
+        <v>1.1928236176572682E-12</v>
       </c>
       <c r="L90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2658227848101264E-26</v>
       </c>
       <c r="N90">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.9322600743866047</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.9322600743862113</v>
+      </c>
+      <c r="O90">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.8695967420065314</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="16"/>
+        <v>1.2156962025316453E-26</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.9</v>
       </c>
       <c r="D91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.0270290824698041</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.0351354720313108E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.0664078782532552E-13</v>
       </c>
       <c r="F91">
+        <f t="shared" ca="1" si="18"/>
+        <v>2.0270290824700106</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="14"/>
+        <v>-7.4100539282476724E-13</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.0270290824692694</v>
+      </c>
+      <c r="J91">
         <f t="shared" ca="1" si="15"/>
-        <v>2.0270290824708392</v>
-      </c>
-      <c r="G91">
-        <f t="shared" ca="1" si="12"/>
-        <v>-5.7754548640772024E-13</v>
-      </c>
-      <c r="H91">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.0270290824702615</v>
-      </c>
-      <c r="J91">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.5741188614556449E-13</v>
+        <v>-5.3468340865947539E-13</v>
       </c>
       <c r="L91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="M91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2499999999999999E-26</v>
       </c>
       <c r="N91">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.8959446869876508</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.8959446869872494</v>
+      </c>
+      <c r="O91">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.8336148728984867</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="16"/>
+        <v>1.2004999999999998E-26</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="D92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.9864885008204078</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.7202340636472296E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.6223884185716666E-14</v>
       </c>
       <c r="F92">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.9864885008203816</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="14"/>
+        <v>-4.7068336202598239E-13</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.9864885008199109</v>
+      </c>
+      <c r="J92">
         <f t="shared" ca="1" si="15"/>
-        <v>1.9864885008186877</v>
-      </c>
-      <c r="G92">
-        <f t="shared" ca="1" si="12"/>
-        <v>-4.8332355489701791E-13</v>
-      </c>
-      <c r="H92">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.9864885008182043</v>
-      </c>
-      <c r="J92">
-        <f t="shared" ca="1" si="13"/>
-        <v>-2.2035706592760107E-12</v>
+        <v>-4.9693582582222007E-13</v>
       </c>
       <c r="L92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2345679012345678E-2</v>
       </c>
       <c r="M92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2345679012345678E-26</v>
       </c>
       <c r="N92">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.8600254748127192</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.8600254748123444</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.7980257932475041</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="16"/>
+        <v>1.1856790123456788E-26</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>81</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.9467587308039997</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.3971096931727252E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5.2284839717489863E-13</v>
       </c>
       <c r="F93">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.9467587308045227</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.1104604129088961E-13</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.9467587308044116</v>
+      </c>
+      <c r="J93">
         <f t="shared" ca="1" si="15"/>
-        <v>1.9467587308041394</v>
-      </c>
-      <c r="G93">
-        <f t="shared" ca="1" si="12"/>
-        <v>-5.5746993217428427E-13</v>
-      </c>
-      <c r="H93">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.9467587308035819</v>
-      </c>
-      <c r="J93">
-        <f t="shared" ca="1" si="13"/>
-        <v>-4.1788794646890892E-13</v>
+        <v>4.1189274213593308E-13</v>
       </c>
       <c r="L93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2195121951219513E-2</v>
       </c>
       <c r="M93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2195121951219511E-26</v>
       </c>
       <c r="N93">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.8244978315930958</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.8244978315927352</v>
+      </c>
+      <c r="O93">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.7628249653160974</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="16"/>
+        <v>1.1712195121951219E-26</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>82</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="D94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.9078235561879198</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.1446480704539401E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-3.5986538660031858E-13</v>
       </c>
       <c r="F94">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.9078235561875598</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.0127999675137735E-13</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.9078235561870585</v>
+      </c>
+      <c r="J94">
         <f t="shared" ca="1" si="15"/>
-        <v>1.9078235561888341</v>
-      </c>
-      <c r="G94">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.0147805508628376E-13</v>
-      </c>
-      <c r="H94">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.9078235561892356</v>
-      </c>
-      <c r="J94">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.3158363287857355E-12</v>
+        <v>-8.6131102250419644E-13</v>
       </c>
       <c r="L94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2048192771084338E-2</v>
       </c>
       <c r="M94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2048192771084336E-26</v>
       </c>
       <c r="N94">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.7893571776725672</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.7893571776721853</v>
+      </c>
+      <c r="O94">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.7280078749608805</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="16"/>
+        <v>1.1571084337349396E-26</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>83</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="D95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8696670850641612</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.42570775199454E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.2395951842503125E-13</v>
       </c>
       <c r="F95">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.8696670850639372</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.2522314265846489E-12</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.8696670850651895</v>
+      </c>
+      <c r="J95">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8696670850627355</v>
-      </c>
-      <c r="G95">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.0983602508909503E-13</v>
-      </c>
-      <c r="H95">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.8696670850630452</v>
-      </c>
-      <c r="J95">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.1159961843532074E-12</v>
+        <v>1.02828856540782E-12</v>
       </c>
       <c r="L95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="M95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1904761904761904E-26</v>
       </c>
       <c r="N95">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.7545989622843585</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.7545989622840068</v>
+      </c>
+      <c r="O95">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.6935700341187419</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="16"/>
+        <v>1.1433333333333333E-26</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>84</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.4</v>
       </c>
       <c r="D96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.832273743362878</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.0207773614052544E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0225352514829209E-12</v>
       </c>
       <c r="F96">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.8322737433639005</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.4677477599636227E-12</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.8322737433653682</v>
+      </c>
+      <c r="J96">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8322737433638987</v>
-      </c>
-      <c r="G96">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.3930350859080138E-13</v>
-      </c>
-      <c r="H96">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.8322737433640379</v>
-      </c>
-      <c r="J96">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.1599610161283636E-12</v>
+        <v>2.4902302442342261E-12</v>
       </c>
       <c r="L96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1764705882352941E-2</v>
       </c>
       <c r="M96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1764705882352941E-26</v>
       </c>
       <c r="N96">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.7202186655911786</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.7202186655908465</v>
+      </c>
+      <c r="O96">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.6595069830383267</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="16"/>
+        <v>1.1298823529411763E-26</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
       <c r="D97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7956282684956204</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.2604623302042194E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.7496506448272393E-12</v>
       </c>
       <c r="F97">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.7956282684973701</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="14"/>
+        <v>-7.4285508793981736E-13</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.7956282684966272</v>
+      </c>
+      <c r="J97">
         <f t="shared" ca="1" si="15"/>
-        <v>1.7956282684963465</v>
-      </c>
-      <c r="G97">
-        <f t="shared" ca="1" si="12"/>
-        <v>-4.2814869856007026E-13</v>
-      </c>
-      <c r="H97">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.7956282684959184</v>
-      </c>
-      <c r="J97">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.9798385980939202E-13</v>
+        <v>1.006750238730092E-12</v>
       </c>
       <c r="L97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1627906976744186E-2</v>
       </c>
       <c r="M97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1627906976744186E-26</v>
       </c>
       <c r="N97">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.6862118005086755</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.6862118005083557</v>
+      </c>
+      <c r="O97">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.6258142922790295</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="16"/>
+        <v>1.1167441860465115E-26</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.6</v>
       </c>
       <c r="D98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.759715703125708</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.0819598398511677E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-5.8413203123044313E-13</v>
       </c>
       <c r="F98">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.7597157031251238</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.2772861990778356E-13</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.7597157031244961</v>
+      </c>
+      <c r="J98">
         <f t="shared" ca="1" si="15"/>
-        <v>1.7597157031264161</v>
-      </c>
-      <c r="G98">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.3862979080816902E-12</v>
-      </c>
-      <c r="H98">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.7597157031278023</v>
-      </c>
-      <c r="J98">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.0943247136528953E-12</v>
+        <v>-1.2119194536808209E-12</v>
       </c>
       <c r="L98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.149425287356322E-2</v>
       </c>
       <c r="M98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1494252873563219E-26</v>
       </c>
       <c r="N98">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.6525739143318834</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.6525739143315299</v>
+      </c>
+      <c r="O98">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.5924875644981888</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="16"/>
+        <v>1.1039080459770115E-26</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.7000000000000011</v>
       </c>
       <c r="D99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7245213890631939</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.5633786947703693E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-5.0914923246892623E-14</v>
       </c>
       <c r="F99">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.724521389063143</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.5978216003377737E-12</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.7245213890647408</v>
+      </c>
+      <c r="J99">
         <f t="shared" ca="1" si="15"/>
-        <v>1.7245213890647573</v>
-      </c>
-      <c r="G99">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1.9838449034259534E-13</v>
-      </c>
-      <c r="H99">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.724521389064559</v>
-      </c>
-      <c r="J99">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.3651302310790925E-12</v>
+        <v>1.5469847625126931E-12</v>
       </c>
       <c r="L99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1363636363636366E-2</v>
       </c>
       <c r="M99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1363636363636365E-26</v>
       </c>
       <c r="N99">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.6193005901811182</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.6193005901807709</v>
+      </c>
+      <c r="O99">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.5595224360448992</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="16"/>
+        <v>1.0913636363636364E-26</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="D100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.69003096128193</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.6529243756610293E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.319935449194714E-12</v>
       </c>
       <c r="F100">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6900309612806101</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0236197213057769E-12</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.6900309612816338</v>
+      </c>
+      <c r="J100">
         <f t="shared" ca="1" si="15"/>
-        <v>1.6900309612821953</v>
-      </c>
-      <c r="G100">
-        <f t="shared" ca="1" si="12"/>
-        <v>8.0764072772622826E-13</v>
-      </c>
-      <c r="H100">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.6900309612830029</v>
-      </c>
-      <c r="J100">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.0729195309977513E-12</v>
+        <v>-2.9620750296999176E-13</v>
       </c>
       <c r="L100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1235955056179778E-2</v>
       </c>
       <c r="M100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1235955056179776E-26</v>
       </c>
       <c r="N100">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.5863874482833866</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.5863874482830278</v>
+      </c>
+      <c r="O100">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.5269145783771556</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="16"/>
+        <v>1.0791011235955056E-26</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9</v>
       </c>
       <c r="D101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6562303420562914</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="11"/>
-        <v>-8.7432663129328991E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.3470478501879783E-13</v>
       </c>
       <c r="F101">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6562303420567261</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.1017489027951079E-12</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.6562303420556244</v>
+      </c>
+      <c r="J101">
         <f t="shared" ca="1" si="15"/>
-        <v>1.656230342055417</v>
-      </c>
-      <c r="G101">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2.3339363394902118E-14</v>
-      </c>
-      <c r="H101">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.6562303420553937</v>
-      </c>
-      <c r="J101">
-        <f t="shared" ca="1" si="13"/>
-        <v>-8.9772633771190158E-13</v>
+        <v>-6.6702199319479405E-13</v>
       </c>
       <c r="L101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1111111111111113E-2</v>
       </c>
       <c r="M101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1111111111111112E-26</v>
       </c>
       <c r="N101">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.553830147103076</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.5538301471027234</v>
+      </c>
+      <c r="O101">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.4946596993173671</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="16"/>
+        <v>1.0671111111111112E-26</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="D102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6231057352151654</v>
       </c>
       <c r="E102">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.7791714011198042E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-6.2502144665336348E-13</v>
       </c>
       <c r="F102">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6231057352145404</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.4747684601306529E-12</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.6231057352170151</v>
+      </c>
+      <c r="J102">
         <f t="shared" ca="1" si="15"/>
-        <v>1.6231057352133862</v>
-      </c>
-      <c r="G102">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.6597735021690607E-13</v>
-      </c>
-      <c r="H102">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.6231057352139522</v>
-      </c>
-      <c r="J102">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.2132517213103711E-12</v>
+        <v>1.8496315590255108E-12</v>
       </c>
       <c r="L102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.098901098901099E-2</v>
       </c>
       <c r="M102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0989010989010991E-26</v>
       </c>
       <c r="N102">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.5216243843350634</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.5216243843347481</v>
+      </c>
+      <c r="O102">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.4627535441606687</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="16"/>
+        <v>1.0553846153846155E-26</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5906436205108621</v>
       </c>
       <c r="E103">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.6316265273772384E-14</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.181801705533703E-13</v>
       </c>
       <c r="F103">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.5906436205112802</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ca="1" si="14"/>
+        <v>-2.3281164371297068E-13</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.5906436205110475</v>
+      </c>
+      <c r="J103">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5906436205109284</v>
-      </c>
-      <c r="G103">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.6301866588831533E-13</v>
-      </c>
-      <c r="H103">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.5906436205115915</v>
-      </c>
-      <c r="J103">
-        <f t="shared" ca="1" si="13"/>
-        <v>7.2941652717872785E-13</v>
+        <v>1.8540724511240114E-13</v>
       </c>
       <c r="L103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0869565217391306E-2</v>
       </c>
       <c r="M103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0869565217391305E-26</v>
       </c>
       <c r="N103">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.4897658977717647</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.4897658977714467</v>
+      </c>
+      <c r="O103">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.4311918966480528</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="16"/>
+        <v>1.043913043478261E-26</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>92</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="D104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5588307481006447</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="11"/>
-        <v>8.0350737499459048E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.7739157676080847E-13</v>
       </c>
       <c r="F104">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.5588307481011221</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.2325747931077297E-13</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.5588307481004988</v>
+      </c>
+      <c r="J104">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5588307481014483</v>
-      </c>
-      <c r="G104">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.1394020801379812E-12</v>
-      </c>
-      <c r="H104">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.5588307481025876</v>
-      </c>
-      <c r="J104">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.9428902930940239E-12</v>
+        <v>-1.4588330543574557E-13</v>
       </c>
       <c r="L104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0752688172043012E-2</v>
       </c>
       <c r="M104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0752688172043012E-26</v>
       </c>
       <c r="N104">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.4582504660548921</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.4582504660545546</v>
+      </c>
+      <c r="O104">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.399970579816018</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="16"/>
+        <v>1.0326881720430108E-26</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="D105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5276541331386317</v>
       </c>
       <c r="E105">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.6606023319393128E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7.4419408495007553E-13</v>
       </c>
       <c r="F105">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.527654133139376</v>
+      </c>
+      <c r="G105">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.9389139602936775E-13</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.5276541331400699</v>
+      </c>
+      <c r="J105">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5276541331369711</v>
-      </c>
-      <c r="G105">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.4258072657725439E-13</v>
-      </c>
-      <c r="H105">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.5276541331376137</v>
-      </c>
-      <c r="J105">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.0180745135812685E-12</v>
+        <v>1.4381829060994278E-12</v>
       </c>
       <c r="L105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0638297872340427E-2</v>
       </c>
       <c r="M105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0638297872340426E-26</v>
       </c>
       <c r="N105">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.4270739093217299</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.4270739093214218</v>
+      </c>
+      <c r="O105">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.3690854567334636</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="16"/>
+        <v>1.0217021276595745E-26</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4971010504758591</v>
       </c>
       <c r="E106">
-        <f t="shared" ca="1" si="11"/>
-        <v>-3.7437622490259424E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-9.2322891019157653E-14</v>
       </c>
       <c r="F106">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.4971010504757667</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.6045009426188399E-13</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.4971010504752063</v>
+      </c>
+      <c r="J106">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4971010504754847</v>
-      </c>
-      <c r="G106">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1.3716061319702037E-12</v>
-      </c>
-      <c r="H106">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.4971010504741131</v>
-      </c>
-      <c r="J106">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.7459367285255212E-12</v>
+        <v>-6.5281113847959205E-13</v>
       </c>
       <c r="L106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0526315789473686E-2</v>
       </c>
       <c r="M106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0526315789473685E-26</v>
       </c>
       <c r="N106">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.3962320897549132</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.3962320897546192</v>
+      </c>
+      <c r="O106">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.3385324311349933</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="16"/>
+        <v>1.0109473684210526E-26</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="D107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4671590294663419</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="11"/>
-        <v>-6.8500382020902845E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7.3415645794407127E-14</v>
       </c>
       <c r="F107">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.4671590294664154</v>
+      </c>
+      <c r="G107">
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.4716723440454252E-13</v>
+      </c>
+      <c r="H107">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.4671590294660681</v>
+      </c>
+      <c r="J107">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4671590294656569</v>
-      </c>
-      <c r="G107">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.8308598870676177E-12</v>
-      </c>
-      <c r="H107">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.4671590294674877</v>
-      </c>
-      <c r="J107">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.1457501614131615E-12</v>
+        <v>-2.737809978725636E-13</v>
       </c>
       <c r="L107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0416666666666668E-2</v>
       </c>
       <c r="M107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0416666666666667E-26</v>
       </c>
       <c r="N107">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.365720912043586</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.3657209120432805</v>
+      </c>
+      <c r="O107">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.3083074479595265</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="16"/>
+        <v>1.0004166666666666E-26</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="D108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.437815848877015</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="11"/>
-        <v>-8.1172793055201638E-14</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.0413466973095628E-12</v>
       </c>
       <c r="F108">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.4378158488749737</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ca="1" si="14"/>
+        <v>5.7965486305176848E-13</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.4378158488755535</v>
+      </c>
+      <c r="J108">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4378158488769337</v>
-      </c>
-      <c r="G108">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2777144219711957E-13</v>
-      </c>
-      <c r="H108">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.4378158488774615</v>
-      </c>
-      <c r="J108">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.4653170050423796E-13</v>
+        <v>-1.4614975896165561E-12</v>
       </c>
       <c r="L108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0309278350515465E-2</v>
       </c>
       <c r="M108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0309278350515466E-26</v>
       </c>
       <c r="N108">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.3355363237635229</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.3355363237632005</v>
+      </c>
+      <c r="O108">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.2784064938024144</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="16"/>
+        <v>9.901030927835052E-27</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.7000000000000011</v>
       </c>
       <c r="D109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4090595318994747</v>
       </c>
       <c r="E109">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.2962466161219591E-12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6.2659593998415995E-13</v>
       </c>
       <c r="F109">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.4090595319001014</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ca="1" si="14"/>
+        <v>-2.1682708700525258E-12</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.4090595318979331</v>
+      </c>
+      <c r="J109">
         <f t="shared" ca="1" si="15"/>
-        <v>1.409059531900771</v>
-      </c>
-      <c r="G109">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.2233868820150927E-12</v>
-      </c>
-      <c r="H109">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.4090595319019945</v>
-      </c>
-      <c r="J109">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.5197621766892553E-12</v>
+        <v>-1.5416556919944924E-12</v>
       </c>
       <c r="L109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0204081632653064E-2</v>
       </c>
       <c r="M109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0204081632653062E-26</v>
       </c>
       <c r="N109">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.3056743156833033</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.3056743156829427</v>
+      </c>
+      <c r="O109">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.2488255972879365</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="16"/>
+        <v>9.7999999999999995E-27</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="D110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3808783412614851</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.0451184699691537E-14</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1516389945252596E-12</v>
       </c>
       <c r="F110">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.3808783412626369</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ca="1" si="14"/>
+        <v>-2.9940344604917178E-12</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.3808783412596428</v>
+      </c>
+      <c r="J110">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3808783412615755</v>
-      </c>
-      <c r="G110">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.3821362638446081E-13</v>
-      </c>
-      <c r="H110">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.3808783412620138</v>
-      </c>
-      <c r="J110">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.2868820432649954E-13</v>
+        <v>-1.8423040870629848E-12</v>
       </c>
       <c r="L110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0101010101010102E-2</v>
       </c>
       <c r="M110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0101010101010103E-26</v>
       </c>
       <c r="N110">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.2761309220022801</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.276130922001899</v>
+      </c>
+      <c r="O110">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.2195608293692839</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="16"/>
+        <v>9.7010101010101022E-27</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.9</v>
       </c>
       <c r="D111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3532607744362555</v>
       </c>
       <c r="E111">
-        <f t="shared" ca="1" si="11"/>
-        <v>5.205561125206844E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6.1114954894687349E-13</v>
       </c>
       <c r="F111">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.3532607744368665</v>
+      </c>
+      <c r="G111">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.5673409544300247E-13</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.3532607744363099</v>
+      </c>
+      <c r="J111">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3532607744367759</v>
-      </c>
-      <c r="G111">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.653141648049579E-13</v>
-      </c>
-      <c r="H111">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.3532607744369414</v>
-      </c>
-      <c r="J111">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.8589578461342171E-13</v>
+        <v>5.440092820663267E-14</v>
       </c>
       <c r="L111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000004E-2</v>
       </c>
       <c r="M111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000002E-26</v>
       </c>
       <c r="N111">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.2469022205266267</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.246902220526243</v>
+      </c>
+      <c r="O111">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.1906083035618611</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="16"/>
+        <v>9.604000000000001E-27</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="D112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3261955589475303</v>
       </c>
       <c r="E112">
-        <f t="shared" ca="1" si="11"/>
-        <v>-9.434842240323814E-13</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1807046425910104E-12</v>
       </c>
       <c r="F112">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.3261955589487109</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.2068730179958253E-13</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.3261955589493315</v>
+      </c>
+      <c r="J112">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3261955589465868</v>
-      </c>
-      <c r="G112">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2.5072769778406717E-13</v>
-      </c>
-      <c r="H112">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.3261955589463361</v>
-      </c>
-      <c r="J112">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.1941558852868184E-12</v>
+        <v>1.801225835151854E-12</v>
       </c>
       <c r="L112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.9009900990099046E-3</v>
       </c>
       <c r="M112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.9009900990099031E-27</v>
       </c>
       <c r="N112">
-        <f t="shared" ca="1" si="19"/>
-        <v>4.2179843327882081</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.2179843327878581</v>
+      </c>
+      <c r="O112">
+        <f t="shared" ca="1" si="23"/>
+        <v>4.1619641761157178</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="16"/>
+        <v>9.5089108910891095E-27</v>
       </c>
     </row>
   </sheetData>

--- a/KF-ATTITUDE.xlsx
+++ b/KF-ATTITUDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF86FC3D-736A-4862-BDF2-83E0E5729392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D6576-A226-413F-80BF-73C091B045FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
@@ -16,13 +16,9 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$B$12:$B$112</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$D$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$D$12:$D$112</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$F$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$F$12:$F$112</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$H$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$H$12:$H$112</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$D$12:$D$112</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$H$10:$H$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$H$12:$H$112</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1305,307 +1301,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.000000000002528</c:v>
+                  <c:v>9.9999999999993694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7999999999996614</c:v>
+                  <c:v>9.8000000000001712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6039999999997292</c:v>
+                  <c:v>9.6039999999996546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4119200000004408</c:v>
+                  <c:v>9.411919999999288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2236816000002708</c:v>
+                  <c:v>9.2236815999998765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0392079679996566</c:v>
+                  <c:v>9.0392079679990491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8584238086400617</c:v>
+                  <c:v>8.8584238086397828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6812553324676713</c:v>
+                  <c:v>8.6812553324678596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5076302258182572</c:v>
+                  <c:v>8.5076302258157472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3374776213037247</c:v>
+                  <c:v>8.3374776213019217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1707280688745616</c:v>
+                  <c:v>8.1707280688747712</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.007313507498921</c:v>
+                  <c:v>8.0073135074986066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8471672373471906</c:v>
+                  <c:v>7.8471672373488408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6902238926005939</c:v>
+                  <c:v>7.6902238926009217</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5364194147492602</c:v>
+                  <c:v>7.5364194147498704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3856910264532551</c:v>
+                  <c:v>7.3856910264546487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2379772059242917</c:v>
+                  <c:v>7.2379772059247154</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0932176618055438</c:v>
+                  <c:v>7.0932176618047764</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9513533085710666</c:v>
+                  <c:v>6.9513533085698072</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8123262423998661</c:v>
+                  <c:v>6.812326242397952</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6760797175524447</c:v>
+                  <c:v>6.6760797175518753</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5425581231990755</c:v>
+                  <c:v>6.5425581231986456</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4117069607363106</c:v>
+                  <c:v>6.4117069607375292</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2834728215216904</c:v>
+                  <c:v>6.2834728215217135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1578033650907775</c:v>
+                  <c:v>6.1578033650909951</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0346472977907801</c:v>
+                  <c:v>6.0346472977884202</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9139543518322615</c:v>
+                  <c:v>5.9139543518318431</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7956752647963761</c:v>
+                  <c:v>5.79567526479621</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6797617594992147</c:v>
+                  <c:v>5.6797617594999066</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5661665243086489</c:v>
+                  <c:v>5.5661665243107814</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4548431938244146</c:v>
+                  <c:v>5.4548431938259148</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3457463299466275</c:v>
+                  <c:v>5.3457463299482555</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2388314033498515</c:v>
+                  <c:v>5.2388314033486765</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.134054775282288</c:v>
+                  <c:v>5.1340547752825172</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0313736797773787</c:v>
+                  <c:v>5.0313736797773139</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.930746206180407</c:v>
+                  <c:v>4.9307462061815928</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8321312820574907</c:v>
+                  <c:v>4.8321312820589641</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7354886564161118</c:v>
+                  <c:v>4.7354886564160905</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6407788832880152</c:v>
+                  <c:v>4.6407788832890882</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5479633056218276</c:v>
+                  <c:v>4.547963305623254</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.457004039509501</c:v>
+                  <c:v>4.4570040395090249</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3678639587192212</c:v>
+                  <c:v>4.3678639587181154</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2805066795440245</c:v>
+                  <c:v>4.2805066795456108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1948965459546095</c:v>
+                  <c:v>4.1948965459531502</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1109986150354709</c:v>
+                  <c:v>4.1109986150347799</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0287786427328784</c:v>
+                  <c:v>4.0287786427343732</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9482030698786601</c:v>
+                  <c:v>3.9482030698804826</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.869239008483063</c:v>
+                  <c:v>3.8692390084829564</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7918542283135035</c:v>
+                  <c:v>3.7918542283118026</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7160171437471812</c:v>
+                  <c:v>3.7160171437446943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.6416968008703763</c:v>
+                  <c:v>3.641696800872547</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5688628648532794</c:v>
+                  <c:v>3.5688628648526559</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.4974856075562371</c:v>
+                  <c:v>3.4974856075581036</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4275358954061912</c:v>
+                  <c:v>3.427535895406463</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3589851774976855</c:v>
+                  <c:v>3.3589851774968436</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2918054739468028</c:v>
+                  <c:v>3.291805473946432</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2259693644677081</c:v>
+                  <c:v>3.2259693644683289</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1614499771777766</c:v>
+                  <c:v>3.1614499771798221</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0982209776337082</c:v>
+                  <c:v>3.0982209776351217</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0362565580818184</c:v>
+                  <c:v>3.0362565580827354</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9755314269209259</c:v>
+                  <c:v>2.9755314269223785</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9160207983827475</c:v>
+                  <c:v>2.9160207983838333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8577003824150058</c:v>
+                  <c:v>2.8577003824172116</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.8005463747672246</c:v>
+                  <c:v>2.8005463747666313</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7445354472715469</c:v>
+                  <c:v>2.7445354472727144</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.689644738325967</c:v>
+                  <c:v>2.689644738326777</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6358518435593608</c:v>
+                  <c:v>2.6358518435601872</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5831348066883977</c:v>
+                  <c:v>2.583134806687938</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5314721105529907</c:v>
+                  <c:v>2.5314721105555593</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4808426683440881</c:v>
+                  <c:v>2.4808426683428886</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4312258149769881</c:v>
+                  <c:v>2.431225814975793</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3826012986776175</c:v>
+                  <c:v>2.3826012986770371</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3349492727039967</c:v>
+                  <c:v>2.3349492727039345</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.288250287250162</c:v>
+                  <c:v>2.2882502872495505</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2424852815016005</c:v>
+                  <c:v>2.2424852815031153</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1976355758760704</c:v>
+                  <c:v>2.1976355758725314</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.153682864355174</c:v>
+                  <c:v>2.1536828643577319</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1106092070705356</c:v>
+                  <c:v>2.1106092070692148</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0683970229295698</c:v>
+                  <c:v>2.0683970229275186</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0270290824700106</c:v>
+                  <c:v>2.027029082471822</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9864885008203816</c:v>
+                  <c:v>1.9864885008222386</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9467587308045227</c:v>
+                  <c:v>1.946758730803781</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9078235561875598</c:v>
+                  <c:v>1.9078235561882568</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8696670850639372</c:v>
+                  <c:v>1.8696670850642612</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8322737433639005</c:v>
+                  <c:v>1.8322737433640948</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7956282684973701</c:v>
+                  <c:v>1.7956282684955993</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7597157031251238</c:v>
+                  <c:v>1.7597157031286592</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.724521389063143</c:v>
+                  <c:v>1.7245213890631823</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6900309612806101</c:v>
+                  <c:v>1.6900309612818762</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6562303420567261</c:v>
+                  <c:v>1.656230342055709</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6231057352145404</c:v>
+                  <c:v>1.6231057352162181</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5906436205112802</c:v>
+                  <c:v>1.590643620509868</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5588307481011221</c:v>
+                  <c:v>1.5588307481009367</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.527654133139376</c:v>
+                  <c:v>1.527654133139156</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4971010504757667</c:v>
+                  <c:v>1.4971010504747337</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4671590294664154</c:v>
+                  <c:v>1.467159029464095</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4378158488749737</c:v>
+                  <c:v>1.4378158488773931</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4090595319001014</c:v>
+                  <c:v>1.4090595318989154</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3808783412626369</c:v>
+                  <c:v>1.3808783412592007</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3532607744368665</c:v>
+                  <c:v>1.3532607744340714</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3261955589487109</c:v>
+                  <c:v>1.3261955589465495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,307 +1968,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.000000000003576</c:v>
+                  <c:v>10.044280564513649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8000000000019867</c:v>
+                  <c:v>9.9586748667120659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6040000000010224</c:v>
+                  <c:v>9.6030464150771913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4119199999983305</c:v>
+                  <c:v>9.1211194560904651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2236816000008144</c:v>
+                  <c:v>9.3700411684024694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.039207967998939</c:v>
+                  <c:v>9.314792862810986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8584238086416711</c:v>
+                  <c:v>8.7515330135520628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6812553324657227</c:v>
+                  <c:v>8.7611816821618724</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5076302258170156</c:v>
+                  <c:v>8.5229075041686198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3374776213033339</c:v>
+                  <c:v>8.2080362026405105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1707280688741744</c:v>
+                  <c:v>8.2245700779887674</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0073135074992248</c:v>
+                  <c:v>7.9886609452494293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8471672373461514</c:v>
+                  <c:v>7.8101619816977195</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6902238926002902</c:v>
+                  <c:v>7.8806724633509004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5364194147482806</c:v>
+                  <c:v>7.630779102504869</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.38569102645332</c:v>
+                  <c:v>7.3971121558097552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2379772059251613</c:v>
+                  <c:v>7.4383143760947261</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0932176618052143</c:v>
+                  <c:v>7.0611352659045687</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9513533085702957</c:v>
+                  <c:v>7.047049222879525</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8123262424011175</c:v>
+                  <c:v>6.8442045876441675</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.676079717552537</c:v>
+                  <c:v>6.6850047547363651</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5425581231975452</c:v>
+                  <c:v>6.8088728051799627</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4117069607361623</c:v>
+                  <c:v>6.6881303131185792</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2834728215234179</c:v>
+                  <c:v>6.5456417968392895</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1578033650906425</c:v>
+                  <c:v>6.1303046403849093</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0346472977902605</c:v>
+                  <c:v>5.966330989624085</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9139543518327065</c:v>
+                  <c:v>6.0545163645036215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7956752647980458</c:v>
+                  <c:v>5.9394675273677526</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6797617594997565</c:v>
+                  <c:v>5.5882901739643662</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5661665243073708</c:v>
+                  <c:v>5.6125378482236146</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4548431938245265</c:v>
+                  <c:v>5.3066228423436872</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.345746329945916</c:v>
+                  <c:v>5.4458590169814167</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.238831403350213</c:v>
+                  <c:v>5.2855751317161559</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1340547752826353</c:v>
+                  <c:v>4.9303346518869917</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0313736797776114</c:v>
+                  <c:v>5.2239318600840789</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.930746206179947</c:v>
+                  <c:v>4.9237504400148495</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.832131282057559</c:v>
+                  <c:v>5.0068723725293305</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7354886564177825</c:v>
+                  <c:v>4.8050022564302859</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6407788832873953</c:v>
+                  <c:v>4.4924482901826313</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5479633056249718</c:v>
+                  <c:v>4.5140049096204393</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4570040395093775</c:v>
+                  <c:v>4.4330200305999501</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3678639587199566</c:v>
+                  <c:v>4.7058688289983115</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2805066795430955</c:v>
+                  <c:v>4.4535746716429552</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1948965459536902</c:v>
+                  <c:v>4.1975576026910311</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1109986150343163</c:v>
+                  <c:v>3.9800004711884132</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0287786427336965</c:v>
+                  <c:v>4.345276979559249</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9482030698791921</c:v>
+                  <c:v>4.310508310236945</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8692390084845782</c:v>
+                  <c:v>4.178479720198828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7918542283131993</c:v>
+                  <c:v>3.6436982823648063</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7160171437481049</c:v>
+                  <c:v>3.6791253429944319</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.6416968008691564</c:v>
+                  <c:v>3.4827008498935212</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5688628648538194</c:v>
+                  <c:v>3.2798449631668287</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.4974856075560119</c:v>
+                  <c:v>3.6440312100521473</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4275358954066366</c:v>
+                  <c:v>3.5738749739404678</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3589851774987842</c:v>
+                  <c:v>3.1988873914144311</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.2918054739474911</c:v>
+                  <c:v>3.3561569293013909</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2259693644691385</c:v>
+                  <c:v>3.246722545419281</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.161449977175963</c:v>
+                  <c:v>3.498090923720234</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.098220977633646</c:v>
+                  <c:v>2.9890316562854355</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0362565580824072</c:v>
+                  <c:v>3.0537758111134994</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9755314269204023</c:v>
+                  <c:v>3.2613501190050518</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9160207983823168</c:v>
+                  <c:v>2.918486015433515</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8577003824162328</c:v>
+                  <c:v>2.5994910202808268</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.8005463747673098</c:v>
+                  <c:v>2.6301683285615827</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7445354472722596</c:v>
+                  <c:v>2.8439719579877529</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.6896447383255508</c:v>
+                  <c:v>2.741524821293551</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.635851843559323</c:v>
+                  <c:v>2.415326804774383</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5831348066872581</c:v>
+                  <c:v>2.6644086149316912</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5314721105526141</c:v>
+                  <c:v>2.5557430165206383</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4808426683446845</c:v>
+                  <c:v>2.8175977275034412</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4312258149772119</c:v>
+                  <c:v>2.4396863221390768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3826012986770224</c:v>
+                  <c:v>2.4372761100166964</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3349492727029704</c:v>
+                  <c:v>2.53380953754623</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.288250287251052</c:v>
+                  <c:v>2.3318445532965266</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2424852815005196</c:v>
+                  <c:v>2.5395733033055343</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1976355758758079</c:v>
+                  <c:v>2.4248361501103237</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.153682864355527</c:v>
+                  <c:v>2.3912062715089584</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1106092070717759</c:v>
+                  <c:v>1.9150160056978085</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0683970229295645</c:v>
+                  <c:v>1.8389860183520608</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0270290824692694</c:v>
+                  <c:v>2.2681070311969949</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9864885008199109</c:v>
+                  <c:v>1.7445499464462113</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9467587308044116</c:v>
+                  <c:v>2.0107761046405486</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9078235561870585</c:v>
+                  <c:v>1.8318564255079133</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8696670850651895</c:v>
+                  <c:v>1.8213771098974547</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8322737433653682</c:v>
+                  <c:v>2.0669271559367925</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7956282684966272</c:v>
+                  <c:v>1.8355352562360485</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7597157031244961</c:v>
+                  <c:v>1.4694078646892481</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7245213890647408</c:v>
+                  <c:v>1.6103758940588757</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6900309612816338</c:v>
+                  <c:v>1.6084781058885687</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6562303420556244</c:v>
+                  <c:v>1.9808264816449204</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6231057352170151</c:v>
+                  <c:v>1.5506194924138066</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5906436205110475</c:v>
+                  <c:v>1.2790668111287782</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5588307481004988</c:v>
+                  <c:v>1.527156856505747</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5276541331400699</c:v>
+                  <c:v>1.2603019703163407</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4971010504752063</c:v>
+                  <c:v>1.6216736664264637</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4671590294660681</c:v>
+                  <c:v>1.2997454734287592</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4378158488755535</c:v>
+                  <c:v>1.3733690840586985</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4090595318979331</c:v>
+                  <c:v>1.2779302799332812</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3808783412596428</c:v>
+                  <c:v>1.5200426490098402</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3532607744363099</c:v>
+                  <c:v>1.2622831313083736</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3261955589493315</c:v>
+                  <c:v>1.0417412684464331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,307 +2903,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3.5758063177127042E-12</c:v>
+                  <c:v>4.4280564513648812E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.98596694644948E-12</c:v>
+                  <c:v>0.15867486671206521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.021405182655144E-12</c:v>
+                  <c:v>-9.5358492280972484E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6697754290362354E-12</c:v>
+                  <c:v>-0.29080054390953514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1357143244531471E-13</c:v>
+                  <c:v>0.14635956840246855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0622613899613498E-12</c:v>
+                  <c:v>0.27558489481098469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6697754290362354E-12</c:v>
+                  <c:v>-0.10689079508793853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.4779288903810084E-12</c:v>
+                  <c:v>7.9926349694671828E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.4021678503631847E-13</c:v>
+                  <c:v>1.5277278350763979E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8349766151004587E-12</c:v>
+                  <c:v>-0.12944141866098846</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2949641359227826E-12</c:v>
+                  <c:v>5.3842009113298062E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2647660696529783E-12</c:v>
+                  <c:v>-1.8652562248530735E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.8491874698156607E-12</c:v>
+                  <c:v>-3.7005255650281121E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.5051076464660582E-13</c:v>
+                  <c:v>0.19044857074985977</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.3896444519050419E-13</c:v>
+                  <c:v>9.4359687755849464E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7.1942451995710144E-13</c:v>
+                  <c:v>1.142112935571582E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0250467969162855E-13</c:v>
+                  <c:v>0.20033717016976738</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.2452261444195756E-12</c:v>
+                  <c:v>-3.208239590189077E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.4638958368304884E-14</c:v>
+                  <c:v>9.5695914309194663E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1938006966593093E-12</c:v>
+                  <c:v>3.18783452452438E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5916157281026244E-12</c:v>
+                  <c:v>8.9250371854197041E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.3812063432160357E-12</c:v>
+                  <c:v>0.26631468198003638</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3447910280083306E-13</c:v>
+                  <c:v>0.27642335238265137</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2088997297942115E-12</c:v>
+                  <c:v>0.26216897531808048</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.4210854715202004E-13</c:v>
+                  <c:v>-2.7498724705875333E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2914114222439821E-12</c:v>
+                  <c:v>-6.8316308164884099E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.8316906031686813E-13</c:v>
+                  <c:v>0.14056201267043189</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5196732761069143E-12</c:v>
+                  <c:v>0.14379226257122646</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.3932860661661834E-13</c:v>
+                  <c:v>-9.1471585536229583E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.2134295224750531E-12</c:v>
+                  <c:v>4.6371323913030338E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5365486660812167E-13</c:v>
+                  <c:v>-0.14822035148068569</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.9690915564751776E-12</c:v>
+                  <c:v>0.1001126870335316</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2860823517257813E-12</c:v>
+                  <c:v>4.6743728367228954E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.8745009684789693E-13</c:v>
+                  <c:v>-0.20372012339495615</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3029577417000837E-12</c:v>
+                  <c:v>0.1925581803077705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.3488771451811772E-13</c:v>
+                  <c:v>-6.9957661659323378E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.9257486150745535E-13</c:v>
+                  <c:v>0.17474109047216402</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7594814494259481E-12</c:v>
+                  <c:v>6.9513600014262877E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3.0730973321624333E-13</c:v>
+                  <c:v>-0.14833059310507135</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0233593406592263E-12</c:v>
+                  <c:v>-3.3958396001509072E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.3145040611561853E-13</c:v>
+                  <c:v>-2.3984008909558874E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.3771210534468992E-13</c:v>
+                  <c:v>0.33800487027899262</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.836752971939859E-12</c:v>
+                  <c:v>0.17306799209802293</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3.4372504842394846E-13</c:v>
+                  <c:v>2.661056736997125E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-6.3682392692498979E-13</c:v>
+                  <c:v>-0.13099814384653996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-5.5777604757167865E-13</c:v>
+                  <c:v>0.31649833682499473</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.7703173916270316E-13</c:v>
+                  <c:v>0.36230524035737588</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.6005864128819667E-12</c:v>
+                  <c:v>0.3092407117168503</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.6108897789927141E-13</c:v>
+                  <c:v>-0.1481559459475319</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0135004774601839E-12</c:v>
+                  <c:v>-3.6891800751659432E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.0130563882503338E-12</c:v>
+                  <c:v>-0.15899595097764818</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.3274719625260332E-14</c:v>
+                  <c:v>-0.28901790168691743</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.5947247662734299E-13</c:v>
+                  <c:v>0.14654560249547588</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0986767051690549E-12</c:v>
+                  <c:v>0.14633907853492989</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3571366253017914E-12</c:v>
+                  <c:v>-0.16009778608299596</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2434497875801753E-14</c:v>
+                  <c:v>6.4351455353912179E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.0929039591428591E-13</c:v>
+                  <c:v>2.0753180950751737E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.1956659540810506E-12</c:v>
+                  <c:v>0.33664094654107535</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.9295676167985221E-12</c:v>
+                  <c:v>-0.10918932135014003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-4.5696779693571443E-13</c:v>
+                  <c:v>1.7519253030635173E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-8.0468964824831346E-13</c:v>
+                  <c:v>0.28581869208384481</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-4.6584958113271568E-13</c:v>
+                  <c:v>2.4652170507324378E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1057821325266559E-12</c:v>
+                  <c:v>-0.25820936213430024</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.8538950636611844E-13</c:v>
+                  <c:v>-0.17037804620524177</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.7182704671940883E-13</c:v>
+                  <c:v>9.9436510716265136E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-5.0714987764877151E-13</c:v>
+                  <c:v>5.1880082967493024E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.1360690993788012E-13</c:v>
+                  <c:v>-0.22052503878515362</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.0875744749228033E-12</c:v>
+                  <c:v>8.1273808243345513E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.964650664376677E-12</c:v>
+                  <c:v>2.4270905966059519E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1972645097557688E-12</c:v>
+                  <c:v>0.33675505915995396</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.9463545198923384E-13</c:v>
+                  <c:v>8.4605071624594963E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-6.2616578588858829E-14</c:v>
+                  <c:v>5.4674811339611384E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-5.7287508070658077E-13</c:v>
+                  <c:v>0.19886026484268671</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.5796253194366727E-12</c:v>
+                  <c:v>4.3594266047054298E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-3.9630521087019588E-12</c:v>
+                  <c:v>0.29708802180105165</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.4148682225822995E-12</c:v>
+                  <c:v>0.22720057423593065</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.3780088181647443E-12</c:v>
+                  <c:v>0.23752340715205333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.0090595853616833E-12</c:v>
+                  <c:v>-0.19559320137195835</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1928236176572682E-12</c:v>
+                  <c:v>-0.22941100457631092</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-5.3468340865947539E-13</c:v>
+                  <c:v>0.24107794872719079</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-4.9693582582222007E-13</c:v>
+                  <c:v>-0.24193855437419653</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.1189274213593308E-13</c:v>
+                  <c:v>6.4017373836548819E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-8.6131102250419644E-13</c:v>
+                  <c:v>-7.5967130680006489E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.02828856540782E-12</c:v>
+                  <c:v>-4.8289975166706522E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4902302442342261E-12</c:v>
+                  <c:v>0.23465341257391459</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.006750238730092E-12</c:v>
+                  <c:v>3.9906987740428113E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.2119194536808209E-12</c:v>
+                  <c:v>-0.29030783843645991</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.5469847625126931E-12</c:v>
+                  <c:v>-0.11414549500431814</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.9620750296999176E-13</c:v>
+                  <c:v>-8.1552855393361323E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-6.6702199319479405E-13</c:v>
+                  <c:v>0.32459613958862898</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8496315590255108E-12</c:v>
+                  <c:v>-7.2486242801358847E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8540724511240114E-13</c:v>
+                  <c:v>-0.31157680938208387</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.4588330543574557E-13</c:v>
+                  <c:v>-3.1673891594897752E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4381829060994278E-12</c:v>
+                  <c:v>-0.26735216282229102</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.5281113847959205E-13</c:v>
+                  <c:v>0.12457261595060465</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.737809978725636E-13</c:v>
+                  <c:v>-0.16741355603758268</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.4614975896165561E-12</c:v>
+                  <c:v>-6.444676481831646E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.5416556919944924E-12</c:v>
+                  <c:v>-0.13112925196619352</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.8423040870629848E-12</c:v>
+                  <c:v>0.13916430774835509</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.440092820663267E-14</c:v>
+                  <c:v>-9.0977643127881924E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.801225835151854E-12</c:v>
+                  <c:v>-0.28445429050109716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,304 +3781,304 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4000000000009933</c:v>
+                  <c:v>5.479337433356033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8013333333343367</c:v>
+                  <c:v>6.8539070939297524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4539800000003353</c:v>
+                  <c:v>7.4207101844699306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8079203200004308</c:v>
+                  <c:v>7.8105763812564382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0131349280001825</c:v>
+                  <c:v>8.0612791281821963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.133890482377538</c:v>
+                  <c:v>8.159886826092178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2023110886385613</c:v>
+                  <c:v>8.2350486831008904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2362354372139457</c:v>
+                  <c:v>8.2670329965528602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.246359655622884</c:v>
+                  <c:v>8.2611333171616259</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2394840568275463</c:v>
+                  <c:v>8.2578093863277289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2201365110501854</c:v>
+                  <c:v>8.2353803495712032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1914465669191063</c:v>
+                  <c:v>8.2026712443501655</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1556449473249053</c:v>
+                  <c:v>8.1796713314216465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1143632451531307</c:v>
+                  <c:v>8.1430785161605286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0688212314843923</c:v>
+                  <c:v>8.0964556186386059</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0199480535103191</c:v>
+                  <c:v>8.05774142790073</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9684630317489242</c:v>
+                  <c:v>8.0023744189009438</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9149309410553119</c:v>
+                  <c:v>7.9520941454261322</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8598007061226021</c:v>
+                  <c:v>7.8966996675370336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8034330400002183</c:v>
+                  <c:v>7.8389999097846204</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7461205437819149</c:v>
+                  <c:v>7.7921759504844088</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.6881025619103607</c:v>
+                  <c:v>7.744173966251112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.629576322727571</c:v>
+                  <c:v>7.6942351258589525</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5707054044220943</c:v>
+                  <c:v>7.6316779064399904</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.5116262464747159</c:v>
+                  <c:v>7.567626101947071</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4524532133398269</c:v>
+                  <c:v>7.5115850005602764</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3932825723204774</c:v>
+                  <c:v>7.4554379479462574</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3341956477404526</c:v>
+                  <c:v>7.3910535419468815</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.275261343626017</c:v>
+                  <c:v>7.331769685489439</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.2165381775033879</c:v>
+                  <c:v>7.2664423679686081</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.1580759322672165</c:v>
+                  <c:v>7.2095491382502583</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.0999170071485196</c:v>
+                  <c:v>7.1512468956280131</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.0420975297406994</c:v>
+                  <c:v>7.0859259472826892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.9846482768846112</c:v>
+                  <c:v>7.0327261162198713</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9275954415872594</c:v>
+                  <c:v>6.9741434585475099</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8709612751134834</c:v>
+                  <c:v>6.9209739697362078</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.8147646272530702</c:v>
+                  <c:v>6.8652905035965786</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.7590214030488225</c:v>
+                  <c:v>6.8044483955603239</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.7037449506132258</c:v>
+                  <c:v>6.747187308411827</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.6489463918058149</c:v>
+                  <c:v>6.6907442040749521</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.5946349053037707</c:v>
+                  <c:v>6.6434852665731272</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.5408179698209645</c:v>
+                  <c:v>6.5925571132026581</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.4875015738239812</c:v>
+                  <c:v>6.5381253061455755</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.4346903969619884</c:v>
+                  <c:v>6.4812780875909715</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.3823879675222432</c:v>
+                  <c:v>6.4348432808946301</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3305967994872852</c:v>
+                  <c:v>6.3896446644976583</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2793185121747284</c:v>
+                  <c:v>6.3435787281580991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2285539349530641</c:v>
+                  <c:v>6.2884791272235425</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.1783031991289645</c:v>
+                  <c:v>6.2362920515389604</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.1285658187709293</c:v>
+                  <c:v>6.1823000671929718</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.079340761964831</c:v>
+                  <c:v>6.126483622884777</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.0306265137684383</c:v>
+                  <c:v>6.07964489811435</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.9824211319469232</c:v>
+                  <c:v>6.0332417513703893</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.9347222964115023</c:v>
+                  <c:v>5.981708035734826</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.8875273531532164</c:v>
+                  <c:v>5.9348231945485148</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.8408333533517416</c:v>
+                  <c:v>5.8876635340374754</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7946370882452625</c:v>
+                  <c:v>5.8464640062733855</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7489351202687944</c:v>
+                  <c:v>5.7980329494939289</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.7037238108990209</c:v>
+                  <c:v>5.7522953305209219</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.6589993455878957</c:v>
+                  <c:v>5.711460163119022</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.6147577561168385</c:v>
+                  <c:v>5.6664121929950619</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.5709949406612731</c:v>
+                  <c:v>5.6177309045392807</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.52770668181918</c:v>
+                  <c:v>5.5710502392896295</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.4848886628261502</c:v>
+                  <c:v>5.5290951888080624</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.4425364821518984</c:v>
+                  <c:v>5.4868592741487516</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.4006456666505169</c:v>
+                  <c:v>5.4410155059491343</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.3592116834157633</c:v>
+                  <c:v>5.4001830516694662</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.3182299504757173</c:v>
+                  <c:v>5.3589592830441211</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2776958464452743</c:v>
+                  <c:v>5.3226541179649685</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.2376047192414985</c:v>
+                  <c:v>5.2820489377420685</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.1979518939558806</c:v>
+                  <c:v>5.2425382040236608</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.1587326799661151</c:v>
+                  <c:v>5.2054323318801341</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.1199423773618573</c:v>
+                  <c:v>5.166600064601977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.0815762827503725</c:v>
+                  <c:v>5.131573041118024</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.0436296945020231</c:v>
+                  <c:v>5.0959580820258177</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.0060979174871338</c:v>
+                  <c:v>5.060831435135988</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9689762673536038</c:v>
+                  <c:v>5.0205004680919085</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9322600743862113</c:v>
+                  <c:v>4.9802281332850749</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.8959446869872494</c:v>
+                  <c:v>4.9463266195089739</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.8600254748123444</c:v>
+                  <c:v>4.9067985124341247</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.8244978315927352</c:v>
+                  <c:v>4.8714811659976176</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7893571776721853</c:v>
+                  <c:v>4.8348591811724404</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7545989622840068</c:v>
+                  <c:v>4.7989843946096427</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7202186655908465</c:v>
+                  <c:v>4.7668425447429028</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6862118005083557</c:v>
+                  <c:v>4.7327575762718928</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6525739143315299</c:v>
+                  <c:v>4.6952478094720922</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6193005901807709</c:v>
+                  <c:v>4.660192446796942</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.5863874482830278</c:v>
+                  <c:v>4.6259035216181958</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.5538301471027234</c:v>
+                  <c:v>4.596513776729604</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.5216243843347481</c:v>
+                  <c:v>4.563042410967892</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.4897658977714467</c:v>
+                  <c:v>4.5273470240131193</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4582504660545546</c:v>
+                  <c:v>4.4950869146850829</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.4270739093214218</c:v>
+                  <c:v>4.4606743088939265</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.3962320897546192</c:v>
+                  <c:v>4.4307900916047949</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3657209120432805</c:v>
+                  <c:v>4.3981750434987941</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.3355363237632005</c:v>
+                  <c:v>4.3669914769066285</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3056743156829427</c:v>
+                  <c:v>4.3354704442844518</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.276130922001899</c:v>
+                  <c:v>4.307031779685718</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.246902220526243</c:v>
+                  <c:v>4.2765842932019442</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.2179843327878581</c:v>
+                  <c:v>4.2445561444419884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,301 +5119,301 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2920000000009733</c:v>
+                  <c:v>5.3697506846889125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6653066666676501</c:v>
+                  <c:v>6.7168289520511575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3049004000003288</c:v>
+                  <c:v>7.2722959807805321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6517619136004225</c:v>
+                  <c:v>7.6543648536313089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8528722294401785</c:v>
+                  <c:v>7.9000535456185519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9712126727299868</c:v>
+                  <c:v>7.9966890895703342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0382648668657897</c:v>
+                  <c:v>8.070347709438872</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0715107284696668</c:v>
+                  <c:v>8.1016923366218023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0814324625104259</c:v>
+                  <c:v>8.0959106508183929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0746943756909957</c:v>
+                  <c:v>8.0926531986011749</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0557337808291809</c:v>
+                  <c:v>8.0706727425797791</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0276176355807234</c:v>
+                  <c:v>8.0386178194631626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9925320483784068</c:v>
+                  <c:v>8.0160779047932138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9520759802500676</c:v>
+                  <c:v>7.9802169458373182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9074448068547047</c:v>
+                  <c:v>7.9345265062658337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8595490924401128</c:v>
+                  <c:v>7.8965865993427151</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.8090937711139459</c:v>
+                  <c:v>7.8423269305229244</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7566323222342053</c:v>
+                  <c:v>7.7930522625176097</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7026046920001496</c:v>
+                  <c:v>7.7387656741862925</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6473643792002139</c:v>
+                  <c:v>7.6822199115889278</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5911981329062765</c:v>
+                  <c:v>7.6363324314747203</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.5343405106721537</c:v>
+                  <c:v>7.5892904869260898</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4769847962730198</c:v>
+                  <c:v>7.5403504233417733</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4192912963336521</c:v>
+                  <c:v>7.4790443483111906</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3613937215452214</c:v>
+                  <c:v>7.4162735799081299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3034041490730299</c:v>
+                  <c:v>7.3613533005490712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2454169208740673</c:v>
+                  <c:v>7.3063291889873323</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.1875117347856436</c:v>
+                  <c:v>7.2432324711079437</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1297561167534962</c:v>
+                  <c:v>7.1851342917796499</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.0722074139533202</c:v>
+                  <c:v>7.121113520609236</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.014914413621872</c:v>
+                  <c:v>7.0653581554852529</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.9579186670055488</c:v>
+                  <c:v>7.0082219577154525</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.9012555791458849</c:v>
+                  <c:v>6.9442074283370356</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.8449553113469186</c:v>
+                  <c:v>6.8920715938954737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.7890435327555139</c:v>
+                  <c:v>6.8346605893765595</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.7335420496112137</c:v>
+                  <c:v>6.7825544903414832</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6784693347080086</c:v>
+                  <c:v>6.7279846935246468</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6238409749878455</c:v>
+                  <c:v>6.6683594276491176</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.5696700516009612</c:v>
+                  <c:v>6.6122435622435907</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.5159674639696989</c:v>
+                  <c:v>6.5569293199934533</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.462742207197695</c:v>
+                  <c:v>6.5106155612416643</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.410001610424545</c:v>
+                  <c:v>6.460705970938605</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.3577515423475015</c:v>
+                  <c:v>6.4073628000226641</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.3059965890227483</c:v>
+                  <c:v>6.3516525258391523</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.254740208171798</c:v>
+                  <c:v>6.3061464152767375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2039848634975394</c:v>
+                  <c:v>6.2618517712077049</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.1537321419312336</c:v>
+                  <c:v>6.2167071535949372</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.1039828562540031</c:v>
+                  <c:v>6.1627095446790712</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.054737135146385</c:v>
+                  <c:v>6.1115662105081814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0059945023955104</c:v>
+                  <c:v>6.0586540658491126</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9577539467255338</c:v>
+                  <c:v>6.0039539504270811</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.9100139834930694</c:v>
+                  <c:v>5.9580520001520627</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.8627727093079844</c:v>
+                  <c:v>5.9125769163429815</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.8160278504832723</c:v>
+                  <c:v>5.8620738750201298</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.7697768060901522</c:v>
+                  <c:v>5.8161267306575448</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7240166862847071</c:v>
+                  <c:v>5.7699102633567261</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.6787443464803573</c:v>
+                  <c:v>5.7295347261479179</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.6339564178634181</c:v>
+                  <c:v>5.6820722905040499</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.5896493346810407</c:v>
+                  <c:v>5.6372494239105038</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.5458193586761375</c:v>
+                  <c:v>5.5972309598566419</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.5024626009945017</c:v>
+                  <c:v>5.5530839491351607</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.4595750418480478</c:v>
+                  <c:v>5.5053762864484952</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.4171525481827967</c:v>
+                  <c:v>5.4596292345038364</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.3751908895696268</c:v>
+                  <c:v>5.4185132850319011</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.3336857525088606</c:v>
+                  <c:v>5.3771220886657769</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.2926327533175064</c:v>
+                  <c:v>5.3321951958301517</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.2520274497474482</c:v>
+                  <c:v>5.2921793906360772</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2118653514662032</c:v>
+                  <c:v>5.2517800973832385</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.1721419295163686</c:v>
+                  <c:v>5.2162010356056694</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.1328526248566684</c:v>
+                  <c:v>5.1764079589872267</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.0939928560767633</c:v>
+                  <c:v>5.1376874399431873</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.0555580263667927</c:v>
+                  <c:v>5.101323685242531</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.0175435298146205</c:v>
+                  <c:v>5.0632680633099376</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9799447570953648</c:v>
+                  <c:v>5.0289415802956636</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9427571006119821</c:v>
+                  <c:v>4.9940389203853011</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9059759591373915</c:v>
+                  <c:v>4.9596148064332679</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.8695967420065314</c:v>
+                  <c:v>4.92009045873007</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.8336148728984867</c:v>
+                  <c:v>4.880623570619373</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.7980257932475041</c:v>
+                  <c:v>4.8474000871187943</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.7628249653160974</c:v>
+                  <c:v>4.8086625421854423</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7280078749608805</c:v>
+                  <c:v>4.7740515426776655</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.6935700341187419</c:v>
+                  <c:v>4.7381619975489917</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.6595069830383267</c:v>
+                  <c:v>4.7030047067174499</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6258142922790295</c:v>
+                  <c:v>4.6715056938480446</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.5924875644981888</c:v>
+                  <c:v>4.6381024247464548</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.5595224360448992</c:v>
+                  <c:v>4.6013428532826506</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.5269145783771556</c:v>
+                  <c:v>4.5669885978610028</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.4946596993173671</c:v>
+                  <c:v>4.5333854511858318</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.4627535441606687</c:v>
+                  <c:v>4.5045835011950119</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.4311918966480528</c:v>
+                  <c:v>4.471781562748534</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.399970579816018</c:v>
+                  <c:v>4.4368000835328569</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.3690854567334636</c:v>
+                  <c:v>4.405185176391381</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.3385324311349933</c:v>
+                  <c:v>4.3714608227160481</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3083074479595265</c:v>
+                  <c:v>4.3421742897726991</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.2784064938024144</c:v>
+                  <c:v>4.3102115426288181</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2488255972879365</c:v>
+                  <c:v>4.279651647368496</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.2195608293692839</c:v>
+                  <c:v>4.248761035398763</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.1906083035618611</c:v>
+                  <c:v>4.2208911440920032</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.1619641761157178</c:v>
+                  <c:v>4.1910526073379053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6058,16 +6054,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.20000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.14285714285714285</c:v>
@@ -6076,37 +6072,37 @@
                   <c:v>0.12500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11111111111111113</c:v>
+                  <c:v>0.11111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.10000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>9.0909090909090925E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>8.3333333333333356E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>7.6923076923076941E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>7.1428571428571438E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>6.666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6.2500000000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8823529411764712E-2</c:v>
+                  <c:v>5.8823529411764726E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5555555555555559E-2</c:v>
+                  <c:v>5.5555555555555566E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2631578947368425E-2</c:v>
+                  <c:v>5.2631578947368432E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5.000000000000001E-2</c:v>
@@ -6118,112 +6114,112 @@
                   <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3478260869565209E-2</c:v>
+                  <c:v>4.3478260869565223E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>4.1666666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9999999999999994E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8461538461538457E-2</c:v>
+                  <c:v>3.8461538461538471E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3.7037037037037042E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5714285714285712E-2</c:v>
+                  <c:v>3.5714285714285719E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.4482758620689655E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>3.333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2258064516129031E-2</c:v>
+                  <c:v>3.2258064516129038E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>3.1250000000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>3.0303030303030314E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9411764705882356E-2</c:v>
+                  <c:v>2.9411764705882363E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8571428571428571E-2</c:v>
+                  <c:v>2.8571428571428581E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>2.7777777777777787E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.7027027027027025E-2</c:v>
+                  <c:v>2.7027027027027032E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.6315789473684206E-2</c:v>
+                  <c:v>2.6315789473684216E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.564102564102564E-2</c:v>
+                  <c:v>2.5641025641025647E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4999999999999994E-2</c:v>
+                  <c:v>2.5000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4390243902439022E-2</c:v>
+                  <c:v>2.4390243902439029E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3809523809523815E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.3255813953488372E-2</c:v>
+                  <c:v>2.3255813953488379E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2727272727272724E-2</c:v>
+                  <c:v>2.2727272727272731E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.222222222222222E-2</c:v>
+                  <c:v>2.222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1739130434782605E-2</c:v>
+                  <c:v>2.1739130434782612E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1276595744680851E-2</c:v>
+                  <c:v>2.1276595744680857E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>2.0833333333333339E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0408163265306117E-2</c:v>
+                  <c:v>2.0408163265306124E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9999999999999997E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9607843137254898E-2</c:v>
+                  <c:v>1.9607843137254905E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9230769230769225E-2</c:v>
+                  <c:v>1.9230769230769232E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.8867924528301879E-2</c:v>
+                  <c:v>1.8867924528301886E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.8518518518518511E-2</c:v>
+                  <c:v>1.8518518518518517E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.8181818181818174E-2</c:v>
+                  <c:v>1.8181818181818177E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.7857142857142849E-2</c:v>
+                  <c:v>1.7857142857142856E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1.7543859649122803E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.724137931034482E-2</c:v>
+                  <c:v>1.7241379310344827E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1.6949152542372878E-2</c:v>
@@ -6235,124 +6231,124 @@
                   <c:v>1.6393442622950817E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6129032258064512E-2</c:v>
+                  <c:v>1.6129032258064516E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5873015873015869E-2</c:v>
+                  <c:v>1.5873015873015872E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5624999999999997E-2</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.538461538461538E-2</c:v>
+                  <c:v>1.5384615384615384E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.515151515151515E-2</c:v>
+                  <c:v>1.5151515151515152E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.4925373134328354E-2</c:v>
+                  <c:v>1.492537313432836E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.4705882352941175E-2</c:v>
+                  <c:v>1.4705882352941178E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.4492753623188404E-2</c:v>
+                  <c:v>1.4492753623188408E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.4285714285714284E-2</c:v>
+                  <c:v>1.4285714285714287E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.408450704225352E-2</c:v>
+                  <c:v>1.4084507042253525E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>1.3888888888888893E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3698630136986299E-2</c:v>
+                  <c:v>1.3698630136986306E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3513513513513513E-2</c:v>
+                  <c:v>1.3513513513513518E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3333333333333332E-2</c:v>
+                  <c:v>1.3333333333333339E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3157894736842103E-2</c:v>
+                  <c:v>1.315789473684211E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.2987012987012986E-2</c:v>
+                  <c:v>1.2987012987012991E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.2820512820512818E-2</c:v>
+                  <c:v>1.2820512820512827E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.2658227848101266E-2</c:v>
+                  <c:v>1.2658227848101271E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.2499999999999999E-2</c:v>
+                  <c:v>1.2500000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2345679012345678E-2</c:v>
+                  <c:v>1.2345679012345685E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2195121951219513E-2</c:v>
+                  <c:v>1.2195121951219518E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2048192771084338E-2</c:v>
+                  <c:v>1.2048192771084343E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.1904761904761904E-2</c:v>
+                  <c:v>1.1904761904761909E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.1764705882352941E-2</c:v>
+                  <c:v>1.1764705882352946E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.1627906976744186E-2</c:v>
+                  <c:v>1.1627906976744191E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.149425287356322E-2</c:v>
+                  <c:v>1.1494252873563225E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1363636363636366E-2</c:v>
+                  <c:v>1.1363636363636371E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1235955056179778E-2</c:v>
+                  <c:v>1.1235955056179782E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1111111111111113E-2</c:v>
+                  <c:v>1.1111111111111117E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.098901098901099E-2</c:v>
+                  <c:v>1.0989010989010997E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0869565217391306E-2</c:v>
+                  <c:v>1.0869565217391311E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0752688172043012E-2</c:v>
+                  <c:v>1.0752688172043017E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0638297872340427E-2</c:v>
+                  <c:v>1.0638297872340432E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0526315789473686E-2</c:v>
+                  <c:v>1.0526315789473689E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0416666666666668E-2</c:v>
+                  <c:v>1.0416666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0309278350515465E-2</c:v>
+                  <c:v>1.0309278350515469E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0204081632653064E-2</c:v>
+                  <c:v>1.0204081632653067E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0101010101010102E-2</c:v>
+                  <c:v>1.0101010101010107E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0000000000000004E-2</c:v>
+                  <c:v>1.0000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.9009900990099046E-3</c:v>
+                  <c:v>9.900990099009908E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6959,307 +6955,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>9.9999999999999992E-25</c:v>
+                  <c:v>4.0000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9999999999999996E-25</c:v>
+                  <c:v>2.0000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3333333333333331E-25</c:v>
+                  <c:v>1.3333333333333338E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4999999999999998E-25</c:v>
+                  <c:v>1.0000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9999999999999998E-25</c:v>
+                  <c:v>8.0000000000000019E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666665E-25</c:v>
+                  <c:v>6.666666666666668E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4285714285714286E-25</c:v>
+                  <c:v>5.714285714285716E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2500000000000001E-25</c:v>
+                  <c:v>5.0000000000000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1111111111111111E-25</c:v>
+                  <c:v>4.4444444444444462E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1E-25</c:v>
+                  <c:v>4.0000000000000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0909090909090905E-26</c:v>
+                  <c:v>3.6363636363636381E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3333333333333327E-26</c:v>
+                  <c:v>3.3333333333333348E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6923076923076922E-26</c:v>
+                  <c:v>3.0769230769230782E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1428571428571431E-26</c:v>
+                  <c:v>2.8571428571428584E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6666666666666673E-26</c:v>
+                  <c:v>2.6666666666666679E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2500000000000007E-26</c:v>
+                  <c:v>2.5000000000000014E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8823529411764709E-26</c:v>
+                  <c:v>2.3529411764705893E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5555555555555555E-26</c:v>
+                  <c:v>2.2222222222222231E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2631578947368422E-26</c:v>
+                  <c:v>2.1052631578947377E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9999999999999996E-26</c:v>
+                  <c:v>2.0000000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7619047619047611E-26</c:v>
+                  <c:v>1.9047619047619052E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5454545454545447E-26</c:v>
+                  <c:v>1.8181818181818186E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.347826086956521E-26</c:v>
+                  <c:v>1.7391304347826092E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.1666666666666663E-26</c:v>
+                  <c:v>1.6666666666666672E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9999999999999996E-26</c:v>
+                  <c:v>1.6000000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8461538461538461E-26</c:v>
+                  <c:v>1.5384615384615389E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7037037037037035E-26</c:v>
+                  <c:v>1.4814814814814818E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.571428571428571E-26</c:v>
+                  <c:v>1.428571428571429E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4482758620689652E-26</c:v>
+                  <c:v>1.3793103448275868E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3333333333333331E-26</c:v>
+                  <c:v>1.3333333333333339E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2258064516129032E-26</c:v>
+                  <c:v>1.2903225806451619E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1249999999999998E-26</c:v>
+                  <c:v>1.2500000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0303030303030302E-26</c:v>
+                  <c:v>1.2121212121212128E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9411764705882349E-26</c:v>
+                  <c:v>1.1764705882352947E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8571428571428567E-26</c:v>
+                  <c:v>1.1428571428571434E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7777777777777772E-26</c:v>
+                  <c:v>1.1111111111111115E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.7027027027027022E-26</c:v>
+                  <c:v>1.0810810810810815E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.6315789473684205E-26</c:v>
+                  <c:v>1.0526315789473688E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.5641025641025636E-26</c:v>
+                  <c:v>1.0256410256410261E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.4999999999999995E-26</c:v>
+                  <c:v>1.0000000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.439024390243902E-26</c:v>
+                  <c:v>9.7560975609756141E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3809523809523806E-26</c:v>
+                  <c:v>9.5238095238095281E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.3255813953488366E-26</c:v>
+                  <c:v>9.3023255813953526E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2727272727272723E-26</c:v>
+                  <c:v>9.0909090909090952E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2222222222222219E-26</c:v>
+                  <c:v>8.8888888888888926E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1739130434782605E-26</c:v>
+                  <c:v>8.6956521739130471E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1276595744680847E-26</c:v>
+                  <c:v>8.5106382978723436E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0833333333333329E-26</c:v>
+                  <c:v>8.333333333333336E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0408163265306116E-26</c:v>
+                  <c:v>8.1632653061224515E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9999999999999992E-26</c:v>
+                  <c:v>8.0000000000000026E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9607843137254895E-26</c:v>
+                  <c:v>7.8431372549019626E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9230769230769222E-26</c:v>
+                  <c:v>7.6923076923076934E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.8867924528301878E-26</c:v>
+                  <c:v>7.5471698113207554E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.8518518518518509E-26</c:v>
+                  <c:v>7.4074074074074081E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.8181818181818171E-26</c:v>
+                  <c:v>7.2727272727272734E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.7857142857142849E-26</c:v>
+                  <c:v>7.1428571428571429E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.7543859649122799E-26</c:v>
+                  <c:v>7.0175438596491234E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.724137931034482E-26</c:v>
+                  <c:v>6.8965517241379316E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.6949152542372875E-26</c:v>
+                  <c:v>6.779661016949153E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6666666666666663E-26</c:v>
+                  <c:v>6.6666666666666675E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.6393442622950814E-26</c:v>
+                  <c:v>6.5573770491803289E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.612903225806451E-26</c:v>
+                  <c:v>6.4516129032258075E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5873015873015868E-26</c:v>
+                  <c:v>6.3492063492063503E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5624999999999996E-26</c:v>
+                  <c:v>6.2500000000000012E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5384615384615381E-26</c:v>
+                  <c:v>6.1538461538461551E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5151515151515148E-26</c:v>
+                  <c:v>6.0606060606060617E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.4925373134328354E-26</c:v>
+                  <c:v>5.9701492537313444E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.4705882352941175E-26</c:v>
+                  <c:v>5.8823529411764722E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.4492753623188403E-26</c:v>
+                  <c:v>5.7971014492753643E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.4285714285714283E-26</c:v>
+                  <c:v>5.7142857142857169E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.4084507042253518E-26</c:v>
+                  <c:v>5.6338028169014109E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3888888888888886E-26</c:v>
+                  <c:v>5.5555555555555588E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3698630136986299E-26</c:v>
+                  <c:v>5.4794520547945234E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3513513513513511E-26</c:v>
+                  <c:v>5.4054054054054087E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.333333333333333E-26</c:v>
+                  <c:v>5.3333333333333368E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3157894736842103E-26</c:v>
+                  <c:v>5.2631578947368452E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.2987012987012984E-26</c:v>
+                  <c:v>5.1948051948051981E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.2820512820512818E-26</c:v>
+                  <c:v>5.1282051282051315E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.2658227848101264E-26</c:v>
+                  <c:v>5.0632911392405099E-4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.2499999999999999E-26</c:v>
+                  <c:v>5.0000000000000034E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2345679012345678E-26</c:v>
+                  <c:v>4.938271604938275E-4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2195121951219511E-26</c:v>
+                  <c:v>4.8780487804878081E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2048192771084336E-26</c:v>
+                  <c:v>4.819277108433738E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.1904761904761904E-26</c:v>
+                  <c:v>4.7619047619047652E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.1764705882352941E-26</c:v>
+                  <c:v>4.7058823529411799E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.1627906976744186E-26</c:v>
+                  <c:v>4.6511627906976779E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1494252873563219E-26</c:v>
+                  <c:v>4.597701149425291E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1363636363636365E-26</c:v>
+                  <c:v>4.5454545454545492E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1235955056179776E-26</c:v>
+                  <c:v>4.4943820224719135E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1111111111111112E-26</c:v>
+                  <c:v>4.4444444444444479E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0989010989010991E-26</c:v>
+                  <c:v>4.3956043956043994E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0869565217391305E-26</c:v>
+                  <c:v>4.3478260869565252E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0752688172043012E-26</c:v>
+                  <c:v>4.3010752688172075E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0638297872340426E-26</c:v>
+                  <c:v>4.2553191489361734E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0526315789473685E-26</c:v>
+                  <c:v>4.2105263157894766E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0416666666666667E-26</c:v>
+                  <c:v>4.1666666666666696E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0309278350515466E-26</c:v>
+                  <c:v>4.1237113402061885E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0204081632653062E-26</c:v>
+                  <c:v>4.0816326530612274E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0101010101010103E-26</c:v>
+                  <c:v>4.0404040404040437E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0000000000000002E-26</c:v>
+                  <c:v>4.0000000000000034E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.9009900990099031E-27</c:v>
+                  <c:v>3.9603960396039639E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7414,6 +7410,946 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$H$10:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MEASUREMENT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>z_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$12:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$H$12:$H$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10.044280564513649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9586748667120659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6030464150771913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1211194560904651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3700411684024694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.314792862810986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7515330135520628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7611816821618724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5229075041686198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2080362026405105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2245700779887674</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9886609452494293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8101619816977195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8806724633509004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.630779102504869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3971121558097552</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4383143760947261</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0611352659045687</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.047049222879525</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8442045876441675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6850047547363651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8088728051799627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6881303131185792</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.5456417968392895</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1303046403849093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.966330989624085</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0545163645036215</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9394675273677526</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5882901739643662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6125378482236146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3066228423436872</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4458590169814167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2855751317161559</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9303346518869917</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2239318600840789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9237504400148495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0068723725293305</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8050022564302859</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.4924482901826313</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5140049096204393</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.4330200305999501</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7058688289983115</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4535746716429552</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1975576026910311</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9800004711884132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.345276979559249</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.310508310236945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.178479720198828</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6436982823648063</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.6791253429944319</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.4827008498935212</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2798449631668287</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6440312100521473</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5738749739404678</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1988873914144311</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3561569293013909</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.246722545419281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.498090923720234</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9890316562854355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0537758111134994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2613501190050518</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.918486015433515</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5994910202808268</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.6301683285615827</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8439719579877529</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.741524821293551</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.415326804774383</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6644086149316912</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5557430165206383</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.8175977275034412</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4396863221390768</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.4372761100166964</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.53380953754623</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3318445532965266</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.5395733033055343</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.4248361501103237</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3912062715089584</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9150160056978085</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8389860183520608</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2681070311969949</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7445499464462113</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0107761046405486</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8318564255079133</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8213771098974547</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0669271559367925</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8355352562360485</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4694078646892481</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.6103758940588757</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6084781058885687</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9808264816449204</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5506194924138066</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2790668111287782</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.527156856505747</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2603019703163407</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.6216736664264637</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2997454734287592</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3733690840586985</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2779302799332812</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5200426490098402</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2622831313083736</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0417412684464331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-519F-4A03-8C63-5D30EFB112F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="605890128"/>
+        <c:axId val="605889472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="605890128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605889472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="605889472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605890128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7658,6 +8594,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9723,6 +10699,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10415,6 +11907,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529826</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1012029</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA984CC8-4130-4719-AC33-8568A87AFB01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10723,7 +12251,7 @@
   <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:P112"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10794,7 +12322,7 @@
       </c>
       <c r="N2">
         <f>K3^2</f>
-        <v>9.9999999999999992E-25</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10812,7 +12340,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="10">
-        <v>9.9999999999999998E-13</v>
+        <v>0.2</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
@@ -10967,34 +12495,34 @@
       </c>
       <c r="E12">
         <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>2.528397129854687E-12</v>
+        <v>-6.3118607901715591E-13</v>
       </c>
       <c r="F12">
         <f ca="1">D12+E12</f>
-        <v>10.000000000002528</v>
+        <v>9.9999999999993694</v>
       </c>
       <c r="G12">
         <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>1.0484343530788146E-12</v>
+        <v>4.4280564514278815E-2</v>
       </c>
       <c r="H12">
         <f ca="1">F12+G12</f>
-        <v>10.000000000003576</v>
+        <v>10.044280564513649</v>
       </c>
       <c r="J12">
         <f ca="1">H12-D12</f>
-        <v>3.5758063177127042E-12</v>
+        <v>4.4280564513648812E-2</v>
       </c>
       <c r="M12">
         <f>N2</f>
-        <v>9.9999999999999992E-25</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="P12">
         <f>$B$2*M12*$B$2</f>
-        <v>9.6040000000000004E-25</v>
+        <v>3.8416000000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -11011,23 +12539,23 @@
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E76" ca="1" si="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>-3.3955824971080765E-13</v>
+        <v>1.7000164911917831E-13</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>9.7999999999996614</v>
+        <v>9.8000000000001712</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13:G76" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>2.3253395504244515E-12</v>
+        <v>0.15867486671189468</v>
       </c>
       <c r="H13">
         <f ca="1">F13+G13</f>
-        <v>9.8000000000019867</v>
+        <v>9.9586748667120659</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:J76" ca="1" si="3">H13-D13</f>
-        <v>1.98596694644948E-12</v>
+        <v>0.15867486671206521</v>
       </c>
       <c r="L13">
         <f>M12/(M12+$N$2)</f>
@@ -11035,11 +12563,11 @@
       </c>
       <c r="M13">
         <f>(1-L13)*M12</f>
-        <v>4.9999999999999996E-25</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="N13">
         <f ca="1">N12 + L13*(H13 - N12)</f>
-        <v>5.4000000000009933</v>
+        <v>5.479337433356033</v>
       </c>
       <c r="O13">
         <f>$B$2*N12</f>
@@ -11047,7 +12575,7 @@
       </c>
       <c r="P13">
         <f t="shared" ref="P13:P76" si="4">$B$2*M13*$B$2</f>
-        <v>4.8020000000000002E-25</v>
+        <v>1.9208000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -11064,43 +12592,43 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7240949785705308E-13</v>
+        <v>-3.465924115333177E-13</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F77" ca="1" si="6">D14+E14</f>
-        <v>9.6039999999997292</v>
+        <v>9.6039999999996546</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2938959175419334E-12</v>
+        <v>-9.5358492246368611E-4</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H77" ca="1" si="7">F14+G14</f>
-        <v>9.6040000000010224</v>
+        <v>9.6030464150771913</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.021405182655144E-12</v>
+        <v>-9.5358492280972484E-4</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:L77" si="8">M13/(M13+$N$2)</f>
-        <v>0.33333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14:M77" si="9">(1-L14)*M13</f>
-        <v>3.3333333333333331E-25</v>
+        <v>1.3333333333333338E-2</v>
       </c>
       <c r="N14">
         <f t="shared" ref="N14:N77" ca="1" si="10">N13 + L14*(H14 - N13)</f>
-        <v>6.8013333333343367</v>
+        <v>6.8539070939297524</v>
       </c>
       <c r="O14">
         <f t="shared" ref="O14:O77" ca="1" si="11">$B$2*N13</f>
-        <v>5.2920000000009733</v>
+        <v>5.3697506846889125</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>3.2013333333333325E-25</v>
+        <v>1.2805333333333337E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11117,43 +12645,43 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4001789129481912E-13</v>
+        <v>-7.1176066834638299E-13</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4119200000004408</v>
+        <v>9.411919999999288</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.1111135339844766E-12</v>
+        <v>-0.29080054390882232</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>9.4119199999983305</v>
+        <v>9.1211194560904651</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.6697754290362354E-12</v>
+        <v>-0.29080054390953514</v>
       </c>
       <c r="L15">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="M15">
         <f t="shared" si="9"/>
-        <v>2.4999999999999998E-25</v>
+        <v>1.0000000000000004E-2</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="10"/>
-        <v>7.4539800000003353</v>
+        <v>7.4207101844699306</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="11"/>
-        <v>6.6653066666676501</v>
+        <v>6.7168289520511575</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>2.4010000000000001E-25</v>
+        <v>9.6040000000000032E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -11170,43 +12698,43 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7022666065130181E-13</v>
+        <v>-1.2373453950127735E-13</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2236816000002708</v>
+        <v>9.2236815999998765</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4282901198712758E-13</v>
+        <v>0.1463595684025924</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>9.2236816000008144</v>
+        <v>9.3700411684024694</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1357143244531471E-13</v>
+        <v>0.14635956840246855</v>
       </c>
       <c r="L16">
         <f t="shared" si="8"/>
-        <v>0.19999999999999998</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="M16">
         <f t="shared" si="9"/>
-        <v>1.9999999999999998E-25</v>
+        <v>8.0000000000000019E-3</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8079203200004308</v>
+        <v>7.8105763812564382</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3049004000003288</v>
+        <v>7.2722959807805321</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>1.9207999999999998E-25</v>
+        <v>7.6832000000000011E-3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -11223,43 +12751,43 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4387497812922428E-13</v>
+        <v>-9.519474678863929E-13</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0392079679996566</v>
+        <v>9.0392079679990491</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.1730820949236107E-13</v>
+        <v>0.27558489481193671</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
-        <v>9.039207967998939</v>
+        <v>9.314792862810986</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0622613899613498E-12</v>
+        <v>0.27558489481098469</v>
       </c>
       <c r="L17">
         <f t="shared" si="8"/>
-        <v>0.16666666666666666</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="M17">
         <f t="shared" si="9"/>
-        <v>1.6666666666666665E-25</v>
+        <v>6.666666666666668E-3</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0131349280001825</v>
+        <v>8.0612791281821963</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6517619136004225</v>
+        <v>7.6543648536313089</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>1.6006666666666663E-25</v>
+        <v>6.4026666666666676E-3</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -11276,23 +12804,23 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0588378015841487E-14</v>
+        <v>-2.1799751000244768E-13</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8584238086400617</v>
+        <v>8.8584238086397828</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6097035738222313E-12</v>
+        <v>-0.10689079508771991</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8584238086416711</v>
+        <v>8.7515330135520628</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6697754290362354E-12</v>
+        <v>-0.10689079508793853</v>
       </c>
       <c r="L18">
         <f t="shared" si="8"/>
@@ -11300,19 +12828,19 @@
       </c>
       <c r="M18">
         <f t="shared" si="9"/>
-        <v>1.4285714285714286E-25</v>
+        <v>5.714285714285716E-3</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="10"/>
-        <v>8.133890482377538</v>
+        <v>8.159886826092178</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8528722294401785</v>
+        <v>7.9000535456185519</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>1.372E-25</v>
+        <v>5.4880000000000016E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -11329,23 +12857,23 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7029304125016239E-13</v>
+        <v>6.5862759806837769E-13</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6812553324676713</v>
+        <v>8.6812553324678596</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.949445291592403E-12</v>
+        <v>7.9926349694012105E-2</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6812553324657227</v>
+        <v>8.7611816821618724</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4779288903810084E-12</v>
+        <v>7.9926349694671828E-2</v>
       </c>
       <c r="L19">
         <f t="shared" si="8"/>
@@ -11353,19 +12881,19 @@
       </c>
       <c r="M19">
         <f t="shared" si="9"/>
-        <v>1.2500000000000001E-25</v>
+        <v>5.0000000000000018E-3</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2023110886385613</v>
+        <v>8.2350486831008904</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9712126727299868</v>
+        <v>7.9966890895703342</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>1.2005000000000003E-25</v>
+        <v>4.8020000000000016E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -11382,43 +12910,43 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0115097247426233E-13</v>
+        <v>-2.1093218087787305E-12</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5076302258182572</v>
+        <v>8.5076302258157472</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.242371353460223E-12</v>
+        <v>1.5277278352872545E-2</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5076302258170156</v>
+        <v>8.5229075041686198</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.4021678503631847E-13</v>
+        <v>1.5277278350763979E-2</v>
       </c>
       <c r="L20">
         <f t="shared" si="8"/>
-        <v>0.11111111111111113</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="M20">
         <f t="shared" si="9"/>
-        <v>1.1111111111111111E-25</v>
+        <v>4.4444444444444462E-3</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2362354372139457</v>
+        <v>8.2670329965528602</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0382648668657897</v>
+        <v>8.070347709438872</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>1.067111111111111E-25</v>
+        <v>4.2684444444444454E-3</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -11435,43 +12963,43 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2254203548661951E-12</v>
+        <v>4.2362448356551439E-13</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3374776213037247</v>
+        <v>8.3374776213019217</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.9104900720033164E-13</v>
+        <v>-0.12944141866141112</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3374776213033339</v>
+        <v>8.2080362026405105</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8349766151004587E-12</v>
+        <v>-0.12944141866098846</v>
       </c>
       <c r="L21">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="M21">
         <f t="shared" si="9"/>
-        <v>1E-25</v>
+        <v>4.0000000000000018E-3</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="10"/>
-        <v>8.246359655622884</v>
+        <v>8.2611333171616259</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0715107284696668</v>
+        <v>8.1016923366218023</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>9.6039999999999999E-26</v>
+        <v>3.8416000000000014E-3</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -11488,43 +13016,43 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.0744188693042687E-13</v>
+        <v>-6.9762890020232199E-13</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1707280688745616</v>
+        <v>8.1707280688747712</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.8654911113008722E-13</v>
+        <v>5.3842009113996329E-2</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1707280688741744</v>
+        <v>8.2245700779887674</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2949641359227826E-12</v>
+        <v>5.3842009113298062E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="8"/>
-        <v>9.0909090909090912E-2</v>
+        <v>9.0909090909090925E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="9"/>
-        <v>9.0909090909090905E-26</v>
+        <v>3.6363636363636381E-3</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2394840568275463</v>
+        <v>8.2578093863277289</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0814324625104259</v>
+        <v>8.0959106508183929</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>8.7309090909090904E-26</v>
+        <v>3.4923636363636376E-3</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -11541,43 +13069,43 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6033998533261284E-13</v>
+        <v>6.4644790838083709E-13</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="6"/>
-        <v>8.007313507498921</v>
+        <v>8.0073135074986066</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0429185701508761E-13</v>
+        <v>-1.8652562249177062E-2</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0073135074992248</v>
+        <v>7.9886609452494293</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2647660696529783E-12</v>
+        <v>-1.8652562248530735E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333356E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="9"/>
-        <v>8.3333333333333327E-26</v>
+        <v>3.3333333333333348E-3</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2201365110501854</v>
+        <v>8.2353803495712032</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0746943756909957</v>
+        <v>8.0926531986011749</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>8.0033333333333313E-26</v>
+        <v>3.2013333333333347E-3</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -11594,43 +13122,43 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.1002014574897858E-13</v>
+        <v>8.4046494208166855E-13</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8471672373471906</v>
+        <v>7.8471672373488408</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0387552656716631E-12</v>
+        <v>-3.7005255651121276E-2</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8471672373461514</v>
+        <v>7.8101619816977195</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8491874698156607E-12</v>
+        <v>-3.7005255650281121E-2</v>
       </c>
       <c r="L24">
         <f t="shared" si="8"/>
-        <v>7.6923076923076927E-2</v>
+        <v>7.6923076923076941E-2</v>
       </c>
       <c r="M24">
         <f t="shared" si="9"/>
-        <v>7.6923076923076922E-26</v>
+        <v>3.0769230769230782E-3</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1914465669191063</v>
+        <v>8.2026712443501655</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0557337808291809</v>
+        <v>8.0706727425797791</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>7.3876923076923076E-26</v>
+        <v>2.955076923076924E-3</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -11647,43 +13175,43 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4662679518891148E-13</v>
+        <v>-1.1870042259336886E-13</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6902238926005939</v>
+        <v>7.6902238926009217</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.0378230077305255E-13</v>
+        <v>0.19044857074997859</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6902238926002902</v>
+        <v>7.8806724633509004</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.5051076464660582E-13</v>
+        <v>0.19044857074985977</v>
       </c>
       <c r="L25">
         <f t="shared" si="8"/>
-        <v>7.1428571428571425E-2</v>
+        <v>7.1428571428571438E-2</v>
       </c>
       <c r="M25">
         <f t="shared" si="9"/>
-        <v>7.1428571428571431E-26</v>
+        <v>2.8571428571428584E-3</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1556449473249053</v>
+        <v>8.1796713314216465</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0276176355807234</v>
+        <v>8.0386178194631626</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>6.8600000000000001E-26</v>
+        <v>2.7440000000000012E-3</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -11700,43 +13228,43 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4085581971044283E-13</v>
+        <v>8.5124228728564079E-13</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5364194147492602</v>
+        <v>7.5364194147498704</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.7974254415120731E-13</v>
+        <v>9.4359687754998478E-2</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5364194147482806</v>
+        <v>7.630779102504869</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.3896444519050419E-13</v>
+        <v>9.4359687755849464E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.666666666666668E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="9"/>
-        <v>6.6666666666666673E-26</v>
+        <v>2.6666666666666679E-3</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1143632451531307</v>
+        <v>8.1430785161605286</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9925320483784068</v>
+        <v>8.0160779047932138</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
-        <v>6.4026666666666674E-26</v>
+        <v>2.5610666666666675E-3</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -11753,23 +13281,23 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8391140353758646E-13</v>
+        <v>6.0942610686361548E-13</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3856910264532551</v>
+        <v>7.3856910264546487</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4475086529470106E-14</v>
+        <v>1.1421129355106098E-2</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>7.38569102645332</v>
+        <v>7.3971121558097552</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.1942451995710144E-13</v>
+        <v>1.142112935571582E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="8"/>
@@ -11777,19 +13305,19 @@
       </c>
       <c r="M27">
         <f t="shared" si="9"/>
-        <v>6.2500000000000007E-26</v>
+        <v>2.5000000000000014E-3</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0688212314843923</v>
+        <v>8.0964556186386059</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9520759802500676</v>
+        <v>7.9802169458373182</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
-        <v>6.0025000000000014E-26</v>
+        <v>2.4010000000000012E-3</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -11806,43 +13334,43 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6662240553341129E-13</v>
+        <v>-2.4366469845605772E-13</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2379772059242917</v>
+        <v>7.2379772059247154</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>8.698815445591743E-13</v>
+        <v>0.20033717017001096</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2379772059251613</v>
+        <v>7.4383143760947261</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0250467969162855E-13</v>
+        <v>0.20033717016976738</v>
       </c>
       <c r="L28">
         <f t="shared" si="8"/>
-        <v>5.8823529411764712E-2</v>
+        <v>5.8823529411764726E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="9"/>
-        <v>5.8823529411764709E-26</v>
+        <v>2.3529411764705893E-3</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0199480535103191</v>
+        <v>8.05774142790073</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9074448068547047</v>
+        <v>7.9345265062658337</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>5.6494117647058828E-26</v>
+        <v>2.2597647058823539E-3</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -11859,43 +13387,43 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1590893611464421E-13</v>
+        <v>-1.6831082940748533E-12</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0932176618055438</v>
+        <v>7.0932176618047764</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.2970712777856246E-13</v>
+        <v>-3.2082395900207492E-2</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0932176618052143</v>
+        <v>7.0611352659045687</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2452261444195756E-12</v>
+        <v>-3.208239590189077E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="8"/>
-        <v>5.5555555555555559E-2</v>
+        <v>5.5555555555555566E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="9"/>
-        <v>5.5555555555555555E-26</v>
+        <v>2.2222222222222231E-3</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9684630317489242</v>
+        <v>8.0023744189009438</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8595490924401128</v>
+        <v>7.8965865993427151</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
-        <v>5.335555555555555E-26</v>
+        <v>2.1342222222222227E-3</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -11912,43 +13440,43 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3599813661344235E-13</v>
+        <v>-5.2284138309192757E-13</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9513533085710666</v>
+        <v>6.9513533085698072</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.7129584758866631E-13</v>
+        <v>9.569591430971823E-2</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9513533085702957</v>
+        <v>7.047049222879525</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4638958368304884E-14</v>
+        <v>9.5695914309194663E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>5.2631578947368425E-2</v>
+        <v>5.2631578947368432E-2</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
-        <v>5.2631578947368422E-26</v>
+        <v>2.1052631578947377E-3</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9149309410553119</v>
+        <v>7.9520941454261322</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8090937711139459</v>
+        <v>7.8423269305229244</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>5.0547368421052634E-26</v>
+        <v>2.0218947368421058E-3</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -11965,23 +13493,23 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4222654454041443E-13</v>
+        <v>-9.7204126855817133E-13</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8123262423998661</v>
+        <v>6.812326242397952</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2512723512927241E-12</v>
+        <v>3.1878345246215571E-2</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8123262424011175</v>
+        <v>6.8442045876441675</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1938006966593093E-12</v>
+        <v>3.18783452452438E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="8"/>
@@ -11989,19 +13517,19 @@
       </c>
       <c r="M31">
         <f t="shared" si="9"/>
-        <v>4.9999999999999996E-26</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8598007061226021</v>
+        <v>7.8966996675370336</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7566323222342053</v>
+        <v>7.7930522625176097</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
-        <v>4.8019999999999994E-26</v>
+        <v>1.9208000000000003E-3</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -12018,23 +13546,23 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4991212661664547E-12</v>
+        <v>9.2990618894162903E-13</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6760797175524447</v>
+        <v>6.6760797175518753</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1999057591539718E-14</v>
+        <v>8.9250371844898282E-3</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>6.676079717552537</v>
+        <v>6.6850047547363651</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5916157281026244E-12</v>
+        <v>8.9250371854197041E-3</v>
       </c>
       <c r="L32">
         <f t="shared" si="8"/>
@@ -12042,19 +13570,19 @@
       </c>
       <c r="M32">
         <f t="shared" si="9"/>
-        <v>4.7619047619047611E-26</v>
+        <v>1.9047619047619052E-3</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8034330400002183</v>
+        <v>7.8389999097846204</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7026046920001496</v>
+        <v>7.7387656741862925</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
-        <v>4.5733333333333324E-26</v>
+        <v>1.8293333333333336E-3</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -12071,23 +13599,23 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5086354165310724E-13</v>
+        <v>-1.2808183600264604E-12</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5425581231990755</v>
+        <v>6.5425581231986456</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5307526221452929E-12</v>
+        <v>0.26631468198131686</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5425581231975452</v>
+        <v>6.8088728051799627</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.3812063432160357E-12</v>
+        <v>0.26631468198003638</v>
       </c>
       <c r="L33">
         <f t="shared" si="8"/>
@@ -12095,19 +13623,19 @@
       </c>
       <c r="M33">
         <f t="shared" si="9"/>
-        <v>4.5454545454545447E-26</v>
+        <v>1.8181818181818186E-3</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="10"/>
-        <v>7.7461205437819149</v>
+        <v>7.7921759504844088</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6473643792002139</v>
+        <v>7.6822199115889278</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>4.3654545454545446E-26</v>
+        <v>1.7461818181818184E-3</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -12124,43 +13652,43 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>3.830096627239839E-13</v>
+        <v>1.600965476252075E-12</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4117069607363106</v>
+        <v>6.4117069607375292</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4835723289975787E-13</v>
+        <v>0.27642335238105004</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4117069607361623</v>
+        <v>6.6881303131185792</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3447910280083306E-13</v>
+        <v>0.27642335238265137</v>
       </c>
       <c r="L34">
         <f t="shared" si="8"/>
-        <v>4.3478260869565209E-2</v>
+        <v>4.3478260869565223E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="9"/>
-        <v>4.347826086956521E-26</v>
+        <v>1.7391304347826092E-3</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6881025619103607</v>
+        <v>7.744173966251112</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5911981329062765</v>
+        <v>7.6363324314747203</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
-        <v>4.1756521739130428E-26</v>
+        <v>1.6702608695652178E-3</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -12177,43 +13705,43 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8125296853059144E-13</v>
+        <v>5.0408624960746603E-13</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2834728215216904</v>
+        <v>6.2834728215217135</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7272181653926671E-12</v>
+        <v>0.2621689753175756</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2834728215234179</v>
+        <v>6.5456417968392895</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2088997297942115E-12</v>
+        <v>0.26216897531808048</v>
       </c>
       <c r="L35">
         <f t="shared" si="8"/>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>4.1666666666666663E-26</v>
+        <v>1.6666666666666672E-3</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="10"/>
-        <v>7.629576322727571</v>
+        <v>7.6942351258589525</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5343405106721537</v>
+        <v>7.5892904869260898</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
-        <v>4.0016666666666657E-26</v>
+        <v>1.6006666666666671E-3</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -12230,43 +13758,43 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.3494630215923413E-15</v>
+        <v>2.1033944596737703E-13</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1578033650907775</v>
+        <v>6.1578033650909951</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3534226681439106E-13</v>
+        <v>-2.7498724706085966E-2</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1578033650906425</v>
+        <v>6.1303046403849093</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.4210854715202004E-13</v>
+        <v>-2.7498724705875333E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="8"/>
-        <v>3.9999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M36">
         <f t="shared" si="9"/>
-        <v>3.9999999999999996E-26</v>
+        <v>1.6000000000000005E-3</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5707054044220943</v>
+        <v>7.6316779064399904</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="11"/>
-        <v>7.4769847962730198</v>
+        <v>7.5403504233417733</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
-        <v>3.8415999999999993E-26</v>
+        <v>1.5366400000000004E-3</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -12283,43 +13811,43 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8110107287170465E-12</v>
+        <v>-5.4882361855537653E-13</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0346472977907801</v>
+        <v>6.0346472977884202</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.193421612154783E-13</v>
+        <v>-6.8316308164335079E-2</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0346472977902605</v>
+        <v>5.966330989624085</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2914114222439821E-12</v>
+        <v>-6.8316308164884099E-2</v>
       </c>
       <c r="L37">
         <f t="shared" si="8"/>
-        <v>3.8461538461538457E-2</v>
+        <v>3.8461538461538471E-2</v>
       </c>
       <c r="M37">
         <f t="shared" si="9"/>
-        <v>3.8461538461538461E-26</v>
+        <v>1.5384615384615389E-3</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5116262464747159</v>
+        <v>7.567626101947071</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="11"/>
-        <v>7.4192912963336521</v>
+        <v>7.4790443483111906</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
-        <v>3.6938461538461538E-26</v>
+        <v>1.477538461538462E-3</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -12336,23 +13864,23 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2778978308148077E-13</v>
+        <v>-1.3466047962774159E-12</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9139543518322615</v>
+        <v>5.9139543518318431</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4522479686999475E-13</v>
+        <v>0.14056201267177862</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9139543518327065</v>
+        <v>6.0545163645036215</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.8316906031686813E-13</v>
+        <v>0.14056201267043189</v>
       </c>
       <c r="L38">
         <f t="shared" si="8"/>
@@ -12360,19 +13888,19 @@
       </c>
       <c r="M38">
         <f t="shared" si="9"/>
-        <v>3.7037037037037035E-26</v>
+        <v>1.4814814814814818E-3</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="10"/>
-        <v>7.4524532133398269</v>
+        <v>7.5115850005602764</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3613937215452214</v>
+        <v>7.4162735799081299</v>
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
-        <v>3.5570370370370367E-26</v>
+        <v>1.4228148148148151E-3</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -12389,43 +13917,43 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5043092475464255E-13</v>
+        <v>-3.1652861694240188E-13</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7956752647963761</v>
+        <v>5.79567526479621</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6701824438166527E-12</v>
+        <v>0.14379226257154251</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7956752647980458</v>
+        <v>5.9394675273677526</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5196732761069143E-12</v>
+        <v>0.14379226257122646</v>
       </c>
       <c r="L39">
         <f t="shared" si="8"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.5714285714285719E-2</v>
       </c>
       <c r="M39">
         <f t="shared" si="9"/>
-        <v>3.571428571428571E-26</v>
+        <v>1.428571428571429E-3</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3932825723204774</v>
+        <v>7.4554379479462574</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3034041490730299</v>
+        <v>7.3613533005490712</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
-        <v>3.4299999999999995E-26</v>
+        <v>1.3720000000000004E-3</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -12442,23 +13970,23 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3812803606561544E-12</v>
+        <v>-6.8891711881070317E-13</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6797617594992147</v>
+        <v>5.6797617594999066</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4150179060959213E-13</v>
+        <v>-9.147158553554037E-2</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6797617594997565</v>
+        <v>5.5882901739643662</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.3932860661661834E-13</v>
+        <v>-9.1471585536229583E-2</v>
       </c>
       <c r="L40">
         <f t="shared" si="8"/>
@@ -12466,19 +13994,19 @@
       </c>
       <c r="M40">
         <f t="shared" si="9"/>
-        <v>3.4482758620689652E-26</v>
+        <v>1.3793103448275868E-3</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3341956477404526</v>
+        <v>7.3910535419468815</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2454169208740673</v>
+        <v>7.3063291889873323</v>
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
-        <v>3.3117241379310341E-26</v>
+        <v>1.3246896551724144E-3</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -12495,43 +14023,43 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9350366898081594E-12</v>
+        <v>1.9750651963168325E-13</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5661665243086489</v>
+        <v>5.5661665243107814</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2780750714675875E-12</v>
+        <v>4.6371323912833384E-2</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5661665243073708</v>
+        <v>5.6125378482236146</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.2134295224750531E-12</v>
+        <v>4.6371323913030338E-2</v>
       </c>
       <c r="L41">
         <f t="shared" si="8"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.333333333333334E-2</v>
       </c>
       <c r="M41">
         <f t="shared" si="9"/>
-        <v>3.3333333333333331E-26</v>
+        <v>1.3333333333333339E-3</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="10"/>
-        <v>7.275261343626017</v>
+        <v>7.331769685489439</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1875117347856436</v>
+        <v>7.2432324711079437</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
-        <v>3.2013333333333331E-26</v>
+        <v>1.2805333333333337E-3</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -12548,43 +14076,43 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1650781116213666E-14</v>
+        <v>1.5420217523771591E-12</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4548431938244146</v>
+        <v>5.4548431938259148</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1176808245529657E-13</v>
+        <v>-0.14822035148222765</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4548431938245265</v>
+        <v>5.3066228423436872</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5365486660812167E-13</v>
+        <v>-0.14822035148068569</v>
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
-        <v>3.2258064516129031E-2</v>
+        <v>3.2258064516129038E-2</v>
       </c>
       <c r="M42">
         <f t="shared" si="9"/>
-        <v>3.2258064516129032E-26</v>
+        <v>1.2903225806451619E-3</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2165381775033879</v>
+        <v>7.2664423679686081</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1297561167534962</v>
+        <v>7.1851342917796499</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
-        <v>3.0980645161290321E-26</v>
+        <v>1.2392258064516134E-3</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -12601,43 +14129,43 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2577186724051428E-12</v>
+        <v>3.7079214997575105E-13</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3457463299466275</v>
+        <v>5.3457463299482555</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.1158763052508257E-13</v>
+        <v>0.10011268703316145</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="7"/>
-        <v>5.345746329945916</v>
+        <v>5.4458590169814167</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9690915564751776E-12</v>
+        <v>0.1001126870335316</v>
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
-        <v>3.125E-2</v>
+        <v>3.1250000000000014E-2</v>
       </c>
       <c r="M43">
         <f t="shared" si="9"/>
-        <v>3.1249999999999998E-26</v>
+        <v>1.2500000000000007E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="10"/>
-        <v>7.1580759322672165</v>
+        <v>7.2095491382502583</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0722074139533202</v>
+        <v>7.121113520609236</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
-        <v>3.0012500000000001E-26</v>
+        <v>1.2005000000000006E-3</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -12658,43 +14186,43 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2454091957071477E-13</v>
+        <v>-2.5074749056926182E-13</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2388314033498515</v>
+        <v>5.2388314033486765</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6148583047894875E-13</v>
+        <v>4.6743728367479448E-2</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="7"/>
-        <v>5.238831403350213</v>
+        <v>5.2855751317161559</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2860823517257813E-12</v>
+        <v>4.6743728367228954E-2</v>
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
-        <v>3.0303030303030304E-2</v>
+        <v>3.0303030303030314E-2</v>
       </c>
       <c r="M44">
         <f t="shared" si="9"/>
-        <v>3.0303030303030302E-26</v>
+        <v>1.2121212121212128E-3</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="10"/>
-        <v>7.0999170071485196</v>
+        <v>7.1512468956280131</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="11"/>
-        <v>7.014914413621872</v>
+        <v>7.0653581554852529</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
-        <v>2.9103030303030299E-26</v>
+        <v>1.1641212121212127E-3</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
@@ -12715,43 +14243,43 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4037263969471085E-13</v>
+        <v>5.6949245855836497E-13</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>5.134054775282288</v>
+        <v>5.1340547752825172</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>3.468339499363388E-13</v>
+        <v>-0.20372012339552567</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1340547752826353</v>
+        <v>4.9303346518869917</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8745009684789693E-13</v>
+        <v>-0.20372012339495615</v>
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>2.9411764705882356E-2</v>
+        <v>2.9411764705882363E-2</v>
       </c>
       <c r="M45">
         <f t="shared" si="9"/>
-        <v>2.9411764705882349E-26</v>
+        <v>1.1764705882352947E-3</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="10"/>
-        <v>7.0420975297406994</v>
+        <v>7.0859259472826892</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9579186670055488</v>
+        <v>7.0082219577154525</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
-        <v>2.8247058823529408E-26</v>
+        <v>1.129882352941177E-3</v>
       </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="5"/>
@@ -12772,43 +14300,43 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0699280007835554E-12</v>
+        <v>1.0055745047082295E-12</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0313736797773787</v>
+        <v>5.0313736797773139</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3306004762314159E-13</v>
+        <v>0.19255818030676536</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0313736797776114</v>
+        <v>5.2239318600840789</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3029577417000837E-12</v>
+        <v>0.1925581803077705</v>
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>2.8571428571428571E-2</v>
+        <v>2.8571428571428581E-2</v>
       </c>
       <c r="M46">
         <f t="shared" si="9"/>
-        <v>2.8571428571428567E-26</v>
+        <v>1.1428571428571434E-3</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="10"/>
-        <v>6.9846482768846112</v>
+        <v>7.0327261162198713</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9012555791458849</v>
+        <v>6.9442074283370356</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
-        <v>2.7439999999999992E-26</v>
+        <v>1.0976000000000004E-3</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="5"/>
@@ -12829,43 +14357,43 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7454356560854017E-13</v>
+        <v>8.1066927656384796E-13</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>4.930746206180407</v>
+        <v>4.9307462061815928</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.6027118140281283E-13</v>
+        <v>-6.9957661667428856E-3</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
-        <v>4.930746206179947</v>
+        <v>4.9237504400148495</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.3488771451811772E-13</v>
+        <v>-6.9957661659323378E-3</v>
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>2.7777777777777776E-2</v>
+        <v>2.7777777777777787E-2</v>
       </c>
       <c r="M47">
         <f t="shared" si="9"/>
-        <v>2.7777777777777772E-26</v>
+        <v>1.1111111111111115E-3</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="10"/>
-        <v>6.9275954415872594</v>
+        <v>6.9741434585475099</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8449553113469186</v>
+        <v>6.8920715938954737</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
-        <v>2.6677777777777769E-26</v>
+        <v>1.0671111111111113E-3</v>
       </c>
       <c r="Q47" s="7"/>
       <c r="R47" s="5"/>
@@ -12886,43 +14414,43 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2446469600856794E-13</v>
+        <v>1.7974121160350162E-12</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8321312820574907</v>
+        <v>4.8321312820589641</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8791812840035844E-14</v>
+        <v>0.17474109047036598</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="7"/>
-        <v>4.832131282057559</v>
+        <v>5.0068723725293305</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9257486150745535E-13</v>
+        <v>0.17474109047216402</v>
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>2.7027027027027025E-2</v>
+        <v>2.7027027027027032E-2</v>
       </c>
       <c r="M48">
         <f t="shared" si="9"/>
-        <v>2.7027027027027022E-26</v>
+        <v>1.0810810810810815E-3</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8709612751134834</v>
+        <v>6.9209739697362078</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7890435327555139</v>
+        <v>6.8346605893765595</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
-        <v>2.5956756756756747E-26</v>
+        <v>1.0382702702702706E-3</v>
       </c>
       <c r="Q48" s="7"/>
       <c r="R48" s="5"/>
@@ -12943,43 +14471,43 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>8.871101145759983E-14</v>
+        <v>6.7632168613722954E-14</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7354886564161118</v>
+        <v>4.7354886564160905</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6702552229675398E-12</v>
+        <v>6.9513600014195598E-2</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7354886564177825</v>
+        <v>4.8050022564302859</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7594814494259481E-12</v>
+        <v>6.9513600014262877E-2</v>
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>2.6315789473684206E-2</v>
+        <v>2.6315789473684216E-2</v>
       </c>
       <c r="M49">
         <f t="shared" si="9"/>
-        <v>2.6315789473684205E-26</v>
+        <v>1.0526315789473688E-3</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8147646272530702</v>
+        <v>6.8652905035965786</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7335420496112137</v>
+        <v>6.7825544903414832</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
-        <v>2.5273684210526311E-26</v>
+        <v>1.0109473684210529E-3</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="5"/>
@@ -13000,43 +14528,43 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1251608574168764E-13</v>
+        <v>1.3856255129788714E-12</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6407788832880152</v>
+        <v>4.6407788832890882</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.1977411232026648E-13</v>
+        <v>-0.14833059310645702</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6407788832873953</v>
+        <v>4.4924482901826313</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.0730973321624333E-13</v>
+        <v>-0.14833059310507135</v>
       </c>
       <c r="L50">
         <f t="shared" si="8"/>
-        <v>2.564102564102564E-2</v>
+        <v>2.5641025641025647E-2</v>
       </c>
       <c r="M50">
         <f t="shared" si="9"/>
-        <v>2.5641025641025636E-26</v>
+        <v>1.0256410256410261E-3</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7590214030488225</v>
+        <v>6.8044483955603239</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="11"/>
-        <v>6.6784693347080086</v>
+        <v>6.7279846935246468</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
-        <v>2.4625641025641021E-26</v>
+        <v>9.8502564102564147E-4</v>
       </c>
       <c r="Q50" s="7"/>
       <c r="R50" s="5"/>
@@ -13057,43 +14585,43 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2077613082474763E-13</v>
+        <v>1.305956264741537E-12</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5479633056218276</v>
+        <v>4.547963305623254</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>3.143942856014711E-12</v>
+        <v>-3.3958396002814709E-2</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5479633056249718</v>
+        <v>4.5140049096204393</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0233593406592263E-12</v>
+        <v>-3.3958396001509072E-2</v>
       </c>
       <c r="L51">
         <f t="shared" si="8"/>
-        <v>2.4999999999999994E-2</v>
+        <v>2.5000000000000005E-2</v>
       </c>
       <c r="M51">
         <f t="shared" si="9"/>
-        <v>2.4999999999999995E-26</v>
+        <v>1.0000000000000005E-3</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7037449506132258</v>
+        <v>6.747187308411827</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="11"/>
-        <v>6.6238409749878455</v>
+        <v>6.6683594276491176</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
-        <v>2.4009999999999994E-26</v>
+        <v>9.6040000000000036E-4</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="5"/>
@@ -13114,43 +14642,43 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8016253737851548E-15</v>
+        <v>-4.8385157996200477E-13</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>4.457004039509501</v>
+        <v>4.4570040395090249</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2313093628073985E-13</v>
+        <v>-2.3984008909075236E-2</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4570040395093775</v>
+        <v>4.4330200305999501</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3145040611561853E-13</v>
+        <v>-2.3984008909558874E-2</v>
       </c>
       <c r="L52">
         <f t="shared" si="8"/>
-        <v>2.4390243902439022E-2</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="M52">
         <f t="shared" si="9"/>
-        <v>2.439024390243902E-26</v>
+        <v>9.7560975609756141E-4</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6489463918058149</v>
+        <v>6.6907442040749521</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5696700516009612</v>
+        <v>6.6122435622435907</v>
       </c>
       <c r="P52">
         <f t="shared" si="4"/>
-        <v>2.3424390243902434E-26</v>
+        <v>9.3697560975609798E-4</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="5"/>
@@ -13171,43 +14699,43 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7735296064462769E-14</v>
+        <v>-1.2030950352214825E-12</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3678639587192212</v>
+        <v>4.3678639587181154</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3529298758871906E-13</v>
+        <v>0.33800487028019649</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3678639587199566</v>
+        <v>4.7058688289983115</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3771210534468992E-13</v>
+        <v>0.33800487027899262</v>
       </c>
       <c r="L53">
         <f t="shared" si="8"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3809523809523815E-2</v>
       </c>
       <c r="M53">
         <f t="shared" si="9"/>
-        <v>2.3809523809523806E-26</v>
+        <v>9.5238095238095281E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="10"/>
-        <v>6.5946349053037707</v>
+        <v>6.6434852665731272</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5159674639696989</v>
+        <v>6.5569293199934533</v>
       </c>
       <c r="P53">
         <f t="shared" si="4"/>
-        <v>2.2866666666666662E-26</v>
+        <v>9.1466666666666703E-4</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="5"/>
@@ -13228,43 +14756,43 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.078450110860374E-13</v>
+        <v>6.7836721435868531E-13</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2805066795440245</v>
+        <v>4.2805066795456108</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.288060505711047E-13</v>
+        <v>0.17306799209734453</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2805066795430955</v>
+        <v>4.4535746716429552</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.836752971939859E-12</v>
+        <v>0.17306799209802293</v>
       </c>
       <c r="L54">
         <f t="shared" si="8"/>
-        <v>2.3255813953488372E-2</v>
+        <v>2.3255813953488379E-2</v>
       </c>
       <c r="M54">
         <f t="shared" si="9"/>
-        <v>2.3255813953488366E-26</v>
+        <v>9.3023255813953526E-4</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="10"/>
-        <v>6.5408179698209645</v>
+        <v>6.5925571132026581</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="11"/>
-        <v>6.462742207197695</v>
+        <v>6.5106155612416643</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
-        <v>2.2334883720930225E-26</v>
+        <v>8.9339534883720961E-4</v>
       </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="5"/>
@@ -13285,43 +14813,43 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7541197142066317E-13</v>
+        <v>-8.838259159440054E-13</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1948965459546095</v>
+        <v>4.1948965459531502</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.1936686774991941E-13</v>
+        <v>2.6610567378805875E-3</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1948965459536902</v>
+        <v>4.1975576026910311</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4372504842394846E-13</v>
+        <v>2.661056736997125E-3</v>
       </c>
       <c r="L55">
         <f t="shared" si="8"/>
-        <v>2.2727272727272724E-2</v>
+        <v>2.2727272727272731E-2</v>
       </c>
       <c r="M55">
         <f t="shared" si="9"/>
-        <v>2.2727272727272723E-26</v>
+        <v>9.0909090909090952E-4</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4875015738239812</v>
+        <v>6.5381253061455755</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="11"/>
-        <v>6.410001610424545</v>
+        <v>6.460705970938605</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
-        <v>2.1827272727272723E-26</v>
+        <v>8.7309090909090941E-4</v>
       </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="5"/>
@@ -13342,43 +14870,43 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1787292716049738E-13</v>
+        <v>-1.7340477877076354E-13</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1109986150354709</v>
+        <v>4.1109986150347799</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.154992789218386E-12</v>
+        <v>-0.13099814384636699</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1109986150343163</v>
+        <v>3.9800004711884132</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.3682392692498979E-13</v>
+        <v>-0.13099814384653996</v>
       </c>
       <c r="L56">
         <f t="shared" si="8"/>
-        <v>2.222222222222222E-2</v>
+        <v>2.222222222222223E-2</v>
       </c>
       <c r="M56">
         <f t="shared" si="9"/>
-        <v>2.2222222222222219E-26</v>
+        <v>8.8888888888888926E-4</v>
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4346903969619884</v>
+        <v>6.4812780875909715</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3577515423475015</v>
+        <v>6.4073628000226641</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
-        <v>2.1342222222222219E-26</v>
+        <v>8.5368888888888916E-4</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
@@ -13399,43 +14927,43 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3757976440125948E-12</v>
+        <v>1.193161153877999E-13</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0287786427328784</v>
+        <v>4.0287786427343732</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1830460168116017E-13</v>
+        <v>0.31649833682487571</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0287786427336965</v>
+        <v>4.345276979559249</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.5777604757167865E-13</v>
+        <v>0.31649833682499473</v>
       </c>
       <c r="L57">
         <f t="shared" si="8"/>
-        <v>2.1739130434782605E-2</v>
+        <v>2.1739130434782612E-2</v>
       </c>
       <c r="M57">
         <f t="shared" si="9"/>
-        <v>2.1739130434782605E-26</v>
+        <v>8.6956521739130471E-4</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3823879675222432</v>
+        <v>6.4348432808946301</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3059965890227483</v>
+        <v>6.3516525258391523</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
-        <v>2.0878260869565214E-26</v>
+        <v>8.3513043478260901E-4</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -13452,43 +14980,43 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.0921115383581621E-13</v>
+        <v>9.1353329627285637E-13</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9482030698786601</v>
+        <v>3.9482030698804826</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3198202889449727E-13</v>
+        <v>0.36230524035646267</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="7"/>
-        <v>3.9482030698791921</v>
+        <v>4.310508310236945</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.7703173916270316E-13</v>
+        <v>0.36230524035737588</v>
       </c>
       <c r="L58">
         <f t="shared" si="8"/>
-        <v>2.1276595744680851E-2</v>
+        <v>2.1276595744680857E-2</v>
       </c>
       <c r="M58">
         <f t="shared" si="9"/>
-        <v>2.1276595744680847E-26</v>
+        <v>8.5106382978723436E-4</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3305967994872852</v>
+        <v>6.3896446644976583</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="11"/>
-        <v>6.254740208171798</v>
+        <v>6.3061464152767375</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
-        <v>2.0434042553191484E-26</v>
+        <v>8.173617021276599E-4</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -13505,43 +15033,43 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0851994616493414E-12</v>
+        <v>9.7897135922729747E-13</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="6"/>
-        <v>3.869239008483063</v>
+        <v>3.8692390084829564</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5150295424877688E-12</v>
+        <v>0.30924071171587114</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="7"/>
-        <v>3.8692390084845782</v>
+        <v>4.178479720198828</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6005864128819667E-12</v>
+        <v>0.3092407117168503</v>
       </c>
       <c r="L59">
         <f t="shared" si="8"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0833333333333339E-2</v>
       </c>
       <c r="M59">
         <f t="shared" si="9"/>
-        <v>2.0833333333333329E-26</v>
+        <v>8.333333333333336E-4</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="10"/>
-        <v>6.2793185121747284</v>
+        <v>6.3435787281580991</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2039848634975394</v>
+        <v>6.2618517712077049</v>
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
-        <v>2.0008333333333328E-26</v>
+        <v>8.0033333333333356E-4</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -13558,43 +15086,43 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1652529145489936E-12</v>
+        <v>-5.3547076790688422E-13</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7918542283135035</v>
+        <v>3.7918542283118026</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.0413651158652645E-13</v>
+        <v>-0.1481559459469963</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7918542283131993</v>
+        <v>3.6436982823648063</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6108897789927141E-13</v>
+        <v>-0.1481559459475319</v>
       </c>
       <c r="L60">
         <f t="shared" si="8"/>
-        <v>2.0408163265306117E-2</v>
+        <v>2.0408163265306124E-2</v>
       </c>
       <c r="M60">
         <f t="shared" si="9"/>
-        <v>2.0408163265306116E-26</v>
+        <v>8.1632653061224515E-4</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="10"/>
-        <v>6.2285539349530641</v>
+        <v>6.2884791272235425</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1537321419312336</v>
+        <v>6.2167071535949372</v>
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
-        <v>1.9599999999999993E-26</v>
+        <v>7.8400000000000019E-4</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -13611,43 +15139,43 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0897809334399148E-12</v>
+        <v>-1.3970014517299047E-12</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7160171437471812</v>
+        <v>3.7160171437446943</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2375661177657154E-13</v>
+        <v>-3.6891800750262459E-2</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7160171437481049</v>
+        <v>3.6791253429944319</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0135004774601839E-12</v>
+        <v>-3.6891800751659432E-2</v>
       </c>
       <c r="L61">
         <f t="shared" si="8"/>
-        <v>1.9999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="M61">
         <f t="shared" si="9"/>
-        <v>1.9999999999999992E-26</v>
+        <v>8.0000000000000026E-4</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="10"/>
-        <v>6.1783031991289645</v>
+        <v>6.2362920515389604</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1039828562540031</v>
+        <v>6.1627095446790712</v>
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
-        <v>1.9207999999999993E-26</v>
+        <v>7.6832000000000018E-4</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -13664,43 +15192,43 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9317471951091058E-13</v>
+        <v>1.3776929739775125E-12</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6416968008703763</v>
+        <v>3.641696800872547</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2197991585457356E-12</v>
+        <v>-0.15899595097902597</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6416968008691564</v>
+        <v>3.4827008498935212</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.0130563882503338E-12</v>
+        <v>-0.15899595097764818</v>
       </c>
       <c r="L62">
         <f t="shared" si="8"/>
-        <v>1.9607843137254898E-2</v>
+        <v>1.9607843137254905E-2</v>
       </c>
       <c r="M62">
         <f t="shared" si="9"/>
-        <v>1.9607843137254895E-26</v>
+        <v>7.8431372549019626E-4</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="10"/>
-        <v>6.1285658187709293</v>
+        <v>6.1823000671929718</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="11"/>
-        <v>6.054737135146385</v>
+        <v>6.1115662105081814</v>
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
-        <v>1.8831372549019601E-26</v>
+        <v>7.5325490196078446E-4</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -13717,43 +15245,43 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6668528540768038E-13</v>
+        <v>-1.090407477429988E-12</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5688628648532794</v>
+        <v>3.5688628648526559</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4011606036667371E-13</v>
+        <v>-0.28901790168582703</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5688628648538194</v>
+        <v>3.2798449631668287</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3274719625260332E-14</v>
+        <v>-0.28901790168691743</v>
       </c>
       <c r="L63">
         <f t="shared" si="8"/>
-        <v>1.9230769230769225E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="M63">
         <f t="shared" si="9"/>
-        <v>1.9230769230769222E-26</v>
+        <v>7.6923076923076934E-4</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="10"/>
-        <v>6.079340761964831</v>
+        <v>6.126483622884777</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="11"/>
-        <v>6.0059945023955104</v>
+        <v>6.0586540658491126</v>
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
-        <v>1.846923076923076E-26</v>
+        <v>7.3876923076923089E-4</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -13770,43 +15298,43 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3427051272812542E-13</v>
+        <v>1.4321589510744885E-12</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4974856075562371</v>
+        <v>3.4974856075581036</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.2498276333421364E-13</v>
+        <v>0.14654560249404353</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4974856075560119</v>
+        <v>3.6440312100521473</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.5947247662734299E-13</v>
+        <v>0.14654560249547588</v>
       </c>
       <c r="L64">
         <f t="shared" si="8"/>
-        <v>1.8867924528301879E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="M64">
         <f t="shared" si="9"/>
-        <v>1.8867924528301878E-26</v>
+        <v>7.5471698113207554E-4</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="10"/>
-        <v>6.0306265137684383</v>
+        <v>6.07964489811435</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9577539467255338</v>
+        <v>6.0039539504270811</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
-        <v>1.8120754716981122E-26</v>
+        <v>7.2483018867924528E-4</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -13823,43 +15351,43 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5338691053839383E-13</v>
+        <v>9.248934860883134E-13</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4275358954061912</v>
+        <v>3.427535895406463</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4545164948262471E-13</v>
+        <v>0.14633907853400477</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4275358954066366</v>
+        <v>3.5738749739404678</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0986767051690549E-12</v>
+        <v>0.14633907853492989</v>
       </c>
       <c r="L65">
         <f t="shared" si="8"/>
-        <v>1.8518518518518511E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="M65">
         <f t="shared" si="9"/>
-        <v>1.8518518518518509E-26</v>
+        <v>7.4074074074074081E-4</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="10"/>
-        <v>5.9824211319469232</v>
+        <v>6.0332417513703893</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9100139834930694</v>
+        <v>5.9580520001520627</v>
       </c>
       <c r="P65">
         <f t="shared" si="4"/>
-        <v>1.7785185185185175E-26</v>
+        <v>7.1140740740740745E-4</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -13876,43 +15404,43 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5844440584083466E-13</v>
+        <v>-5.8371301284952871E-13</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3589851774976855</v>
+        <v>3.3589851774968436</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0987196280821323E-12</v>
+        <v>-0.16009778608241249</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3589851774987842</v>
+        <v>3.1988873914144311</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3571366253017914E-12</v>
+        <v>-0.16009778608299596</v>
       </c>
       <c r="L66">
         <f t="shared" si="8"/>
-        <v>1.8181818181818174E-2</v>
+        <v>1.8181818181818177E-2</v>
       </c>
       <c r="M66">
         <f t="shared" si="9"/>
-        <v>1.8181818181818171E-26</v>
+        <v>7.2727272727272734E-4</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="10"/>
-        <v>5.9347222964115023</v>
+        <v>5.981708035734826</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8627727093079844</v>
+        <v>5.9125769163429815</v>
       </c>
       <c r="P66">
         <f t="shared" si="4"/>
-        <v>1.746181818181817E-26</v>
+        <v>6.9847272727272729E-4</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -13929,43 +15457,43 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7579484351452955E-13</v>
+        <v>-1.046700066322131E-12</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2918054739468028</v>
+        <v>3.291805473946432</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8838969711733644E-13</v>
+        <v>6.4351455354958981E-2</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2918054739474911</v>
+        <v>3.3561569293013909</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2434497875801753E-14</v>
+        <v>6.4351455353912179E-2</v>
       </c>
       <c r="L67">
         <f t="shared" si="8"/>
-        <v>1.7857142857142849E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="M67">
         <f t="shared" si="9"/>
-        <v>1.7857142857142849E-26</v>
+        <v>7.1428571428571429E-4</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8875273531532164</v>
+        <v>5.9348231945485148</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8160278504832723</v>
+        <v>5.8620738750201298</v>
       </c>
       <c r="P67">
         <f t="shared" si="4"/>
-        <v>1.7149999999999992E-26</v>
+        <v>6.8599999999999998E-4</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -13982,23 +15510,23 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2109170875283534E-13</v>
+        <v>-2.0011757777501549E-13</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2259693644677081</v>
+        <v>3.2259693644683289</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4305254034492417E-12</v>
+        <v>2.0753180950951813E-2</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2259693644691385</v>
+        <v>3.246722545419281</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0929039591428591E-13</v>
+        <v>2.0753180950751737E-2</v>
       </c>
       <c r="L68">
         <f t="shared" si="8"/>
@@ -14006,19 +15534,19 @@
       </c>
       <c r="M68">
         <f t="shared" si="9"/>
-        <v>1.7543859649122799E-26</v>
+        <v>7.0175438596491234E-4</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8408333533517416</v>
+        <v>5.8876635340374754</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7697768060901522</v>
+        <v>5.8161267306575448</v>
       </c>
       <c r="P68">
         <f t="shared" si="4"/>
-        <v>1.6849122807017534E-26</v>
+        <v>6.7396491228070181E-4</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -14035,43 +15563,43 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3821601276095118E-12</v>
+        <v>6.6356505324152891E-13</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1614499771777766</v>
+        <v>3.1614499771798221</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8137557559868056E-12</v>
+        <v>0.33664094654041193</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="7"/>
-        <v>3.161449977175963</v>
+        <v>3.498090923720234</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.1956659540810506E-12</v>
+        <v>0.33664094654107535</v>
       </c>
       <c r="L69">
         <f t="shared" si="8"/>
-        <v>1.724137931034482E-2</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="M69">
         <f t="shared" si="9"/>
-        <v>1.724137931034482E-26</v>
+        <v>6.8965517241379316E-4</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7946370882452625</v>
+        <v>5.8464640062733855</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7240166862847071</v>
+        <v>5.7699102633567261</v>
       </c>
       <c r="P69">
         <f t="shared" si="4"/>
-        <v>1.6558620689655165E-26</v>
+        <v>6.6234482758620696E-4</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -14088,23 +15616,23 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8675768928314632E-12</v>
+        <v>-4.5363825295440867E-13</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0982209776337082</v>
+        <v>3.0982209776351217</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.2299835665468818E-14</v>
+        <v>-0.10918932134968634</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="7"/>
-        <v>3.098220977633646</v>
+        <v>2.9890316562854355</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.9295676167985221E-12</v>
+        <v>-0.10918932135014003</v>
       </c>
       <c r="L70">
         <f t="shared" si="8"/>
@@ -14112,19 +15640,19 @@
       </c>
       <c r="M70">
         <f t="shared" si="9"/>
-        <v>1.6949152542372875E-26</v>
+        <v>6.779661016949153E-4</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7489351202687944</v>
+        <v>5.7980329494939289</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6787443464803573</v>
+        <v>5.7295347261479179</v>
       </c>
       <c r="P70">
         <f t="shared" si="4"/>
-        <v>1.6277966101694908E-26</v>
+        <v>6.5111864406779661E-4</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -14141,23 +15669,23 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0456716042686165E-12</v>
+        <v>-1.2877458353247304E-13</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0362565580818184</v>
+        <v>3.0362565580827354</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8869538542352036E-13</v>
+        <v>1.7519253030763949E-2</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0362565580824072</v>
+        <v>3.0537758111134994</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.5696779693571443E-13</v>
+        <v>1.7519253030635173E-2</v>
       </c>
       <c r="L71">
         <f t="shared" si="8"/>
@@ -14165,19 +15693,19 @@
       </c>
       <c r="M71">
         <f t="shared" si="9"/>
-        <v>1.6666666666666663E-26</v>
+        <v>6.6666666666666675E-4</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7037238108990209</v>
+        <v>5.7522953305209219</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6339564178634181</v>
+        <v>5.6820722905040499</v>
       </c>
       <c r="P71">
         <f t="shared" si="4"/>
-        <v>1.6006666666666663E-26</v>
+        <v>6.4026666666666676E-4</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -14194,23 +15722,23 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8113275492368577E-13</v>
+        <v>1.1713036314579264E-12</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9755314269209259</v>
+        <v>2.9755314269223785</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.2357976109138699E-13</v>
+        <v>0.28581869208267335</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9755314269204023</v>
+        <v>3.2613501190050518</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.0468964824831346E-13</v>
+        <v>0.28581869208384481</v>
       </c>
       <c r="L72">
         <f t="shared" si="8"/>
@@ -14218,19 +15746,19 @@
       </c>
       <c r="M72">
         <f t="shared" si="9"/>
-        <v>1.6393442622950814E-26</v>
+        <v>6.5573770491803289E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6589993455878957</v>
+        <v>5.711460163119022</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5896493346810407</v>
+        <v>5.6372494239105038</v>
       </c>
       <c r="P72">
         <f t="shared" si="4"/>
-        <v>1.574426229508196E-26</v>
+        <v>6.2977049180327886E-4</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -14247,43 +15775,43 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5067388877983197E-14</v>
+        <v>1.0509106818964853E-12</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9160207983827475</v>
+        <v>2.9160207983838333</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.3079888583834855E-13</v>
+        <v>2.4652170496815718E-3</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9160207983823168</v>
+        <v>2.918486015433515</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.6584958113271568E-13</v>
+        <v>2.4652170507324378E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="8"/>
-        <v>1.6129032258064512E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="M73">
         <f t="shared" si="9"/>
-        <v>1.612903225806451E-26</v>
+        <v>6.4516129032258075E-4</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6147577561168385</v>
+        <v>5.6664121929950619</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5458193586761375</v>
+        <v>5.5972309598566419</v>
       </c>
       <c r="P73">
         <f t="shared" si="4"/>
-        <v>1.5490322580645155E-26</v>
+        <v>6.196129032258065E-4</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -14300,43 +15828,43 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2145550267821071E-13</v>
+        <v>2.084511788052258E-12</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8577003824150058</v>
+        <v>2.8577003824172116</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2270260816512398E-12</v>
+        <v>-0.25820936213638496</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8577003824162328</v>
+        <v>2.5994910202808268</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1057821325266559E-12</v>
+        <v>-0.25820936213430024</v>
       </c>
       <c r="L74">
         <f t="shared" si="8"/>
-        <v>1.5873015873015869E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="M74">
         <f t="shared" si="9"/>
-        <v>1.5873015873015868E-26</v>
+        <v>6.3492063492063503E-4</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5709949406612731</v>
+        <v>5.6177309045392807</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5024626009945017</v>
+        <v>5.5530839491351607</v>
       </c>
       <c r="P74">
         <f t="shared" si="4"/>
-        <v>1.524444444444444E-26</v>
+        <v>6.0977777777777788E-4</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -14353,43 +15881,43 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0009365154458875E-13</v>
+        <v>-1.9324795952292328E-13</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8005463747672246</v>
+        <v>2.8005463747666313</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5053822469381523E-14</v>
+        <v>-0.17037804620504882</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8005463747673098</v>
+        <v>2.6301683285615827</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8538950636611844E-13</v>
+        <v>-0.17037804620524177</v>
       </c>
       <c r="L75">
         <f t="shared" si="8"/>
-        <v>1.5624999999999997E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="M75">
         <f t="shared" si="9"/>
-        <v>1.5624999999999996E-26</v>
+        <v>6.2500000000000012E-4</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="10"/>
-        <v>5.52770668181918</v>
+        <v>5.5710502392896295</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4595750418480478</v>
+        <v>5.5053762864484952</v>
       </c>
       <c r="P75">
         <f t="shared" si="4"/>
-        <v>1.5006249999999998E-26</v>
+        <v>6.0025000000000009E-4</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -14406,43 +15934,43 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8899524614877775E-14</v>
+        <v>1.2267331132800329E-12</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7445354472715469</v>
+        <v>2.7445354472727144</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1276713686772954E-13</v>
+        <v>9.943651071503834E-2</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7445354472722596</v>
+        <v>2.8439719579877529</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7182704671940883E-13</v>
+        <v>9.9436510716265136E-2</v>
       </c>
       <c r="L76">
         <f t="shared" si="8"/>
-        <v>1.538461538461538E-2</v>
+        <v>1.5384615384615384E-2</v>
       </c>
       <c r="M76">
         <f t="shared" si="9"/>
-        <v>1.5384615384615381E-26</v>
+        <v>6.1538461538461551E-4</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="10"/>
-        <v>5.4848886628261502</v>
+        <v>5.5290951888080624</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4171525481827967</v>
+        <v>5.4596292345038364</v>
       </c>
       <c r="P76">
         <f t="shared" si="4"/>
-        <v>1.4775384615384612E-26</v>
+        <v>5.9101538461538475E-4</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -14459,43 +15987,43 @@
       </c>
       <c r="E77">
         <f t="shared" ref="E77:E112" ca="1" si="13">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>-9.1224960936808743E-14</v>
+        <v>7.190112732583887E-13</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>2.689644738325967</v>
+        <v>2.689644738326777</v>
       </c>
       <c r="G77">
         <f t="shared" ref="G77:G112" ca="1" si="14">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>-4.1628901083242228E-13</v>
+        <v>5.1880082966773877E-2</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6896447383255508</v>
+        <v>2.741524821293551</v>
       </c>
       <c r="J77">
         <f t="shared" ref="J77:J112" ca="1" si="15">H77-D77</f>
-        <v>-5.0714987764877151E-13</v>
+        <v>5.1880082967493024E-2</v>
       </c>
       <c r="L77">
         <f t="shared" si="8"/>
-        <v>1.515151515151515E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="M77">
         <f t="shared" si="9"/>
-        <v>1.5151515151515148E-26</v>
+        <v>6.0606060606060617E-4</v>
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="10"/>
-        <v>5.4425364821518984</v>
+        <v>5.4868592741487516</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3751908895696268</v>
+        <v>5.4185132850319011</v>
       </c>
       <c r="P77">
         <f t="shared" ref="P77:P112" si="16">$B$2*M77*$B$2</f>
-        <v>1.4551515151515147E-26</v>
+        <v>5.8206060606060613E-4</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -14512,43 +16040,43 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.7569425521242717E-13</v>
+        <v>6.506500869069731E-13</v>
       </c>
       <c r="F78">
         <f t="shared" ref="F78:F112" ca="1" si="18">D78+E78</f>
-        <v>2.6358518435593608</v>
+        <v>2.6358518435601872</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.757538021292502E-14</v>
+        <v>-0.22052503878580412</v>
       </c>
       <c r="H78">
         <f t="shared" ref="H78:H112" ca="1" si="19">F78+G78</f>
-        <v>2.635851843559323</v>
+        <v>2.415326804774383</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="15"/>
-        <v>-2.1360690993788012E-13</v>
+        <v>-0.22052503878515362</v>
       </c>
       <c r="L78">
         <f t="shared" ref="L78:L112" si="20">M77/(M77+$N$2)</f>
-        <v>1.4925373134328354E-2</v>
+        <v>1.492537313432836E-2</v>
       </c>
       <c r="M78">
         <f t="shared" ref="M78:M112" si="21">(1-L78)*M77</f>
-        <v>1.4925373134328354E-26</v>
+        <v>5.9701492537313444E-4</v>
       </c>
       <c r="N78">
         <f t="shared" ref="N78:N112" ca="1" si="22">N77 + L78*(H78 - N77)</f>
-        <v>5.4006456666505169</v>
+        <v>5.4410155059491343</v>
       </c>
       <c r="O78">
         <f t="shared" ref="O78:O112" ca="1" si="23">$B$2*N77</f>
-        <v>5.3336857525088606</v>
+        <v>5.3771220886657769</v>
       </c>
       <c r="P78">
         <f t="shared" si="16"/>
-        <v>1.433432835820895E-26</v>
+        <v>5.7337313432835829E-4</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -14565,43 +16093,43 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1921549308940239E-14</v>
+        <v>-4.077841365293483E-13</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="18"/>
-        <v>2.5831348066883977</v>
+        <v>2.583134806687938</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.1393903884417014E-12</v>
+        <v>8.1273808243753021E-2</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="19"/>
-        <v>2.5831348066872581</v>
+        <v>2.6644086149316912</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.0875744749228033E-12</v>
+        <v>8.1273808243345513E-2</v>
       </c>
       <c r="L79">
         <f t="shared" si="20"/>
-        <v>1.4705882352941175E-2</v>
+        <v>1.4705882352941178E-2</v>
       </c>
       <c r="M79">
         <f t="shared" si="21"/>
-        <v>1.4705882352941175E-26</v>
+        <v>5.8823529411764722E-4</v>
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3592116834157633</v>
+        <v>5.4001830516694662</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2926327533175064</v>
+        <v>5.3321951958301517</v>
       </c>
       <c r="P79">
         <f t="shared" si="16"/>
-        <v>1.4123529411764704E-26</v>
+        <v>5.6494117647058837E-4</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -14618,43 +16146,43 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.5881056202374255E-12</v>
+        <v>9.8045839261493869E-13</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="18"/>
-        <v>2.5314721105529907</v>
+        <v>2.5314721105555593</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.7670836603241057E-13</v>
+        <v>2.4270905965079071E-2</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="19"/>
-        <v>2.5314721105526141</v>
+        <v>2.5557430165206383</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.964650664376677E-12</v>
+        <v>2.4270905966059519E-2</v>
       </c>
       <c r="L80">
         <f t="shared" si="20"/>
-        <v>1.4492753623188404E-2</v>
+        <v>1.4492753623188408E-2</v>
       </c>
       <c r="M80">
         <f t="shared" si="21"/>
-        <v>1.4492753623188403E-26</v>
+        <v>5.7971014492753643E-4</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3182299504757173</v>
+        <v>5.3589592830441211</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2520274497474482</v>
+        <v>5.2921793906360772</v>
       </c>
       <c r="P80">
         <f t="shared" si="16"/>
-        <v>1.3918840579710143E-26</v>
+        <v>5.5675362318840604E-4</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -14671,43 +16199,43 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="13"/>
-        <v>6.008685958236549E-13</v>
+        <v>-5.9854728374592819E-13</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4808426683440881</v>
+        <v>2.4808426683428886</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="14"/>
-        <v>5.9659478394256985E-13</v>
+        <v>0.33675505916055259</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4808426683446845</v>
+        <v>2.8175977275034412</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1972645097557688E-12</v>
+        <v>0.33675505915995396</v>
       </c>
       <c r="L81">
         <f t="shared" si="20"/>
-        <v>1.4285714285714284E-2</v>
+        <v>1.4285714285714287E-2</v>
       </c>
       <c r="M81">
         <f t="shared" si="21"/>
-        <v>1.4285714285714283E-26</v>
+        <v>5.7142857142857169E-4</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2776958464452743</v>
+        <v>5.3226541179649685</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2118653514662032</v>
+        <v>5.2517800973832385</v>
       </c>
       <c r="P81">
         <f t="shared" si="16"/>
-        <v>1.3719999999999996E-26</v>
+        <v>5.4880000000000022E-4</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -14724,43 +16252,43 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7077061961859023E-13</v>
+        <v>-8.2424291021532583E-13</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4312258149769881</v>
+        <v>2.431225814975793</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="14"/>
-        <v>2.2382997633151784E-13</v>
+        <v>8.4605071632839358E-3</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4312258149772119</v>
+        <v>2.4396863221390768</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9463545198923384E-13</v>
+        <v>8.4605071624594963E-3</v>
       </c>
       <c r="L82">
         <f t="shared" si="20"/>
-        <v>1.408450704225352E-2</v>
+        <v>1.4084507042253525E-2</v>
       </c>
       <c r="M82">
         <f t="shared" si="21"/>
-        <v>1.4084507042253518E-26</v>
+        <v>5.6338028169014109E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2376047192414985</v>
+        <v>5.2820489377420685</v>
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="23"/>
-        <v>5.1721419295163686</v>
+        <v>5.2162010356056694</v>
       </c>
       <c r="P82">
         <f t="shared" si="16"/>
-        <v>1.352676056338028E-26</v>
+        <v>5.4107042253521151E-4</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -14777,43 +16305,43 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3258254891151745E-13</v>
+        <v>-4.7984282857741021E-14</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3826012986776175</v>
+        <v>2.3826012986770371</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.9513817713071405E-13</v>
+        <v>5.4674811339659304E-2</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="19"/>
-        <v>2.3826012986770224</v>
+        <v>2.4372761100166964</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="15"/>
-        <v>-6.2616578588858829E-14</v>
+        <v>5.4674811339611384E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="20"/>
-        <v>1.3888888888888888E-2</v>
+        <v>1.3888888888888893E-2</v>
       </c>
       <c r="M83">
         <f t="shared" si="21"/>
-        <v>1.3888888888888886E-26</v>
+        <v>5.5555555555555588E-4</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="22"/>
-        <v>5.1979518939558806</v>
+        <v>5.2425382040236608</v>
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="23"/>
-        <v>5.1328526248566684</v>
+        <v>5.1764079589872267</v>
       </c>
       <c r="P83">
         <f t="shared" si="16"/>
-        <v>1.3338888888888885E-26</v>
+        <v>5.3355555555555578E-4</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -14830,43 +16358,43 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5345023590892313E-13</v>
+        <v>3.9146428041209313E-13</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3349492727039967</v>
+        <v>2.3349492727039345</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.0263667754295361E-12</v>
+        <v>0.19886026484229558</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="19"/>
-        <v>2.3349492727029704</v>
+        <v>2.53380953754623</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="15"/>
-        <v>-5.7287508070658077E-13</v>
+        <v>0.19886026484268671</v>
       </c>
       <c r="L84">
         <f t="shared" si="20"/>
-        <v>1.3698630136986299E-2</v>
+        <v>1.3698630136986306E-2</v>
       </c>
       <c r="M84">
         <f t="shared" si="21"/>
-        <v>1.3698630136986299E-26</v>
+        <v>5.4794520547945234E-4</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="22"/>
-        <v>5.1587326799661151</v>
+        <v>5.2054323318801341</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="23"/>
-        <v>5.0939928560767633</v>
+        <v>5.1376874399431873</v>
       </c>
       <c r="P84">
         <f t="shared" si="16"/>
-        <v>1.3156164383561641E-26</v>
+        <v>5.2624657534246601E-4</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -14883,43 +16411,43 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="13"/>
-        <v>6.895952976023846E-13</v>
+        <v>7.8138979597138558E-14</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="18"/>
-        <v>2.288250287250162</v>
+        <v>2.2882502872495505</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="14"/>
-        <v>8.8995419510072562E-13</v>
+        <v>4.3594266046976138E-2</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="19"/>
-        <v>2.288250287251052</v>
+        <v>2.3318445532965266</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5796253194366727E-12</v>
+        <v>4.3594266047054298E-2</v>
       </c>
       <c r="L85">
         <f t="shared" si="20"/>
-        <v>1.3513513513513513E-2</v>
+        <v>1.3513513513513518E-2</v>
       </c>
       <c r="M85">
         <f t="shared" si="21"/>
-        <v>1.3513513513513511E-26</v>
+        <v>5.4054054054054087E-4</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="22"/>
-        <v>5.1199423773618573</v>
+        <v>5.166600064601977</v>
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="23"/>
-        <v>5.0555580263667927</v>
+        <v>5.101323685242531</v>
       </c>
       <c r="P85">
         <f t="shared" si="16"/>
-        <v>1.2978378378378374E-26</v>
+        <v>5.1913513513513539E-4</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -14936,43 +16464,43 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.8819350277898909E-12</v>
+        <v>-1.3675669130759736E-12</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2424852815016005</v>
+        <v>2.2424852815031153</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.0808313392363752E-12</v>
+        <v>0.29708802180241906</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="19"/>
-        <v>2.2424852815005196</v>
+        <v>2.5395733033055343</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="15"/>
-        <v>-3.9630521087019588E-12</v>
+        <v>0.29708802180105165</v>
       </c>
       <c r="L86">
         <f t="shared" si="20"/>
-        <v>1.3333333333333332E-2</v>
+        <v>1.3333333333333339E-2</v>
       </c>
       <c r="M86">
         <f t="shared" si="21"/>
-        <v>1.333333333333333E-26</v>
+        <v>5.3333333333333368E-4</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0815762827503725</v>
+        <v>5.131573041118024</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="23"/>
-        <v>5.0175435298146205</v>
+        <v>5.0632680633099376</v>
       </c>
       <c r="P86">
         <f t="shared" si="16"/>
-        <v>1.280533333333333E-26</v>
+        <v>5.1221333333333367E-4</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -14989,43 +16517,43 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6774845759358303E-12</v>
+        <v>-1.8615214684035238E-12</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="18"/>
-        <v>2.1976355758760704</v>
+        <v>2.1976355758725314</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.623901826508434E-13</v>
+        <v>0.22720057423779233</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="19"/>
-        <v>2.1976355758758079</v>
+        <v>2.4248361501103237</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4148682225822995E-12</v>
+        <v>0.22720057423593065</v>
       </c>
       <c r="L87">
         <f t="shared" si="20"/>
-        <v>1.3157894736842103E-2</v>
+        <v>1.315789473684211E-2</v>
       </c>
       <c r="M87">
         <f t="shared" si="21"/>
-        <v>1.3157894736842103E-26</v>
+        <v>5.2631578947368452E-4</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0436296945020231</v>
+        <v>5.0959580820258177</v>
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="23"/>
-        <v>4.9799447570953648</v>
+        <v>5.0289415802956636</v>
       </c>
       <c r="P87">
         <f t="shared" si="16"/>
-        <v>1.2636842105263156E-26</v>
+        <v>5.0547368421052655E-4</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -15042,43 +16570,43 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.7311171574738747E-12</v>
+        <v>8.268466352922156E-13</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="18"/>
-        <v>2.153682864355174</v>
+        <v>2.1536828643577319</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="14"/>
-        <v>3.5311868038614209E-13</v>
+        <v>0.23752340715122644</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="19"/>
-        <v>2.153682864355527</v>
+        <v>2.3912062715089584</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.3780088181647443E-12</v>
+        <v>0.23752340715205333</v>
       </c>
       <c r="L88">
         <f t="shared" si="20"/>
-        <v>1.2987012987012986E-2</v>
+        <v>1.2987012987012991E-2</v>
       </c>
       <c r="M88">
         <f t="shared" si="21"/>
-        <v>1.2987012987012984E-26</v>
+        <v>5.1948051948051981E-4</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0060979174871338</v>
+        <v>5.060831435135988</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="23"/>
-        <v>4.9427571006119821</v>
+        <v>4.9940389203853011</v>
       </c>
       <c r="P88">
         <f t="shared" si="16"/>
-        <v>1.2472727272727269E-26</v>
+        <v>4.989090909090912E-4</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -15095,43 +16623,43 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="13"/>
-        <v>7.686168196228169E-13</v>
+        <v>-5.5191482629405649E-13</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="18"/>
-        <v>2.1106092070705356</v>
+        <v>2.1106092070692148</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="14"/>
-        <v>1.2403942860698332E-12</v>
+        <v>-0.19559320137140646</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="19"/>
-        <v>2.1106092070717759</v>
+        <v>1.9150160056978085</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="15"/>
-        <v>2.0090595853616833E-12</v>
+        <v>-0.19559320137195835</v>
       </c>
       <c r="L89">
         <f t="shared" si="20"/>
-        <v>1.2820512820512818E-2</v>
+        <v>1.2820512820512827E-2</v>
       </c>
       <c r="M89">
         <f t="shared" si="21"/>
-        <v>1.2820512820512818E-26</v>
+        <v>5.1282051282051315E-4</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="22"/>
-        <v>4.9689762673536038</v>
+        <v>5.0205004680919085</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="23"/>
-        <v>4.9059759591373915</v>
+        <v>4.9596148064332679</v>
       </c>
       <c r="P89">
         <f t="shared" si="16"/>
-        <v>1.231282051282051E-26</v>
+        <v>4.9251282051282084E-4</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -15148,43 +16676,43 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1981271292612773E-12</v>
+        <v>-8.5302654227666781E-13</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0683970229295698</v>
+        <v>2.0683970229275186</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.5428169815327735E-15</v>
+        <v>-0.22941100457545774</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="19"/>
-        <v>2.0683970229295645</v>
+        <v>1.8389860183520608</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1928236176572682E-12</v>
+        <v>-0.22941100457631092</v>
       </c>
       <c r="L90">
         <f t="shared" si="20"/>
-        <v>1.2658227848101266E-2</v>
+        <v>1.2658227848101271E-2</v>
       </c>
       <c r="M90">
         <f t="shared" si="21"/>
-        <v>1.2658227848101264E-26</v>
+        <v>5.0632911392405099E-4</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="22"/>
-        <v>4.9322600743862113</v>
+        <v>4.9802281332850749</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="23"/>
-        <v>4.8695967420065314</v>
+        <v>4.92009045873007</v>
       </c>
       <c r="P90">
         <f t="shared" si="16"/>
-        <v>1.2156962025316453E-26</v>
+        <v>4.8627848101265856E-4</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -15201,43 +16729,43 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0664078782532552E-13</v>
+        <v>2.0179064937047947E-12</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0270290824700106</v>
+        <v>2.027029082471822</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.4100539282476724E-13</v>
+        <v>0.24107794872517263</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="19"/>
-        <v>2.0270290824692694</v>
+        <v>2.2681070311969949</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="15"/>
-        <v>-5.3468340865947539E-13</v>
+        <v>0.24107794872719079</v>
       </c>
       <c r="L91">
         <f t="shared" si="20"/>
-        <v>1.2499999999999999E-2</v>
+        <v>1.2500000000000006E-2</v>
       </c>
       <c r="M91">
         <f t="shared" si="21"/>
-        <v>1.2499999999999999E-26</v>
+        <v>5.0000000000000034E-4</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8959446869872494</v>
+        <v>4.9463266195089739</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="23"/>
-        <v>4.8336148728984867</v>
+        <v>4.880623570619373</v>
       </c>
       <c r="P91">
         <f t="shared" si="16"/>
-        <v>1.2004999999999998E-26</v>
+        <v>4.8020000000000029E-4</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -15254,43 +16782,43 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.6223884185716666E-14</v>
+        <v>1.8308356179705111E-12</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9864885008203816</v>
+        <v>1.9864885008222386</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="14"/>
-        <v>-4.7068336202598239E-13</v>
+        <v>-0.24193855437602729</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9864885008199109</v>
+        <v>1.7445499464462113</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="15"/>
-        <v>-4.9693582582222007E-13</v>
+        <v>-0.24193855437419653</v>
       </c>
       <c r="L92">
         <f t="shared" si="20"/>
-        <v>1.2345679012345678E-2</v>
+        <v>1.2345679012345685E-2</v>
       </c>
       <c r="M92">
         <f t="shared" si="21"/>
-        <v>1.2345679012345678E-26</v>
+        <v>4.938271604938275E-4</v>
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8600254748123444</v>
+        <v>4.9067985124341247</v>
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="23"/>
-        <v>4.7980257932475041</v>
+        <v>4.8474000871187943</v>
       </c>
       <c r="P92">
         <f t="shared" si="16"/>
-        <v>1.1856790123456788E-26</v>
+        <v>4.7427160493827191E-4</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -15307,43 +16835,43 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2284839717489863E-13</v>
+        <v>-2.1881097027875012E-13</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9467587308045227</v>
+        <v>1.946758730803781</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.1104604129088961E-13</v>
+        <v>6.4017373836767463E-2</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9467587308044116</v>
+        <v>2.0107761046405486</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="15"/>
-        <v>4.1189274213593308E-13</v>
+        <v>6.4017373836548819E-2</v>
       </c>
       <c r="L93">
         <f t="shared" si="20"/>
-        <v>1.2195121951219513E-2</v>
+        <v>1.2195121951219518E-2</v>
       </c>
       <c r="M93">
         <f t="shared" si="21"/>
-        <v>1.2195121951219511E-26</v>
+        <v>4.8780487804878081E-4</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8244978315927352</v>
+        <v>4.8714811659976176</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="23"/>
-        <v>4.7628249653160974</v>
+        <v>4.8086625421854423</v>
       </c>
       <c r="P93">
         <f t="shared" si="16"/>
-        <v>1.1712195121951219E-26</v>
+        <v>4.684878048780491E-4</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -15360,43 +16888,43 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.5986538660031858E-13</v>
+        <v>3.3703709184068512E-13</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9078235561875598</v>
+        <v>1.9078235561882568</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.0127999675137735E-13</v>
+        <v>-7.5967130680343525E-2</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9078235561870585</v>
+        <v>1.8318564255079133</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="15"/>
-        <v>-8.6131102250419644E-13</v>
+        <v>-7.5967130680006489E-2</v>
       </c>
       <c r="L94">
         <f t="shared" si="20"/>
-        <v>1.2048192771084338E-2</v>
+        <v>1.2048192771084343E-2</v>
       </c>
       <c r="M94">
         <f t="shared" si="21"/>
-        <v>1.2048192771084336E-26</v>
+        <v>4.819277108433738E-4</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7893571776721853</v>
+        <v>4.8348591811724404</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="23"/>
-        <v>4.7280078749608805</v>
+        <v>4.7740515426776655</v>
       </c>
       <c r="P94">
         <f t="shared" si="16"/>
-        <v>1.1571084337349396E-26</v>
+        <v>4.628433734939762E-4</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -15413,43 +16941,43 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.2395951842503125E-13</v>
+        <v>9.9939491087850111E-14</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8696670850639372</v>
+        <v>1.8696670850642612</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="14"/>
-        <v>1.2522314265846489E-12</v>
+        <v>-4.8289975166806401E-2</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8696670850651895</v>
+        <v>1.8213771098974547</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="15"/>
-        <v>1.02828856540782E-12</v>
+        <v>-4.8289975166706522E-2</v>
       </c>
       <c r="L95">
         <f t="shared" si="20"/>
-        <v>1.1904761904761904E-2</v>
+        <v>1.1904761904761909E-2</v>
       </c>
       <c r="M95">
         <f t="shared" si="21"/>
-        <v>1.1904761904761904E-26</v>
+        <v>4.7619047619047652E-4</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7545989622840068</v>
+        <v>4.7989843946096427</v>
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="23"/>
-        <v>4.6935700341187419</v>
+        <v>4.7381619975489917</v>
       </c>
       <c r="P95">
         <f t="shared" si="16"/>
-        <v>1.1433333333333333E-26</v>
+        <v>4.5733333333333363E-4</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -15466,43 +16994,43 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0225352514829209E-12</v>
+        <v>1.2168472324672357E-12</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8322737433639005</v>
+        <v>1.8322737433640948</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="14"/>
-        <v>1.4677477599636227E-12</v>
+        <v>0.23465341257269792</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8322737433653682</v>
+        <v>2.0669271559367925</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4902302442342261E-12</v>
+        <v>0.23465341257391459</v>
       </c>
       <c r="L96">
         <f t="shared" si="20"/>
-        <v>1.1764705882352941E-2</v>
+        <v>1.1764705882352946E-2</v>
       </c>
       <c r="M96">
         <f t="shared" si="21"/>
-        <v>1.1764705882352941E-26</v>
+        <v>4.7058823529411799E-4</v>
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7202186655908465</v>
+        <v>4.7668425447429028</v>
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="23"/>
-        <v>4.6595069830383267</v>
+        <v>4.7030047067174499</v>
       </c>
       <c r="P96">
         <f t="shared" si="16"/>
-        <v>1.1298823529411763E-26</v>
+        <v>4.5195294117647089E-4</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -15519,43 +17047,43 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7496506448272393E-12</v>
+        <v>-2.1002759925519461E-14</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="18"/>
-        <v>1.7956282684973701</v>
+        <v>1.7956282684955993</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.4285508793981736E-13</v>
+        <v>3.9906987740449096E-2</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7956282684966272</v>
+        <v>1.8355352562360485</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="15"/>
-        <v>1.006750238730092E-12</v>
+        <v>3.9906987740428113E-2</v>
       </c>
       <c r="L97">
         <f t="shared" si="20"/>
-        <v>1.1627906976744186E-2</v>
+        <v>1.1627906976744191E-2</v>
       </c>
       <c r="M97">
         <f t="shared" si="21"/>
-        <v>1.1627906976744186E-26</v>
+        <v>4.6511627906976779E-4</v>
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="22"/>
-        <v>4.6862118005083557</v>
+        <v>4.7327575762718928</v>
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="23"/>
-        <v>4.6258142922790295</v>
+        <v>4.6715056938480446</v>
       </c>
       <c r="P97">
         <f t="shared" si="16"/>
-        <v>1.1167441860465115E-26</v>
+        <v>4.4669767441860497E-4</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -15572,43 +17100,43 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.8413203123044313E-13</v>
+        <v>2.9512276480760199E-12</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="18"/>
-        <v>1.7597157031251238</v>
+        <v>1.7597157031286592</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="14"/>
-        <v>-6.2772861990778356E-13</v>
+        <v>-0.29030783843941105</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7597157031244961</v>
+        <v>1.4694078646892481</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.2119194536808209E-12</v>
+        <v>-0.29030783843645991</v>
       </c>
       <c r="L98">
         <f t="shared" si="20"/>
-        <v>1.149425287356322E-2</v>
+        <v>1.1494252873563225E-2</v>
       </c>
       <c r="M98">
         <f t="shared" si="21"/>
-        <v>1.1494252873563219E-26</v>
+        <v>4.597701149425291E-4</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="22"/>
-        <v>4.6525739143315299</v>
+        <v>4.6952478094720922</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5924875644981888</v>
+        <v>4.6381024247464548</v>
       </c>
       <c r="P98">
         <f t="shared" si="16"/>
-        <v>1.1039080459770115E-26</v>
+        <v>4.4156321839080497E-4</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -15625,43 +17153,43 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.0914923246892623E-14</v>
+        <v>-1.1575596548497189E-14</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="18"/>
-        <v>1.724521389063143</v>
+        <v>1.7245213890631823</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5978216003377737E-12</v>
+        <v>-0.11414549500430665</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7245213890647408</v>
+        <v>1.6103758940588757</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5469847625126931E-12</v>
+        <v>-0.11414549500431814</v>
       </c>
       <c r="L99">
         <f t="shared" si="20"/>
-        <v>1.1363636363636366E-2</v>
+        <v>1.1363636363636371E-2</v>
       </c>
       <c r="M99">
         <f t="shared" si="21"/>
-        <v>1.1363636363636365E-26</v>
+        <v>4.5454545454545492E-4</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="22"/>
-        <v>4.6193005901807709</v>
+        <v>4.660192446796942</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5595224360448992</v>
+        <v>4.6013428532826506</v>
       </c>
       <c r="P99">
         <f t="shared" si="16"/>
-        <v>1.0913636363636364E-26</v>
+        <v>4.3654545454545487E-4</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -15678,43 +17206,43 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.319935449194714E-12</v>
+        <v>-5.3720652971404158E-14</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6900309612806101</v>
+        <v>1.6900309612818762</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0236197213057769E-12</v>
+        <v>-8.1552855393307574E-2</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6900309612816338</v>
+        <v>1.6084781058885687</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="15"/>
-        <v>-2.9620750296999176E-13</v>
+        <v>-8.1552855393361323E-2</v>
       </c>
       <c r="L100">
         <f t="shared" si="20"/>
-        <v>1.1235955056179778E-2</v>
+        <v>1.1235955056179782E-2</v>
       </c>
       <c r="M100">
         <f t="shared" si="21"/>
-        <v>1.1235955056179776E-26</v>
+        <v>4.4943820224719135E-4</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="22"/>
-        <v>4.5863874482830278</v>
+        <v>4.6259035216181958</v>
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5269145783771556</v>
+        <v>4.5669885978610028</v>
       </c>
       <c r="P100">
         <f t="shared" si="16"/>
-        <v>1.0791011235955056E-26</v>
+        <v>4.3164044943820259E-4</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -15731,43 +17259,43 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3470478501879783E-13</v>
+        <v>-5.8243221996253605E-13</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6562303420567261</v>
+        <v>1.656230342055709</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.1017489027951079E-12</v>
+        <v>0.32459613958921146</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6562303420556244</v>
+        <v>1.9808264816449204</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="15"/>
-        <v>-6.6702199319479405E-13</v>
+        <v>0.32459613958862898</v>
       </c>
       <c r="L101">
         <f t="shared" si="20"/>
-        <v>1.1111111111111113E-2</v>
+        <v>1.1111111111111117E-2</v>
       </c>
       <c r="M101">
         <f t="shared" si="21"/>
-        <v>1.1111111111111112E-26</v>
+        <v>4.4444444444444479E-4</v>
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="22"/>
-        <v>4.5538301471027234</v>
+        <v>4.596513776729604</v>
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="23"/>
-        <v>4.4946596993173671</v>
+        <v>4.5333854511858318</v>
       </c>
       <c r="P101">
         <f t="shared" si="16"/>
-        <v>1.0671111111111112E-26</v>
+        <v>4.2684444444444474E-4</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -15784,43 +17312,43 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="13"/>
-        <v>-6.2502144665336348E-13</v>
+        <v>1.0526537288820659E-12</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6231057352145404</v>
+        <v>1.6231057352162181</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4747684601306529E-12</v>
+        <v>-7.2486242802411602E-2</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6231057352170151</v>
+        <v>1.5506194924138066</v>
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8496315590255108E-12</v>
+        <v>-7.2486242801358847E-2</v>
       </c>
       <c r="L102">
         <f t="shared" si="20"/>
-        <v>1.098901098901099E-2</v>
+        <v>1.0989010989010997E-2</v>
       </c>
       <c r="M102">
         <f t="shared" si="21"/>
-        <v>1.0989010989010991E-26</v>
+        <v>4.3956043956043994E-4</v>
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="22"/>
-        <v>4.5216243843347481</v>
+        <v>4.563042410967892</v>
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="23"/>
-        <v>4.4627535441606687</v>
+        <v>4.5045835011950119</v>
       </c>
       <c r="P102">
         <f t="shared" si="16"/>
-        <v>1.0553846153846155E-26</v>
+        <v>4.2215384615384652E-4</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -15837,43 +17365,43 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="13"/>
-        <v>4.181801705533703E-13</v>
+        <v>-9.9406255861189425E-13</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="18"/>
-        <v>1.5906436205112802</v>
+        <v>1.590643620509868</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.3281164371297068E-13</v>
+        <v>-0.31157680938108973</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5906436205110475</v>
+        <v>1.2790668111287782</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8540724511240114E-13</v>
+        <v>-0.31157680938208387</v>
       </c>
       <c r="L103">
         <f t="shared" si="20"/>
-        <v>1.0869565217391306E-2</v>
+        <v>1.0869565217391311E-2</v>
       </c>
       <c r="M103">
         <f t="shared" si="21"/>
-        <v>1.0869565217391305E-26</v>
+        <v>4.3478260869565252E-4</v>
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4897658977714467</v>
+        <v>4.5273470240131193</v>
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="23"/>
-        <v>4.4311918966480528</v>
+        <v>4.471781562748534</v>
       </c>
       <c r="P103">
         <f t="shared" si="16"/>
-        <v>1.043913043478261E-26</v>
+        <v>4.1756521739130467E-4</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -15890,43 +17418,43 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7739157676080847E-13</v>
+        <v>2.9208006254013935E-13</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="18"/>
-        <v>1.5588307481011221</v>
+        <v>1.5588307481009367</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="14"/>
-        <v>-6.2325747931077297E-13</v>
+        <v>-3.1673891595189761E-2</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5588307481004988</v>
+        <v>1.527156856505747</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.4588330543574557E-13</v>
+        <v>-3.1673891594897752E-2</v>
       </c>
       <c r="L104">
         <f t="shared" si="20"/>
-        <v>1.0752688172043012E-2</v>
+        <v>1.0752688172043017E-2</v>
       </c>
       <c r="M104">
         <f t="shared" si="21"/>
-        <v>1.0752688172043012E-26</v>
+        <v>4.3010752688172075E-4</v>
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4582504660545546</v>
+        <v>4.4950869146850829</v>
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="23"/>
-        <v>4.399970579816018</v>
+        <v>4.4368000835328569</v>
       </c>
       <c r="P104">
         <f t="shared" si="16"/>
-        <v>1.0326881720430108E-26</v>
+        <v>4.1307526881720461E-4</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -15943,43 +17471,43 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="13"/>
-        <v>7.4419408495007553E-13</v>
+        <v>5.2423473791543923E-13</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="18"/>
-        <v>1.527654133139376</v>
+        <v>1.527654133139156</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="14"/>
-        <v>6.9389139602936775E-13</v>
+        <v>-0.26735216282281526</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5276541331400699</v>
+        <v>1.2603019703163407</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4381829060994278E-12</v>
+        <v>-0.26735216282229102</v>
       </c>
       <c r="L105">
         <f t="shared" si="20"/>
-        <v>1.0638297872340427E-2</v>
+        <v>1.0638297872340432E-2</v>
       </c>
       <c r="M105">
         <f t="shared" si="21"/>
-        <v>1.0638297872340426E-26</v>
+        <v>4.2553191489361734E-4</v>
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4270739093214218</v>
+        <v>4.4606743088939265</v>
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="23"/>
-        <v>4.3690854567334636</v>
+        <v>4.405185176391381</v>
       </c>
       <c r="P105">
         <f t="shared" si="16"/>
-        <v>1.0217021276595745E-26</v>
+        <v>4.0868085106383011E-4</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -15996,43 +17524,43 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="13"/>
-        <v>-9.2322891019157653E-14</v>
+        <v>-1.1253980058562373E-12</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4971010504757667</v>
+        <v>1.4971010504747337</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.6045009426188399E-13</v>
+        <v>0.12457261595172991</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4971010504752063</v>
+        <v>1.6216736664264637</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="15"/>
-        <v>-6.5281113847959205E-13</v>
+        <v>0.12457261595060465</v>
       </c>
       <c r="L106">
         <f t="shared" si="20"/>
-        <v>1.0526315789473686E-2</v>
+        <v>1.0526315789473689E-2</v>
       </c>
       <c r="M106">
         <f t="shared" si="21"/>
-        <v>1.0526315789473685E-26</v>
+        <v>4.2105263157894766E-4</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3962320897546192</v>
+        <v>4.4307900916047949</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="23"/>
-        <v>4.3385324311349933</v>
+        <v>4.3714608227160481</v>
       </c>
       <c r="P106">
         <f t="shared" si="16"/>
-        <v>1.0109473684210526E-26</v>
+        <v>4.0437894736842134E-4</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -16049,43 +17577,43 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3415645794407127E-14</v>
+        <v>-2.246815116138536E-12</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4671590294664154</v>
+        <v>1.467159029464095</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.4716723440454252E-13</v>
+        <v>-0.16741355603533581</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4671590294660681</v>
+        <v>1.2997454734287592</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="15"/>
-        <v>-2.737809978725636E-13</v>
+        <v>-0.16741355603758268</v>
       </c>
       <c r="L107">
         <f t="shared" si="20"/>
-        <v>1.0416666666666668E-2</v>
+        <v>1.0416666666666671E-2</v>
       </c>
       <c r="M107">
         <f t="shared" si="21"/>
-        <v>1.0416666666666667E-26</v>
+        <v>4.1666666666666696E-4</v>
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3657209120432805</v>
+        <v>4.3981750434987941</v>
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="23"/>
-        <v>4.3083074479595265</v>
+        <v>4.3421742897726991</v>
       </c>
       <c r="P107">
         <f t="shared" si="16"/>
-        <v>1.0004166666666666E-26</v>
+        <v>4.0016666666666694E-4</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -16102,43 +17630,43 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.0413466973095628E-12</v>
+        <v>3.7816907806099111E-13</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4378158488749737</v>
+        <v>1.4378158488773931</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="14"/>
-        <v>5.7965486305176848E-13</v>
+        <v>-6.4446764818694699E-2</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4378158488755535</v>
+        <v>1.3733690840586985</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.4614975896165561E-12</v>
+        <v>-6.444676481831646E-2</v>
       </c>
       <c r="L108">
         <f t="shared" si="20"/>
-        <v>1.0309278350515465E-2</v>
+        <v>1.0309278350515469E-2</v>
       </c>
       <c r="M108">
         <f t="shared" si="21"/>
-        <v>1.0309278350515466E-26</v>
+        <v>4.1237113402061885E-4</v>
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3355363237632005</v>
+        <v>4.3669914769066285</v>
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="23"/>
-        <v>4.2784064938024144</v>
+        <v>4.3102115426288181</v>
       </c>
       <c r="P108">
         <f t="shared" si="16"/>
-        <v>9.901030927835052E-27</v>
+        <v>3.9604123711340234E-4</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -16155,43 +17683,43 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2659593998415995E-13</v>
+        <v>-5.5925196997875922E-13</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4090595319001014</v>
+        <v>1.4090595318989154</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.1682708700525258E-12</v>
+        <v>-0.13112925196563421</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4090595318979331</v>
+        <v>1.2779302799332812</v>
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.5416556919944924E-12</v>
+        <v>-0.13112925196619352</v>
       </c>
       <c r="L109">
         <f t="shared" si="20"/>
-        <v>1.0204081632653064E-2</v>
+        <v>1.0204081632653067E-2</v>
       </c>
       <c r="M109">
         <f t="shared" si="21"/>
-        <v>1.0204081632653062E-26</v>
+        <v>4.0816326530612274E-4</v>
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3056743156829427</v>
+        <v>4.3354704442844518</v>
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="23"/>
-        <v>4.2488255972879365</v>
+        <v>4.279651647368496</v>
       </c>
       <c r="P109">
         <f t="shared" si="16"/>
-        <v>9.7999999999999995E-27</v>
+        <v>3.9200000000000026E-4</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -16208,43 +17736,43 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1516389945252596E-12</v>
+        <v>-2.284319806827676E-12</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3808783412626369</v>
+        <v>1.3808783412592007</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.9940344604917178E-12</v>
+        <v>0.13916430775063945</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3808783412596428</v>
+        <v>1.5200426490098402</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.8423040870629848E-12</v>
+        <v>0.13916430774835509</v>
       </c>
       <c r="L110">
         <f t="shared" si="20"/>
-        <v>1.0101010101010102E-2</v>
+        <v>1.0101010101010107E-2</v>
       </c>
       <c r="M110">
         <f t="shared" si="21"/>
-        <v>1.0101010101010103E-26</v>
+        <v>4.0404040404040437E-4</v>
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="22"/>
-        <v>4.276130922001899</v>
+        <v>4.307031779685718</v>
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="23"/>
-        <v>4.2195608293692839</v>
+        <v>4.248761035398763</v>
       </c>
       <c r="P110">
         <f t="shared" si="16"/>
-        <v>9.7010101010101022E-27</v>
+        <v>3.8804040404040436E-4</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -16261,43 +17789,43 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="13"/>
-        <v>6.1114954894687349E-13</v>
+        <v>-2.1841318335879468E-12</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3532607744368665</v>
+        <v>1.3532607744340714</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.5673409544300247E-13</v>
+        <v>-9.0977643125697963E-2</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3532607744363099</v>
+        <v>1.2622831313083736</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="15"/>
-        <v>5.440092820663267E-14</v>
+        <v>-9.0977643127881924E-2</v>
       </c>
       <c r="L111">
         <f t="shared" si="20"/>
-        <v>1.0000000000000004E-2</v>
+        <v>1.0000000000000005E-2</v>
       </c>
       <c r="M111">
         <f t="shared" si="21"/>
-        <v>1.0000000000000002E-26</v>
+        <v>4.0000000000000034E-4</v>
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="22"/>
-        <v>4.246902220526243</v>
+        <v>4.2765842932019442</v>
       </c>
       <c r="O111">
         <f t="shared" ca="1" si="23"/>
-        <v>4.1906083035618611</v>
+        <v>4.2208911440920032</v>
       </c>
       <c r="P111">
         <f t="shared" si="16"/>
-        <v>9.604000000000001E-27</v>
+        <v>3.8416000000000031E-4</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -16314,43 +17842,43 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1807046425910104E-12</v>
+        <v>-9.8068517646278347E-13</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3261955589487109</v>
+        <v>1.3261955589465495</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="14"/>
-        <v>6.2068730179958253E-13</v>
+        <v>-0.28445429050011628</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3261955589493315</v>
+        <v>1.0417412684464331</v>
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="15"/>
-        <v>1.801225835151854E-12</v>
+        <v>-0.28445429050109716</v>
       </c>
       <c r="L112">
         <f t="shared" si="20"/>
-        <v>9.9009900990099046E-3</v>
+        <v>9.900990099009908E-3</v>
       </c>
       <c r="M112">
         <f t="shared" si="21"/>
-        <v>9.9009900990099031E-27</v>
+        <v>3.9603960396039639E-4</v>
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="22"/>
-        <v>4.2179843327878581</v>
+        <v>4.2445561444419884</v>
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="23"/>
-        <v>4.1619641761157178</v>
+        <v>4.1910526073379053</v>
       </c>
       <c r="P112">
         <f t="shared" si="16"/>
-        <v>9.5089108910891095E-27</v>
+        <v>3.8035643564356467E-4</v>
       </c>
     </row>
   </sheetData>

--- a/KF-ATTITUDE.xlsx
+++ b/KF-ATTITUDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D6576-A226-413F-80BF-73C091B045FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289F616-1983-4B37-9405-EF3DBFD154C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
@@ -1301,307 +1301,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>9.9999999999993694</c:v>
+                  <c:v>9.9999999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8000000000001712</c:v>
+                  <c:v>9.7999999999990219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6039999999996546</c:v>
+                  <c:v>9.6040000000010224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.411919999999288</c:v>
+                  <c:v>9.4119200000018779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2236815999998765</c:v>
+                  <c:v>9.2236815999998747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0392079679990491</c:v>
+                  <c:v>9.0392079679993707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8584238086397828</c:v>
+                  <c:v>8.8584238086411418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6812553324678596</c:v>
+                  <c:v>8.6812553324663941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5076302258157472</c:v>
+                  <c:v>8.5076302258180707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3374776213019217</c:v>
+                  <c:v>8.3374776213006605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1707280688747712</c:v>
+                  <c:v>8.1707280688736859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0073135074986066</c:v>
+                  <c:v>8.0073135074984485</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8471672373488408</c:v>
+                  <c:v>7.8471672373505799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6902238926009217</c:v>
+                  <c:v>7.690223892601435</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5364194147498704</c:v>
+                  <c:v>7.5364194147470966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3856910264546487</c:v>
+                  <c:v>7.3856910264538671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2379772059247154</c:v>
+                  <c:v>7.2379772059253362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0932176618047764</c:v>
+                  <c:v>7.0932176618060039</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9513533085698072</c:v>
+                  <c:v>6.9513533085696659</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.812326242397952</c:v>
+                  <c:v>6.8123262423989068</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6760797175518753</c:v>
+                  <c:v>6.6760797175512829</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5425581231986456</c:v>
+                  <c:v>6.5425581232003198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4117069607375292</c:v>
+                  <c:v>6.4117069607363906</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2834728215217135</c:v>
+                  <c:v>6.2834728215192479</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1578033650909951</c:v>
+                  <c:v>6.1578033650902784</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0346472977884202</c:v>
+                  <c:v>6.034647297788637</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9139543518318431</c:v>
+                  <c:v>5.9139543518351232</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.79567526479621</c:v>
+                  <c:v>5.7956752647968308</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6797617594999066</c:v>
+                  <c:v>5.6797617595010541</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5661665243107814</c:v>
+                  <c:v>5.5661665243122798</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4548431938259148</c:v>
+                  <c:v>5.454843193824237</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.3457463299482555</c:v>
+                  <c:v>5.3457463299474535</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2388314033486765</c:v>
+                  <c:v>5.238831403347703</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1340547752825172</c:v>
+                  <c:v>5.1340547752831478</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0313736797773139</c:v>
+                  <c:v>5.0313736797750943</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9307462061815928</c:v>
+                  <c:v>4.9307462061799319</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8321312820589641</c:v>
+                  <c:v>4.8321312820543483</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7354886564160905</c:v>
+                  <c:v>4.7354886564168135</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6407788832890882</c:v>
+                  <c:v>4.6407788832892827</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.547963305623254</c:v>
+                  <c:v>4.5479633056206579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4570040395090249</c:v>
+                  <c:v>4.4570040395101955</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3678639587181154</c:v>
+                  <c:v>4.3678639587197248</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2805066795456108</c:v>
+                  <c:v>4.2805066795457609</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1948965459531502</c:v>
+                  <c:v>4.1948965459533403</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1109986150347799</c:v>
+                  <c:v>4.1109986150364017</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0287786427343732</c:v>
+                  <c:v>4.0287786427315044</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9482030698804826</c:v>
+                  <c:v>3.9482030698805088</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8692390084829564</c:v>
+                  <c:v>3.8692390084809851</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7918542283118026</c:v>
+                  <c:v>3.7918542283142416</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7160171437446943</c:v>
+                  <c:v>3.7160171437464129</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.641696800872547</c:v>
+                  <c:v>3.6416968008716992</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5688628648526559</c:v>
+                  <c:v>3.5688628648543204</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.4974856075581036</c:v>
+                  <c:v>3.4974856075563818</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.427535895406463</c:v>
+                  <c:v>3.4275358954056308</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.3589851774968436</c:v>
+                  <c:v>3.3589851774967476</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.291805473946432</c:v>
+                  <c:v>3.2918054739464835</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.2259693644683289</c:v>
+                  <c:v>3.2259693644703127</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1614499771798221</c:v>
+                  <c:v>3.1614499771776292</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0982209776351217</c:v>
+                  <c:v>3.0982209776356466</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0362565580827354</c:v>
+                  <c:v>3.036256558083521</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9755314269223785</c:v>
+                  <c:v>2.9755314269231432</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9160207983838333</c:v>
+                  <c:v>2.9160207983809814</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8577003824172116</c:v>
+                  <c:v>2.8577003824155907</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.8005463747666313</c:v>
+                  <c:v>2.8005463747675217</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7445354472727144</c:v>
+                  <c:v>2.7445354472731327</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.689644738326777</c:v>
+                  <c:v>2.6896447383253195</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6358518435601872</c:v>
+                  <c:v>2.6358518435587137</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.583134806687938</c:v>
+                  <c:v>2.5831348066886437</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5314721105555593</c:v>
+                  <c:v>2.5314721105527047</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4808426683428886</c:v>
+                  <c:v>2.4808426683444385</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.431225814975793</c:v>
+                  <c:v>2.4312258149773327</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3826012986770371</c:v>
+                  <c:v>2.382601298677681</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3349492727039345</c:v>
+                  <c:v>2.3349492727026444</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2882502872495505</c:v>
+                  <c:v>2.2882502872497255</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2424852815031153</c:v>
+                  <c:v>2.2424852815044791</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1976355758725314</c:v>
+                  <c:v>2.1976355758744015</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.1536828643577319</c:v>
+                  <c:v>2.1536828643566408</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1106092070692148</c:v>
+                  <c:v>2.1106092070700546</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0683970229275186</c:v>
+                  <c:v>2.0683970229288722</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.027029082471822</c:v>
+                  <c:v>2.0270290824702566</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9864885008222386</c:v>
+                  <c:v>1.9864885008211446</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.946758730803781</c:v>
+                  <c:v>1.9467587308026089</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9078235561882568</c:v>
+                  <c:v>1.9078235561879486</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8696670850642612</c:v>
+                  <c:v>1.869667085063861</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8322737433640948</c:v>
+                  <c:v>1.8322737433644569</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7956282684955993</c:v>
+                  <c:v>1.7956282684977611</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7597157031286592</c:v>
+                  <c:v>1.7597157031265338</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7245213890631823</c:v>
+                  <c:v>1.7245213890633071</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6900309612818762</c:v>
+                  <c:v>1.6900309612820941</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.656230342055709</c:v>
+                  <c:v>1.656230342057041</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6231057352162181</c:v>
+                  <c:v>1.6231057352142093</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.590643620509868</c:v>
+                  <c:v>1.590643620510229</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5588307481009367</c:v>
+                  <c:v>1.5588307481005574</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.527654133139156</c:v>
+                  <c:v>1.5276541331383782</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4971010504747337</c:v>
+                  <c:v>1.4971010504779367</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.467159029464095</c:v>
+                  <c:v>1.4671590294656449</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4378158488773931</c:v>
+                  <c:v>1.4378158488755197</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4090595318989154</c:v>
+                  <c:v>1.4090595318974362</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3808783412592007</c:v>
+                  <c:v>1.3808783412615786</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3532607744340714</c:v>
+                  <c:v>1.3532607744363576</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3261955589465495</c:v>
+                  <c:v>1.3261955589468599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,307 +1968,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.044280564513649</c:v>
+                  <c:v>9.9550434571991833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9586748667120659</c:v>
+                  <c:v>9.5150626846984565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6030464150771913</c:v>
+                  <c:v>9.7399734055676586</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1211194560904651</c:v>
+                  <c:v>9.4297042865979694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3700411684024694</c:v>
+                  <c:v>9.4900424516570165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.314792862810986</c:v>
+                  <c:v>8.8150232402752344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7515330135520628</c:v>
+                  <c:v>8.6805453528929757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7611816821618724</c:v>
+                  <c:v>8.8991970371857967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5229075041686198</c:v>
+                  <c:v>8.3968835317025725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2080362026405105</c:v>
+                  <c:v>8.3284530548017841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2245700779887674</c:v>
+                  <c:v>8.3103301095482713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9886609452494293</c:v>
+                  <c:v>7.9923388211290005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8101619816977195</c:v>
+                  <c:v>7.6290888994401396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8806724633509004</c:v>
+                  <c:v>7.4334034392141337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.630779102504869</c:v>
+                  <c:v>7.4513809516514442</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3971121558097552</c:v>
+                  <c:v>7.2228369798312899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.4383143760947261</c:v>
+                  <c:v>6.9669389590478383</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0611352659045687</c:v>
+                  <c:v>7.143688877932072</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.047049222879525</c:v>
+                  <c:v>6.7132675161758275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8442045876441675</c:v>
+                  <c:v>6.9759225895633108</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6850047547363651</c:v>
+                  <c:v>6.9039023106972781</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8088728051799627</c:v>
+                  <c:v>6.8855933297609031</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6881303131185792</c:v>
+                  <c:v>6.5435858024036389</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.5456417968392895</c:v>
+                  <c:v>6.3494335813663483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1303046403849093</c:v>
+                  <c:v>6.2407262597317485</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.966330989624085</c:v>
+                  <c:v>6.1779439437711208</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0545163645036215</c:v>
+                  <c:v>5.810672104109881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9394675273677526</c:v>
+                  <c:v>5.707527561402979</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.5882901739643662</c:v>
+                  <c:v>5.8744956613051826</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.6125378482236146</c:v>
+                  <c:v>5.5055977868566517</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.3066228423436872</c:v>
+                  <c:v>5.4285326943842218</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4458590169814167</c:v>
+                  <c:v>5.1729070624648896</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2855751317161559</c:v>
+                  <c:v>5.3718826311744463</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9303346518869917</c:v>
+                  <c:v>5.1716380493775276</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2239318600840789</c:v>
+                  <c:v>5.1020808932188242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9237504400148495</c:v>
+                  <c:v>5.0667657163329078</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0068723725293305</c:v>
+                  <c:v>4.6665867120023687</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.8050022564302859</c:v>
+                  <c:v>4.915879861545184</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4924482901826313</c:v>
+                  <c:v>4.9716951729160686</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5140049096204393</c:v>
+                  <c:v>4.4850510446310681</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4330200305999501</c:v>
+                  <c:v>4.364084817137269</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.7058688289983115</c:v>
+                  <c:v>4.3253457841557443</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4535746716429552</c:v>
+                  <c:v>4.2639077019798197</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1975576026910311</c:v>
+                  <c:v>4.1214927016905714</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.9800004711884132</c:v>
+                  <c:v>4.004500592851957</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.345276979559249</c:v>
+                  <c:v>3.8300438368520684</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.310508310236945</c:v>
+                  <c:v>4.0294868778710091</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.178479720198828</c:v>
+                  <c:v>4.0269275059350536</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6436982823648063</c:v>
+                  <c:v>3.6641089300620981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.6791253429944319</c:v>
+                  <c:v>3.9615541292143428</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4827008498935212</c:v>
+                  <c:v>3.3714998121326984</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2798449631668287</c:v>
+                  <c:v>3.5741228019726283</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.6440312100521473</c:v>
+                  <c:v>3.4603749478732801</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.5738749739404678</c:v>
+                  <c:v>3.6249422424040012</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.1988873914144311</c:v>
+                  <c:v>3.4021489464137153</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3561569293013909</c:v>
+                  <c:v>3.4946794613153358</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.246722545419281</c:v>
+                  <c:v>3.0094817748785037</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.498090923720234</c:v>
+                  <c:v>3.308946384043348</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.9890316562854355</c:v>
+                  <c:v>2.9601667293834</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0537758111134994</c:v>
+                  <c:v>3.2755110946473769</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2613501190050518</c:v>
+                  <c:v>3.1036454354932563</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.918486015433515</c:v>
+                  <c:v>2.7820310480811208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.5994910202808268</c:v>
+                  <c:v>2.9529294769062147</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.6301683285615827</c:v>
+                  <c:v>3.062034217959869</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.8439719579877529</c:v>
+                  <c:v>3.1257307882931071</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.741524821293551</c:v>
+                  <c:v>2.4529510353413548</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.415326804774383</c:v>
+                  <c:v>2.3805204532501891</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.6644086149316912</c:v>
+                  <c:v>2.6517950918620308</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5557430165206383</c:v>
+                  <c:v>2.7546718156961405</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8175977275034412</c:v>
+                  <c:v>2.4426578823531782</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4396863221390768</c:v>
+                  <c:v>2.2949182494788274</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.4372761100166964</c:v>
+                  <c:v>2.2144891594054954</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.53380953754623</c:v>
+                  <c:v>2.3908564856219581</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.3318445532965266</c:v>
+                  <c:v>2.5024817728355746</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.5395733033055343</c:v>
+                  <c:v>2.2254300561727391</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.4248361501103237</c:v>
+                  <c:v>2.4690818534351573</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.3912062715089584</c:v>
+                  <c:v>2.8323897296749951</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9150160056978085</c:v>
+                  <c:v>1.973876256414824</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.8389860183520608</c:v>
+                  <c:v>2.051118187792452</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.2681070311969949</c:v>
+                  <c:v>2.3036927385733583</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7445499464462113</c:v>
+                  <c:v>2.0428733909147092</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0107761046405486</c:v>
+                  <c:v>2.0436607388544004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8318564255079133</c:v>
+                  <c:v>1.5975513999883448</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8213771098974547</c:v>
+                  <c:v>1.5944265921489453</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0669271559367925</c:v>
+                  <c:v>1.9066623721101619</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8355352562360485</c:v>
+                  <c:v>1.5137446929123004</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.4694078646892481</c:v>
+                  <c:v>1.502386024443193</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.6103758940588757</c:v>
+                  <c:v>1.8966327781849541</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6084781058885687</c:v>
+                  <c:v>1.670486036740642</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.9808264816449204</c:v>
+                  <c:v>1.3431833989534288</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5506194924138066</c:v>
+                  <c:v>1.8524214293008516</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2790668111287782</c:v>
+                  <c:v>1.5615102802888225</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.527156856505747</c:v>
+                  <c:v>1.6613219608104444</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2603019703163407</c:v>
+                  <c:v>1.7736390393969379</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.6216736664264637</c:v>
+                  <c:v>1.9188633468128757</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.2997454734287592</c:v>
+                  <c:v>1.4089221534309679</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3733690840586985</c:v>
+                  <c:v>1.4335139912312662</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2779302799332812</c:v>
+                  <c:v>1.2517842312391623</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.5200426490098402</c:v>
+                  <c:v>1.4834996790337986</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2622831313083736</c:v>
+                  <c:v>1.8623343303972852</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.0417412684464331</c:v>
+                  <c:v>1.4749155701073895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,307 +2903,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.4280564513648812E-2</c:v>
+                  <c:v>-4.4956542800816734E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15867486671206521</c:v>
+                  <c:v>-0.2849373153015442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.5358492280972484E-4</c:v>
+                  <c:v>0.13597340556765758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.29080054390953514</c:v>
+                  <c:v>1.7784286597969157E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14635956840246855</c:v>
+                  <c:v>0.26636085165701573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27558489481098469</c:v>
+                  <c:v>-0.22418472772476683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10689079508793853</c:v>
+                  <c:v>-0.17787845574702565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9926349694671828E-2</c:v>
+                  <c:v>0.21794170471859609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5277278350763979E-2</c:v>
+                  <c:v>-0.11074669411528326</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.12944141866098846</c:v>
+                  <c:v>-9.0245664997148367E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3842009113298062E-2</c:v>
+                  <c:v>0.13960204067280202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8652562248530735E-2</c:v>
+                  <c:v>-1.4974686368959489E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.7005255650281121E-2</c:v>
+                  <c:v>-0.21807833790786102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19044857074985977</c:v>
+                  <c:v>-0.25682045338690696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.4359687755849464E-2</c:v>
+                  <c:v>-8.5038463097575345E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.142112935571582E-2</c:v>
+                  <c:v>-0.16285404662274949</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20033717016976738</c:v>
+                  <c:v>-0.27103824687712041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.208239590189077E-2</c:v>
+                  <c:v>5.047121612561245E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5695914309194663E-2</c:v>
+                  <c:v>-0.23808579239450278</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.18783452452438E-2</c:v>
+                  <c:v>0.16359634716438709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.9250371854197041E-3</c:v>
+                  <c:v>0.22782259314633269</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26631468198003638</c:v>
+                  <c:v>0.34303520656097675</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27642335238265137</c:v>
+                  <c:v>0.13187884166771102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.26216897531808048</c:v>
+                  <c:v>6.5960759845139272E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.7498724705875333E-2</c:v>
+                  <c:v>8.2922894640963918E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-6.8316308164884099E-2</c:v>
+                  <c:v>0.14329664598215164</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.14056201267043189</c:v>
+                  <c:v>-0.10328224772330863</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.14379226257122646</c:v>
+                  <c:v>-8.8147703393547161E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9.1471585536229583E-2</c:v>
+                  <c:v>0.19473390180458683</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.6371323913030338E-2</c:v>
+                  <c:v>-6.0568737453932542E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.14822035148068569</c:v>
+                  <c:v>-2.6310499440151069E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1001126870335316</c:v>
+                  <c:v>-0.1728392674829955</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.6743728367228954E-2</c:v>
+                  <c:v>0.13305122782551937</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.20372012339495615</c:v>
+                  <c:v>3.7583274095579711E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1925581803077705</c:v>
+                  <c:v>7.0707213442515737E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.9957661659323378E-3</c:v>
+                  <c:v>0.13601951015212599</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.17474109047216402</c:v>
+                  <c:v>-0.16554457005479772</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9513600014262877E-2</c:v>
+                  <c:v>0.18039120512916096</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.14833059310507135</c:v>
+                  <c:v>0.33091628962836594</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.3958396001509072E-2</c:v>
+                  <c:v>-6.291226099088032E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.3984008909558874E-2</c:v>
+                  <c:v>-9.2919222372239929E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.33800487027899262</c:v>
+                  <c:v>-4.251817456357454E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.17306799209802293</c:v>
+                  <c:v>-1.6598977565112527E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.661056736997125E-3</c:v>
+                  <c:v>-7.3403844263462581E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.13099814384653996</c:v>
+                  <c:v>-0.10649802218299609</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.31649833682499473</c:v>
+                  <c:v>-0.19873480588218584</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.36230524035737588</c:v>
+                  <c:v>8.1283807991439971E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3092407117168503</c:v>
+                  <c:v>0.15768849745307589</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.1481559459475319</c:v>
+                  <c:v>-0.12774529825024006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.6891800751659432E-2</c:v>
+                  <c:v>0.24553698546825142</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.15899595097764818</c:v>
+                  <c:v>-0.27019698873847098</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.28901790168691743</c:v>
+                  <c:v>5.2599371188821742E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.14654560249547588</c:v>
+                  <c:v>-3.7110659683391223E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.14633907853492989</c:v>
+                  <c:v>0.19740634699846327</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.16009778608299596</c:v>
+                  <c:v>4.3163768916288259E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.4351455353912179E-2</c:v>
+                  <c:v>0.20287398736785711</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0753180950751737E-2</c:v>
+                  <c:v>-0.21648758959002556</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.33664094654107535</c:v>
+                  <c:v>0.1474964068641893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.10918932135014003</c:v>
+                  <c:v>-0.1380542482521756</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7519253030635173E-2</c:v>
+                  <c:v>0.23925453656451268</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.28581869208384481</c:v>
+                  <c:v>0.12811400857204935</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.4652170507324378E-3</c:v>
+                  <c:v>-0.13398975030166183</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.25820936213430024</c:v>
+                  <c:v>9.5229094491087629E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.17037804620524177</c:v>
+                  <c:v>0.26148784319304452</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.9436510716265136E-2</c:v>
+                  <c:v>0.38119534102161934</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.1880082967493024E-2</c:v>
+                  <c:v>-0.23669370298470316</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.22052503878515362</c:v>
+                  <c:v>-0.25533139030934748</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.1273808243345513E-2</c:v>
+                  <c:v>6.8660285173685054E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4270905966059519E-2</c:v>
+                  <c:v>0.22319970514156173</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.33675505915995396</c:v>
+                  <c:v>-3.8184785990309056E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.4605071624594963E-3</c:v>
+                  <c:v>-0.13630756549778988</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.4674811339611384E-2</c:v>
+                  <c:v>-0.16811213927158963</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.19886026484268671</c:v>
+                  <c:v>5.5907212918414828E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.3594266047054298E-2</c:v>
+                  <c:v>0.21423148558610228</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.29708802180105165</c:v>
+                  <c:v>-1.7055225331743529E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.22720057423593065</c:v>
+                  <c:v>0.27144627756076423</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.23752340715205333</c:v>
+                  <c:v>0.6787068653180901</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.19559320137195835</c:v>
+                  <c:v>-0.13673295065494284</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.22941100457631092</c:v>
+                  <c:v>-1.7278835135919657E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.24107794872719079</c:v>
+                  <c:v>0.27666365610355426</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.24193855437419653</c:v>
+                  <c:v>5.6384890094301365E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.4017373836548819E-2</c:v>
+                  <c:v>9.6902008050400612E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-7.5967130680006489E-2</c:v>
+                  <c:v>-0.31027215619957493</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-4.8289975166706522E-2</c:v>
+                  <c:v>-0.27524049291521591</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.23465341257391459</c:v>
+                  <c:v>7.4388628747283914E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.9906987740428113E-2</c:v>
+                  <c:v>-0.28188357558332</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.29030783843645991</c:v>
+                  <c:v>-0.257329678682515</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.11414549500431814</c:v>
+                  <c:v>0.17211138912176027</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-8.1552855393361323E-2</c:v>
+                  <c:v>-1.9544924541287978E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.32459613958862898</c:v>
+                  <c:v>-0.31304694310286263</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.2486242801358847E-2</c:v>
+                  <c:v>0.22931569408568619</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.31157680938208387</c:v>
+                  <c:v>-2.9133340222039505E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.1673891594897752E-2</c:v>
+                  <c:v>0.10249121270979966</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.26735216282229102</c:v>
+                  <c:v>0.24598490625830616</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.12457261595060465</c:v>
+                  <c:v>0.42176229633701667</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.16741355603758268</c:v>
+                  <c:v>-5.8236876035373975E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-6.444676481831646E-2</c:v>
+                  <c:v>-4.3018576457487523E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.13112925196619352</c:v>
+                  <c:v>-0.15727530066031248</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.13916430774835509</c:v>
+                  <c:v>0.10262133777231353</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-9.0977643127881924E-2</c:v>
+                  <c:v>0.50907355596102977</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.28445429050109716</c:v>
+                  <c:v>0.14872001115985922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,304 +3781,304 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.479337433356033</c:v>
+                  <c:v>5.2575313423492283</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8539070939297524</c:v>
+                  <c:v>6.7516786967553717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4207101844699306</c:v>
+                  <c:v>7.4211850942160211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8105763812564382</c:v>
+                  <c:v>7.8349565657042204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0612791281821963</c:v>
+                  <c:v>7.9983010114660562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.159886826092178</c:v>
+                  <c:v>8.0957644888127582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2350486831008904</c:v>
+                  <c:v>8.196193557359388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2670329965528602</c:v>
+                  <c:v>8.2184924433975191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2611333171616259</c:v>
+                  <c:v>8.2294885045379456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2578093863277289</c:v>
+                  <c:v>8.2368377413570659</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2353803495712032</c:v>
+                  <c:v>8.2164628313380597</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2026712443501655</c:v>
+                  <c:v>8.171280221192065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1796713314216465</c:v>
+                  <c:v>8.1185747367650691</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1430785161605286</c:v>
+                  <c:v>8.0740951510908268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0964556186386059</c:v>
+                  <c:v>8.0208915153871061</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.05774142790073</c:v>
+                  <c:v>7.9588943061906789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0023744189009438</c:v>
+                  <c:v>7.9136051157318672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9520941454261322</c:v>
+                  <c:v>7.8504294525973384</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8966996675370336</c:v>
+                  <c:v>7.8067041094456373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8389999097846204</c:v>
+                  <c:v>7.763713547600477</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7921759504844088</c:v>
+                  <c:v>7.7237989922441326</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.744173966251112</c:v>
+                  <c:v>7.6724853752945457</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6942351258589525</c:v>
+                  <c:v>7.6173582172142043</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.6316779064399904</c:v>
+                  <c:v>7.5622929389149061</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.567626101947071</c:v>
+                  <c:v>7.509048746793991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5115850005602764</c:v>
+                  <c:v>7.446145908176061</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.4554379479462574</c:v>
+                  <c:v>7.3840523957913078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3910535419468815</c:v>
+                  <c:v>7.3319987152917863</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.331769685489439</c:v>
+                  <c:v>7.2711186843439481</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.2664423679686081</c:v>
+                  <c:v>7.2116804266033121</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.2095491382502583</c:v>
+                  <c:v>7.1479687589739864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.1512468956280131</c:v>
+                  <c:v>7.0941479672224848</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.0859259472826892</c:v>
+                  <c:v>7.0376035578741041</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.0327261162198713</c:v>
+                  <c:v>6.9823029103125247</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9741434585475099</c:v>
+                  <c:v>6.9290935438130905</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.9209739697362078</c:v>
+                  <c:v>6.8679447105209093</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.8652905035965786</c:v>
+                  <c:v>6.8165745829162852</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.8044483955603239</c:v>
+                  <c:v>6.7692699826598695</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.747187308411827</c:v>
+                  <c:v>6.7121645092091491</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.6907442040749521</c:v>
+                  <c:v>6.6548942728171516</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.6434852665731272</c:v>
+                  <c:v>6.5994288326109274</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.5925571132026581</c:v>
+                  <c:v>6.5451143877125295</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.5381253061455755</c:v>
+                  <c:v>6.4900320766665756</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.4812780875909715</c:v>
+                  <c:v>6.4347980436929175</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.4348432808946301</c:v>
+                  <c:v>6.3781729522398551</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3896446644976583</c:v>
+                  <c:v>6.328200908104348</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.3435787281580991</c:v>
+                  <c:v>6.2802577122258212</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2884791272235425</c:v>
+                  <c:v>6.2268669207530918</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.2362920515389604</c:v>
+                  <c:v>6.1815606649223165</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.1823000671929718</c:v>
+                  <c:v>6.1264614325146773</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.126483622884777</c:v>
+                  <c:v>6.0773779973119453</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.07964489811435</c:v>
+                  <c:v>6.0280005812848003</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0332417513703893</c:v>
+                  <c:v>5.9834995009351557</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.981708035734826</c:v>
+                  <c:v>5.9365658544893112</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.9348231945485148</c:v>
+                  <c:v>5.8929607403254902</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.8876635340374754</c:v>
+                  <c:v>5.8423733900544903</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.8464640062733855</c:v>
+                  <c:v>5.7986936140887808</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7980329494939289</c:v>
+                  <c:v>5.7505829889242825</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.7522953305209219</c:v>
+                  <c:v>5.7093317906863339</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.711460163119022</c:v>
+                  <c:v>5.6666156209290701</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.6664121929950619</c:v>
+                  <c:v>5.6200900633024906</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.6177309045392807</c:v>
+                  <c:v>5.5777541809787401</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.5710502392896295</c:v>
+                  <c:v>5.5384460565565705</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.5290951888080624</c:v>
+                  <c:v>5.5013273601217483</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.4868592741487516</c:v>
+                  <c:v>5.4551398400493181</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.4410155059491343</c:v>
+                  <c:v>5.4092499984553015</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.4001830516694662</c:v>
+                  <c:v>5.3686991910054003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.3589592830441211</c:v>
+                  <c:v>5.3308147362907734</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.3226541179649685</c:v>
+                  <c:v>5.2895553526630934</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.2820489377420685</c:v>
+                  <c:v>5.2473773652943008</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.2425382040236608</c:v>
+                  <c:v>5.2052539179902899</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.2054323318801341</c:v>
+                  <c:v>5.1667005285057925</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.166600064601977</c:v>
+                  <c:v>5.1306975723480868</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.131573041118024</c:v>
+                  <c:v>5.0919606721324158</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.0959580820258177</c:v>
+                  <c:v>5.0574491087285045</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.060831435135988</c:v>
+                  <c:v>5.0285522336758612</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.0205004680919085</c:v>
+                  <c:v>4.9893897211468738</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9802281332850749</c:v>
+                  <c:v>4.9521964105980834</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9463266195089739</c:v>
+                  <c:v>4.9190901146977746</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9067985124341247</c:v>
+                  <c:v>4.8835812662560087</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.8714811659976176</c:v>
+                  <c:v>4.8489480890925742</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.8348591811724404</c:v>
+                  <c:v>4.8097746350069812</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7989843946096427</c:v>
+                  <c:v>4.7714966821158145</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7668425447429028</c:v>
+                  <c:v>4.7377927490569247</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.7327575762718928</c:v>
+                  <c:v>4.7003038181715224</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6952478094720922</c:v>
+                  <c:v>4.6635461423815414</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.660192446796942</c:v>
+                  <c:v>4.6321039450611252</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.6259035216181958</c:v>
+                  <c:v>4.5988273393496595</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.596513776729604</c:v>
+                  <c:v>4.562653517789701</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.563042410967892</c:v>
+                  <c:v>4.5328707475865269</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.5273470240131193</c:v>
+                  <c:v>4.5005733512028563</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4950869146850829</c:v>
+                  <c:v>4.4700437663599271</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.4606743088939265</c:v>
+                  <c:v>4.4413586096901083</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.4307900916047949</c:v>
+                  <c:v>4.4148060279756107</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3981750434987941</c:v>
+                  <c:v>4.3834947376157709</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.3669914769066285</c:v>
+                  <c:v>4.3530825649726319</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3354704442844518</c:v>
+                  <c:v>4.3214366636080044</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.307031779685718</c:v>
+                  <c:v>4.2927706334607905</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.2765842932019442</c:v>
+                  <c:v>4.2684662704301557</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.2445561444419884</c:v>
+                  <c:v>4.2408073526051782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,301 +5119,301 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3697506846889125</c:v>
+                  <c:v>5.1523807155022432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7168289520511575</c:v>
+                  <c:v>6.6166451228202643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2722959807805321</c:v>
+                  <c:v>7.2727613923317005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6543648536313089</c:v>
+                  <c:v>7.6782574343901357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9000535456185519</c:v>
+                  <c:v>7.838334991236735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9966890895703342</c:v>
+                  <c:v>7.9338491990365032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.070347709438872</c:v>
+                  <c:v>8.0322696862121994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1016923366218023</c:v>
+                  <c:v>8.0541225945295682</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0959106508183929</c:v>
+                  <c:v>8.064898734447187</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0926531986011749</c:v>
+                  <c:v>8.0721009865299251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0706727425797791</c:v>
+                  <c:v>8.0521335747112985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0386178194631626</c:v>
+                  <c:v>8.0078546167682241</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0160779047932138</c:v>
+                  <c:v>7.9562032420297673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9802169458373182</c:v>
+                  <c:v>7.9126132480690101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9345265062658337</c:v>
+                  <c:v>7.8604736850793637</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8965865993427151</c:v>
+                  <c:v>7.7997164200668649</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.8423269305229244</c:v>
+                  <c:v>7.7553330134172294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7930522625176097</c:v>
+                  <c:v>7.6934208635453913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7387656741862925</c:v>
+                  <c:v>7.6505700272567241</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6822199115889278</c:v>
+                  <c:v>7.6084392766484674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.6363324314747203</c:v>
+                  <c:v>7.5693230123992494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.5892904869260898</c:v>
+                  <c:v>7.5190356677886543</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5403504233417733</c:v>
+                  <c:v>7.4650110528699196</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4790443483111906</c:v>
+                  <c:v>7.4110470801366075</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4162735799081299</c:v>
+                  <c:v>7.3588677718581108</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3613533005490712</c:v>
+                  <c:v>7.29722299001254</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3063291889873323</c:v>
+                  <c:v>7.2363713478754814</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.2432324711079437</c:v>
+                  <c:v>7.1853587409859507</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1851342917796499</c:v>
+                  <c:v>7.1256963106570694</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.121113520609236</c:v>
+                  <c:v>7.0674468180712458</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.0653581554852529</c:v>
+                  <c:v>7.0050093837945067</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.0082219577154525</c:v>
+                  <c:v>6.9522650078780348</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.9442074283370356</c:v>
+                  <c:v>6.8968514867166215</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.8920715938954737</c:v>
+                  <c:v>6.8426568521062743</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8346605893765595</c:v>
+                  <c:v>6.7905116729368284</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.7825544903414832</c:v>
+                  <c:v>6.7305858163104908</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.7279846935246468</c:v>
+                  <c:v>6.6802430912579593</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6683594276491176</c:v>
+                  <c:v>6.6338845830066724</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.6122435622435907</c:v>
+                  <c:v>6.5779212190249661</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.5569293199934533</c:v>
+                  <c:v>6.5217963873608085</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.5106155612416643</c:v>
+                  <c:v>6.4674402559587083</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.460705970938605</c:v>
+                  <c:v>6.414212099958279</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.4073628000226641</c:v>
+                  <c:v>6.3602314351332438</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.3516525258391523</c:v>
+                  <c:v>6.3061020828190593</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3061464152767375</c:v>
+                  <c:v>6.250609493195058</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2618517712077049</c:v>
+                  <c:v>6.2016368899422609</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2167071535949372</c:v>
+                  <c:v>6.1546525579813043</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.1627095446790712</c:v>
+                  <c:v>6.1023295823380295</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.1115662105081814</c:v>
+                  <c:v>6.0579294516238704</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0586540658491126</c:v>
+                  <c:v>6.0039322038643839</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.0039539504270811</c:v>
+                  <c:v>5.9558304373657061</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.9580520001520627</c:v>
+                  <c:v>5.9074405696591041</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.9125769163429815</c:v>
+                  <c:v>5.8638295109164522</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.8620738750201298</c:v>
+                  <c:v>5.8178345373995253</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.8161267306575448</c:v>
+                  <c:v>5.7751015255189806</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7699102633567261</c:v>
+                  <c:v>5.7255259222534001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7295347261479179</c:v>
+                  <c:v>5.6827197418070048</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.6820722905040499</c:v>
+                  <c:v>5.6355713291457965</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.6372494239105038</c:v>
+                  <c:v>5.5951451548726068</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.5972309598566419</c:v>
+                  <c:v>5.5532833085104887</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.5530839491351607</c:v>
+                  <c:v>5.5076882620364405</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.5053762864484952</c:v>
+                  <c:v>5.4661990973591648</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.4596292345038364</c:v>
+                  <c:v>5.4276771354254389</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.4185132850319011</c:v>
+                  <c:v>5.3913008129193134</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.3771220886657769</c:v>
+                  <c:v>5.346037043248332</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.3321951958301517</c:v>
+                  <c:v>5.3010649984861953</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.2921793906360772</c:v>
+                  <c:v>5.2613252071852923</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2517800973832385</c:v>
+                  <c:v>5.2241984415649583</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.2162010356056694</c:v>
+                  <c:v>5.1837642456098312</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.1764079589872267</c:v>
+                  <c:v>5.1424298179884147</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.1376874399431873</c:v>
+                  <c:v>5.1011488396304836</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.101323685242531</c:v>
+                  <c:v>5.0633665179356768</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.0632680633099376</c:v>
+                  <c:v>5.0280836209011248</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.0289415802956636</c:v>
+                  <c:v>4.9901214586897673</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9940389203853011</c:v>
+                  <c:v>4.9563001265539341</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9596148064332679</c:v>
+                  <c:v>4.9279811890023435</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.92009045873007</c:v>
+                  <c:v>4.8896019267239366</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.880623570619373</c:v>
+                  <c:v>4.8531524823861218</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.8474000871187943</c:v>
+                  <c:v>4.820708312403819</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.8086625421854423</c:v>
+                  <c:v>4.7859096409308881</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7740515426776655</c:v>
+                  <c:v>4.7519691273107227</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7381619975489917</c:v>
+                  <c:v>4.7135791423068412</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7030047067174499</c:v>
+                  <c:v>4.6760667484734979</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6715056938480446</c:v>
+                  <c:v>4.6430368940757862</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6381024247464548</c:v>
+                  <c:v>4.6062977418080919</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6013428532826506</c:v>
+                  <c:v>4.5702752195339107</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.5669885978610028</c:v>
+                  <c:v>4.5394618661599022</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.5333854511858318</c:v>
+                  <c:v>4.5068507925626662</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.5045835011950119</c:v>
+                  <c:v>4.4714004474339069</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.471781562748534</c:v>
+                  <c:v>4.4422133326347959</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4368000835328569</c:v>
+                  <c:v>4.410561884178799</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.405185176391381</c:v>
+                  <c:v>4.3806428910327284</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.3714608227160481</c:v>
+                  <c:v>4.3525314374963058</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3421742897726991</c:v>
+                  <c:v>4.3265099074160984</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.3102115426288181</c:v>
+                  <c:v>4.2958248428634551</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.279651647368496</c:v>
+                  <c:v>4.266020913673179</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.248761035398763</c:v>
+                  <c:v>4.2350079303358443</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.2208911440920032</c:v>
+                  <c:v>4.2069152207915748</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.1910526073379053</c:v>
+                  <c:v>4.1830969450215525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7864,307 +7864,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10.044280564513649</c:v>
+                  <c:v>9.9550434571991833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9586748667120659</c:v>
+                  <c:v>9.5150626846984565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6030464150771913</c:v>
+                  <c:v>9.7399734055676586</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1211194560904651</c:v>
+                  <c:v>9.4297042865979694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3700411684024694</c:v>
+                  <c:v>9.4900424516570165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.314792862810986</c:v>
+                  <c:v>8.8150232402752344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7515330135520628</c:v>
+                  <c:v>8.6805453528929757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7611816821618724</c:v>
+                  <c:v>8.8991970371857967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5229075041686198</c:v>
+                  <c:v>8.3968835317025725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2080362026405105</c:v>
+                  <c:v>8.3284530548017841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2245700779887674</c:v>
+                  <c:v>8.3103301095482713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9886609452494293</c:v>
+                  <c:v>7.9923388211290005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8101619816977195</c:v>
+                  <c:v>7.6290888994401396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8806724633509004</c:v>
+                  <c:v>7.4334034392141337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.630779102504869</c:v>
+                  <c:v>7.4513809516514442</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3971121558097552</c:v>
+                  <c:v>7.2228369798312899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.4383143760947261</c:v>
+                  <c:v>6.9669389590478383</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0611352659045687</c:v>
+                  <c:v>7.143688877932072</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.047049222879525</c:v>
+                  <c:v>6.7132675161758275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8442045876441675</c:v>
+                  <c:v>6.9759225895633108</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6850047547363651</c:v>
+                  <c:v>6.9039023106972781</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8088728051799627</c:v>
+                  <c:v>6.8855933297609031</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6881303131185792</c:v>
+                  <c:v>6.5435858024036389</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.5456417968392895</c:v>
+                  <c:v>6.3494335813663483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1303046403849093</c:v>
+                  <c:v>6.2407262597317485</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.966330989624085</c:v>
+                  <c:v>6.1779439437711208</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0545163645036215</c:v>
+                  <c:v>5.810672104109881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9394675273677526</c:v>
+                  <c:v>5.707527561402979</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.5882901739643662</c:v>
+                  <c:v>5.8744956613051826</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.6125378482236146</c:v>
+                  <c:v>5.5055977868566517</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.3066228423436872</c:v>
+                  <c:v>5.4285326943842218</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4458590169814167</c:v>
+                  <c:v>5.1729070624648896</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2855751317161559</c:v>
+                  <c:v>5.3718826311744463</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9303346518869917</c:v>
+                  <c:v>5.1716380493775276</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2239318600840789</c:v>
+                  <c:v>5.1020808932188242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9237504400148495</c:v>
+                  <c:v>5.0667657163329078</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0068723725293305</c:v>
+                  <c:v>4.6665867120023687</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.8050022564302859</c:v>
+                  <c:v>4.915879861545184</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4924482901826313</c:v>
+                  <c:v>4.9716951729160686</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5140049096204393</c:v>
+                  <c:v>4.4850510446310681</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4330200305999501</c:v>
+                  <c:v>4.364084817137269</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.7058688289983115</c:v>
+                  <c:v>4.3253457841557443</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4535746716429552</c:v>
+                  <c:v>4.2639077019798197</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.1975576026910311</c:v>
+                  <c:v>4.1214927016905714</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.9800004711884132</c:v>
+                  <c:v>4.004500592851957</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.345276979559249</c:v>
+                  <c:v>3.8300438368520684</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.310508310236945</c:v>
+                  <c:v>4.0294868778710091</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.178479720198828</c:v>
+                  <c:v>4.0269275059350536</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6436982823648063</c:v>
+                  <c:v>3.6641089300620981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.6791253429944319</c:v>
+                  <c:v>3.9615541292143428</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4827008498935212</c:v>
+                  <c:v>3.3714998121326984</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2798449631668287</c:v>
+                  <c:v>3.5741228019726283</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.6440312100521473</c:v>
+                  <c:v>3.4603749478732801</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.5738749739404678</c:v>
+                  <c:v>3.6249422424040012</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.1988873914144311</c:v>
+                  <c:v>3.4021489464137153</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3561569293013909</c:v>
+                  <c:v>3.4946794613153358</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.246722545419281</c:v>
+                  <c:v>3.0094817748785037</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.498090923720234</c:v>
+                  <c:v>3.308946384043348</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.9890316562854355</c:v>
+                  <c:v>2.9601667293834</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.0537758111134994</c:v>
+                  <c:v>3.2755110946473769</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2613501190050518</c:v>
+                  <c:v>3.1036454354932563</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.918486015433515</c:v>
+                  <c:v>2.7820310480811208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.5994910202808268</c:v>
+                  <c:v>2.9529294769062147</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.6301683285615827</c:v>
+                  <c:v>3.062034217959869</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.8439719579877529</c:v>
+                  <c:v>3.1257307882931071</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.741524821293551</c:v>
+                  <c:v>2.4529510353413548</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.415326804774383</c:v>
+                  <c:v>2.3805204532501891</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.6644086149316912</c:v>
+                  <c:v>2.6517950918620308</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5557430165206383</c:v>
+                  <c:v>2.7546718156961405</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8175977275034412</c:v>
+                  <c:v>2.4426578823531782</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4396863221390768</c:v>
+                  <c:v>2.2949182494788274</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.4372761100166964</c:v>
+                  <c:v>2.2144891594054954</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.53380953754623</c:v>
+                  <c:v>2.3908564856219581</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.3318445532965266</c:v>
+                  <c:v>2.5024817728355746</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.5395733033055343</c:v>
+                  <c:v>2.2254300561727391</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.4248361501103237</c:v>
+                  <c:v>2.4690818534351573</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.3912062715089584</c:v>
+                  <c:v>2.8323897296749951</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9150160056978085</c:v>
+                  <c:v>1.973876256414824</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.8389860183520608</c:v>
+                  <c:v>2.051118187792452</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.2681070311969949</c:v>
+                  <c:v>2.3036927385733583</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7445499464462113</c:v>
+                  <c:v>2.0428733909147092</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0107761046405486</c:v>
+                  <c:v>2.0436607388544004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8318564255079133</c:v>
+                  <c:v>1.5975513999883448</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8213771098974547</c:v>
+                  <c:v>1.5944265921489453</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0669271559367925</c:v>
+                  <c:v>1.9066623721101619</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8355352562360485</c:v>
+                  <c:v>1.5137446929123004</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.4694078646892481</c:v>
+                  <c:v>1.502386024443193</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.6103758940588757</c:v>
+                  <c:v>1.8966327781849541</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6084781058885687</c:v>
+                  <c:v>1.670486036740642</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.9808264816449204</c:v>
+                  <c:v>1.3431833989534288</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5506194924138066</c:v>
+                  <c:v>1.8524214293008516</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2790668111287782</c:v>
+                  <c:v>1.5615102802888225</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.527156856505747</c:v>
+                  <c:v>1.6613219608104444</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2603019703163407</c:v>
+                  <c:v>1.7736390393969379</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.6216736664264637</c:v>
+                  <c:v>1.9188633468128757</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.2997454734287592</c:v>
+                  <c:v>1.4089221534309679</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3733690840586985</c:v>
+                  <c:v>1.4335139912312662</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2779302799332812</c:v>
+                  <c:v>1.2517842312391623</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.5200426490098402</c:v>
+                  <c:v>1.4834996790337986</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2622831313083736</c:v>
+                  <c:v>1.8623343303972852</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.0417412684464331</c:v>
+                  <c:v>1.4749155701073895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12495,23 +12495,23 @@
       </c>
       <c r="E12">
         <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>-6.3118607901715591E-13</v>
+        <v>-1.6993617910809381E-12</v>
       </c>
       <c r="F12">
         <f ca="1">D12+E12</f>
-        <v>9.9999999999993694</v>
+        <v>9.9999999999983</v>
       </c>
       <c r="G12">
         <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>4.4280564514278815E-2</v>
+        <v>-4.4956542799116594E-2</v>
       </c>
       <c r="H12">
         <f ca="1">F12+G12</f>
-        <v>10.044280564513649</v>
+        <v>9.9550434571991833</v>
       </c>
       <c r="J12">
         <f ca="1">H12-D12</f>
-        <v>4.4280564513648812E-2</v>
+        <v>-4.4956542800816734E-2</v>
       </c>
       <c r="M12">
         <f>N2</f>
@@ -12539,23 +12539,23 @@
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E76" ca="1" si="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>1.7000164911917831E-13</v>
+        <v>-9.7794018685118877E-13</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>9.8000000000001712</v>
+        <v>9.7999999999990219</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13:G76" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>0.15867486671189468</v>
+        <v>-0.28493731530056571</v>
       </c>
       <c r="H13">
         <f ca="1">F13+G13</f>
-        <v>9.9586748667120659</v>
+        <v>9.5150626846984565</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:J76" ca="1" si="3">H13-D13</f>
-        <v>0.15867486671206521</v>
+        <v>-0.2849373153015442</v>
       </c>
       <c r="L13">
         <f>M12/(M12+$N$2)</f>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="N13">
         <f ca="1">N12 + L13*(H13 - N12)</f>
-        <v>5.479337433356033</v>
+        <v>5.2575313423492283</v>
       </c>
       <c r="O13">
         <f>$B$2*N12</f>
@@ -12592,23 +12592,23 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.465924115333177E-13</v>
+        <v>1.0212252886865393E-12</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F77" ca="1" si="6">D14+E14</f>
-        <v>9.6039999999996546</v>
+        <v>9.6040000000010224</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.5358492246368611E-4</v>
+        <v>0.13597340556663659</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H77" ca="1" si="7">F14+G14</f>
-        <v>9.6030464150771913</v>
+        <v>9.7399734055676586</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.5358492280972484E-4</v>
+        <v>0.13597340556765758</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:L77" si="8">M13/(M13+$N$2)</f>
@@ -12620,11 +12620,11 @@
       </c>
       <c r="N14">
         <f t="shared" ref="N14:N77" ca="1" si="10">N13 + L14*(H14 - N13)</f>
-        <v>6.8539070939297524</v>
+        <v>6.7516786967553717</v>
       </c>
       <c r="O14">
         <f t="shared" ref="O14:O77" ca="1" si="11">$B$2*N13</f>
-        <v>5.3697506846889125</v>
+        <v>5.1523807155022432</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
@@ -12645,23 +12645,23 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1176066834638299E-13</v>
+        <v>1.8783226049377294E-12</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>9.411919999999288</v>
+        <v>9.4119200000018779</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.29080054390882232</v>
+        <v>1.7784286596091971E-2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1211194560904651</v>
+        <v>9.4297042865979694</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.29080054390953514</v>
+        <v>1.7784286597969157E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="8"/>
@@ -12673,11 +12673,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="10"/>
-        <v>7.4207101844699306</v>
+        <v>7.4211850942160211</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7168289520511575</v>
+        <v>6.6166451228202643</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
@@ -12698,23 +12698,23 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2373453950127735E-13</v>
+        <v>-1.2590544001179644E-13</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2236815999998765</v>
+        <v>9.2236815999998747</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1463595684025924</v>
+        <v>0.26636085165714174</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3700411684024694</v>
+        <v>9.4900424516570165</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14635956840246855</v>
+        <v>0.26636085165701573</v>
       </c>
       <c r="L16">
         <f t="shared" si="8"/>
@@ -12726,11 +12726,11 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8105763812564382</v>
+        <v>7.8349565657042204</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2722959807805321</v>
+        <v>7.2727613923317005</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
@@ -12751,23 +12751,23 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.519474678863929E-13</v>
+        <v>-6.3064134943898797E-13</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0392079679990491</v>
+        <v>9.0392079679993707</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27558489481193671</v>
+        <v>-0.22418472772413553</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
-        <v>9.314792862810986</v>
+        <v>8.8150232402752344</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27558489481098469</v>
+        <v>-0.22418472772476683</v>
       </c>
       <c r="L17">
         <f t="shared" si="8"/>
@@ -12779,11 +12779,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0612791281821963</v>
+        <v>7.9983010114660562</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6543648536313089</v>
+        <v>7.6782574343901357</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
@@ -12804,23 +12804,23 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1799751000244768E-13</v>
+        <v>1.1399630785954763E-12</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8584238086397828</v>
+        <v>8.8584238086411418</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10689079508771991</v>
+        <v>-0.17787845574816655</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7515330135520628</v>
+        <v>8.6805453528929757</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.10689079508793853</v>
+        <v>-0.17787845574702565</v>
       </c>
       <c r="L18">
         <f t="shared" si="8"/>
@@ -12832,11 +12832,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="10"/>
-        <v>8.159886826092178</v>
+        <v>8.0957644888127582</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9000535456185519</v>
+        <v>7.838334991236735</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
@@ -12857,23 +12857,23 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5862759806837769E-13</v>
+        <v>-8.0663240979424703E-13</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6812553324678596</v>
+        <v>8.6812553324663941</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9926349694012105E-2</v>
+        <v>0.21794170471940222</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7611816821618724</v>
+        <v>8.8991970371857967</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9926349694671828E-2</v>
+        <v>0.21794170471859609</v>
       </c>
       <c r="L19">
         <f t="shared" si="8"/>
@@ -12885,11 +12885,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2350486831008904</v>
+        <v>8.196193557359388</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9966890895703342</v>
+        <v>7.9338491990365032</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
@@ -12910,23 +12910,23 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1093218087787305E-12</v>
+        <v>2.1562367726853063E-13</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5076302258157472</v>
+        <v>8.5076302258180707</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5277278352872545E-2</v>
+        <v>-0.11074669411549901</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5229075041686198</v>
+        <v>8.3968835317025725</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5277278350763979E-2</v>
+        <v>-0.11074669411528326</v>
       </c>
       <c r="L20">
         <f t="shared" si="8"/>
@@ -12938,11 +12938,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2670329965528602</v>
+        <v>8.2184924433975191</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.070347709438872</v>
+        <v>8.0322696862121994</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
@@ -12963,23 +12963,23 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2362448356551439E-13</v>
+        <v>-8.3834890103060033E-13</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3374776213019217</v>
+        <v>8.3374776213006605</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12944141866141112</v>
+        <v>-9.024566498876169E-3</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2080362026405105</v>
+        <v>8.3284530548017841</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.12944141866098846</v>
+        <v>-9.0245664997148367E-3</v>
       </c>
       <c r="L21">
         <f t="shared" si="8"/>
@@ -12991,11 +12991,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2611333171616259</v>
+        <v>8.2294885045379456</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1016923366218023</v>
+        <v>8.0541225945295682</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
@@ -13016,23 +13016,23 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9762890020232199E-13</v>
+        <v>-1.783218130500299E-12</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1707280688747712</v>
+        <v>8.1707280688736859</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3842009113996329E-2</v>
+        <v>0.1396020406745857</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2245700779887674</v>
+        <v>8.3103301095482713</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3842009113298062E-2</v>
+        <v>0.13960204067280202</v>
       </c>
       <c r="L22">
         <f t="shared" si="8"/>
@@ -13044,11 +13044,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2578093863277289</v>
+        <v>8.2368377413570659</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0959106508183929</v>
+        <v>8.064898734447187</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
@@ -13069,23 +13069,23 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4644790838083709E-13</v>
+        <v>4.8881865569885483E-13</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0073135074986066</v>
+        <v>8.0073135074984485</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8652562249177062E-2</v>
+        <v>-1.4974686369448306E-2</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9886609452494293</v>
+        <v>7.9923388211290005</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8652562248530735E-2</v>
+        <v>-1.4974686368959489E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
@@ -13097,11 +13097,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2353803495712032</v>
+        <v>8.2164628313380597</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0926531986011749</v>
+        <v>8.0721009865299251</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
@@ -13122,23 +13122,23 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4046494208166855E-13</v>
+        <v>2.5792185252364472E-12</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8471672373488408</v>
+        <v>7.8471672373505799</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.7005255651121276E-2</v>
+        <v>-0.2180783379104399</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8101619816977195</v>
+        <v>7.6290888994401396</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.7005255650281121E-2</v>
+        <v>-0.21807833790786102</v>
       </c>
       <c r="L24">
         <f t="shared" si="8"/>
@@ -13150,11 +13150,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2026712443501655</v>
+        <v>8.171280221192065</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0706727425797791</v>
+        <v>8.0521335747112985</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
@@ -13175,23 +13175,23 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1870042259336886E-13</v>
+        <v>3.9418111571536729E-13</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6902238926009217</v>
+        <v>7.690223892601435</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19044857074997859</v>
+        <v>-0.25682045338730147</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8806724633509004</v>
+        <v>7.4334034392141337</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19044857074985977</v>
+        <v>-0.25682045338690696</v>
       </c>
       <c r="L25">
         <f t="shared" si="8"/>
@@ -13203,11 +13203,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1796713314216465</v>
+        <v>8.1185747367650691</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0386178194631626</v>
+        <v>8.0078546167682241</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
@@ -13228,23 +13228,23 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5124228728564079E-13</v>
+        <v>-1.9232179271997846E-12</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5364194147498704</v>
+        <v>7.5364194147470966</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4359687754998478E-2</v>
+        <v>-8.5038463095652633E-2</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>7.630779102504869</v>
+        <v>7.4513809516514442</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4359687755849464E-2</v>
+        <v>-8.5038463097575345E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="8"/>
@@ -13256,11 +13256,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1430785161605286</v>
+        <v>8.0740951510908268</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0160779047932138</v>
+        <v>7.9562032420297673</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
@@ -13281,23 +13281,23 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0942610686361548E-13</v>
+        <v>-1.7208830190066428E-13</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3856910264546487</v>
+        <v>7.3856910264538671</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1421129355106098E-2</v>
+        <v>-0.16285404662257741</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3971121558097552</v>
+        <v>7.2228369798312899</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>1.142112935571582E-2</v>
+        <v>-0.16285404662274949</v>
       </c>
       <c r="L27">
         <f t="shared" si="8"/>
@@ -13309,11 +13309,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0964556186386059</v>
+        <v>8.0208915153871061</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9802169458373182</v>
+        <v>7.9126132480690101</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
@@ -13334,23 +13334,23 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4366469845605772E-13</v>
+        <v>3.7705528892084105E-13</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2379772059247154</v>
+        <v>7.2379772059253362</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20033717017001096</v>
+        <v>-0.27103824687749767</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4383143760947261</v>
+        <v>6.9669389590478383</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20033717016976738</v>
+        <v>-0.27103824687712041</v>
       </c>
       <c r="L28">
         <f t="shared" si="8"/>
@@ -13362,11 +13362,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="10"/>
-        <v>8.05774142790073</v>
+        <v>7.9588943061906789</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9345265062658337</v>
+        <v>7.8604736850793637</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
@@ -13387,23 +13387,23 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6831082940748533E-12</v>
+        <v>-4.5527662292821057E-13</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0932176618047764</v>
+        <v>7.0932176618060039</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.2082395900207492E-2</v>
+        <v>5.047121612606819E-2</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0611352659045687</v>
+        <v>7.143688877932072</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.208239590189077E-2</v>
+        <v>5.047121612561245E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="8"/>
@@ -13415,11 +13415,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0023744189009438</v>
+        <v>7.9136051157318672</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8965865993427151</v>
+        <v>7.7997164200668649</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
@@ -13440,23 +13440,23 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2284138309192757E-13</v>
+        <v>-6.6444395453820335E-13</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9513533085698072</v>
+        <v>6.9513533085696659</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>9.569591430971823E-2</v>
+        <v>-0.23808579239383842</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>7.047049222879525</v>
+        <v>6.7132675161758275</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5695914309194663E-2</v>
+        <v>-0.23808579239450278</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
@@ -13468,11 +13468,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9520941454261322</v>
+        <v>7.8504294525973384</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8423269305229244</v>
+        <v>7.7553330134172294</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
@@ -13493,23 +13493,23 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7204126855817133E-13</v>
+        <v>-1.727273477095018E-14</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>6.812326242397952</v>
+        <v>6.8123262423989068</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1878345246215571E-2</v>
+        <v>0.16359634716440419</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8442045876441675</v>
+        <v>6.9759225895633108</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>3.18783452452438E-2</v>
+        <v>0.16359634716438709</v>
       </c>
       <c r="L31">
         <f t="shared" si="8"/>
@@ -13521,11 +13521,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8966996675370336</v>
+        <v>7.8067041094456373</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7930522625176097</v>
+        <v>7.6934208635453913</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
@@ -13546,23 +13546,23 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2990618894162903E-13</v>
+        <v>3.3794361191777096E-13</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6760797175518753</v>
+        <v>6.6760797175512829</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9250371844898282E-3</v>
+        <v>0.22782259314599496</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6850047547363651</v>
+        <v>6.9039023106972781</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9250371854197041E-3</v>
+        <v>0.22782259314633269</v>
       </c>
       <c r="L32">
         <f t="shared" si="8"/>
@@ -13574,11 +13574,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8389999097846204</v>
+        <v>7.763713547600477</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7387656741862925</v>
+        <v>7.6505700272567241</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
@@ -13599,23 +13599,23 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2808183600264604E-12</v>
+        <v>3.9387407843017275E-13</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5425581231986456</v>
+        <v>6.5425581232003198</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26631468198131686</v>
+        <v>0.34303520656058339</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8088728051799627</v>
+        <v>6.8855933297609031</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26631468198003638</v>
+        <v>0.34303520656097675</v>
       </c>
       <c r="L33">
         <f t="shared" si="8"/>
@@ -13627,11 +13627,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="10"/>
-        <v>7.7921759504844088</v>
+        <v>7.7237989922441326</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6822199115889278</v>
+        <v>7.6084392766484674</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
@@ -13652,23 +13652,23 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.600965476252075E-12</v>
+        <v>4.6241652227313254E-13</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4117069607375292</v>
+        <v>6.4117069607363906</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27642335238105004</v>
+        <v>0.13187884166724828</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6881303131185792</v>
+        <v>6.5435858024036389</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27642335238265137</v>
+        <v>0.13187884166771102</v>
       </c>
       <c r="L34">
         <f t="shared" si="8"/>
@@ -13680,11 +13680,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="10"/>
-        <v>7.744173966251112</v>
+        <v>7.6724853752945457</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6363324314747203</v>
+        <v>7.5693230123992494</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
@@ -13705,23 +13705,23 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0408624960746603E-13</v>
+        <v>-1.9613998379322819E-12</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2834728215217135</v>
+        <v>6.2834728215192479</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2621689753175756</v>
+        <v>6.5960759847100467E-2</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5456417968392895</v>
+        <v>6.3494335813663483</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26216897531808048</v>
+        <v>6.5960759845139272E-2</v>
       </c>
       <c r="L35">
         <f t="shared" si="8"/>
@@ -13733,11 +13733,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6942351258589525</v>
+        <v>7.6173582172142043</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5892904869260898</v>
+        <v>7.5190356677886543</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
@@ -13758,23 +13758,23 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1033944596737703E-13</v>
+        <v>-5.0669645004891414E-13</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1578033650909951</v>
+        <v>6.1578033650902784</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7498724706085966E-2</v>
+        <v>8.2922894641470235E-2</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1303046403849093</v>
+        <v>6.2407262597317485</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.7498724705875333E-2</v>
+        <v>8.2922894640963918E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="8"/>
@@ -13786,11 +13786,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6316779064399904</v>
+        <v>7.5622929389149061</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5403504233417733</v>
+        <v>7.4650110528699196</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
@@ -13811,23 +13811,23 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4882361855537653E-13</v>
+        <v>-3.3185927348622752E-13</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0346472977884202</v>
+        <v>6.034647297788637</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.8316308164335079E-2</v>
+        <v>0.1432966459824839</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="7"/>
-        <v>5.966330989624085</v>
+        <v>6.1779439437711208</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.8316308164884099E-2</v>
+        <v>0.14329664598215164</v>
       </c>
       <c r="L37">
         <f t="shared" si="8"/>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="10"/>
-        <v>7.567626101947071</v>
+        <v>7.509048746793991</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="11"/>
-        <v>7.4790443483111906</v>
+        <v>7.4110470801366075</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
@@ -13864,23 +13864,23 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3466047962774159E-12</v>
+        <v>1.9332817491520835E-12</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9139543518318431</v>
+        <v>5.9139543518351232</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14056201267177862</v>
+        <v>-0.10328224772524185</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0545163645036215</v>
+        <v>5.810672104109881</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14056201267043189</v>
+        <v>-0.10328224772330863</v>
       </c>
       <c r="L38">
         <f t="shared" si="8"/>
@@ -13892,11 +13892,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5115850005602764</v>
+        <v>7.446145908176061</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="11"/>
-        <v>7.4162735799081299</v>
+        <v>7.3588677718581108</v>
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
@@ -13917,23 +13917,23 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1652861694240188E-13</v>
+        <v>3.0499912311842918E-13</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
-        <v>5.79567526479621</v>
+        <v>5.7956752647968308</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14379226257154251</v>
+        <v>-8.8147703393852125E-2</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="7"/>
-        <v>5.9394675273677526</v>
+        <v>5.707527561402979</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14379226257122646</v>
+        <v>-8.8147703393547161E-2</v>
       </c>
       <c r="L39">
         <f t="shared" si="8"/>
@@ -13945,11 +13945,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="10"/>
-        <v>7.4554379479462574</v>
+        <v>7.3840523957913078</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3613533005490712</v>
+        <v>7.29722299001254</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
@@ -13970,23 +13970,23 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8891711881070317E-13</v>
+        <v>4.5854550805567907E-13</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6797617594999066</v>
+        <v>5.6797617595010541</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.147158553554037E-2</v>
+        <v>0.19473390180412897</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5882901739643662</v>
+        <v>5.8744956613051826</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.1471585536229583E-2</v>
+        <v>0.19473390180458683</v>
       </c>
       <c r="L40">
         <f t="shared" si="8"/>
@@ -13998,11 +13998,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3910535419468815</v>
+        <v>7.3319987152917863</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3063291889873323</v>
+        <v>7.2363713478754814</v>
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
@@ -14023,23 +14023,23 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9750651963168325E-13</v>
+        <v>1.6954495296488899E-12</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5661665243107814</v>
+        <v>5.5661665243122798</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6371323912833384E-2</v>
+        <v>-6.0568737455627852E-2</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6125378482236146</v>
+        <v>5.5055977868566517</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6371323913030338E-2</v>
+        <v>-6.0568737453932542E-2</v>
       </c>
       <c r="L41">
         <f t="shared" si="8"/>
@@ -14051,11 +14051,11 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="10"/>
-        <v>7.331769685489439</v>
+        <v>7.2711186843439481</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2432324711079437</v>
+        <v>7.1853587409859507</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
@@ -14076,23 +14076,23 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5420217523771591E-12</v>
+        <v>-1.3587063788189165E-13</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4548431938259148</v>
+        <v>5.454843193824237</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14822035148222765</v>
+        <v>-2.6310499440015331E-2</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3066228423436872</v>
+        <v>5.4285326943842218</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.14822035148068569</v>
+        <v>-2.6310499440151069E-2</v>
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
@@ -14104,11 +14104,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2664423679686081</v>
+        <v>7.2116804266033121</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1851342917796499</v>
+        <v>7.1256963106570694</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
@@ -14129,23 +14129,23 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7079214997575105E-13</v>
+        <v>-4.3151443025567092E-13</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3457463299482555</v>
+        <v>5.3457463299474535</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10011268703316145</v>
+        <v>-0.17283926748256406</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4458590169814167</v>
+        <v>5.1729070624648896</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1001126870335316</v>
+        <v>-0.1728392674829955</v>
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
@@ -14157,11 +14157,11 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2095491382502583</v>
+        <v>7.1479687589739864</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="11"/>
-        <v>7.121113520609236</v>
+        <v>7.0674468180712458</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
@@ -14186,23 +14186,23 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5074749056926182E-13</v>
+        <v>-1.22387841641953E-12</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2388314033486765</v>
+        <v>5.238831403347703</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6743728367479448E-2</v>
+        <v>0.13305122782674317</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2855751317161559</v>
+        <v>5.3718826311744463</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6743728367228954E-2</v>
+        <v>0.13305122782551937</v>
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
@@ -14214,11 +14214,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="10"/>
-        <v>7.1512468956280131</v>
+        <v>7.0941479672224848</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0653581554852529</v>
+        <v>7.0050093837945067</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
@@ -14243,23 +14243,23 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6949245855836497E-13</v>
+        <v>1.1996889717480959E-12</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1340547752825172</v>
+        <v>5.1340547752831478</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20372012339552567</v>
+        <v>3.7583274094379338E-2</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9303346518869917</v>
+        <v>5.1716380493775276</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.20372012339495615</v>
+        <v>3.7583274095579711E-2</v>
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="10"/>
-        <v>7.0859259472826892</v>
+        <v>7.0376035578741041</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0082219577154525</v>
+        <v>6.9522650078780348</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
@@ -14300,23 +14300,23 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0055745047082295E-12</v>
+        <v>-1.2138739109784059E-12</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0313736797773139</v>
+        <v>5.0313736797750943</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19255818030676536</v>
+        <v>7.070721344372978E-2</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2239318600840789</v>
+        <v>5.1020808932188242</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1925581803077705</v>
+        <v>7.0707213442515737E-2</v>
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
@@ -14328,11 +14328,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="10"/>
-        <v>7.0327261162198713</v>
+        <v>6.9823029103125247</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9442074283370356</v>
+        <v>6.8968514867166215</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
@@ -14357,23 +14357,23 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1066927656384796E-13</v>
+        <v>-8.5040907297901851E-13</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9307462061815928</v>
+        <v>4.9307462061799319</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.9957661667428856E-3</v>
+        <v>0.1360195101529757</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9237504400148495</v>
+        <v>5.0667657163329078</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.9957661659323378E-3</v>
+        <v>0.13601951015212599</v>
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
@@ -14385,11 +14385,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="10"/>
-        <v>6.9741434585475099</v>
+        <v>6.9290935438130905</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8920715938954737</v>
+        <v>6.8426568521062743</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
@@ -14414,23 +14414,23 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7974121160350162E-12</v>
+        <v>-2.8183782855435621E-12</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8321312820589641</v>
+        <v>4.8321312820543483</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17474109047036598</v>
+        <v>-0.16554457005197937</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0068723725293305</v>
+        <v>4.6665867120023687</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17474109047216402</v>
+        <v>-0.16554457005479772</v>
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
@@ -14442,11 +14442,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="10"/>
-        <v>6.9209739697362078</v>
+        <v>6.8679447105209093</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8346605893765595</v>
+        <v>6.7905116729368284</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
@@ -14471,23 +14471,23 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7632168613722954E-14</v>
+        <v>7.9081125235164031E-13</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7354886564160905</v>
+        <v>4.7354886564168135</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9513600014195598E-2</v>
+        <v>0.18039120512837051</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8050022564302859</v>
+        <v>4.915879861545184</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9513600014262877E-2</v>
+        <v>0.18039120512916096</v>
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
@@ -14499,11 +14499,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8652905035965786</v>
+        <v>6.8165745829162852</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7825544903414832</v>
+        <v>6.7305858163104908</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
@@ -14528,23 +14528,23 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3856255129788714E-12</v>
+        <v>1.5803327460530406E-12</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6407788832890882</v>
+        <v>4.6407788832892827</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14833059310645702</v>
+        <v>0.3309162896267861</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4924482901826313</v>
+        <v>4.9716951729160686</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.14833059310507135</v>
+        <v>0.33091628962836594</v>
       </c>
       <c r="L50">
         <f t="shared" si="8"/>
@@ -14556,11 +14556,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8044483955603239</v>
+        <v>6.7692699826598695</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7279846935246468</v>
+        <v>6.6802430912579593</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
@@ -14585,23 +14585,23 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>1.305956264741537E-12</v>
+        <v>-1.2906018597460785E-12</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>4.547963305623254</v>
+        <v>4.5479633056206579</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.3958396002814709E-2</v>
+        <v>-6.2912260989589575E-2</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5140049096204393</v>
+        <v>4.4850510446310681</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.3958396001509072E-2</v>
+        <v>-6.291226099088032E-2</v>
       </c>
       <c r="L51">
         <f t="shared" si="8"/>
@@ -14613,11 +14613,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="10"/>
-        <v>6.747187308411827</v>
+        <v>6.7121645092091491</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="11"/>
-        <v>6.6683594276491176</v>
+        <v>6.6338845830066724</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
@@ -14642,23 +14642,23 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8385157996200477E-13</v>
+        <v>6.8624949617116951E-13</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4570040395090249</v>
+        <v>4.4570040395101955</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.3984008909075236E-2</v>
+        <v>-9.2919222372926311E-2</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4330200305999501</v>
+        <v>4.364084817137269</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.3984008909558874E-2</v>
+        <v>-9.2919222372239929E-2</v>
       </c>
       <c r="L52">
         <f t="shared" si="8"/>
@@ -14670,11 +14670,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6907442040749521</v>
+        <v>6.6548942728171516</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="11"/>
-        <v>6.6122435622435907</v>
+        <v>6.5779212190249661</v>
       </c>
       <c r="P52">
         <f t="shared" si="4"/>
@@ -14699,23 +14699,23 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2030950352214825E-12</v>
+        <v>4.0572369021973373E-13</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3678639587181154</v>
+        <v>4.3678639587197248</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33800487028019649</v>
+        <v>-4.2518174563980785E-2</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7058688289983115</v>
+        <v>4.3253457841557443</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33800487027899262</v>
+        <v>-4.251817456357454E-2</v>
       </c>
       <c r="L53">
         <f t="shared" si="8"/>
@@ -14727,11 +14727,11 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6434852665731272</v>
+        <v>6.5994288326109274</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5569293199934533</v>
+        <v>6.5217963873608085</v>
       </c>
       <c r="P53">
         <f t="shared" si="4"/>
@@ -14756,23 +14756,23 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7836721435868531E-13</v>
+        <v>8.290571488485063E-13</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2805066795456108</v>
+        <v>4.2805066795457609</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17306799209734453</v>
+        <v>-1.6598977565941097E-2</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4535746716429552</v>
+        <v>4.2639077019798197</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17306799209802293</v>
+        <v>-1.6598977565112527E-2</v>
       </c>
       <c r="L54">
         <f t="shared" si="8"/>
@@ -14784,11 +14784,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="10"/>
-        <v>6.5925571132026581</v>
+        <v>6.5451143877125295</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5106155612416643</v>
+        <v>6.4674402559587083</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
@@ -14813,23 +14813,23 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.838259159440054E-13</v>
+        <v>-6.9369524103252574E-13</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1948965459531502</v>
+        <v>4.1948965459533403</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6610567378805875E-3</v>
+        <v>-7.3403844262768581E-2</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1975576026910311</v>
+        <v>4.1214927016905714</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>2.661056736997125E-3</v>
+        <v>-7.3403844263462581E-2</v>
       </c>
       <c r="L55">
         <f t="shared" si="8"/>
@@ -14841,11 +14841,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="10"/>
-        <v>6.5381253061455755</v>
+        <v>6.4900320766665756</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="11"/>
-        <v>6.460705970938605</v>
+        <v>6.414212099958279</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
@@ -14870,23 +14870,23 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7340477877076354E-13</v>
+        <v>1.4484906522613777E-12</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1109986150347799</v>
+        <v>4.1109986150364017</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.13099814384636699</v>
+        <v>-0.10649802218444429</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="7"/>
-        <v>3.9800004711884132</v>
+        <v>4.004500592851957</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.13099814384653996</v>
+        <v>-0.10649802218299609</v>
       </c>
       <c r="L56">
         <f t="shared" si="8"/>
@@ -14898,11 +14898,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4812780875909715</v>
+        <v>6.4347980436929175</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4073628000226641</v>
+        <v>6.3602314351332438</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
@@ -14927,23 +14927,23 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>1.193161153877999E-13</v>
+        <v>-2.7493917306560078E-12</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0287786427343732</v>
+        <v>4.0287786427315044</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31649833682487571</v>
+        <v>-0.19873480587943626</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="7"/>
-        <v>4.345276979559249</v>
+        <v>3.8300438368520684</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31649833682499473</v>
+        <v>-0.19873480588218584</v>
       </c>
       <c r="L57">
         <f t="shared" si="8"/>
@@ -14955,11 +14955,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4348432808946301</v>
+        <v>6.3781729522398551</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3516525258391523</v>
+        <v>6.3061020828190593</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
@@ -14980,23 +14980,23 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1353329627285637E-13</v>
+        <v>9.3949077979265591E-13</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9482030698804826</v>
+        <v>3.9482030698805088</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36230524035646267</v>
+        <v>8.1283807990500667E-2</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="7"/>
-        <v>4.310508310236945</v>
+        <v>4.0294868778710091</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36230524035737588</v>
+        <v>8.1283807991439971E-2</v>
       </c>
       <c r="L58">
         <f t="shared" si="8"/>
@@ -15008,11 +15008,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3896446644976583</v>
+        <v>6.328200908104348</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3061464152767375</v>
+        <v>6.250609493195058</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
@@ -15033,23 +15033,23 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7897135922729747E-13</v>
+        <v>-9.9264555688632209E-13</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8692390084829564</v>
+        <v>3.8692390084809851</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30924071171587114</v>
+        <v>0.15768849745406863</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="7"/>
-        <v>4.178479720198828</v>
+        <v>4.0269275059350536</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3092407117168503</v>
+        <v>0.15768849745307589</v>
       </c>
       <c r="L59">
         <f t="shared" si="8"/>
@@ -15061,11 +15061,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3435787281580991</v>
+        <v>6.2802577122258212</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2618517712077049</v>
+        <v>6.2016368899422609</v>
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
@@ -15086,23 +15086,23 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3547076790688422E-13</v>
+        <v>1.9031930080635341E-12</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7918542283118026</v>
+        <v>3.7918542283142416</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1481559459469963</v>
+        <v>-0.12774529825214351</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6436982823648063</v>
+        <v>3.6641089300620981</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.1481559459475319</v>
+        <v>-0.12774529825024006</v>
       </c>
       <c r="L60">
         <f t="shared" si="8"/>
@@ -15114,11 +15114,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="10"/>
-        <v>6.2884791272235425</v>
+        <v>6.2268669207530918</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2167071535949372</v>
+        <v>6.1546525579813043</v>
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
@@ -15139,23 +15139,23 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3970014517299047E-12</v>
+        <v>3.2154935697192361E-13</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7160171437446943</v>
+        <v>3.7160171437464129</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.6891800750262459E-2</v>
+        <v>0.24553698546793001</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6791253429944319</v>
+        <v>3.9615541292143428</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.6891800751659432E-2</v>
+        <v>0.24553698546825142</v>
       </c>
       <c r="L61">
         <f t="shared" si="8"/>
@@ -15167,11 +15167,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="10"/>
-        <v>6.2362920515389604</v>
+        <v>6.1815606649223165</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1627095446790712</v>
+        <v>6.1023295823380295</v>
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
@@ -15192,23 +15192,23 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3776929739775125E-12</v>
+        <v>5.295878740608438E-13</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="6"/>
-        <v>3.641696800872547</v>
+        <v>3.6416968008716992</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15899595097902597</v>
+        <v>-0.27019698873900061</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4827008498935212</v>
+        <v>3.3714998121326984</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.15899595097764818</v>
+        <v>-0.27019698873847098</v>
       </c>
       <c r="L62">
         <f t="shared" si="8"/>
@@ -15220,11 +15220,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="10"/>
-        <v>6.1823000671929718</v>
+        <v>6.1264614325146773</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1115662105081814</v>
+        <v>6.0579294516238704</v>
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
@@ -15245,23 +15245,23 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.090407477429988E-12</v>
+        <v>5.7414344641589405E-13</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5688628648526559</v>
+        <v>3.5688628648543204</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.28901790168582703</v>
+        <v>5.2599371183081577E-3</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2798449631668287</v>
+        <v>3.5741228019726283</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.28901790168691743</v>
+        <v>5.2599371188821742E-3</v>
       </c>
       <c r="L63">
         <f t="shared" si="8"/>
@@ -15273,11 +15273,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="10"/>
-        <v>6.126483622884777</v>
+        <v>6.0773779973119453</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="11"/>
-        <v>6.0586540658491126</v>
+        <v>6.0039322038643839</v>
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
@@ -15298,23 +15298,23 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4321589510744885E-12</v>
+        <v>-2.8975430559626374E-13</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4974856075581036</v>
+        <v>3.4974856075563818</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14654560249404353</v>
+        <v>-3.7110659683101531E-2</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6440312100521473</v>
+        <v>3.4603749478732801</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14654560249547588</v>
+        <v>-3.7110659683391223E-2</v>
       </c>
       <c r="L64">
         <f t="shared" si="8"/>
@@ -15326,11 +15326,11 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="10"/>
-        <v>6.07964489811435</v>
+        <v>6.0280005812848003</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="11"/>
-        <v>6.0039539504270811</v>
+        <v>5.9558304373657061</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
@@ -15351,23 +15351,23 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>9.248934860883134E-13</v>
+        <v>9.2732786754716067E-14</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>3.427535895406463</v>
+        <v>3.4275358954056308</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14633907853400477</v>
+        <v>0.19740634699837029</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5738749739404678</v>
+        <v>3.6249422424040012</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14633907853492989</v>
+        <v>0.19740634699846327</v>
       </c>
       <c r="L65">
         <f t="shared" si="8"/>
@@ -15379,11 +15379,11 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="10"/>
-        <v>6.0332417513703893</v>
+        <v>5.9834995009351557</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9580520001520627</v>
+        <v>5.9074405696591041</v>
       </c>
       <c r="P65">
         <f t="shared" si="4"/>
@@ -15404,23 +15404,23 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8371301284952871E-13</v>
+        <v>-6.7944056006652703E-13</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3589851774968436</v>
+        <v>3.3589851774967476</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16009778608241249</v>
+        <v>4.3163768916967833E-2</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1988873914144311</v>
+        <v>3.4021489464137153</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.16009778608299596</v>
+        <v>4.3163768916288259E-2</v>
       </c>
       <c r="L66">
         <f t="shared" si="8"/>
@@ -15432,11 +15432,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="10"/>
-        <v>5.981708035734826</v>
+        <v>5.9365658544893112</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9125769163429815</v>
+        <v>5.8638295109164522</v>
       </c>
       <c r="P66">
         <f t="shared" si="4"/>
@@ -15457,23 +15457,23 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.046700066322131E-12</v>
+        <v>-9.9499349885904408E-13</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>3.291805473946432</v>
+        <v>3.2918054739464835</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4351455354958981E-2</v>
+        <v>0.20287398736885209</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3561569293013909</v>
+        <v>3.4946794613153358</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4351455353912179E-2</v>
+        <v>0.20287398736785711</v>
       </c>
       <c r="L67">
         <f t="shared" si="8"/>
@@ -15485,11 +15485,11 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="10"/>
-        <v>5.9348231945485148</v>
+        <v>5.8929607403254902</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8620738750201298</v>
+        <v>5.8178345373995253</v>
       </c>
       <c r="P67">
         <f t="shared" si="4"/>
@@ -15510,23 +15510,23 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0011757777501549E-13</v>
+        <v>1.7835344674980655E-12</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2259693644683289</v>
+        <v>3.2259693644703127</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0753180950951813E-2</v>
+        <v>-0.21648758959180903</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="7"/>
-        <v>3.246722545419281</v>
+        <v>3.0094817748785037</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0753180950751737E-2</v>
+        <v>-0.21648758959002556</v>
       </c>
       <c r="L68">
         <f t="shared" si="8"/>
@@ -15538,11 +15538,11 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8876635340374754</v>
+        <v>5.8423733900544903</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8161267306575448</v>
+        <v>5.7751015255189806</v>
       </c>
       <c r="P68">
         <f t="shared" si="4"/>
@@ -15563,23 +15563,23 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6356505324152891E-13</v>
+        <v>-1.5295224060950372E-12</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1614499771798221</v>
+        <v>3.1614499771776292</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33664094654041193</v>
+        <v>0.14749640686571891</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="7"/>
-        <v>3.498090923720234</v>
+        <v>3.308946384043348</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33664094654107535</v>
+        <v>0.1474964068641893</v>
       </c>
       <c r="L69">
         <f t="shared" si="8"/>
@@ -15591,11 +15591,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8464640062733855</v>
+        <v>5.7986936140887808</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7699102633567261</v>
+        <v>5.7255259222534001</v>
       </c>
       <c r="P69">
         <f t="shared" si="4"/>
@@ -15616,23 +15616,23 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5363825295440867E-13</v>
+        <v>7.0998336459192295E-14</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0982209776351217</v>
+        <v>3.0982209776356466</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10918932134968634</v>
+        <v>-0.13805424825224646</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9890316562854355</v>
+        <v>2.9601667293834</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.10918932135014003</v>
+        <v>-0.1380542482521756</v>
       </c>
       <c r="L70">
         <f t="shared" si="8"/>
@@ -15644,11 +15644,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7980329494939289</v>
+        <v>5.7505829889242825</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7295347261479179</v>
+        <v>5.6827197418070048</v>
       </c>
       <c r="P70">
         <f t="shared" si="4"/>
@@ -15669,23 +15669,23 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2877458353247304E-13</v>
+        <v>6.5701136645258554E-13</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0362565580827354</v>
+        <v>3.036256558083521</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7519253030763949E-2</v>
+        <v>0.23925453656385579</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0537758111134994</v>
+        <v>3.2755110946473769</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7519253030635173E-2</v>
+        <v>0.23925453656451268</v>
       </c>
       <c r="L71">
         <f t="shared" si="8"/>
@@ -15697,11 +15697,11 @@
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7522953305209219</v>
+        <v>5.7093317906863339</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6820722905040499</v>
+        <v>5.6355713291457965</v>
       </c>
       <c r="P71">
         <f t="shared" si="4"/>
@@ -15722,23 +15722,23 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1713036314579264E-12</v>
+        <v>1.9361670999057012E-12</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9755314269223785</v>
+        <v>2.9755314269231432</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28581869208267335</v>
+        <v>0.12811400857011332</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2613501190050518</v>
+        <v>3.1036454354932563</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28581869208384481</v>
+        <v>0.12811400857204935</v>
       </c>
       <c r="L72">
         <f t="shared" si="8"/>
@@ -15750,11 +15750,11 @@
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="10"/>
-        <v>5.711460163119022</v>
+        <v>5.6666156209290701</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6372494239105038</v>
+        <v>5.5951451548726068</v>
       </c>
       <c r="P72">
         <f t="shared" si="4"/>
@@ -15775,23 +15775,23 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0509106818964853E-12</v>
+        <v>-1.8010738286574917E-12</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9160207983838333</v>
+        <v>2.9160207983809814</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4652170496815718E-3</v>
+        <v>-0.13398975029986068</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="7"/>
-        <v>2.918486015433515</v>
+        <v>2.7820310480811208</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4652170507324378E-3</v>
+        <v>-0.13398975030166183</v>
       </c>
       <c r="L73">
         <f t="shared" si="8"/>
@@ -15803,11 +15803,11 @@
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6664121929950619</v>
+        <v>5.6200900633024906</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5972309598566419</v>
+        <v>5.5532833085104887</v>
       </c>
       <c r="P73">
         <f t="shared" si="4"/>
@@ -15828,23 +15828,23 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>2.084511788052258E-12</v>
+        <v>4.6354001862391077E-13</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8577003824172116</v>
+        <v>2.8577003824155907</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.25820936213638496</v>
+        <v>9.5229094490623917E-2</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5994910202808268</v>
+        <v>2.9529294769062147</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.25820936213430024</v>
+        <v>9.5229094491087629E-2</v>
       </c>
       <c r="L74">
         <f t="shared" si="8"/>
@@ -15856,11 +15856,11 @@
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6177309045392807</v>
+        <v>5.5777541809787401</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5530839491351607</v>
+        <v>5.5076882620364405</v>
       </c>
       <c r="P74">
         <f t="shared" si="4"/>
@@ -15881,23 +15881,23 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9324795952292328E-13</v>
+        <v>6.9704947994182805E-13</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8005463747666313</v>
+        <v>2.8005463747675217</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17037804620504882</v>
+        <v>0.26148784319234714</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6301683285615827</v>
+        <v>3.062034217959869</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.17037804620524177</v>
+        <v>0.26148784319304452</v>
       </c>
       <c r="L75">
         <f t="shared" si="8"/>
@@ -15909,11 +15909,11 @@
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5710502392896295</v>
+        <v>5.5384460565565705</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5053762864484952</v>
+        <v>5.4661990973591648</v>
       </c>
       <c r="P75">
         <f t="shared" si="4"/>
@@ -15934,23 +15934,23 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2267331132800329E-12</v>
+        <v>1.6447209709438561E-12</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7445354472727144</v>
+        <v>2.7445354472731327</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="2"/>
-        <v>9.943651071503834E-2</v>
+        <v>0.38119534101997465</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8439719579877529</v>
+        <v>3.1257307882931071</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9436510716265136E-2</v>
+        <v>0.38119534102161934</v>
       </c>
       <c r="L76">
         <f t="shared" si="8"/>
@@ -15962,11 +15962,11 @@
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5290951888080624</v>
+        <v>5.5013273601217483</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4596292345038364</v>
+        <v>5.4276771354254389</v>
       </c>
       <c r="P76">
         <f t="shared" si="4"/>
@@ -15987,23 +15987,23 @@
       </c>
       <c r="E77">
         <f t="shared" ref="E77:E112" ca="1" si="13">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
-        <v>7.190112732583887E-13</v>
+        <v>-7.3842198502824128E-13</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>2.689644738326777</v>
+        <v>2.6896447383253195</v>
       </c>
       <c r="G77">
         <f t="shared" ref="G77:G112" ca="1" si="14">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>5.1880082966773877E-2</v>
+        <v>-0.23669370298396483</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="7"/>
-        <v>2.741524821293551</v>
+        <v>2.4529510353413548</v>
       </c>
       <c r="J77">
         <f t="shared" ref="J77:J112" ca="1" si="15">H77-D77</f>
-        <v>5.1880082967493024E-2</v>
+        <v>-0.23669370298470316</v>
       </c>
       <c r="L77">
         <f t="shared" si="8"/>
@@ -16015,11 +16015,11 @@
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="10"/>
-        <v>5.4868592741487516</v>
+        <v>5.4551398400493181</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4185132850319011</v>
+        <v>5.3913008129193134</v>
       </c>
       <c r="P77">
         <f t="shared" ref="P77:P112" si="16">$B$2*M77*$B$2</f>
@@ -16040,23 +16040,23 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="13"/>
-        <v>6.506500869069731E-13</v>
+        <v>-8.2293708225424084E-13</v>
       </c>
       <c r="F78">
         <f t="shared" ref="F78:F112" ca="1" si="18">D78+E78</f>
-        <v>2.6358518435601872</v>
+        <v>2.6358518435587137</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.22052503878580412</v>
+        <v>-0.25533139030852475</v>
       </c>
       <c r="H78">
         <f t="shared" ref="H78:H112" ca="1" si="19">F78+G78</f>
-        <v>2.415326804774383</v>
+        <v>2.3805204532501891</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.22052503878515362</v>
+        <v>-0.25533139030934748</v>
       </c>
       <c r="L78">
         <f t="shared" ref="L78:L112" si="20">M77/(M77+$N$2)</f>
@@ -16068,11 +16068,11 @@
       </c>
       <c r="N78">
         <f t="shared" ref="N78:N112" ca="1" si="22">N77 + L78*(H78 - N77)</f>
-        <v>5.4410155059491343</v>
+        <v>5.4092499984553015</v>
       </c>
       <c r="O78">
         <f t="shared" ref="O78:O112" ca="1" si="23">$B$2*N77</f>
-        <v>5.3771220886657769</v>
+        <v>5.346037043248332</v>
       </c>
       <c r="P78">
         <f t="shared" si="16"/>
@@ -16093,23 +16093,23 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.077841365293483E-13</v>
+        <v>2.9785807918061459E-13</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="18"/>
-        <v>2.583134806687938</v>
+        <v>2.5831348066886437</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="14"/>
-        <v>8.1273808243753021E-2</v>
+        <v>6.8660285173387278E-2</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="19"/>
-        <v>2.6644086149316912</v>
+        <v>2.6517950918620308</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="15"/>
-        <v>8.1273808243345513E-2</v>
+        <v>6.8660285173685054E-2</v>
       </c>
       <c r="L79">
         <f t="shared" si="20"/>
@@ -16121,11 +16121,11 @@
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="22"/>
-        <v>5.4001830516694662</v>
+        <v>5.3686991910054003</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="23"/>
-        <v>5.3321951958301517</v>
+        <v>5.3010649984861953</v>
       </c>
       <c r="P79">
         <f t="shared" si="16"/>
@@ -16146,23 +16146,23 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="13"/>
-        <v>9.8045839261493869E-13</v>
+        <v>-1.8740561221702603E-12</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="18"/>
-        <v>2.5314721105555593</v>
+        <v>2.5314721105527047</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4270905965079071E-2</v>
+        <v>0.2231997051434359</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="19"/>
-        <v>2.5557430165206383</v>
+        <v>2.7546718156961405</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4270905966059519E-2</v>
+        <v>0.22319970514156173</v>
       </c>
       <c r="L80">
         <f t="shared" si="20"/>
@@ -16174,11 +16174,11 @@
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3589592830441211</v>
+        <v>5.3308147362907734</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2921793906360772</v>
+        <v>5.2613252071852923</v>
       </c>
       <c r="P80">
         <f t="shared" si="16"/>
@@ -16199,23 +16199,23 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.9854728374592819E-13</v>
+        <v>9.5125677456634479E-13</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4808426683428886</v>
+        <v>2.4808426683444385</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33675505916055259</v>
+        <v>-3.8184785991260344E-2</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="19"/>
-        <v>2.8175977275034412</v>
+        <v>2.4426578823531782</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33675505915995396</v>
+        <v>-3.8184785990309056E-2</v>
       </c>
       <c r="L81">
         <f t="shared" si="20"/>
@@ -16227,11 +16227,11 @@
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3226541179649685</v>
+        <v>5.2895553526630934</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2517800973832385</v>
+        <v>5.2241984415649583</v>
       </c>
       <c r="P81">
         <f t="shared" si="16"/>
@@ -16252,23 +16252,23 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="13"/>
-        <v>-8.2424291021532583E-13</v>
+        <v>7.1547014612438485E-13</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="18"/>
-        <v>2.431225814975793</v>
+        <v>2.4312258149773327</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="14"/>
-        <v>8.4605071632839358E-3</v>
+        <v>-0.13630756549850548</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4396863221390768</v>
+        <v>2.2949182494788274</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="15"/>
-        <v>8.4605071624594963E-3</v>
+        <v>-0.13630756549778988</v>
       </c>
       <c r="L82">
         <f t="shared" si="20"/>
@@ -16280,11 +16280,11 @@
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2820489377420685</v>
+        <v>5.2473773652943008</v>
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2162010356056694</v>
+        <v>5.1837642456098312</v>
       </c>
       <c r="P82">
         <f t="shared" si="16"/>
@@ -16305,23 +16305,23 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="13"/>
-        <v>-4.7984282857741021E-14</v>
+        <v>5.9607571549420072E-13</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3826012986770371</v>
+        <v>2.382601298677681</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="14"/>
-        <v>5.4674811339659304E-2</v>
+        <v>-0.16811213927218571</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4372761100166964</v>
+        <v>2.2144891594054954</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="15"/>
-        <v>5.4674811339611384E-2</v>
+        <v>-0.16811213927158963</v>
       </c>
       <c r="L83">
         <f t="shared" si="20"/>
@@ -16333,11 +16333,11 @@
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2425382040236608</v>
+        <v>5.2052539179902899</v>
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="23"/>
-        <v>5.1764079589872267</v>
+        <v>5.1424298179884147</v>
       </c>
       <c r="P83">
         <f t="shared" si="16"/>
@@ -16358,23 +16358,23 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9146428041209313E-13</v>
+        <v>-8.989672672597285E-13</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3349492727039345</v>
+        <v>2.3349492727026444</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="14"/>
-        <v>0.19886026484229558</v>
+        <v>5.5907212919313692E-2</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="19"/>
-        <v>2.53380953754623</v>
+        <v>2.3908564856219581</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19886026484268671</v>
+        <v>5.5907212918414828E-2</v>
       </c>
       <c r="L84">
         <f t="shared" si="20"/>
@@ -16386,11 +16386,11 @@
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2054323318801341</v>
+        <v>5.1667005285057925</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="23"/>
-        <v>5.1376874399431873</v>
+        <v>5.1011488396304836</v>
       </c>
       <c r="P84">
         <f t="shared" si="16"/>
@@ -16411,23 +16411,23 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="13"/>
-        <v>7.8138979597138558E-14</v>
+        <v>2.5318577729513447E-13</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2882502872495505</v>
+        <v>2.2882502872497255</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3594266046976138E-2</v>
+        <v>0.21423148558584904</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="19"/>
-        <v>2.3318445532965266</v>
+        <v>2.5024817728355746</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="15"/>
-        <v>4.3594266047054298E-2</v>
+        <v>0.21423148558610228</v>
       </c>
       <c r="L85">
         <f t="shared" si="20"/>
@@ -16439,11 +16439,11 @@
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="22"/>
-        <v>5.166600064601977</v>
+        <v>5.1306975723480868</v>
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="23"/>
-        <v>5.101323685242531</v>
+        <v>5.0633665179356768</v>
       </c>
       <c r="P85">
         <f t="shared" si="16"/>
@@ -16464,23 +16464,23 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.3675669130759736E-12</v>
+        <v>-3.6494261120568804E-15</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2424852815031153</v>
+        <v>2.2424852815044791</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="14"/>
-        <v>0.29708802180241906</v>
+        <v>-1.7055225331739823E-2</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="19"/>
-        <v>2.5395733033055343</v>
+        <v>2.2254300561727391</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="15"/>
-        <v>0.29708802180105165</v>
+        <v>-1.7055225331743529E-2</v>
       </c>
       <c r="L86">
         <f t="shared" si="20"/>
@@ -16492,11 +16492,11 @@
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="22"/>
-        <v>5.131573041118024</v>
+        <v>5.0919606721324158</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="23"/>
-        <v>5.0632680633099376</v>
+        <v>5.0280836209011248</v>
       </c>
       <c r="P86">
         <f t="shared" si="16"/>
@@ -16517,23 +16517,23 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.8615214684035238E-12</v>
+        <v>8.3683399348482356E-15</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="18"/>
-        <v>2.1976355758725314</v>
+        <v>2.1976355758744015</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22720057423779233</v>
+        <v>0.27144627756075573</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4248361501103237</v>
+        <v>2.4690818534351573</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="15"/>
-        <v>0.22720057423593065</v>
+        <v>0.27144627756076423</v>
       </c>
       <c r="L87">
         <f t="shared" si="20"/>
@@ -16545,11 +16545,11 @@
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0959580820258177</v>
+        <v>5.0574491087285045</v>
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="23"/>
-        <v>5.0289415802956636</v>
+        <v>4.9901214586897673</v>
       </c>
       <c r="P87">
         <f t="shared" si="16"/>
@@ -16570,23 +16570,23 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="13"/>
-        <v>8.268466352922156E-13</v>
+        <v>-2.6423587853870823E-13</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="18"/>
-        <v>2.1536828643577319</v>
+        <v>2.1536828643566408</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="14"/>
-        <v>0.23752340715122644</v>
+        <v>0.67870686531835456</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="19"/>
-        <v>2.3912062715089584</v>
+        <v>2.8323897296749951</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="15"/>
-        <v>0.23752340715205333</v>
+        <v>0.6787068653180901</v>
       </c>
       <c r="L88">
         <f t="shared" si="20"/>
@@ -16598,11 +16598,11 @@
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="22"/>
-        <v>5.060831435135988</v>
+        <v>5.0285522336758612</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="23"/>
-        <v>4.9940389203853011</v>
+        <v>4.9563001265539341</v>
       </c>
       <c r="P88">
         <f t="shared" si="16"/>
@@ -16623,23 +16623,23 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.5191482629405649E-13</v>
+        <v>2.8764626282921637E-13</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="18"/>
-        <v>2.1106092070692148</v>
+        <v>2.1106092070700546</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.19559320137140646</v>
+        <v>-0.13673295065523058</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9150160056978085</v>
+        <v>1.973876256414824</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.19559320137195835</v>
+        <v>-0.13673295065494284</v>
       </c>
       <c r="L89">
         <f t="shared" si="20"/>
@@ -16651,11 +16651,11 @@
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0205004680919085</v>
+        <v>4.9893897211468738</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="23"/>
-        <v>4.9596148064332679</v>
+        <v>4.9279811890023435</v>
       </c>
       <c r="P89">
         <f t="shared" si="16"/>
@@ -16676,23 +16676,23 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="13"/>
-        <v>-8.5302654227666781E-13</v>
+        <v>5.004835625193571E-13</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0683970229275186</v>
+        <v>2.0683970229288722</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.22941100457545774</v>
+        <v>-1.7278835136420288E-2</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8389860183520608</v>
+        <v>2.051118187792452</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.22941100457631092</v>
+        <v>-1.7278835135919657E-2</v>
       </c>
       <c r="L90">
         <f t="shared" si="20"/>
@@ -16704,11 +16704,11 @@
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="22"/>
-        <v>4.9802281332850749</v>
+        <v>4.9521964105980834</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="23"/>
-        <v>4.92009045873007</v>
+        <v>4.8896019267239366</v>
       </c>
       <c r="P90">
         <f t="shared" si="16"/>
@@ -16729,23 +16729,23 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0179064937047947E-12</v>
+        <v>4.5269356607640595E-13</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="18"/>
-        <v>2.027029082471822</v>
+        <v>2.0270290824702566</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="14"/>
-        <v>0.24107794872517263</v>
+        <v>0.2766636561031019</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="19"/>
-        <v>2.2681070311969949</v>
+        <v>2.3036927385733583</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="15"/>
-        <v>0.24107794872719079</v>
+        <v>0.27666365610355426</v>
       </c>
       <c r="L91">
         <f t="shared" si="20"/>
@@ -16757,11 +16757,11 @@
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="22"/>
-        <v>4.9463266195089739</v>
+        <v>4.9190901146977746</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="23"/>
-        <v>4.880623570619373</v>
+        <v>4.8531524823861218</v>
       </c>
       <c r="P91">
         <f t="shared" si="16"/>
@@ -16782,23 +16782,23 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8308356179705111E-12</v>
+        <v>7.3676153384381632E-13</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9864885008222386</v>
+        <v>1.9864885008211446</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.24193855437602729</v>
+        <v>5.6384890093564566E-2</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7445499464462113</v>
+        <v>2.0428733909147092</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.24193855437419653</v>
+        <v>5.6384890094301365E-2</v>
       </c>
       <c r="L92">
         <f t="shared" si="20"/>
@@ -16810,11 +16810,11 @@
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="22"/>
-        <v>4.9067985124341247</v>
+        <v>4.8835812662560087</v>
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="23"/>
-        <v>4.8474000871187943</v>
+        <v>4.820708312403819</v>
       </c>
       <c r="P92">
         <f t="shared" si="16"/>
@@ -16835,23 +16835,23 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.1881097027875012E-13</v>
+        <v>-1.3909795888607236E-12</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="18"/>
-        <v>1.946758730803781</v>
+        <v>1.9467587308026089</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="14"/>
-        <v>6.4017373836767463E-2</v>
+        <v>9.6902008051791624E-2</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="19"/>
-        <v>2.0107761046405486</v>
+        <v>2.0436607388544004</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="15"/>
-        <v>6.4017373836548819E-2</v>
+        <v>9.6902008050400612E-2</v>
       </c>
       <c r="L93">
         <f t="shared" si="20"/>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8714811659976176</v>
+        <v>4.8489480890925742</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="23"/>
-        <v>4.8086625421854423</v>
+        <v>4.7859096409308881</v>
       </c>
       <c r="P93">
         <f t="shared" si="16"/>
@@ -16888,23 +16888,23 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3703709184068512E-13</v>
+        <v>2.8778765369679929E-14</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9078235561882568</v>
+        <v>1.9078235561879486</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.5967130680343525E-2</v>
+        <v>-0.31027215619960391</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8318564255079133</v>
+        <v>1.5975513999883448</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="15"/>
-        <v>-7.5967130680006489E-2</v>
+        <v>-0.31027215619957493</v>
       </c>
       <c r="L94">
         <f t="shared" si="20"/>
@@ -16916,11 +16916,11 @@
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8348591811724404</v>
+        <v>4.8097746350069812</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="23"/>
-        <v>4.7740515426776655</v>
+        <v>4.7519691273107227</v>
       </c>
       <c r="P94">
         <f t="shared" si="16"/>
@@ -16941,23 +16941,23 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="13"/>
-        <v>9.9939491087850111E-14</v>
+        <v>-3.0015603403151743E-13</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8696670850642612</v>
+        <v>1.869667085063861</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="14"/>
-        <v>-4.8289975166806401E-2</v>
+        <v>-0.27524049291491565</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8213771098974547</v>
+        <v>1.5944265921489453</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="15"/>
-        <v>-4.8289975166706522E-2</v>
+        <v>-0.27524049291521591</v>
       </c>
       <c r="L95">
         <f t="shared" si="20"/>
@@ -16969,11 +16969,11 @@
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7989843946096427</v>
+        <v>4.7714966821158145</v>
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="23"/>
-        <v>4.7381619975489917</v>
+        <v>4.7135791423068412</v>
       </c>
       <c r="P95">
         <f t="shared" si="16"/>
@@ -16994,23 +16994,23 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2168472324672357E-12</v>
+        <v>1.5790568164411692E-12</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8322737433640948</v>
+        <v>1.8322737433644569</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="14"/>
-        <v>0.23465341257269792</v>
+        <v>7.4388628745705038E-2</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="19"/>
-        <v>2.0669271559367925</v>
+        <v>1.9066623721101619</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="15"/>
-        <v>0.23465341257391459</v>
+        <v>7.4388628747283914E-2</v>
       </c>
       <c r="L96">
         <f t="shared" si="20"/>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7668425447429028</v>
+        <v>4.7377927490569247</v>
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="23"/>
-        <v>4.7030047067174499</v>
+        <v>4.6760667484734979</v>
       </c>
       <c r="P96">
         <f t="shared" si="16"/>
@@ -17047,23 +17047,23 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.1002759925519461E-14</v>
+        <v>2.1407623947539548E-12</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="18"/>
-        <v>1.7956282684955993</v>
+        <v>1.7956282684977611</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9906987740449096E-2</v>
+        <v>-0.28188357558546068</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8355352562360485</v>
+        <v>1.5137446929123004</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="15"/>
-        <v>3.9906987740428113E-2</v>
+        <v>-0.28188357558332</v>
       </c>
       <c r="L97">
         <f t="shared" si="20"/>
@@ -17075,11 +17075,11 @@
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7327575762718928</v>
+        <v>4.7003038181715224</v>
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="23"/>
-        <v>4.6715056938480446</v>
+        <v>4.6430368940757862</v>
       </c>
       <c r="P97">
         <f t="shared" si="16"/>
@@ -17100,23 +17100,23 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="13"/>
-        <v>2.9512276480760199E-12</v>
+        <v>8.258879715952557E-13</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="18"/>
-        <v>1.7597157031286592</v>
+        <v>1.7597157031265338</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.29030783843941105</v>
+        <v>-0.25732967868334072</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4694078646892481</v>
+        <v>1.502386024443193</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.29030783843645991</v>
+        <v>-0.257329678682515</v>
       </c>
       <c r="L98">
         <f t="shared" si="20"/>
@@ -17128,11 +17128,11 @@
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="22"/>
-        <v>4.6952478094720922</v>
+        <v>4.6635461423815414</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="23"/>
-        <v>4.6381024247464548</v>
+        <v>4.6062977418080919</v>
       </c>
       <c r="P98">
         <f t="shared" si="16"/>
@@ -17153,23 +17153,23 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.1575596548497189E-14</v>
+        <v>1.1324437759464174E-13</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="18"/>
-        <v>1.7245213890631823</v>
+        <v>1.7245213890633071</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.11414549500430665</v>
+        <v>0.17211138912164711</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6103758940588757</v>
+        <v>1.8966327781849541</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.11414549500431814</v>
+        <v>0.17211138912176027</v>
       </c>
       <c r="L99">
         <f t="shared" si="20"/>
@@ -17181,11 +17181,11 @@
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="22"/>
-        <v>4.660192446796942</v>
+        <v>4.6321039450611252</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="23"/>
-        <v>4.6013428532826506</v>
+        <v>4.5702752195339107</v>
       </c>
       <c r="P99">
         <f t="shared" si="16"/>
@@ -17206,23 +17206,23 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.3720652971404158E-14</v>
+        <v>1.6410918284422579E-13</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6900309612818762</v>
+        <v>1.6900309612820941</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="14"/>
-        <v>-8.1552855393307574E-2</v>
+        <v>-1.9544924541452062E-2</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6084781058885687</v>
+        <v>1.670486036740642</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="15"/>
-        <v>-8.1552855393361323E-2</v>
+        <v>-1.9544924541287978E-2</v>
       </c>
       <c r="L100">
         <f t="shared" si="20"/>
@@ -17234,11 +17234,11 @@
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="22"/>
-        <v>4.6259035216181958</v>
+        <v>4.5988273393496595</v>
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5669885978610028</v>
+        <v>4.5394618661599022</v>
       </c>
       <c r="P100">
         <f t="shared" si="16"/>
@@ -17259,23 +17259,23 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.8243221996253605E-13</v>
+        <v>7.496389795217453E-13</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="18"/>
-        <v>1.656230342055709</v>
+        <v>1.656230342057041</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="14"/>
-        <v>0.32459613958921146</v>
+        <v>-0.31304694310361225</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9808264816449204</v>
+        <v>1.3431833989534288</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32459613958862898</v>
+        <v>-0.31304694310286263</v>
       </c>
       <c r="L101">
         <f t="shared" si="20"/>
@@ -17287,11 +17287,11 @@
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="22"/>
-        <v>4.596513776729604</v>
+        <v>4.562653517789701</v>
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5333854511858318</v>
+        <v>4.5068507925626662</v>
       </c>
       <c r="P101">
         <f t="shared" si="16"/>
@@ -17312,23 +17312,23 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0526537288820659E-12</v>
+        <v>-9.5603423364928395E-13</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6231057352162181</v>
+        <v>1.6231057352142093</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.2486242802411602E-2</v>
+        <v>0.22931569408664224</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5506194924138066</v>
+        <v>1.8524214293008516</v>
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="15"/>
-        <v>-7.2486242801358847E-2</v>
+        <v>0.22931569408568619</v>
       </c>
       <c r="L102">
         <f t="shared" si="20"/>
@@ -17340,11 +17340,11 @@
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="22"/>
-        <v>4.563042410967892</v>
+        <v>4.5328707475865269</v>
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5045835011950119</v>
+        <v>4.4714004474339069</v>
       </c>
       <c r="P102">
         <f t="shared" si="16"/>
@@ -17365,23 +17365,23 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="13"/>
-        <v>-9.9406255861189425E-13</v>
+        <v>-6.3310356678684922E-13</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="18"/>
-        <v>1.590643620509868</v>
+        <v>1.590643620510229</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.31157680938108973</v>
+        <v>-2.9133340221406363E-2</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2790668111287782</v>
+        <v>1.5615102802888225</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.31157680938208387</v>
+        <v>-2.9133340222039505E-2</v>
       </c>
       <c r="L103">
         <f t="shared" si="20"/>
@@ -17393,11 +17393,11 @@
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="22"/>
-        <v>4.5273470240131193</v>
+        <v>4.5005733512028563</v>
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="23"/>
-        <v>4.471781562748534</v>
+        <v>4.4422133326347959</v>
       </c>
       <c r="P103">
         <f t="shared" si="16"/>
@@ -17418,23 +17418,23 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="13"/>
-        <v>2.9208006254013935E-13</v>
+        <v>-8.7222873316019332E-14</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="18"/>
-        <v>1.5588307481009367</v>
+        <v>1.5588307481005574</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.1673891595189761E-2</v>
+        <v>0.10249121270988695</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="19"/>
-        <v>1.527156856505747</v>
+        <v>1.6613219608104444</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="15"/>
-        <v>-3.1673891594897752E-2</v>
+        <v>0.10249121270979966</v>
       </c>
       <c r="L104">
         <f t="shared" si="20"/>
@@ -17446,11 +17446,11 @@
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4950869146850829</v>
+        <v>4.4700437663599271</v>
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="23"/>
-        <v>4.4368000835328569</v>
+        <v>4.410561884178799</v>
       </c>
       <c r="P104">
         <f t="shared" si="16"/>
@@ -17471,23 +17471,23 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2423473791543923E-13</v>
+        <v>-2.5346401458270861E-13</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="18"/>
-        <v>1.527654133139156</v>
+        <v>1.5276541331383782</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.26735216282281526</v>
+        <v>0.24598490625855962</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2603019703163407</v>
+        <v>1.7736390393969379</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.26735216282229102</v>
+        <v>0.24598490625830616</v>
       </c>
       <c r="L105">
         <f t="shared" si="20"/>
@@ -17499,11 +17499,11 @@
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4606743088939265</v>
+        <v>4.4413586096901083</v>
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="23"/>
-        <v>4.405185176391381</v>
+        <v>4.3806428910327284</v>
       </c>
       <c r="P105">
         <f t="shared" si="16"/>
@@ -17524,23 +17524,23 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.1253980058562373E-12</v>
+        <v>2.0775949492397781E-12</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4971010504747337</v>
+        <v>1.4971010504779367</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="14"/>
-        <v>0.12457261595172991</v>
+        <v>0.42176229633493895</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6216736664264637</v>
+        <v>1.9188633468128757</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="15"/>
-        <v>0.12457261595060465</v>
+        <v>0.42176229633701667</v>
       </c>
       <c r="L106">
         <f t="shared" si="20"/>
@@ -17552,11 +17552,11 @@
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4307900916047949</v>
+        <v>4.4148060279756107</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="23"/>
-        <v>4.3714608227160481</v>
+        <v>4.3525314374963058</v>
       </c>
       <c r="P106">
         <f t="shared" si="16"/>
@@ -17577,23 +17577,23 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.246815116138536E-12</v>
+        <v>-6.969434706030283E-13</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="18"/>
-        <v>1.467159029464095</v>
+        <v>1.4671590294656449</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.16741355603533581</v>
+        <v>-5.823687603467699E-2</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2997454734287592</v>
+        <v>1.4089221534309679</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.16741355603758268</v>
+        <v>-5.8236876035373975E-2</v>
       </c>
       <c r="L107">
         <f t="shared" si="20"/>
@@ -17605,11 +17605,11 @@
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3981750434987941</v>
+        <v>4.3834947376157709</v>
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="23"/>
-        <v>4.3421742897726991</v>
+        <v>4.3265099074160984</v>
       </c>
       <c r="P107">
         <f t="shared" si="16"/>
@@ -17630,23 +17630,23 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7816907806099111E-13</v>
+        <v>-1.4952290975361173E-12</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4378158488773931</v>
+        <v>1.4378158488755197</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="14"/>
-        <v>-6.4446764818694699E-2</v>
+        <v>-4.3018576442536037E-3</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3733690840586985</v>
+        <v>1.4335139912312662</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="15"/>
-        <v>-6.444676481831646E-2</v>
+        <v>-4.3018576457487523E-3</v>
       </c>
       <c r="L108">
         <f t="shared" si="20"/>
@@ -17658,11 +17658,11 @@
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3669914769066285</v>
+        <v>4.3530825649726319</v>
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="23"/>
-        <v>4.3102115426288181</v>
+        <v>4.2958248428634551</v>
       </c>
       <c r="P108">
         <f t="shared" si="16"/>
@@ -17683,23 +17683,23 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.5925196997875922E-13</v>
+        <v>-2.0386533701633654E-12</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4090595318989154</v>
+        <v>1.4090595318974362</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.13112925196563421</v>
+        <v>-0.15727530065827397</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2779302799332812</v>
+        <v>1.2517842312391623</v>
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.13112925196619352</v>
+        <v>-0.15727530066031248</v>
       </c>
       <c r="L109">
         <f t="shared" si="20"/>
@@ -17711,11 +17711,11 @@
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3354704442844518</v>
+        <v>4.3214366636080044</v>
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="23"/>
-        <v>4.279651647368496</v>
+        <v>4.266020913673179</v>
       </c>
       <c r="P109">
         <f t="shared" si="16"/>
@@ -17736,23 +17736,23 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.284319806827676E-12</v>
+        <v>9.3466789053475084E-14</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3808783412592007</v>
+        <v>1.3808783412615786</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="14"/>
-        <v>0.13916430775063945</v>
+        <v>0.10262133777222007</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5200426490098402</v>
+        <v>1.4834996790337986</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="15"/>
-        <v>0.13916430774835509</v>
+        <v>0.10262133777231353</v>
       </c>
       <c r="L110">
         <f t="shared" si="20"/>
@@ -17764,11 +17764,11 @@
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="22"/>
-        <v>4.307031779685718</v>
+        <v>4.2927706334607905</v>
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="23"/>
-        <v>4.248761035398763</v>
+        <v>4.2350079303358443</v>
       </c>
       <c r="P110">
         <f t="shared" si="16"/>
@@ -17789,23 +17789,23 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="13"/>
-        <v>-2.1841318335879468E-12</v>
+        <v>1.0211531772022161E-13</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3532607744340714</v>
+        <v>1.3532607744363576</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="14"/>
-        <v>-9.0977643125697963E-2</v>
+        <v>0.50907355596092774</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2622831313083736</v>
+        <v>1.8623343303972852</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="15"/>
-        <v>-9.0977643127881924E-2</v>
+        <v>0.50907355596102977</v>
       </c>
       <c r="L111">
         <f t="shared" si="20"/>
@@ -17817,11 +17817,11 @@
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="22"/>
-        <v>4.2765842932019442</v>
+        <v>4.2684662704301557</v>
       </c>
       <c r="O111">
         <f t="shared" ca="1" si="23"/>
-        <v>4.2208911440920032</v>
+        <v>4.2069152207915748</v>
       </c>
       <c r="P111">
         <f t="shared" si="16"/>
@@ -17842,23 +17842,23 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="13"/>
-        <v>-9.8068517646278347E-13</v>
+        <v>-6.7025708418297338E-13</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3261955589465495</v>
+        <v>1.3261955589468599</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.28445429050011628</v>
+        <v>0.14872001116052966</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0417412684464331</v>
+        <v>1.4749155701073895</v>
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.28445429050109716</v>
+        <v>0.14872001115985922</v>
       </c>
       <c r="L112">
         <f t="shared" si="20"/>
@@ -17870,11 +17870,11 @@
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="22"/>
-        <v>4.2445561444419884</v>
+        <v>4.2408073526051782</v>
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="23"/>
-        <v>4.1910526073379053</v>
+        <v>4.1830969450215525</v>
       </c>
       <c r="P112">
         <f t="shared" si="16"/>
